--- a/otmazy_words.xlsx
+++ b/otmazy_words.xlsx
@@ -6,13 +6,11 @@
     <sheet state="visible" name="spice" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="subj" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="glagol" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="glagol_new" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="predlog" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="object" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="event" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="destination" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="context" sheetId="9" r:id="rId12"/>
-    <sheet state="hidden" name="слова v1" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="predlog" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="context" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="noun" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="verb" sheetId="7" r:id="rId10"/>
+    <sheet state="hidden" name="слова v1" sheetId="8" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -20,35 +18,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="218">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>glagol</t>
+  </si>
+  <si>
     <t>субъект</t>
   </si>
   <si>
-    <t>glagol</t>
+    <t>спайс</t>
+  </si>
+  <si>
+    <t>object</t>
   </si>
   <si>
     <t>тип субъекта</t>
   </si>
   <si>
+    <t>destination</t>
+  </si>
+  <si>
     <t>начало</t>
   </si>
   <si>
-    <t>object</t>
-  </si>
-  <si>
-    <t>destination</t>
-  </si>
-  <si>
     <t>event</t>
   </si>
   <si>
-    <t>спайс</t>
-  </si>
-  <si>
     <t>inanimate_obj</t>
   </si>
   <si>
@@ -58,70 +56,76 @@
     <t>movable_obj</t>
   </si>
   <si>
+    <t>sklonenie_object</t>
+  </si>
+  <si>
+    <t>sklonenie_destination</t>
+  </si>
+  <si>
+    <t>склонение_место</t>
+  </si>
+  <si>
+    <t>извини</t>
+  </si>
+  <si>
     <t>я</t>
   </si>
   <si>
-    <t>извини</t>
+    <t>везти</t>
+  </si>
+  <si>
+    <t>увы</t>
   </si>
   <si>
     <t>должен</t>
   </si>
   <si>
-    <t>увы</t>
+    <t>к сожалению</t>
+  </si>
+  <si>
+    <t>accs</t>
+  </si>
+  <si>
+    <t>эх</t>
+  </si>
+  <si>
+    <t>вести</t>
   </si>
   <si>
     <t>собираюсь</t>
   </si>
   <si>
-    <t>sklonenie_object</t>
-  </si>
-  <si>
-    <t>sklonenie_destination</t>
-  </si>
-  <si>
-    <t>к сожалению</t>
-  </si>
-  <si>
-    <t>склонение_место</t>
+    <t>сорян</t>
+  </si>
+  <si>
+    <t>блин</t>
   </si>
   <si>
     <t>обещал</t>
   </si>
   <si>
-    <t>эх</t>
-  </si>
-  <si>
-    <t>везти</t>
+    <t>вот чёрт</t>
   </si>
   <si>
     <t>хотел</t>
   </si>
   <si>
-    <t>сорян</t>
-  </si>
-  <si>
-    <t>блин</t>
+    <t>забрать</t>
+  </si>
+  <si>
+    <t>совсем забыл</t>
   </si>
   <si>
     <t>буду</t>
   </si>
   <si>
-    <t>вот чёрт</t>
-  </si>
-  <si>
-    <t>accs</t>
+    <t>я бы с радостью, но</t>
   </si>
   <si>
     <t>давно собираюсь</t>
   </si>
   <si>
-    <t>совсем забыл</t>
-  </si>
-  <si>
-    <t>вести</t>
-  </si>
-  <si>
-    <t>я бы с радостью, но</t>
+    <t>отвезти</t>
   </si>
   <si>
     <t>давно обещал</t>
@@ -130,15 +134,9 @@
     <t>чёрт</t>
   </si>
   <si>
-    <t>забрать</t>
-  </si>
-  <si>
     <t>очень хотел</t>
   </si>
   <si>
-    <t>отвезти</t>
-  </si>
-  <si>
     <t>отвести</t>
   </si>
   <si>
@@ -157,12 +155,12 @@
     <t>надо</t>
   </si>
   <si>
+    <t>очень надо</t>
+  </si>
+  <si>
     <t>отнести</t>
   </si>
   <si>
-    <t>очень надо</t>
-  </si>
-  <si>
     <t>придется</t>
   </si>
   <si>
@@ -190,19 +188,28 @@
     <t>стоит</t>
   </si>
   <si>
+    <t>сходить</t>
+  </si>
+  <si>
     <t>давно стоит</t>
   </si>
   <si>
+    <t>loc2</t>
+  </si>
+  <si>
     <t>явно придется</t>
   </si>
   <si>
-    <t>сходить</t>
+    <t>убраться</t>
   </si>
   <si>
     <t>явно стоит</t>
   </si>
   <si>
-    <t>loc2</t>
+    <t>loct</t>
+  </si>
+  <si>
+    <t>прийти</t>
   </si>
   <si>
     <t>явно надо</t>
@@ -211,24 +218,15 @@
     <t>страшно надо</t>
   </si>
   <si>
+    <t>позаботиться о</t>
+  </si>
+  <si>
     <t>критически важно</t>
   </si>
   <si>
-    <t>убраться</t>
-  </si>
-  <si>
     <t>очень важно</t>
   </si>
   <si>
-    <t>loct</t>
-  </si>
-  <si>
-    <t>прийти</t>
-  </si>
-  <si>
-    <t>позаботиться о</t>
-  </si>
-  <si>
     <t>решить вопрос с</t>
   </si>
   <si>
@@ -250,15 +248,36 @@
     <t>создать</t>
   </si>
   <si>
+    <t>predlog</t>
+  </si>
+  <si>
+    <t>к</t>
+  </si>
+  <si>
     <t>склепать</t>
   </si>
   <si>
+    <t>в</t>
+  </si>
+  <si>
     <t>забабахать</t>
   </si>
   <si>
+    <t>из</t>
+  </si>
+  <si>
+    <t>от</t>
+  </si>
+  <si>
+    <t>на</t>
+  </si>
+  <si>
     <t>заебенить</t>
   </si>
   <si>
+    <t>о</t>
+  </si>
+  <si>
     <t>сделать</t>
   </si>
   <si>
@@ -280,90 +299,150 @@
     <t>запланировать</t>
   </si>
   <si>
-    <t>predlog</t>
-  </si>
-  <si>
-    <t>к</t>
-  </si>
-  <si>
-    <t>в</t>
-  </si>
-  <si>
-    <t>из</t>
-  </si>
-  <si>
-    <t>от</t>
-  </si>
-  <si>
-    <t>на</t>
-  </si>
-  <si>
-    <t>о</t>
-  </si>
-  <si>
-    <t>animate</t>
-  </si>
-  <si>
-    <t>movable</t>
-  </si>
-  <si>
-    <t>context</t>
+    <t>контекст</t>
+  </si>
+  <si>
+    <t>работа</t>
+  </si>
+  <si>
+    <t>семья</t>
+  </si>
+  <si>
+    <t>друзья</t>
+  </si>
+  <si>
+    <t>noun</t>
+  </si>
+  <si>
+    <t>obj</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>type_alt</t>
+  </si>
+  <si>
+    <t>predlog_if_obst</t>
   </si>
   <si>
     <t>собака</t>
   </si>
   <si>
+    <t>thing</t>
+  </si>
+  <si>
     <t>кошка</t>
   </si>
   <si>
     <t>жена</t>
   </si>
   <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>Слово</t>
+  </si>
+  <si>
+    <t>Теги</t>
+  </si>
+  <si>
     <t>ребенок</t>
   </si>
   <si>
+    <t>пробка</t>
+  </si>
+  <si>
     <t>дети</t>
   </si>
   <si>
+    <t>noun_alt</t>
+  </si>
+  <si>
+    <t>to_be</t>
+  </si>
+  <si>
     <t>дочь</t>
   </si>
   <si>
+    <t>move</t>
+  </si>
+  <si>
     <t>сын</t>
   </si>
   <si>
     <t>друг</t>
   </si>
   <si>
+    <t>remove</t>
+  </si>
+  <si>
     <t>подруга</t>
   </si>
   <si>
+    <t>совещание</t>
+  </si>
+  <si>
+    <t>планерка</t>
+  </si>
+  <si>
     <t>отец</t>
   </si>
   <si>
+    <t>аврал</t>
+  </si>
+  <si>
     <t>мать</t>
   </si>
   <si>
+    <t>ремонт</t>
+  </si>
+  <si>
     <t>квартира</t>
   </si>
   <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>автомастерская</t>
+  </si>
+  <si>
     <t>дом</t>
   </si>
   <si>
     <t>кухня</t>
   </si>
   <si>
+    <t>place_open</t>
+  </si>
+  <si>
+    <t>travel</t>
+  </si>
+  <si>
     <t>ванная</t>
   </si>
   <si>
+    <t>goal</t>
+  </si>
+  <si>
     <t>туалет</t>
   </si>
   <si>
     <t>ноутбук</t>
   </si>
   <si>
+    <t>позаботиться</t>
+  </si>
+  <si>
     <t>телефон</t>
   </si>
   <si>
+    <t>решить</t>
+  </si>
+  <si>
     <t>смартфон</t>
   </si>
   <si>
@@ -373,21 +452,45 @@
     <t>тёща</t>
   </si>
   <si>
+    <t>project</t>
+  </si>
+  <si>
     <t>тесть</t>
   </si>
   <si>
+    <t>курсы</t>
+  </si>
+  <si>
     <t>свекровь</t>
   </si>
   <si>
+    <t>обучение</t>
+  </si>
+  <si>
     <t>свёкр</t>
   </si>
   <si>
+    <t>ЖЭК</t>
+  </si>
+  <si>
+    <t>нотариус</t>
+  </si>
+  <si>
     <t>бабушка</t>
   </si>
   <si>
+    <t>гипермаркет</t>
+  </si>
+  <si>
     <t>дедушка</t>
   </si>
   <si>
+    <t>врач</t>
+  </si>
+  <si>
+    <t>доктор</t>
+  </si>
+  <si>
     <t>дядя</t>
   </si>
   <si>
@@ -406,22 +509,64 @@
     <t>мебель</t>
   </si>
   <si>
+    <t>подумать</t>
+  </si>
+  <si>
     <t>телек</t>
   </si>
   <si>
+    <t>убирать</t>
+  </si>
+  <si>
     <t>ноут</t>
   </si>
   <si>
-    <t>sklon</t>
-  </si>
-  <si>
-    <t>планерка</t>
-  </si>
-  <si>
-    <t>курсы</t>
-  </si>
-  <si>
-    <t>обучение</t>
+    <t>добраться</t>
+  </si>
+  <si>
+    <t>идти</t>
+  </si>
+  <si>
+    <t>выбраться</t>
+  </si>
+  <si>
+    <t>ветеринар</t>
+  </si>
+  <si>
+    <t>зайти</t>
+  </si>
+  <si>
+    <t>вернуть</t>
+  </si>
+  <si>
+    <t>забежать</t>
+  </si>
+  <si>
+    <t>съездить</t>
+  </si>
+  <si>
+    <t>поехать</t>
+  </si>
+  <si>
+    <t>заняться</t>
+  </si>
+  <si>
+    <t>центр госуслуг</t>
+  </si>
+  <si>
+    <t>сгонять</t>
+  </si>
+  <si>
+    <t>родственники</t>
+  </si>
+  <si>
+    <t>дача</t>
+  </si>
+  <si>
+    <t>хранение</t>
+  </si>
+  <si>
+    <t>банк</t>
   </si>
   <si>
     <t>свадьба</t>
@@ -463,94 +608,70 @@
     <t>званый приём</t>
   </si>
   <si>
-    <t>назначение</t>
-  </si>
-  <si>
-    <t>контекст</t>
-  </si>
-  <si>
-    <t>предлог</t>
-  </si>
-  <si>
-    <t>склонение</t>
-  </si>
-  <si>
-    <t>автомастерская</t>
-  </si>
-  <si>
-    <t>ремонт</t>
-  </si>
-  <si>
-    <t>гипермаркет</t>
-  </si>
-  <si>
-    <t>ЖЭК</t>
-  </si>
-  <si>
-    <t>нотариус</t>
-  </si>
-  <si>
-    <t>datv</t>
-  </si>
-  <si>
-    <t>врач</t>
-  </si>
-  <si>
-    <t>доктор</t>
-  </si>
-  <si>
-    <t>центр госуслуг</t>
-  </si>
-  <si>
-    <t>совещание</t>
-  </si>
-  <si>
-    <t>родственники</t>
-  </si>
-  <si>
-    <t>дача</t>
-  </si>
-  <si>
-    <t>хранение</t>
-  </si>
-  <si>
-    <t>банк</t>
-  </si>
-  <si>
-    <t>работа</t>
-  </si>
-  <si>
-    <t>семья</t>
-  </si>
-  <si>
-    <t>друзья</t>
-  </si>
-  <si>
-    <t>Слово</t>
-  </si>
-  <si>
-    <t>Теги</t>
-  </si>
-  <si>
-    <t>пробка</t>
-  </si>
-  <si>
-    <t>аврал</t>
-  </si>
-  <si>
-    <t>идти</t>
-  </si>
-  <si>
-    <t>ветеринар</t>
-  </si>
-  <si>
-    <t>вернуть</t>
-  </si>
-  <si>
-    <t>позаботиться</t>
-  </si>
-  <si>
-    <t>заняться</t>
+    <t>вокзал</t>
+  </si>
+  <si>
+    <t>аэропорт</t>
+  </si>
+  <si>
+    <t>автовокзал</t>
+  </si>
+  <si>
+    <t>почта</t>
+  </si>
+  <si>
+    <t>рынок</t>
+  </si>
+  <si>
+    <t>фестиваль</t>
+  </si>
+  <si>
+    <t>конкурс</t>
+  </si>
+  <si>
+    <t>осмотр</t>
+  </si>
+  <si>
+    <t>проверка</t>
+  </si>
+  <si>
+    <t>проект</t>
+  </si>
+  <si>
+    <t>задание</t>
+  </si>
+  <si>
+    <t>план проекта</t>
+  </si>
+  <si>
+    <t>план</t>
+  </si>
+  <si>
+    <t>диплом</t>
+  </si>
+  <si>
+    <t>уборка</t>
+  </si>
+  <si>
+    <t>картина</t>
+  </si>
+  <si>
+    <t>книга</t>
+  </si>
+  <si>
+    <t>гобелен</t>
+  </si>
+  <si>
+    <t>скульптура</t>
+  </si>
+  <si>
+    <t>мемуары</t>
+  </si>
+  <si>
+    <t>маникюр</t>
+  </si>
+  <si>
+    <t>педикюр</t>
   </si>
 </sst>
 </file>
@@ -619,10 +740,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
@@ -648,10 +765,6 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -859,6 +972,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="3.14"/>
     <col customWidth="1" min="2" max="2" width="20.57"/>
   </cols>
   <sheetData>
@@ -867,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
@@ -875,7 +989,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -883,7 +997,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -891,7 +1005,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -947,308 +1061,7 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="21.29"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="s">
-        <v>176</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1277,13 +1090,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
@@ -1291,13 +1104,13 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
         <v>1.0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -1305,13 +1118,13 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2">
         <v>1.0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -1319,13 +1132,13 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>1.0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
@@ -1333,13 +1146,13 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2">
         <v>1.0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -1347,13 +1160,13 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2">
         <v>1.0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -1361,13 +1174,13 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2">
         <v>1.0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -1375,13 +1188,13 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2">
         <v>1.0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
@@ -1389,13 +1202,13 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2">
         <v>1.0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
@@ -1403,7 +1216,7 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2">
         <v>1.0</v>
@@ -1417,7 +1230,7 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2">
         <v>1.0</v>
@@ -1451,7 +1264,7 @@
         <v>2.0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
@@ -1549,7 +1362,7 @@
         <v>2.0</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21">
@@ -1563,7 +1376,7 @@
         <v>2.0</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22">
@@ -1577,7 +1390,7 @@
         <v>2.0</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23">
@@ -1591,7 +1404,7 @@
         <v>2.0</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24">
@@ -1605,7 +1418,7 @@
         <v>2.0</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25">
@@ -1619,7 +1432,7 @@
         <v>2.0</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26">
@@ -1633,7 +1446,7 @@
         <v>2.0</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1669,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>9</v>
@@ -1686,17 +1499,17 @@
       <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2">
@@ -1704,7 +1517,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2">
         <v>1.0</v>
@@ -1721,11 +1534,11 @@
       <c r="G2" s="2">
         <v>0.0</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="2">
         <v>1.0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -1733,7 +1546,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2">
         <v>1.0</v>
@@ -1750,11 +1563,11 @@
       <c r="G3" s="2">
         <v>1.0</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="2">
         <v>1.0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -1762,7 +1575,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2">
         <v>1.0</v>
@@ -1779,11 +1592,11 @@
       <c r="G4" s="2">
         <v>1.0</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="2">
         <v>1.0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
@@ -1791,7 +1604,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2">
         <v>1.0</v>
@@ -1808,11 +1621,11 @@
       <c r="G5" s="2">
         <v>1.0</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="2">
         <v>1.0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -1837,11 +1650,11 @@
       <c r="G6" s="2">
         <v>1.0</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="2">
         <v>1.0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
@@ -1866,11 +1679,11 @@
       <c r="G7" s="2">
         <v>0.0</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="2">
         <v>1.0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -1878,7 +1691,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2">
         <v>1.0</v>
@@ -1895,11 +1708,11 @@
       <c r="G8" s="2">
         <v>0.0</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="2">
         <v>1.0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
@@ -1924,11 +1737,11 @@
       <c r="G9" s="2">
         <v>0.0</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="2">
         <v>1.0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
@@ -1953,11 +1766,11 @@
       <c r="G10" s="2">
         <v>0.0</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="2">
         <v>1.0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
@@ -1984,7 +1797,7 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
@@ -1992,7 +1805,7 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C12" s="2">
         <v>0.0</v>
@@ -2011,7 +1824,7 @@
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13">
@@ -2019,7 +1832,7 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C13" s="2">
         <v>0.0</v>
@@ -2037,8 +1850,8 @@
         <v>0.0</v>
       </c>
       <c r="H13" s="2"/>
-      <c r="I13" s="4" t="s">
-        <v>66</v>
+      <c r="I13" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="14">
@@ -2046,7 +1859,7 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C14" s="2">
         <v>0.0</v>
@@ -2065,7 +1878,7 @@
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
@@ -2073,7 +1886,7 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C15" s="2">
         <v>1.0</v>
@@ -2081,7 +1894,7 @@
       <c r="D15" s="2">
         <v>0.0</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="2">
         <v>0.0</v>
       </c>
       <c r="F15" s="2">
@@ -2092,7 +1905,7 @@
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16">
@@ -2108,7 +1921,7 @@
       <c r="D16" s="2">
         <v>0.0</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="2">
         <v>1.0</v>
       </c>
       <c r="F16" s="2">
@@ -2146,7 +1959,7 @@
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
@@ -2173,7 +1986,7 @@
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
@@ -2200,7 +2013,7 @@
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
@@ -2227,7 +2040,7 @@
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
@@ -2254,7 +2067,7 @@
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
@@ -2262,7 +2075,7 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C22" s="2">
         <v>1.0</v>
@@ -2281,7 +2094,7 @@
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
@@ -2289,7 +2102,7 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C23" s="2">
         <v>0.0</v>
@@ -2308,7 +2121,7 @@
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
@@ -2316,7 +2129,7 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C24" s="2">
         <v>0.0</v>
@@ -2335,7 +2148,7 @@
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
@@ -2343,7 +2156,7 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C25" s="2">
         <v>0.0</v>
@@ -2362,7 +2175,7 @@
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26">
@@ -2370,7 +2183,7 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C26" s="2">
         <v>1.0</v>
@@ -2389,7 +2202,7 @@
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
@@ -2397,7 +2210,7 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C27" s="2">
         <v>1.0</v>
@@ -2416,7 +2229,7 @@
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
@@ -2424,7 +2237,7 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C28" s="2">
         <v>1.0</v>
@@ -2443,7 +2256,7 @@
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
@@ -2451,7 +2264,7 @@
         <v>28.0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C29" s="2">
         <v>1.0</v>
@@ -2459,7 +2272,7 @@
       <c r="D29" s="2">
         <v>0.0</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="2">
         <v>1.0</v>
       </c>
       <c r="F29" s="2">
@@ -2470,7 +2283,7 @@
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">
@@ -2478,7 +2291,7 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C30" s="2">
         <v>1.0</v>
@@ -2497,7 +2310,7 @@
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31">
@@ -2505,7 +2318,7 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C31" s="2">
         <v>0.0</v>
@@ -2523,7 +2336,7 @@
         <v>0.0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2540,17 +2353,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="3.14"/>
-    <col customWidth="1" min="2" max="2" width="17.14"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
@@ -2558,7 +2367,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
@@ -2566,7 +2375,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
@@ -2574,7 +2383,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
@@ -2582,7 +2391,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
@@ -2590,7 +2399,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
@@ -2598,191 +2407,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2">
-        <v>16.0</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2">
-        <v>17.0</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2">
-        <v>18.0</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2">
-        <v>19.0</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2">
-        <v>21.0</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2">
-        <v>22.0</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2">
-        <v>23.0</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2">
-        <v>24.0</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2">
-        <v>25.0</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2">
-        <v>26.0</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2">
-        <v>27.0</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2">
-        <v>28.0</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2">
-        <v>29.0</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2805,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2">
@@ -2813,7 +2438,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3">
@@ -2821,7 +2446,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4">
@@ -2829,31 +2454,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2864,6 +2465,804 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <tabColor rgb="FF990000"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="2.86"/>
+    <col customWidth="1" min="2" max="2" width="15.0"/>
+    <col customWidth="1" min="3" max="3" width="3.86"/>
+    <col customWidth="1" min="4" max="4" width="6.29"/>
+    <col customWidth="1" min="5" max="5" width="6.86"/>
+    <col customWidth="1" min="6" max="7" width="15.14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FF1155CC"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
@@ -2872,7 +3271,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="3.14"/>
-    <col customWidth="1" min="3" max="3" width="10.0"/>
+    <col customWidth="1" min="2" max="2" width="17.14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2880,19 +3279,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>94</v>
+        <v>100</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>113</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="2">
@@ -2900,13 +3302,13 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1.0</v>
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="3">
@@ -2914,13 +3316,13 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1.0</v>
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="4">
@@ -2928,13 +3330,16 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1.0</v>
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="5">
@@ -2942,13 +3347,13 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1.0</v>
+        <v>35</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="6">
@@ -2956,13 +3361,13 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1.0</v>
+        <v>39</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="7">
@@ -2970,13 +3375,13 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1.0</v>
+        <v>43</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="8">
@@ -2984,13 +3389,13 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1.0</v>
+        <v>46</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="9">
@@ -2998,13 +3403,13 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1.0</v>
+        <v>48</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="10">
@@ -3012,13 +3417,13 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -3026,13 +3431,16 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1.0</v>
+        <v>54</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="12">
@@ -3040,13 +3448,16 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1.0</v>
+        <v>56</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="13">
@@ -3054,13 +3465,13 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.0</v>
+        <v>60</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="14">
@@ -3068,13 +3479,16 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.0</v>
+        <v>63</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="15">
@@ -3082,13 +3496,13 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.0</v>
+        <v>138</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="16">
@@ -3096,13 +3510,16 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.0</v>
+        <v>140</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="17">
@@ -3110,13 +3527,13 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.0</v>
+        <v>71</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="18">
@@ -3124,13 +3541,13 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1.0</v>
+        <v>72</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="19">
@@ -3138,13 +3555,13 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1.0</v>
+        <v>73</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="20">
@@ -3152,13 +3569,13 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1.0</v>
+        <v>74</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="21">
@@ -3166,13 +3583,13 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1.0</v>
+        <v>75</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="22">
@@ -3180,13 +3597,13 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1.0</v>
+        <v>78</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="23">
@@ -3194,13 +3611,13 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D23" s="2">
-        <v>1.0</v>
+        <v>80</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="24">
@@ -3208,13 +3625,13 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D24" s="2">
-        <v>1.0</v>
+        <v>84</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="25">
@@ -3222,13 +3639,13 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1.0</v>
+        <v>86</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="26">
@@ -3236,13 +3653,16 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D26" s="2">
-        <v>1.0</v>
+        <v>87</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="27">
@@ -3250,13 +3670,13 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D27" s="2">
-        <v>1.0</v>
+        <v>88</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="28">
@@ -3264,13 +3684,13 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D28" s="2">
-        <v>1.0</v>
+        <v>89</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="29">
@@ -3278,13 +3698,16 @@
         <v>28.0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D29" s="2">
-        <v>1.0</v>
+        <v>90</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -3292,13 +3715,16 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D30" s="2">
-        <v>1.0</v>
+        <v>163</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -3306,13 +3732,13 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D31" s="2">
-        <v>1.0</v>
+        <v>165</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="32">
@@ -3320,13 +3746,16 @@
         <v>31.0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D32" s="2">
-        <v>1.0</v>
+        <v>167</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -3334,13 +3763,16 @@
         <v>32.0</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D33" s="4">
-        <v>0.0</v>
+        <v>169</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -3348,13 +3780,13 @@
         <v>33.0</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C34" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D34" s="2">
-        <v>1.0</v>
       </c>
     </row>
     <row r="35">
@@ -3362,221 +3794,89 @@
         <v>34.0</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C35" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D35" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="B2" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>29</v>
+      <c r="E35" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2">
+        <v>35.0</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2">
+        <v>36.0</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2">
+        <v>37.0</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2">
+        <v>38.0</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2">
+        <v>39.0</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3594,308 +3894,290 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.29"/>
-    <col customWidth="1" min="2" max="2" width="16.43"/>
-    <col customWidth="1" min="4" max="4" width="8.71"/>
+    <col customWidth="1" min="1" max="1" width="21.29"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="2" t="s">
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="2" t="s">
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2">
-        <v>16.0</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2">
-        <v>17.0</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>167</v>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/otmazy_words.xlsx
+++ b/otmazy_words.xlsx
@@ -3,11 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="spice" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="subj" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="glagol" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="predlog" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="context" sheetId="5" r:id="rId8"/>
+    <sheet state="hidden" name="subj" sheetId="1" r:id="rId4"/>
+    <sheet state="hidden" name="glagol" sheetId="2" r:id="rId5"/>
+    <sheet state="hidden" name="predlog" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="context" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="beginning" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="noun" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="verb" sheetId="7" r:id="rId10"/>
     <sheet state="hidden" name="слова v1" sheetId="8" r:id="rId11"/>
@@ -18,323 +18,356 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="246">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>predlog</t>
+  </si>
+  <si>
     <t>glagol</t>
   </si>
   <si>
     <t>субъект</t>
   </si>
   <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>тип субъекта</t>
+  </si>
+  <si>
+    <t>destination</t>
+  </si>
+  <si>
+    <t>начало</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t>inanimate_obj</t>
+  </si>
+  <si>
+    <t>animate_obj</t>
+  </si>
+  <si>
+    <t>movable_obj</t>
+  </si>
+  <si>
+    <t>sklonenie_object</t>
+  </si>
+  <si>
+    <t>sklonenie_destination</t>
+  </si>
+  <si>
+    <t>склонение_место</t>
+  </si>
+  <si>
+    <t>к</t>
+  </si>
+  <si>
+    <t>в</t>
+  </si>
+  <si>
+    <t>из</t>
+  </si>
+  <si>
+    <t>от</t>
+  </si>
+  <si>
+    <t>на</t>
+  </si>
+  <si>
+    <t>о</t>
+  </si>
+  <si>
+    <t>везти</t>
+  </si>
+  <si>
+    <t>accs</t>
+  </si>
+  <si>
+    <t>вести</t>
+  </si>
+  <si>
+    <t>забрать</t>
+  </si>
+  <si>
+    <t>отвезти</t>
+  </si>
+  <si>
+    <t>отвести</t>
+  </si>
+  <si>
+    <t>принести</t>
+  </si>
+  <si>
+    <t>отнести</t>
+  </si>
+  <si>
+    <t>сдать</t>
+  </si>
+  <si>
+    <t>отправить</t>
+  </si>
+  <si>
+    <t>убрать</t>
+  </si>
+  <si>
+    <t>сходить</t>
+  </si>
+  <si>
+    <t>loc2</t>
+  </si>
+  <si>
+    <t>убраться</t>
+  </si>
+  <si>
+    <t>loct</t>
+  </si>
+  <si>
+    <t>прийти</t>
+  </si>
+  <si>
+    <t>позаботиться о</t>
+  </si>
+  <si>
+    <t>решить вопрос с</t>
+  </si>
+  <si>
+    <t>ablt</t>
+  </si>
+  <si>
+    <t>уехать</t>
+  </si>
+  <si>
+    <t>отремонтировать</t>
+  </si>
+  <si>
+    <t>доделать</t>
+  </si>
+  <si>
+    <t>подбросить</t>
+  </si>
+  <si>
+    <t>создать</t>
+  </si>
+  <si>
+    <t>склепать</t>
+  </si>
+  <si>
+    <t>забабахать</t>
+  </si>
+  <si>
+    <t>заебенить</t>
+  </si>
+  <si>
+    <t>сделать</t>
+  </si>
+  <si>
+    <t>довезти</t>
+  </si>
+  <si>
+    <t>довести</t>
+  </si>
+  <si>
+    <t>я</t>
+  </si>
+  <si>
+    <t>допереть</t>
+  </si>
+  <si>
+    <t>должен</t>
+  </si>
+  <si>
+    <t>обдумать</t>
+  </si>
+  <si>
+    <t>собираюсь</t>
+  </si>
+  <si>
+    <t>подумать о</t>
+  </si>
+  <si>
+    <t>обещал</t>
+  </si>
+  <si>
+    <t>хотел</t>
+  </si>
+  <si>
+    <t>запланировать</t>
+  </si>
+  <si>
+    <t>буду</t>
+  </si>
+  <si>
+    <t>давно собираюсь</t>
+  </si>
+  <si>
+    <t>давно обещал</t>
+  </si>
+  <si>
+    <t>очень хотел</t>
+  </si>
+  <si>
+    <t>давно хотел</t>
+  </si>
+  <si>
+    <t>точно буду</t>
+  </si>
+  <si>
+    <t>мне</t>
+  </si>
+  <si>
+    <t>надо</t>
+  </si>
+  <si>
+    <t>контекст</t>
+  </si>
+  <si>
+    <t>работа</t>
+  </si>
+  <si>
+    <t>очень надо</t>
+  </si>
+  <si>
+    <t>семья</t>
+  </si>
+  <si>
+    <t>придется</t>
+  </si>
+  <si>
+    <t>друзья</t>
+  </si>
+  <si>
+    <t>точно придется</t>
+  </si>
+  <si>
+    <t>пора</t>
+  </si>
+  <si>
+    <t>давно пора</t>
+  </si>
+  <si>
+    <t>очень давно пора</t>
+  </si>
+  <si>
+    <t>стоит</t>
+  </si>
+  <si>
+    <t>давно стоит</t>
+  </si>
+  <si>
+    <t>явно придется</t>
+  </si>
+  <si>
+    <t>явно стоит</t>
+  </si>
+  <si>
+    <t>явно надо</t>
+  </si>
+  <si>
+    <t>страшно надо</t>
+  </si>
+  <si>
+    <t>критически важно</t>
+  </si>
+  <si>
+    <t>очень важно</t>
+  </si>
+  <si>
     <t>спайс</t>
   </si>
   <si>
-    <t>object</t>
-  </si>
-  <si>
-    <t>тип субъекта</t>
-  </si>
-  <si>
-    <t>destination</t>
-  </si>
-  <si>
-    <t>начало</t>
-  </si>
-  <si>
-    <t>event</t>
-  </si>
-  <si>
-    <t>inanimate_obj</t>
-  </si>
-  <si>
-    <t>animate_obj</t>
-  </si>
-  <si>
-    <t>movable_obj</t>
-  </si>
-  <si>
-    <t>sklonenie_object</t>
-  </si>
-  <si>
-    <t>sklonenie_destination</t>
-  </si>
-  <si>
-    <t>склонение_место</t>
+    <t>comma_after</t>
+  </si>
+  <si>
+    <t>tense</t>
   </si>
   <si>
     <t>извини</t>
   </si>
   <si>
-    <t>я</t>
-  </si>
-  <si>
-    <t>везти</t>
+    <t>all</t>
   </si>
   <si>
     <t>увы</t>
   </si>
   <si>
-    <t>должен</t>
-  </si>
-  <si>
     <t>к сожалению</t>
   </si>
   <si>
-    <t>accs</t>
+    <t>future</t>
   </si>
   <si>
     <t>эх</t>
   </si>
   <si>
-    <t>вести</t>
-  </si>
-  <si>
-    <t>собираюсь</t>
-  </si>
-  <si>
     <t>сорян</t>
   </si>
   <si>
     <t>блин</t>
   </si>
   <si>
-    <t>обещал</t>
-  </si>
-  <si>
     <t>вот чёрт</t>
   </si>
   <si>
-    <t>хотел</t>
-  </si>
-  <si>
-    <t>забрать</t>
+    <t>noun</t>
+  </si>
+  <si>
+    <t>obj</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>type</t>
   </si>
   <si>
     <t>совсем забыл</t>
   </si>
   <si>
-    <t>буду</t>
+    <t>type_alt</t>
   </si>
   <si>
     <t>я бы с радостью, но</t>
   </si>
   <si>
-    <t>давно собираюсь</t>
-  </si>
-  <si>
-    <t>отвезти</t>
-  </si>
-  <si>
-    <t>давно обещал</t>
-  </si>
-  <si>
     <t>чёрт</t>
   </si>
   <si>
-    <t>очень хотел</t>
-  </si>
-  <si>
-    <t>отвести</t>
-  </si>
-  <si>
-    <t>давно хотел</t>
-  </si>
-  <si>
-    <t>точно буду</t>
-  </si>
-  <si>
-    <t>мне</t>
-  </si>
-  <si>
-    <t>принести</t>
-  </si>
-  <si>
-    <t>надо</t>
-  </si>
-  <si>
-    <t>очень надо</t>
-  </si>
-  <si>
-    <t>отнести</t>
-  </si>
-  <si>
-    <t>придется</t>
-  </si>
-  <si>
-    <t>сдать</t>
-  </si>
-  <si>
-    <t>точно придется</t>
-  </si>
-  <si>
-    <t>пора</t>
-  </si>
-  <si>
-    <t>отправить</t>
-  </si>
-  <si>
-    <t>давно пора</t>
-  </si>
-  <si>
-    <t>очень давно пора</t>
-  </si>
-  <si>
-    <t>убрать</t>
-  </si>
-  <si>
-    <t>стоит</t>
-  </si>
-  <si>
-    <t>сходить</t>
-  </si>
-  <si>
-    <t>давно стоит</t>
-  </si>
-  <si>
-    <t>loc2</t>
-  </si>
-  <si>
-    <t>явно придется</t>
-  </si>
-  <si>
-    <t>убраться</t>
-  </si>
-  <si>
-    <t>явно стоит</t>
-  </si>
-  <si>
-    <t>loct</t>
-  </si>
-  <si>
-    <t>прийти</t>
-  </si>
-  <si>
-    <t>явно надо</t>
-  </si>
-  <si>
-    <t>страшно надо</t>
-  </si>
-  <si>
-    <t>позаботиться о</t>
-  </si>
-  <si>
-    <t>критически важно</t>
-  </si>
-  <si>
-    <t>очень важно</t>
-  </si>
-  <si>
-    <t>решить вопрос с</t>
-  </si>
-  <si>
-    <t>ablt</t>
-  </si>
-  <si>
-    <t>уехать</t>
-  </si>
-  <si>
-    <t>отремонтировать</t>
-  </si>
-  <si>
-    <t>доделать</t>
-  </si>
-  <si>
-    <t>подбросить</t>
-  </si>
-  <si>
-    <t>создать</t>
-  </si>
-  <si>
-    <t>predlog</t>
-  </si>
-  <si>
-    <t>к</t>
-  </si>
-  <si>
-    <t>склепать</t>
-  </si>
-  <si>
-    <t>в</t>
-  </si>
-  <si>
-    <t>забабахать</t>
-  </si>
-  <si>
-    <t>из</t>
-  </si>
-  <si>
-    <t>от</t>
-  </si>
-  <si>
-    <t>на</t>
-  </si>
-  <si>
-    <t>заебенить</t>
-  </si>
-  <si>
-    <t>о</t>
-  </si>
-  <si>
-    <t>сделать</t>
-  </si>
-  <si>
-    <t>довезти</t>
-  </si>
-  <si>
-    <t>довести</t>
-  </si>
-  <si>
-    <t>допереть</t>
-  </si>
-  <si>
-    <t>обдумать</t>
-  </si>
-  <si>
-    <t>подумать о</t>
-  </si>
-  <si>
-    <t>запланировать</t>
-  </si>
-  <si>
-    <t>контекст</t>
-  </si>
-  <si>
-    <t>работа</t>
-  </si>
-  <si>
-    <t>семья</t>
-  </si>
-  <si>
-    <t>друзья</t>
-  </si>
-  <si>
-    <t>noun</t>
-  </si>
-  <si>
-    <t>obj</t>
-  </si>
-  <si>
-    <t>target</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>type_alt</t>
-  </si>
-  <si>
     <t>predlog_if_obst</t>
   </si>
   <si>
+    <t>только что понял</t>
+  </si>
+  <si>
+    <t>noun_type</t>
+  </si>
+  <si>
+    <t>noun_type_alt</t>
+  </si>
+  <si>
     <t>собака</t>
   </si>
   <si>
+    <t>to_be</t>
+  </si>
+  <si>
+    <t>как раз</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
     <t>thing</t>
   </si>
   <si>
+    <t>бляха-муха</t>
+  </si>
+  <si>
     <t>кошка</t>
   </si>
   <si>
@@ -344,334 +377,385 @@
     <t>person</t>
   </si>
   <si>
+    <t>ребенок</t>
+  </si>
+  <si>
+    <t>дети</t>
+  </si>
+  <si>
+    <t>remove</t>
+  </si>
+  <si>
+    <t>дочь</t>
+  </si>
+  <si>
+    <t>сын</t>
+  </si>
+  <si>
+    <t>друг</t>
+  </si>
+  <si>
+    <t>подруга</t>
+  </si>
+  <si>
+    <t>отец</t>
+  </si>
+  <si>
+    <t>мать</t>
+  </si>
+  <si>
+    <t>квартира</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>дом</t>
+  </si>
+  <si>
+    <t>кухня</t>
+  </si>
+  <si>
+    <t>place_open</t>
+  </si>
+  <si>
+    <t>travel</t>
+  </si>
+  <si>
+    <t>goal</t>
+  </si>
+  <si>
+    <t>ванная</t>
+  </si>
+  <si>
+    <t>позаботиться</t>
+  </si>
+  <si>
+    <t>унитаз</t>
+  </si>
+  <si>
+    <t>решить</t>
+  </si>
+  <si>
+    <t>ноутбук</t>
+  </si>
+  <si>
+    <t>телефон</t>
+  </si>
+  <si>
+    <t>смартфон</t>
+  </si>
+  <si>
+    <t>документы</t>
+  </si>
+  <si>
+    <t>тёща</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>тесть</t>
+  </si>
+  <si>
+    <t>свекровь</t>
+  </si>
+  <si>
+    <t>свёкр</t>
+  </si>
+  <si>
+    <t>бабушка</t>
+  </si>
+  <si>
+    <t>дедушка</t>
+  </si>
+  <si>
+    <t>дядя</t>
+  </si>
+  <si>
+    <t>вот жалость</t>
+  </si>
+  <si>
+    <t>тётя</t>
+  </si>
+  <si>
+    <t>ковёр</t>
+  </si>
+  <si>
+    <t>фикус</t>
+  </si>
+  <si>
+    <t>кактус</t>
+  </si>
+  <si>
+    <t>мебель</t>
+  </si>
+  <si>
+    <t>подумать</t>
+  </si>
+  <si>
+    <t>телек</t>
+  </si>
+  <si>
+    <t>ноут</t>
+  </si>
+  <si>
+    <t>убирать</t>
+  </si>
+  <si>
+    <t>автомастерская</t>
+  </si>
+  <si>
+    <t>добраться</t>
+  </si>
+  <si>
+    <t>ремонт</t>
+  </si>
+  <si>
+    <t>выбраться</t>
+  </si>
+  <si>
+    <t>обучение</t>
+  </si>
+  <si>
+    <t>гипермаркет</t>
+  </si>
+  <si>
+    <t>зайти</t>
+  </si>
+  <si>
+    <t>ЖЭК</t>
+  </si>
+  <si>
+    <t>забежать</t>
+  </si>
+  <si>
+    <t>нотариус</t>
+  </si>
+  <si>
+    <t>съездить</t>
+  </si>
+  <si>
+    <t>врач</t>
+  </si>
+  <si>
+    <t>доктор</t>
+  </si>
+  <si>
+    <t>поехать</t>
+  </si>
+  <si>
+    <t>центр госуслуг</t>
+  </si>
+  <si>
+    <t>курсы</t>
+  </si>
+  <si>
+    <t>совещание</t>
+  </si>
+  <si>
+    <t>родственники</t>
+  </si>
+  <si>
+    <t>сгонять</t>
+  </si>
+  <si>
+    <t>дача</t>
+  </si>
+  <si>
+    <t>хранение</t>
+  </si>
+  <si>
+    <t>банк</t>
+  </si>
+  <si>
+    <t>планерка</t>
+  </si>
+  <si>
+    <t>свадьба</t>
+  </si>
+  <si>
+    <t>похороны</t>
+  </si>
+  <si>
+    <t>ДР</t>
+  </si>
+  <si>
+    <t>день рождения</t>
+  </si>
+  <si>
+    <t>помолвка</t>
+  </si>
+  <si>
+    <t>суд</t>
+  </si>
+  <si>
+    <t>прогулка</t>
+  </si>
+  <si>
+    <t>поход</t>
+  </si>
+  <si>
+    <t>вечеринка</t>
+  </si>
+  <si>
+    <t>пати</t>
+  </si>
+  <si>
+    <t>туса</t>
+  </si>
+  <si>
+    <t>дискотека</t>
+  </si>
+  <si>
+    <t>званый приём</t>
+  </si>
+  <si>
+    <t>вокзал</t>
+  </si>
+  <si>
+    <t>аэропорт</t>
+  </si>
+  <si>
+    <t>автовокзал</t>
+  </si>
+  <si>
+    <t>почта</t>
+  </si>
+  <si>
+    <t>рынок</t>
+  </si>
+  <si>
+    <t>фестиваль</t>
+  </si>
+  <si>
+    <t>конкурс</t>
+  </si>
+  <si>
+    <t>осмотр</t>
+  </si>
+  <si>
+    <t>проверка</t>
+  </si>
+  <si>
+    <t>проект</t>
+  </si>
+  <si>
+    <t>задание</t>
+  </si>
+  <si>
+    <t>план проекта</t>
+  </si>
+  <si>
+    <t>план</t>
+  </si>
+  <si>
     <t>Слово</t>
   </si>
   <si>
     <t>Теги</t>
   </si>
   <si>
-    <t>ребенок</t>
+    <t>диплом</t>
   </si>
   <si>
     <t>пробка</t>
   </si>
   <si>
-    <t>дети</t>
-  </si>
-  <si>
-    <t>noun_alt</t>
-  </si>
-  <si>
-    <t>to_be</t>
-  </si>
-  <si>
-    <t>дочь</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>сын</t>
-  </si>
-  <si>
-    <t>друг</t>
-  </si>
-  <si>
-    <t>remove</t>
-  </si>
-  <si>
-    <t>подруга</t>
-  </si>
-  <si>
-    <t>совещание</t>
-  </si>
-  <si>
-    <t>планерка</t>
-  </si>
-  <si>
-    <t>отец</t>
+    <t>уборка</t>
+  </si>
+  <si>
+    <t>картина</t>
+  </si>
+  <si>
+    <t>книга</t>
+  </si>
+  <si>
+    <t>гобелен</t>
   </si>
   <si>
     <t>аврал</t>
   </si>
   <si>
-    <t>мать</t>
-  </si>
-  <si>
-    <t>ремонт</t>
-  </si>
-  <si>
-    <t>квартира</t>
-  </si>
-  <si>
-    <t>place</t>
-  </si>
-  <si>
-    <t>автомастерская</t>
-  </si>
-  <si>
-    <t>дом</t>
-  </si>
-  <si>
-    <t>кухня</t>
-  </si>
-  <si>
-    <t>place_open</t>
-  </si>
-  <si>
-    <t>travel</t>
-  </si>
-  <si>
-    <t>ванная</t>
-  </si>
-  <si>
-    <t>goal</t>
+    <t>скульптура</t>
+  </si>
+  <si>
+    <t>мемуары</t>
+  </si>
+  <si>
+    <t>маникюр</t>
+  </si>
+  <si>
+    <t>педикюр</t>
+  </si>
+  <si>
+    <t>рейв</t>
+  </si>
+  <si>
+    <t>концерт</t>
+  </si>
+  <si>
+    <t>выставка</t>
+  </si>
+  <si>
+    <t>биеннале</t>
   </si>
   <si>
     <t>туалет</t>
   </si>
   <si>
-    <t>ноутбук</t>
-  </si>
-  <si>
-    <t>позаботиться</t>
-  </si>
-  <si>
-    <t>телефон</t>
-  </si>
-  <si>
-    <t>решить</t>
-  </si>
-  <si>
-    <t>смартфон</t>
-  </si>
-  <si>
-    <t>документы</t>
-  </si>
-  <si>
-    <t>тёща</t>
-  </si>
-  <si>
-    <t>project</t>
-  </si>
-  <si>
-    <t>тесть</t>
-  </si>
-  <si>
-    <t>курсы</t>
-  </si>
-  <si>
-    <t>свекровь</t>
-  </si>
-  <si>
-    <t>обучение</t>
-  </si>
-  <si>
-    <t>свёкр</t>
-  </si>
-  <si>
-    <t>ЖЭК</t>
-  </si>
-  <si>
-    <t>нотариус</t>
-  </si>
-  <si>
-    <t>бабушка</t>
-  </si>
-  <si>
-    <t>гипермаркет</t>
-  </si>
-  <si>
-    <t>дедушка</t>
-  </si>
-  <si>
-    <t>врач</t>
-  </si>
-  <si>
-    <t>доктор</t>
-  </si>
-  <si>
-    <t>дядя</t>
-  </si>
-  <si>
-    <t>тётя</t>
-  </si>
-  <si>
-    <t>ковёр</t>
-  </si>
-  <si>
-    <t>фикус</t>
-  </si>
-  <si>
-    <t>кактус</t>
-  </si>
-  <si>
-    <t>мебель</t>
-  </si>
-  <si>
-    <t>подумать</t>
-  </si>
-  <si>
-    <t>телек</t>
-  </si>
-  <si>
-    <t>убирать</t>
-  </si>
-  <si>
-    <t>ноут</t>
-  </si>
-  <si>
-    <t>добраться</t>
+    <t>галерея</t>
+  </si>
+  <si>
+    <t>музей</t>
+  </si>
+  <si>
+    <t>больница</t>
+  </si>
+  <si>
+    <t>поликлиника</t>
+  </si>
+  <si>
+    <t>курорт</t>
+  </si>
+  <si>
+    <t>отдых</t>
+  </si>
+  <si>
+    <t>санаторий</t>
+  </si>
+  <si>
+    <t>море</t>
+  </si>
+  <si>
+    <t>Чёрное море</t>
+  </si>
+  <si>
+    <t>Белое море</t>
+  </si>
+  <si>
+    <t>Красное море</t>
+  </si>
+  <si>
+    <t>Египет</t>
+  </si>
+  <si>
+    <t>Турция</t>
+  </si>
+  <si>
+    <t>Тайланд</t>
   </si>
   <si>
     <t>идти</t>
   </si>
   <si>
-    <t>выбраться</t>
-  </si>
-  <si>
     <t>ветеринар</t>
   </si>
   <si>
-    <t>зайти</t>
-  </si>
-  <si>
     <t>вернуть</t>
   </si>
   <si>
-    <t>забежать</t>
-  </si>
-  <si>
-    <t>съездить</t>
-  </si>
-  <si>
-    <t>поехать</t>
-  </si>
-  <si>
     <t>заняться</t>
-  </si>
-  <si>
-    <t>центр госуслуг</t>
-  </si>
-  <si>
-    <t>сгонять</t>
-  </si>
-  <si>
-    <t>родственники</t>
-  </si>
-  <si>
-    <t>дача</t>
-  </si>
-  <si>
-    <t>хранение</t>
-  </si>
-  <si>
-    <t>банк</t>
-  </si>
-  <si>
-    <t>свадьба</t>
-  </si>
-  <si>
-    <t>похороны</t>
-  </si>
-  <si>
-    <t>ДР</t>
-  </si>
-  <si>
-    <t>день рождения</t>
-  </si>
-  <si>
-    <t>помолвка</t>
-  </si>
-  <si>
-    <t>суд</t>
-  </si>
-  <si>
-    <t>прогулка</t>
-  </si>
-  <si>
-    <t>поход</t>
-  </si>
-  <si>
-    <t>вечеринка</t>
-  </si>
-  <si>
-    <t>пати</t>
-  </si>
-  <si>
-    <t>туса</t>
-  </si>
-  <si>
-    <t>дискотека</t>
-  </si>
-  <si>
-    <t>званый приём</t>
-  </si>
-  <si>
-    <t>вокзал</t>
-  </si>
-  <si>
-    <t>аэропорт</t>
-  </si>
-  <si>
-    <t>автовокзал</t>
-  </si>
-  <si>
-    <t>почта</t>
-  </si>
-  <si>
-    <t>рынок</t>
-  </si>
-  <si>
-    <t>фестиваль</t>
-  </si>
-  <si>
-    <t>конкурс</t>
-  </si>
-  <si>
-    <t>осмотр</t>
-  </si>
-  <si>
-    <t>проверка</t>
-  </si>
-  <si>
-    <t>проект</t>
-  </si>
-  <si>
-    <t>задание</t>
-  </si>
-  <si>
-    <t>план проекта</t>
-  </si>
-  <si>
-    <t>план</t>
-  </si>
-  <si>
-    <t>диплом</t>
-  </si>
-  <si>
-    <t>уборка</t>
-  </si>
-  <si>
-    <t>картина</t>
-  </si>
-  <si>
-    <t>книга</t>
-  </si>
-  <si>
-    <t>гобелен</t>
-  </si>
-  <si>
-    <t>скульптура</t>
-  </si>
-  <si>
-    <t>мемуары</t>
-  </si>
-  <si>
-    <t>маникюр</t>
-  </si>
-  <si>
-    <t>педикюр</t>
   </si>
 </sst>
 </file>
@@ -693,10 +777,10 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <b/>
     </font>
-    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -973,113 +1057,6 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="3.14"/>
-    <col customWidth="1" min="2" max="2" width="20.57"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="3.14"/>
     <col customWidth="1" min="2" max="2" width="8.57"/>
     <col customWidth="1" min="3" max="3" width="14.86"/>
     <col customWidth="1" min="4" max="4" width="16.29"/>
@@ -1090,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
@@ -1104,13 +1081,13 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2">
         <v>1.0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -1118,13 +1095,13 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2">
         <v>1.0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -1132,13 +1109,13 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2">
         <v>1.0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
@@ -1146,13 +1123,13 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2">
         <v>1.0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
@@ -1160,13 +1137,13 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2">
         <v>1.0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -1174,13 +1151,13 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2">
         <v>1.0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
@@ -1188,13 +1165,13 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2">
         <v>1.0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
@@ -1202,13 +1179,13 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2">
         <v>1.0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
@@ -1216,13 +1193,13 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="C10" s="2">
         <v>1.0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
@@ -1230,13 +1207,13 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="C11" s="2">
         <v>1.0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -1244,13 +1221,13 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="C12" s="2">
         <v>2.0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
@@ -1258,13 +1235,13 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="C13" s="2">
         <v>2.0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
@@ -1272,13 +1249,13 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="C14" s="2">
         <v>2.0</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
@@ -1286,13 +1263,13 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="C15" s="2">
         <v>2.0</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
@@ -1300,13 +1277,13 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="C16" s="2">
         <v>2.0</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -1314,13 +1291,13 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="C17" s="2">
         <v>2.0</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
@@ -1328,13 +1305,13 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2">
         <v>2.0</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
@@ -1342,13 +1319,13 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="C19" s="2">
         <v>2.0</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
@@ -1356,13 +1333,13 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="C20" s="2">
         <v>2.0</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21">
@@ -1370,13 +1347,13 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="C21" s="2">
         <v>2.0</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
@@ -1384,13 +1361,13 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="C22" s="2">
         <v>2.0</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
@@ -1398,13 +1375,13 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="C23" s="2">
         <v>2.0</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24">
@@ -1412,13 +1389,13 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="C24" s="2">
         <v>2.0</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25">
@@ -1426,13 +1403,13 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="C25" s="2">
         <v>2.0</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26">
@@ -1440,13 +1417,13 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="C26" s="2">
         <v>2.0</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1454,7 +1431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1482,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -1517,7 +1494,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2">
         <v>1.0</v>
@@ -1538,7 +1515,7 @@
         <v>1.0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -1567,7 +1544,7 @@
         <v>1.0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -1575,7 +1552,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2">
         <v>1.0</v>
@@ -1596,7 +1573,7 @@
         <v>1.0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -1604,7 +1581,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2">
         <v>1.0</v>
@@ -1625,7 +1602,7 @@
         <v>1.0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
@@ -1633,7 +1610,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2">
         <v>1.0</v>
@@ -1654,7 +1631,7 @@
         <v>1.0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
@@ -1662,7 +1639,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2">
         <v>1.0</v>
@@ -1683,7 +1660,7 @@
         <v>1.0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
@@ -1691,7 +1668,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2">
         <v>1.0</v>
@@ -1712,7 +1689,7 @@
         <v>1.0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
@@ -1720,7 +1697,7 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2">
         <v>1.0</v>
@@ -1741,7 +1718,7 @@
         <v>1.0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
@@ -1749,7 +1726,7 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2">
         <v>1.0</v>
@@ -1770,7 +1747,7 @@
         <v>1.0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
@@ -1778,7 +1755,7 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2">
         <v>1.0</v>
@@ -1797,7 +1774,7 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
@@ -1805,7 +1782,7 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2">
         <v>0.0</v>
@@ -1824,7 +1801,7 @@
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13">
@@ -1832,7 +1809,7 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2">
         <v>0.0</v>
@@ -1851,7 +1828,7 @@
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14">
@@ -1859,7 +1836,7 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2">
         <v>0.0</v>
@@ -1878,7 +1855,7 @@
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15">
@@ -1886,7 +1863,7 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2">
         <v>1.0</v>
@@ -1905,7 +1882,7 @@
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16">
@@ -1913,7 +1890,7 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2">
         <v>1.0</v>
@@ -1932,7 +1909,7 @@
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17">
@@ -1940,7 +1917,7 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2">
         <v>0.0</v>
@@ -1959,7 +1936,7 @@
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
@@ -1967,7 +1944,7 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2">
         <v>1.0</v>
@@ -1986,7 +1963,7 @@
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
@@ -1994,7 +1971,7 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2">
         <v>1.0</v>
@@ -2013,7 +1990,7 @@
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
@@ -2021,7 +1998,7 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="C20" s="2">
         <v>1.0</v>
@@ -2040,7 +2017,7 @@
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
@@ -2048,7 +2025,7 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2">
         <v>1.0</v>
@@ -2067,7 +2044,7 @@
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22">
@@ -2075,7 +2052,7 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2">
         <v>1.0</v>
@@ -2094,7 +2071,7 @@
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23">
@@ -2102,7 +2079,7 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2">
         <v>0.0</v>
@@ -2121,7 +2098,7 @@
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -2129,7 +2106,7 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="C24" s="2">
         <v>0.0</v>
@@ -2148,7 +2125,7 @@
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
@@ -2156,7 +2133,7 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="C25" s="2">
         <v>0.0</v>
@@ -2175,7 +2152,7 @@
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26">
@@ -2183,7 +2160,7 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="C26" s="2">
         <v>1.0</v>
@@ -2202,7 +2179,7 @@
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27">
@@ -2210,7 +2187,7 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="C27" s="2">
         <v>1.0</v>
@@ -2229,7 +2206,7 @@
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28">
@@ -2237,7 +2214,7 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="C28" s="2">
         <v>1.0</v>
@@ -2256,7 +2233,7 @@
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29">
@@ -2264,7 +2241,7 @@
         <v>28.0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="C29" s="2">
         <v>1.0</v>
@@ -2283,7 +2260,7 @@
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30">
@@ -2291,7 +2268,7 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="C30" s="2">
         <v>1.0</v>
@@ -2310,7 +2287,7 @@
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31">
@@ -2318,7 +2295,7 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="C31" s="2">
         <v>0.0</v>
@@ -2336,7 +2313,78 @@
         <v>0.0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2359,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2">
@@ -2367,7 +2415,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
@@ -2375,7 +2423,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
@@ -2383,31 +2431,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2418,19 +2442,30 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <tabColor rgb="FFFFE599"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="3.14"/>
+    <col customWidth="1" min="2" max="2" width="20.57"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="2">
@@ -2438,7 +2473,13 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="3">
@@ -2446,7 +2487,13 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4">
@@ -2454,7 +2501,155 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>96</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2477,7 +2672,7 @@
     <col customWidth="1" min="2" max="2" width="15.0"/>
     <col customWidth="1" min="3" max="3" width="3.86"/>
     <col customWidth="1" min="4" max="4" width="6.29"/>
-    <col customWidth="1" min="5" max="5" width="6.86"/>
+    <col customWidth="1" min="5" max="5" width="10.71"/>
     <col customWidth="1" min="6" max="7" width="15.14"/>
   </cols>
   <sheetData>
@@ -2486,27 +2681,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" s="3" t="s">
         <v>101</v>
       </c>
+      <c r="F1" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="G1" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2">
         <v>1.0</v>
@@ -2515,95 +2710,95 @@
         <v>1.0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="2" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="2" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="2" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14">
@@ -2611,47 +2806,47 @@
         <v>130</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>128</v>
+      <c r="B17" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20">
@@ -2659,7 +2854,7 @@
         <v>141</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21">
@@ -2667,7 +2862,7 @@
         <v>142</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22">
@@ -2675,7 +2870,7 @@
         <v>143</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23">
@@ -2683,116 +2878,116 @@
         <v>145</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" s="2" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>8</v>
@@ -2800,7 +2995,7 @@
     </row>
     <row r="38">
       <c r="B38" s="2" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>8</v>
@@ -2808,55 +3003,55 @@
     </row>
     <row r="39">
       <c r="B39" s="2" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" s="2" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="2" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="2" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" s="2" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" s="2" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>8</v>
@@ -2864,7 +3059,7 @@
     </row>
     <row r="46">
       <c r="B46" s="2" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>8</v>
@@ -2872,26 +3067,26 @@
     </row>
     <row r="47">
       <c r="B47" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="3" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50">
@@ -2907,12 +3102,12 @@
         <v>182</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" s="2" t="s">
-        <v>122</v>
+        <v>183</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>8</v>
@@ -2920,7 +3115,7 @@
     </row>
     <row r="53">
       <c r="B53" s="2" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>8</v>
@@ -2928,7 +3123,7 @@
     </row>
     <row r="54">
       <c r="B54" s="2" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>8</v>
@@ -2936,7 +3131,7 @@
     </row>
     <row r="55">
       <c r="B55" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>8</v>
@@ -2944,7 +3139,7 @@
     </row>
     <row r="56">
       <c r="B56" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>8</v>
@@ -2952,7 +3147,7 @@
     </row>
     <row r="57">
       <c r="B57" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>8</v>
@@ -2960,7 +3155,7 @@
     </row>
     <row r="58">
       <c r="B58" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>8</v>
@@ -2968,7 +3163,7 @@
     </row>
     <row r="59">
       <c r="B59" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>8</v>
@@ -2976,15 +3171,15 @@
     </row>
     <row r="60">
       <c r="B60" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>8</v>
@@ -2992,15 +3187,15 @@
     </row>
     <row r="62">
       <c r="B62" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>8</v>
+        <v>191</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>8</v>
@@ -3008,7 +3203,7 @@
     </row>
     <row r="64">
       <c r="B64" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>8</v>
@@ -3016,7 +3211,7 @@
     </row>
     <row r="65">
       <c r="B65" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>8</v>
@@ -3024,7 +3219,7 @@
     </row>
     <row r="66">
       <c r="B66" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>8</v>
@@ -3032,7 +3227,7 @@
     </row>
     <row r="67">
       <c r="B67" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>8</v>
@@ -3040,63 +3235,63 @@
     </row>
     <row r="68">
       <c r="B68" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E68" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>132</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69">
       <c r="B69" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70">
       <c r="B70" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E70" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E70" s="3" t="s">
         <v>132</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71">
       <c r="B71" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E71" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>132</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72">
       <c r="B72" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E72" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>132</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73">
       <c r="B73" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>8</v>
@@ -3104,7 +3299,7 @@
     </row>
     <row r="74">
       <c r="B74" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>8</v>
@@ -3112,7 +3307,7 @@
     </row>
     <row r="75">
       <c r="B75" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>8</v>
@@ -3120,7 +3315,7 @@
     </row>
     <row r="76">
       <c r="B76" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>8</v>
@@ -3128,71 +3323,80 @@
     </row>
     <row r="77">
       <c r="B77" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E77" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E78" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="79">
       <c r="B79" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E79" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E79" s="3" t="s">
         <v>144</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="80">
       <c r="B80" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E80" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="81">
       <c r="B81" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E81" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E81" s="3" t="s">
         <v>144</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="82">
       <c r="B82" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E82" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E82" s="3" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="83">
       <c r="B83" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E83" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="84">
       <c r="B84" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E84" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E84" s="3" t="s">
         <v>144</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="85">
       <c r="B85" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>144</v>
@@ -3200,39 +3404,51 @@
     </row>
     <row r="86">
       <c r="B86" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>144</v>
       </c>
+      <c r="F86" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="87">
       <c r="B87" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>144</v>
       </c>
+      <c r="F87" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="88">
       <c r="B88" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>144</v>
       </c>
+      <c r="F88" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="89">
       <c r="B89" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>144</v>
       </c>
+      <c r="F89" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="90">
       <c r="B90" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>144</v>
@@ -3240,18 +3456,162 @@
     </row>
     <row r="91">
       <c r="B91" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>144</v>
+        <v>221</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="92">
       <c r="B92" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>144</v>
+        <v>222</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="B109" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3272,6 +3632,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="3.14"/>
     <col customWidth="1" min="2" max="2" width="17.14"/>
+    <col customWidth="1" min="4" max="4" width="8.14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3279,22 +3640,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2">
@@ -3302,13 +3663,13 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3">
@@ -3319,10 +3680,10 @@
         <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4">
@@ -3330,16 +3691,16 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5">
@@ -3347,13 +3708,13 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6">
@@ -3361,13 +3722,13 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7">
@@ -3375,13 +3736,13 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8">
@@ -3389,13 +3750,13 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9">
@@ -3403,13 +3764,13 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
@@ -3417,13 +3778,13 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
@@ -3431,16 +3792,16 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12">
@@ -3448,16 +3809,16 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>133</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13">
@@ -3465,13 +3826,13 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14">
@@ -3479,16 +3840,16 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>133</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15">
@@ -3496,13 +3857,16 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>104</v>
+        <v>134</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="16">
@@ -3510,16 +3874,16 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17">
@@ -3527,13 +3891,13 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>133</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18">
@@ -3541,13 +3905,13 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19">
@@ -3555,10 +3919,10 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>144</v>
@@ -3569,13 +3933,13 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21">
@@ -3583,10 +3947,10 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>144</v>
@@ -3597,10 +3961,10 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>144</v>
@@ -3611,10 +3975,10 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>144</v>
@@ -3625,10 +3989,10 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>144</v>
@@ -3639,10 +4003,10 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>144</v>
@@ -3653,16 +4017,16 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27">
@@ -3670,13 +4034,13 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28">
@@ -3684,13 +4048,13 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29">
@@ -3698,10 +4062,10 @@
         <v>28.0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>144</v>
@@ -3715,10 +4079,10 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>144</v>
@@ -3732,13 +4096,13 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32">
@@ -3746,15 +4110,15 @@
         <v>31.0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>133</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F32" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3763,13 +4127,13 @@
         <v>32.0</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>133</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>8</v>
@@ -3780,13 +4144,13 @@
         <v>33.0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>133</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35">
@@ -3794,13 +4158,13 @@
         <v>34.0</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>133</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36">
@@ -3808,13 +4172,13 @@
         <v>35.0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>133</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37">
@@ -3822,13 +4186,13 @@
         <v>36.0</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>133</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>8</v>
@@ -3839,13 +4203,13 @@
         <v>37.0</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>133</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>8</v>
@@ -3856,13 +4220,13 @@
         <v>38.0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>133</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40">
@@ -3870,13 +4234,13 @@
         <v>39.0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>133</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3899,105 +4263,105 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>210</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>111</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>122</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>124</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21">
@@ -4012,22 +4376,22 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>136</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27">
@@ -4037,37 +4401,37 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35">
@@ -4082,47 +4446,47 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46">
@@ -4132,52 +4496,52 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>168</v>
+        <v>242</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>170</v>
+        <v>243</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>172</v>
+        <v>244</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>176</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/otmazy_words.xlsx
+++ b/otmazy_words.xlsx
@@ -5,12 +5,13 @@
   <sheets>
     <sheet state="hidden" name="subj" sheetId="1" r:id="rId4"/>
     <sheet state="hidden" name="glagol" sheetId="2" r:id="rId5"/>
-    <sheet state="hidden" name="predlog" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="context" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="context" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="predlog" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="beginning" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="noun" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="verb" sheetId="7" r:id="rId10"/>
-    <sheet state="hidden" name="слова v1" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="ending" sheetId="8" r:id="rId11"/>
+    <sheet state="hidden" name="слова v1" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -18,636 +19,795 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="272">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>glagol</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>destination</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t>inanimate_obj</t>
+  </si>
+  <si>
+    <t>animate_obj</t>
+  </si>
+  <si>
+    <t>movable_obj</t>
+  </si>
+  <si>
+    <t>sklonenie_object</t>
+  </si>
+  <si>
+    <t>sklonenie_destination</t>
+  </si>
+  <si>
+    <t>склонение_место</t>
+  </si>
+  <si>
+    <t>контекст</t>
+  </si>
+  <si>
+    <t>везти</t>
+  </si>
+  <si>
+    <t>субъект</t>
+  </si>
+  <si>
+    <t>тип субъекта</t>
+  </si>
+  <si>
+    <t>начало</t>
+  </si>
+  <si>
+    <t>accs</t>
+  </si>
+  <si>
+    <t>я</t>
+  </si>
+  <si>
+    <t>вести</t>
+  </si>
+  <si>
+    <t>должен</t>
+  </si>
+  <si>
+    <t>собираюсь</t>
+  </si>
+  <si>
+    <t>обещал</t>
+  </si>
+  <si>
+    <t>хотел</t>
+  </si>
+  <si>
+    <t>забрать</t>
+  </si>
+  <si>
+    <t>буду</t>
+  </si>
+  <si>
+    <t>давно собираюсь</t>
+  </si>
+  <si>
+    <t>отвезти</t>
+  </si>
+  <si>
+    <t>давно обещал</t>
+  </si>
+  <si>
+    <t>очень хотел</t>
+  </si>
+  <si>
+    <t>отвести</t>
+  </si>
+  <si>
+    <t>давно хотел</t>
+  </si>
+  <si>
+    <t>принести</t>
+  </si>
+  <si>
+    <t>отнести</t>
+  </si>
+  <si>
+    <t>точно буду</t>
+  </si>
+  <si>
+    <t>мне</t>
+  </si>
+  <si>
+    <t>надо</t>
+  </si>
+  <si>
+    <t>сдать</t>
+  </si>
+  <si>
+    <t>очень надо</t>
+  </si>
+  <si>
+    <t>придется</t>
+  </si>
+  <si>
+    <t>отправить</t>
+  </si>
+  <si>
+    <t>точно придется</t>
+  </si>
+  <si>
+    <t>пора</t>
+  </si>
+  <si>
+    <t>давно пора</t>
+  </si>
+  <si>
+    <t>убрать</t>
+  </si>
+  <si>
+    <t>очень давно пора</t>
+  </si>
+  <si>
+    <t>сходить</t>
+  </si>
+  <si>
+    <t>стоит</t>
+  </si>
+  <si>
+    <t>loc2</t>
+  </si>
+  <si>
+    <t>давно стоит</t>
+  </si>
+  <si>
+    <t>убраться</t>
+  </si>
+  <si>
+    <t>явно придется</t>
+  </si>
+  <si>
+    <t>loct</t>
+  </si>
+  <si>
+    <t>явно стоит</t>
+  </si>
+  <si>
+    <t>прийти</t>
+  </si>
+  <si>
+    <t>явно надо</t>
+  </si>
+  <si>
+    <t>страшно надо</t>
+  </si>
+  <si>
+    <t>позаботиться о</t>
+  </si>
+  <si>
+    <t>критически важно</t>
+  </si>
+  <si>
+    <t>очень важно</t>
+  </si>
+  <si>
+    <t>решить вопрос с</t>
+  </si>
+  <si>
+    <t>ablt</t>
+  </si>
+  <si>
+    <t>уехать</t>
+  </si>
+  <si>
+    <t>отремонтировать</t>
+  </si>
+  <si>
+    <t>доделать</t>
+  </si>
+  <si>
+    <t>подбросить</t>
+  </si>
+  <si>
+    <t>создать</t>
+  </si>
+  <si>
+    <t>склепать</t>
+  </si>
+  <si>
+    <t>забабахать</t>
+  </si>
+  <si>
+    <t>заебенить</t>
+  </si>
+  <si>
+    <t>сделать</t>
+  </si>
+  <si>
+    <t>довезти</t>
+  </si>
+  <si>
+    <t>довести</t>
+  </si>
+  <si>
+    <t>допереть</t>
+  </si>
+  <si>
+    <t>обдумать</t>
+  </si>
+  <si>
+    <t>подумать о</t>
+  </si>
+  <si>
+    <t>запланировать</t>
+  </si>
+  <si>
     <t>predlog</t>
   </si>
   <si>
-    <t>glagol</t>
-  </si>
-  <si>
-    <t>субъект</t>
-  </si>
-  <si>
-    <t>object</t>
-  </si>
-  <si>
-    <t>тип субъекта</t>
-  </si>
-  <si>
-    <t>destination</t>
-  </si>
-  <si>
-    <t>начало</t>
-  </si>
-  <si>
-    <t>event</t>
-  </si>
-  <si>
-    <t>inanimate_obj</t>
-  </si>
-  <si>
-    <t>animate_obj</t>
-  </si>
-  <si>
-    <t>movable_obj</t>
-  </si>
-  <si>
-    <t>sklonenie_object</t>
-  </si>
-  <si>
-    <t>sklonenie_destination</t>
-  </si>
-  <si>
-    <t>склонение_место</t>
+    <t>noun_type</t>
+  </si>
+  <si>
+    <t>noun_case</t>
+  </si>
+  <si>
+    <t>от</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>gent</t>
+  </si>
+  <si>
+    <t>родительный</t>
+  </si>
+  <si>
+    <t>Кого? Чего?</t>
+  </si>
+  <si>
+    <t>для</t>
+  </si>
+  <si>
+    <t>работа</t>
+  </si>
+  <si>
+    <t>семья</t>
+  </si>
+  <si>
+    <t>друзья</t>
   </si>
   <si>
     <t>к</t>
   </si>
   <si>
+    <t>datv</t>
+  </si>
+  <si>
+    <t>дательный</t>
+  </si>
+  <si>
+    <t>Кому? Чему?</t>
+  </si>
+  <si>
+    <t>винительный</t>
+  </si>
+  <si>
+    <t>Кого? Что?</t>
+  </si>
+  <si>
+    <t>с</t>
+  </si>
+  <si>
+    <t>творительный</t>
+  </si>
+  <si>
+    <t>Кем? Чем?</t>
+  </si>
+  <si>
+    <t>за</t>
+  </si>
+  <si>
+    <t>о</t>
+  </si>
+  <si>
+    <t>предложный</t>
+  </si>
+  <si>
+    <t>О ком? О чём? и т.п.</t>
+  </si>
+  <si>
+    <t>местный</t>
+  </si>
+  <si>
+    <t>beginning</t>
+  </si>
+  <si>
+    <t>comma_after</t>
+  </si>
+  <si>
+    <t>tense</t>
+  </si>
+  <si>
+    <t>извини</t>
+  </si>
+  <si>
+    <t>thing</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>увы</t>
+  </si>
+  <si>
+    <t>к сожалению</t>
+  </si>
+  <si>
+    <t>future</t>
+  </si>
+  <si>
+    <t>эх</t>
+  </si>
+  <si>
+    <t>сорян</t>
+  </si>
+  <si>
+    <t>блин</t>
+  </si>
+  <si>
+    <t>вот чёрт</t>
+  </si>
+  <si>
+    <t>совсем забыл</t>
+  </si>
+  <si>
+    <t>из</t>
+  </si>
+  <si>
+    <t>я бы с радостью, но</t>
+  </si>
+  <si>
+    <t>чёрт</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>только что понял</t>
+  </si>
+  <si>
+    <t>как раз</t>
+  </si>
+  <si>
     <t>в</t>
   </si>
   <si>
-    <t>из</t>
-  </si>
-  <si>
-    <t>от</t>
+    <t>бляха-муха</t>
+  </si>
+  <si>
+    <t>вот жалость</t>
+  </si>
+  <si>
+    <t>place_open</t>
   </si>
   <si>
     <t>на</t>
   </si>
   <si>
-    <t>о</t>
-  </si>
-  <si>
-    <t>везти</t>
-  </si>
-  <si>
-    <t>accs</t>
-  </si>
-  <si>
-    <t>вести</t>
-  </si>
-  <si>
-    <t>забрать</t>
-  </si>
-  <si>
-    <t>отвезти</t>
-  </si>
-  <si>
-    <t>отвести</t>
-  </si>
-  <si>
-    <t>принести</t>
-  </si>
-  <si>
-    <t>отнести</t>
-  </si>
-  <si>
-    <t>сдать</t>
-  </si>
-  <si>
-    <t>отправить</t>
-  </si>
-  <si>
-    <t>убрать</t>
-  </si>
-  <si>
-    <t>сходить</t>
-  </si>
-  <si>
-    <t>loc2</t>
-  </si>
-  <si>
-    <t>убраться</t>
-  </si>
-  <si>
-    <t>loct</t>
-  </si>
-  <si>
-    <t>прийти</t>
-  </si>
-  <si>
-    <t>позаботиться о</t>
-  </si>
-  <si>
-    <t>решить вопрос с</t>
-  </si>
-  <si>
-    <t>ablt</t>
-  </si>
-  <si>
-    <t>уехать</t>
-  </si>
-  <si>
-    <t>отремонтировать</t>
-  </si>
-  <si>
-    <t>доделать</t>
-  </si>
-  <si>
-    <t>подбросить</t>
-  </si>
-  <si>
-    <t>создать</t>
-  </si>
-  <si>
-    <t>склепать</t>
-  </si>
-  <si>
-    <t>забабахать</t>
-  </si>
-  <si>
-    <t>заебенить</t>
-  </si>
-  <si>
-    <t>сделать</t>
-  </si>
-  <si>
-    <t>довезти</t>
-  </si>
-  <si>
-    <t>довести</t>
-  </si>
-  <si>
-    <t>я</t>
-  </si>
-  <si>
-    <t>допереть</t>
-  </si>
-  <si>
-    <t>должен</t>
-  </si>
-  <si>
-    <t>обдумать</t>
-  </si>
-  <si>
-    <t>собираюсь</t>
-  </si>
-  <si>
-    <t>подумать о</t>
-  </si>
-  <si>
-    <t>обещал</t>
-  </si>
-  <si>
-    <t>хотел</t>
-  </si>
-  <si>
-    <t>запланировать</t>
-  </si>
-  <si>
-    <t>буду</t>
-  </si>
-  <si>
-    <t>давно собираюсь</t>
-  </si>
-  <si>
-    <t>давно обещал</t>
-  </si>
-  <si>
-    <t>очень хотел</t>
-  </si>
-  <si>
-    <t>давно хотел</t>
-  </si>
-  <si>
-    <t>точно буду</t>
-  </si>
-  <si>
-    <t>мне</t>
-  </si>
-  <si>
-    <t>надо</t>
-  </si>
-  <si>
-    <t>контекст</t>
-  </si>
-  <si>
-    <t>работа</t>
-  </si>
-  <si>
-    <t>очень надо</t>
-  </si>
-  <si>
-    <t>семья</t>
-  </si>
-  <si>
-    <t>придется</t>
-  </si>
-  <si>
-    <t>друзья</t>
-  </si>
-  <si>
-    <t>точно придется</t>
-  </si>
-  <si>
-    <t>пора</t>
-  </si>
-  <si>
-    <t>давно пора</t>
-  </si>
-  <si>
-    <t>очень давно пора</t>
-  </si>
-  <si>
-    <t>стоит</t>
-  </si>
-  <si>
-    <t>давно стоит</t>
-  </si>
-  <si>
-    <t>явно придется</t>
-  </si>
-  <si>
-    <t>явно стоит</t>
-  </si>
-  <si>
-    <t>явно надо</t>
-  </si>
-  <si>
-    <t>страшно надо</t>
-  </si>
-  <si>
-    <t>критически важно</t>
-  </si>
-  <si>
-    <t>очень важно</t>
-  </si>
-  <si>
-    <t>спайс</t>
-  </si>
-  <si>
-    <t>comma_after</t>
-  </si>
-  <si>
-    <t>tense</t>
-  </si>
-  <si>
-    <t>извини</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>увы</t>
-  </si>
-  <si>
-    <t>к сожалению</t>
-  </si>
-  <si>
-    <t>future</t>
-  </si>
-  <si>
-    <t>эх</t>
-  </si>
-  <si>
-    <t>сорян</t>
-  </si>
-  <si>
-    <t>блин</t>
-  </si>
-  <si>
-    <t>вот чёрт</t>
-  </si>
-  <si>
     <t>noun</t>
   </si>
   <si>
-    <t>obj</t>
-  </si>
-  <si>
-    <t>target</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
-    <t>совсем забыл</t>
-  </si>
-  <si>
     <t>type_alt</t>
   </si>
   <si>
-    <t>я бы с радостью, но</t>
-  </si>
-  <si>
-    <t>чёрт</t>
-  </si>
-  <si>
     <t>predlog_if_obst</t>
   </si>
   <si>
-    <t>только что понял</t>
-  </si>
-  <si>
-    <t>noun_type</t>
+    <t>собака</t>
+  </si>
+  <si>
+    <t>кошка</t>
+  </si>
+  <si>
+    <t>жена</t>
+  </si>
+  <si>
+    <t>ребенок</t>
+  </si>
+  <si>
+    <t>дети</t>
+  </si>
+  <si>
+    <t>дочь</t>
+  </si>
+  <si>
+    <t>сын</t>
+  </si>
+  <si>
+    <t>друг</t>
+  </si>
+  <si>
+    <t>подруга</t>
+  </si>
+  <si>
+    <t>отец</t>
+  </si>
+  <si>
+    <t>мать</t>
+  </si>
+  <si>
+    <t>квартира</t>
+  </si>
+  <si>
+    <t>до</t>
+  </si>
+  <si>
+    <t>дом</t>
+  </si>
+  <si>
+    <t>кухня</t>
+  </si>
+  <si>
+    <t>ванная</t>
+  </si>
+  <si>
+    <t>перед</t>
+  </si>
+  <si>
+    <t>унитаз</t>
+  </si>
+  <si>
+    <t>ноутбук</t>
+  </si>
+  <si>
+    <t>телефон</t>
+  </si>
+  <si>
+    <t>смартфон</t>
+  </si>
+  <si>
+    <t>документы</t>
+  </si>
+  <si>
+    <t>тёща</t>
+  </si>
+  <si>
+    <t>тесть</t>
+  </si>
+  <si>
+    <t>свекровь</t>
+  </si>
+  <si>
+    <t>свёкр</t>
+  </si>
+  <si>
+    <t>бабушка</t>
+  </si>
+  <si>
+    <t>дедушка</t>
+  </si>
+  <si>
+    <t>дядя</t>
+  </si>
+  <si>
+    <t>тётя</t>
+  </si>
+  <si>
+    <t>ковёр</t>
+  </si>
+  <si>
+    <t>фикус</t>
+  </si>
+  <si>
+    <t>кактус</t>
+  </si>
+  <si>
+    <t>мебель</t>
+  </si>
+  <si>
+    <t>телек</t>
+  </si>
+  <si>
+    <t>ноут</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>автомастерская</t>
+  </si>
+  <si>
+    <t>ремонт</t>
+  </si>
+  <si>
+    <t>обучение</t>
+  </si>
+  <si>
+    <t>гипермаркет</t>
+  </si>
+  <si>
+    <t>ЖЭК</t>
+  </si>
+  <si>
+    <t>нотариус</t>
+  </si>
+  <si>
+    <t>врач</t>
+  </si>
+  <si>
+    <t>доктор</t>
+  </si>
+  <si>
+    <t>центр госуслуг</t>
+  </si>
+  <si>
+    <t>курсы</t>
+  </si>
+  <si>
+    <t>совещание</t>
+  </si>
+  <si>
+    <t>родственники</t>
   </si>
   <si>
     <t>noun_type_alt</t>
   </si>
   <si>
-    <t>собака</t>
-  </si>
-  <si>
-    <t>to_be</t>
-  </si>
-  <si>
-    <t>как раз</t>
+    <t>case_obj</t>
+  </si>
+  <si>
+    <t>дача</t>
+  </si>
+  <si>
+    <t>хранение</t>
+  </si>
+  <si>
+    <t>банк</t>
+  </si>
+  <si>
+    <t>над</t>
+  </si>
+  <si>
+    <t>планерка</t>
   </si>
   <si>
     <t>move</t>
   </si>
   <si>
-    <t>thing</t>
-  </si>
-  <si>
-    <t>бляха-муха</t>
-  </si>
-  <si>
-    <t>кошка</t>
-  </si>
-  <si>
-    <t>жена</t>
-  </si>
-  <si>
-    <t>person</t>
-  </si>
-  <si>
-    <t>ребенок</t>
-  </si>
-  <si>
-    <t>дети</t>
+    <t>свадьба</t>
+  </si>
+  <si>
+    <t>похороны</t>
+  </si>
+  <si>
+    <t>ДР</t>
+  </si>
+  <si>
+    <t>день рождения</t>
+  </si>
+  <si>
+    <t>помолвка</t>
   </si>
   <si>
     <t>remove</t>
   </si>
   <si>
-    <t>дочь</t>
-  </si>
-  <si>
-    <t>сын</t>
-  </si>
-  <si>
-    <t>друг</t>
-  </si>
-  <si>
-    <t>подруга</t>
-  </si>
-  <si>
-    <t>отец</t>
-  </si>
-  <si>
-    <t>мать</t>
-  </si>
-  <si>
-    <t>квартира</t>
-  </si>
-  <si>
-    <t>place</t>
-  </si>
-  <si>
-    <t>дом</t>
-  </si>
-  <si>
-    <t>кухня</t>
-  </si>
-  <si>
-    <t>place_open</t>
+    <t>суд</t>
+  </si>
+  <si>
+    <t>прогулка</t>
+  </si>
+  <si>
+    <t>поход</t>
+  </si>
+  <si>
+    <t>вечеринка</t>
+  </si>
+  <si>
+    <t>пати</t>
+  </si>
+  <si>
+    <t>туса</t>
+  </si>
+  <si>
+    <t>дискотека</t>
+  </si>
+  <si>
+    <t>званый приём</t>
+  </si>
+  <si>
+    <t>вокзал</t>
+  </si>
+  <si>
+    <t>аэропорт</t>
+  </si>
+  <si>
+    <t>автовокзал</t>
+  </si>
+  <si>
+    <t>почта</t>
+  </si>
+  <si>
+    <t>рынок</t>
   </si>
   <si>
     <t>travel</t>
   </si>
   <si>
+    <t>фестиваль</t>
+  </si>
+  <si>
+    <t>конкурс</t>
+  </si>
+  <si>
+    <t>осмотр</t>
+  </si>
+  <si>
+    <t>проверка</t>
+  </si>
+  <si>
     <t>goal</t>
   </si>
   <si>
-    <t>ванная</t>
+    <t>проект</t>
+  </si>
+  <si>
+    <t>задание</t>
   </si>
   <si>
     <t>позаботиться</t>
   </si>
   <si>
-    <t>унитаз</t>
+    <t>план проекта</t>
+  </si>
+  <si>
+    <t>план</t>
   </si>
   <si>
     <t>решить</t>
   </si>
   <si>
-    <t>ноутбук</t>
-  </si>
-  <si>
-    <t>телефон</t>
-  </si>
-  <si>
-    <t>смартфон</t>
-  </si>
-  <si>
-    <t>документы</t>
-  </si>
-  <si>
-    <t>тёща</t>
-  </si>
-  <si>
-    <t>project</t>
-  </si>
-  <si>
-    <t>тесть</t>
-  </si>
-  <si>
-    <t>свекровь</t>
-  </si>
-  <si>
-    <t>свёкр</t>
-  </si>
-  <si>
-    <t>бабушка</t>
-  </si>
-  <si>
-    <t>дедушка</t>
-  </si>
-  <si>
-    <t>дядя</t>
-  </si>
-  <si>
-    <t>вот жалость</t>
-  </si>
-  <si>
-    <t>тётя</t>
-  </si>
-  <si>
-    <t>ковёр</t>
-  </si>
-  <si>
-    <t>фикус</t>
-  </si>
-  <si>
-    <t>кактус</t>
-  </si>
-  <si>
-    <t>мебель</t>
+    <t>диплом</t>
+  </si>
+  <si>
+    <t>уборка</t>
+  </si>
+  <si>
+    <t>картина</t>
+  </si>
+  <si>
+    <t>книга</t>
+  </si>
+  <si>
+    <t>гобелен</t>
+  </si>
+  <si>
+    <t>скульптура</t>
+  </si>
+  <si>
+    <t>мемуары</t>
+  </si>
+  <si>
+    <t>маникюр</t>
+  </si>
+  <si>
+    <t>педикюр</t>
+  </si>
+  <si>
+    <t>рейв</t>
+  </si>
+  <si>
+    <t>концерт</t>
+  </si>
+  <si>
+    <t>выставка</t>
+  </si>
+  <si>
+    <t>биеннале</t>
+  </si>
+  <si>
+    <t>галерея</t>
+  </si>
+  <si>
+    <t>музей</t>
+  </si>
+  <si>
+    <t>больница</t>
+  </si>
+  <si>
+    <t>поликлиника</t>
+  </si>
+  <si>
+    <t>курорт</t>
+  </si>
+  <si>
+    <t>отдых</t>
+  </si>
+  <si>
+    <t>санаторий</t>
+  </si>
+  <si>
+    <t>море</t>
+  </si>
+  <si>
+    <t>Чёрное море</t>
+  </si>
+  <si>
+    <t>Белое море</t>
+  </si>
+  <si>
+    <t>Красное море</t>
+  </si>
+  <si>
+    <t>Египет</t>
+  </si>
+  <si>
+    <t>Турция</t>
+  </si>
+  <si>
+    <t>Тайланд</t>
   </si>
   <si>
     <t>подумать</t>
   </si>
   <si>
-    <t>телек</t>
-  </si>
-  <si>
-    <t>ноут</t>
-  </si>
-  <si>
     <t>убирать</t>
   </si>
   <si>
-    <t>автомастерская</t>
-  </si>
-  <si>
     <t>добраться</t>
   </si>
   <si>
-    <t>ремонт</t>
-  </si>
-  <si>
     <t>выбраться</t>
   </si>
   <si>
-    <t>обучение</t>
-  </si>
-  <si>
-    <t>гипермаркет</t>
-  </si>
-  <si>
     <t>зайти</t>
   </si>
   <si>
-    <t>ЖЭК</t>
-  </si>
-  <si>
     <t>забежать</t>
   </si>
   <si>
-    <t>нотариус</t>
-  </si>
-  <si>
     <t>съездить</t>
   </si>
   <si>
-    <t>врач</t>
-  </si>
-  <si>
-    <t>доктор</t>
-  </si>
-  <si>
     <t>поехать</t>
   </si>
   <si>
-    <t>центр госуслуг</t>
-  </si>
-  <si>
-    <t>курсы</t>
-  </si>
-  <si>
-    <t>совещание</t>
-  </si>
-  <si>
-    <t>родственники</t>
-  </si>
-  <si>
     <t>сгонять</t>
   </si>
   <si>
-    <t>дача</t>
-  </si>
-  <si>
-    <t>хранение</t>
-  </si>
-  <si>
-    <t>банк</t>
-  </si>
-  <si>
-    <t>планерка</t>
-  </si>
-  <si>
-    <t>свадьба</t>
-  </si>
-  <si>
-    <t>похороны</t>
-  </si>
-  <si>
-    <t>ДР</t>
-  </si>
-  <si>
-    <t>день рождения</t>
-  </si>
-  <si>
-    <t>помолвка</t>
-  </si>
-  <si>
-    <t>суд</t>
-  </si>
-  <si>
-    <t>прогулка</t>
-  </si>
-  <si>
-    <t>поход</t>
-  </si>
-  <si>
-    <t>вечеринка</t>
-  </si>
-  <si>
-    <t>пати</t>
-  </si>
-  <si>
-    <t>туса</t>
-  </si>
-  <si>
-    <t>дискотека</t>
-  </si>
-  <si>
-    <t>званый приём</t>
-  </si>
-  <si>
-    <t>вокзал</t>
-  </si>
-  <si>
-    <t>аэропорт</t>
-  </si>
-  <si>
-    <t>автовокзал</t>
-  </si>
-  <si>
-    <t>почта</t>
-  </si>
-  <si>
-    <t>рынок</t>
-  </si>
-  <si>
-    <t>фестиваль</t>
-  </si>
-  <si>
-    <t>конкурс</t>
-  </si>
-  <si>
-    <t>осмотр</t>
-  </si>
-  <si>
-    <t>проверка</t>
-  </si>
-  <si>
-    <t>проект</t>
-  </si>
-  <si>
-    <t>задание</t>
-  </si>
-  <si>
-    <t>план проекта</t>
-  </si>
-  <si>
-    <t>план</t>
+    <t>поработать</t>
+  </si>
+  <si>
+    <t>работать</t>
+  </si>
+  <si>
+    <t>ending</t>
+  </si>
+  <si>
+    <t>comma_before</t>
+  </si>
+  <si>
+    <t>не могу отказаться</t>
+  </si>
+  <si>
+    <t>придется помочь</t>
+  </si>
+  <si>
+    <t>иначе никак</t>
+  </si>
+  <si>
+    <t>надо помочь</t>
   </si>
   <si>
     <t>Слово</t>
@@ -656,94 +816,13 @@
     <t>Теги</t>
   </si>
   <si>
-    <t>диплом</t>
-  </si>
-  <si>
     <t>пробка</t>
   </si>
   <si>
-    <t>уборка</t>
-  </si>
-  <si>
-    <t>картина</t>
-  </si>
-  <si>
-    <t>книга</t>
-  </si>
-  <si>
-    <t>гобелен</t>
-  </si>
-  <si>
     <t>аврал</t>
   </si>
   <si>
-    <t>скульптура</t>
-  </si>
-  <si>
-    <t>мемуары</t>
-  </si>
-  <si>
-    <t>маникюр</t>
-  </si>
-  <si>
-    <t>педикюр</t>
-  </si>
-  <si>
-    <t>рейв</t>
-  </si>
-  <si>
-    <t>концерт</t>
-  </si>
-  <si>
-    <t>выставка</t>
-  </si>
-  <si>
-    <t>биеннале</t>
-  </si>
-  <si>
     <t>туалет</t>
-  </si>
-  <si>
-    <t>галерея</t>
-  </si>
-  <si>
-    <t>музей</t>
-  </si>
-  <si>
-    <t>больница</t>
-  </si>
-  <si>
-    <t>поликлиника</t>
-  </si>
-  <si>
-    <t>курорт</t>
-  </si>
-  <si>
-    <t>отдых</t>
-  </si>
-  <si>
-    <t>санаторий</t>
-  </si>
-  <si>
-    <t>море</t>
-  </si>
-  <si>
-    <t>Чёрное море</t>
-  </si>
-  <si>
-    <t>Белое море</t>
-  </si>
-  <si>
-    <t>Красное море</t>
-  </si>
-  <si>
-    <t>Египет</t>
-  </si>
-  <si>
-    <t>Турция</t>
-  </si>
-  <si>
-    <t>Тайланд</t>
   </si>
   <si>
     <t>идти</t>
@@ -762,7 +841,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -779,15 +858,62 @@
     </font>
     <font/>
     <font>
+      <sz val="11.0"/>
+      <color rgb="FF404040"/>
+      <name val="Lato"/>
+    </font>
+    <font>
       <b/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F6F6"/>
+        <bgColor rgb="FFF3F6F6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9DAF8"/>
+        <bgColor rgb="FFC9DAF8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAD1DC"/>
+        <bgColor rgb="FFEAD1DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -796,7 +922,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -806,10 +932,40 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -849,6 +1005,10 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1067,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2">
@@ -1081,13 +1241,13 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2">
         <v>1.0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -1095,13 +1255,13 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
         <v>1.0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -1109,13 +1269,13 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2">
         <v>1.0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
@@ -1123,13 +1283,13 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>1.0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
@@ -1137,13 +1297,13 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2">
         <v>1.0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1311,13 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2">
         <v>1.0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
@@ -1165,13 +1325,13 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2">
         <v>1.0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
@@ -1179,13 +1339,13 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2">
         <v>1.0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
@@ -1193,13 +1353,13 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2">
         <v>1.0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
@@ -1207,13 +1367,13 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2">
         <v>1.0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12">
@@ -1221,13 +1381,13 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2">
         <v>2.0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13">
@@ -1235,13 +1395,13 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2">
         <v>2.0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14">
@@ -1249,13 +1409,13 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2">
         <v>2.0</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15">
@@ -1263,13 +1423,13 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="C15" s="2">
         <v>2.0</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
@@ -1277,13 +1437,13 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2">
         <v>2.0</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17">
@@ -1291,13 +1451,13 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2">
         <v>2.0</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18">
@@ -1305,13 +1465,13 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2">
         <v>2.0</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -1319,13 +1479,13 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="C19" s="2">
         <v>2.0</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20">
@@ -1333,13 +1493,13 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="C20" s="2">
         <v>2.0</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21">
@@ -1347,13 +1507,13 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="C21" s="2">
         <v>2.0</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22">
@@ -1361,13 +1521,13 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="C22" s="2">
         <v>2.0</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23">
@@ -1375,13 +1535,13 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="C23" s="2">
         <v>2.0</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24">
@@ -1389,13 +1549,13 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="C24" s="2">
         <v>2.0</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25">
@@ -1403,13 +1563,13 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="C25" s="2">
         <v>2.0</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26">
@@ -1417,13 +1577,13 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="C26" s="2">
         <v>2.0</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1459,34 +1619,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2">
@@ -1494,7 +1654,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2">
         <v>1.0</v>
@@ -1515,7 +1675,7 @@
         <v>1.0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -1523,7 +1683,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2">
         <v>1.0</v>
@@ -1544,7 +1704,7 @@
         <v>1.0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -1552,7 +1712,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2">
         <v>1.0</v>
@@ -1573,7 +1733,7 @@
         <v>1.0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -1581,7 +1741,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2">
         <v>1.0</v>
@@ -1602,7 +1762,7 @@
         <v>1.0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -1610,7 +1770,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2">
         <v>1.0</v>
@@ -1631,7 +1791,7 @@
         <v>1.0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -1639,7 +1799,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2">
         <v>1.0</v>
@@ -1660,7 +1820,7 @@
         <v>1.0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -1668,7 +1828,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2">
         <v>1.0</v>
@@ -1689,7 +1849,7 @@
         <v>1.0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
@@ -1697,7 +1857,7 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2">
         <v>1.0</v>
@@ -1718,7 +1878,7 @@
         <v>1.0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -1726,7 +1886,7 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C10" s="2">
         <v>1.0</v>
@@ -1747,7 +1907,7 @@
         <v>1.0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -1755,7 +1915,7 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2">
         <v>1.0</v>
@@ -1774,7 +1934,7 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -1782,7 +1942,7 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2">
         <v>0.0</v>
@@ -1801,7 +1961,7 @@
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
@@ -1809,7 +1969,7 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C13" s="2">
         <v>0.0</v>
@@ -1828,7 +1988,7 @@
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
@@ -1836,7 +1996,7 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C14" s="2">
         <v>0.0</v>
@@ -1855,7 +2015,7 @@
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15">
@@ -1863,7 +2023,7 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="C15" s="2">
         <v>1.0</v>
@@ -1882,7 +2042,7 @@
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
@@ -1890,7 +2050,7 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C16" s="2">
         <v>1.0</v>
@@ -1909,7 +2069,7 @@
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
@@ -1917,7 +2077,7 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C17" s="2">
         <v>0.0</v>
@@ -1936,7 +2096,7 @@
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
@@ -1944,7 +2104,7 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="C18" s="2">
         <v>1.0</v>
@@ -1963,7 +2123,7 @@
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -1971,7 +2131,7 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C19" s="2">
         <v>1.0</v>
@@ -1990,7 +2150,7 @@
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
@@ -1998,7 +2158,7 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C20" s="2">
         <v>1.0</v>
@@ -2017,7 +2177,7 @@
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
@@ -2025,7 +2185,7 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C21" s="2">
         <v>1.0</v>
@@ -2044,7 +2204,7 @@
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
@@ -2052,7 +2212,7 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C22" s="2">
         <v>1.0</v>
@@ -2071,7 +2231,7 @@
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
@@ -2079,7 +2239,7 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="C23" s="2">
         <v>0.0</v>
@@ -2098,7 +2258,7 @@
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
@@ -2106,7 +2266,7 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C24" s="2">
         <v>0.0</v>
@@ -2125,7 +2285,7 @@
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
@@ -2133,7 +2293,7 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="C25" s="2">
         <v>0.0</v>
@@ -2152,7 +2312,7 @@
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
@@ -2160,7 +2320,7 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C26" s="2">
         <v>1.0</v>
@@ -2179,7 +2339,7 @@
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
@@ -2187,7 +2347,7 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C27" s="2">
         <v>1.0</v>
@@ -2206,7 +2366,7 @@
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
@@ -2214,7 +2374,7 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C28" s="2">
         <v>1.0</v>
@@ -2233,7 +2393,7 @@
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
@@ -2241,7 +2401,7 @@
         <v>28.0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C29" s="2">
         <v>1.0</v>
@@ -2260,7 +2420,7 @@
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
@@ -2268,7 +2428,7 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C30" s="2">
         <v>1.0</v>
@@ -2287,7 +2447,7 @@
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -2295,7 +2455,7 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C31" s="2">
         <v>0.0</v>
@@ -2313,7 +2473,7 @@
         <v>0.0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2336,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2">
@@ -2344,7 +2504,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
@@ -2352,7 +2512,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
@@ -2360,31 +2520,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2395,43 +2531,793 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <tabColor rgb="FFB7B7B7"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="2.86"/>
+    <col customWidth="1" min="7" max="7" width="20.57"/>
+    <col customWidth="1" min="8" max="8" width="23.71"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="5"/>
     </row>
     <row r="3">
-      <c r="A3" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="6"/>
     </row>
     <row r="4">
-      <c r="A4" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="14"/>
+      <c r="B28" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="14"/>
+      <c r="B30" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="14"/>
+      <c r="B32" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="14"/>
+      <c r="B33" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="14"/>
+      <c r="B34" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="14"/>
+      <c r="B35" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="16"/>
+      <c r="B36" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="16"/>
+      <c r="B37" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="16"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="16"/>
+      <c r="B40" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="16"/>
+      <c r="B41" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2459,13 +3345,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2">
@@ -2473,13 +3359,13 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2">
         <v>1.0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3">
@@ -2487,13 +3373,13 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2">
         <v>1.0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4">
@@ -2501,13 +3387,13 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="C4" s="2">
         <v>1.0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
@@ -2515,13 +3401,13 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="C5" s="2">
         <v>1.0</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>90</v>
+      <c r="D5" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="6">
@@ -2529,13 +3415,13 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2">
         <v>1.0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7">
@@ -2543,13 +3429,13 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2">
         <v>1.0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8">
@@ -2557,13 +3443,13 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="C8" s="2">
         <v>1.0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
@@ -2571,13 +3457,13 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="C9" s="2">
         <v>1.0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
@@ -2585,13 +3471,13 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C10" s="2">
         <v>0.0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
@@ -2599,57 +3485,57 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="C11" s="2">
         <v>1.0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="2" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C12" s="2">
         <v>1.0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="2" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C13" s="2">
         <v>0.0</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>90</v>
+      <c r="D13" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C14" s="2">
         <v>1.0</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="2" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="C15" s="2">
         <v>1.0</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2670,10 +3556,8 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="2.86"/>
     <col customWidth="1" min="2" max="2" width="15.0"/>
-    <col customWidth="1" min="3" max="3" width="3.86"/>
-    <col customWidth="1" min="4" max="4" width="6.29"/>
-    <col customWidth="1" min="5" max="5" width="10.71"/>
-    <col customWidth="1" min="6" max="7" width="15.14"/>
+    <col customWidth="1" min="3" max="3" width="10.71"/>
+    <col customWidth="1" min="4" max="5" width="15.14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2681,937 +3565,925 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2">
       <c r="B2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>114</v>
+        <v>131</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>114</v>
+        <v>132</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>118</v>
+        <v>133</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>118</v>
+        <v>134</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>118</v>
+        <v>135</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>118</v>
+        <v>136</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>118</v>
+        <v>138</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>118</v>
+        <v>139</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>118</v>
+        <v>140</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>118</v>
+        <v>141</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>129</v>
+        <v>142</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>129</v>
+        <v>144</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>132</v>
+        <v>145</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>129</v>
+        <v>146</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>114</v>
+      <c r="B17" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>114</v>
+        <v>149</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>114</v>
+        <v>150</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>114</v>
+        <v>151</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>114</v>
+        <v>152</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>118</v>
+        <v>153</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>118</v>
+        <v>154</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>118</v>
+        <v>155</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>118</v>
+        <v>156</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>118</v>
+        <v>157</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>118</v>
+        <v>158</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>118</v>
+        <v>159</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>118</v>
+        <v>160</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>114</v>
+        <v>161</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>114</v>
+        <v>162</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>114</v>
+        <v>163</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>114</v>
+        <v>164</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>114</v>
+        <v>165</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>114</v>
+        <v>166</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>129</v>
+        <v>168</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>8</v>
+        <v>169</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>8</v>
+        <v>170</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>129</v>
+        <v>171</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>129</v>
+        <v>172</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>118</v>
+        <v>173</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>118</v>
+        <v>174</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>118</v>
+        <v>175</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>129</v>
+        <v>176</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>8</v>
+        <v>177</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>8</v>
+        <v>178</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>118</v>
+        <v>179</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>132</v>
+        <v>182</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>129</v>
+        <v>142</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>8</v>
+        <v>183</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>129</v>
+        <v>184</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>8</v>
+        <v>186</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>8</v>
+        <v>177</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>8</v>
+        <v>170</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>8</v>
+        <v>188</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>8</v>
+        <v>189</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>8</v>
+        <v>190</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>8</v>
+        <v>191</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="59">
       <c r="B59" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>8</v>
+        <v>192</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="60">
       <c r="B60" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>129</v>
+        <v>194</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>8</v>
+        <v>195</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>129</v>
+        <v>196</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>8</v>
+        <v>197</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>8</v>
+        <v>198</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="65">
       <c r="B65" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>8</v>
+        <v>199</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="66">
       <c r="B66" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>8</v>
+        <v>200</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>8</v>
+        <v>201</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="68">
       <c r="B68" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2" t="s">
-        <v>19</v>
+        <v>202</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="69">
       <c r="B69" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>129</v>
+        <v>203</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="70">
       <c r="B70" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2" t="s">
-        <v>19</v>
+        <v>204</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="71">
       <c r="B71" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2" t="s">
-        <v>19</v>
+        <v>205</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="72">
       <c r="B72" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2" t="s">
-        <v>19</v>
+        <v>206</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="73">
       <c r="B73" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>8</v>
+        <v>208</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="74">
       <c r="B74" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>8</v>
+        <v>209</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>8</v>
+        <v>210</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="76">
       <c r="B76" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>8</v>
+        <v>211</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="77">
       <c r="B77" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>144</v>
+        <v>85</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>144</v>
+        <v>213</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="79">
       <c r="B79" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>114</v>
+        <v>214</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="80">
       <c r="B80" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>144</v>
+        <v>169</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="81">
       <c r="B81" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>114</v>
+        <v>216</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="82">
       <c r="B82" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>144</v>
+        <v>217</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="83">
       <c r="B83" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>144</v>
+        <v>210</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="84">
       <c r="B84" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>114</v>
+        <v>219</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="85">
       <c r="B85" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>144</v>
+        <v>220</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="86">
       <c r="B86" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>114</v>
+        <v>221</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="87">
       <c r="B87" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>114</v>
+        <v>222</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="88">
       <c r="B88" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>114</v>
+        <v>223</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="89">
       <c r="B89" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>114</v>
+        <v>224</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="90">
       <c r="B90" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>144</v>
+        <v>225</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="91">
       <c r="B91" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
+        <v>226</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="92">
       <c r="B92" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>8</v>
+        <v>227</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="93">
       <c r="B93" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>8</v>
+        <v>228</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="94">
-      <c r="B94" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>8</v>
+      <c r="B94" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="95">
       <c r="B95" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>8</v>
+        <v>230</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="96">
-      <c r="B96" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>8</v>
+      <c r="B96" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="97">
       <c r="B97" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>129</v>
+        <v>232</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="98">
       <c r="B98" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>129</v>
+        <v>233</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="99">
       <c r="B99" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>129</v>
+        <v>234</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="100">
       <c r="B100" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>129</v>
+        <v>235</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="101">
       <c r="B101" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>132</v>
+        <v>236</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="102">
       <c r="B102" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>8</v>
+        <v>237</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="103">
       <c r="B103" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>129</v>
+        <v>238</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="104">
       <c r="B104" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>132</v>
+        <v>239</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="105">
       <c r="B105" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>132</v>
+        <v>240</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="106">
       <c r="B106" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>132</v>
+        <v>241</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="107">
       <c r="B107" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>132</v>
+        <v>242</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="108">
       <c r="B108" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>129</v>
+        <v>243</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="109">
       <c r="B109" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>129</v>
+        <v>244</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="110">
       <c r="B110" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>129</v>
+        <v>245</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3633,6 +4505,7 @@
     <col customWidth="1" min="1" max="1" width="3.14"/>
     <col customWidth="1" min="2" max="2" width="17.14"/>
     <col customWidth="1" min="4" max="4" width="8.14"/>
+    <col customWidth="1" min="7" max="7" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3640,22 +4513,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>111</v>
+        <v>129</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="2">
@@ -3663,13 +4536,13 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>113</v>
+        <v>187</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3">
@@ -3677,13 +4550,13 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>113</v>
+        <v>187</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
@@ -3691,16 +4564,16 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>121</v>
+        <v>193</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5">
@@ -3708,13 +4581,13 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>113</v>
+        <v>187</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6">
@@ -3722,13 +4595,13 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>113</v>
+        <v>187</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -3736,13 +4609,13 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>113</v>
+        <v>187</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
@@ -3750,13 +4623,13 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>113</v>
+        <v>187</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
@@ -3764,13 +4637,13 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>113</v>
+        <v>187</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
@@ -3778,13 +4651,13 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>113</v>
+        <v>187</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
@@ -3792,16 +4665,16 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>121</v>
+        <v>193</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>113</v>
+        <v>187</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12">
@@ -3809,16 +4682,16 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>133</v>
+        <v>207</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
@@ -3826,13 +4699,16 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>134</v>
+        <v>212</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="14">
@@ -3840,16 +4716,16 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>133</v>
+        <v>207</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>118</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -3857,16 +4733,19 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>136</v>
+        <v>215</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
+        <v>212</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>118</v>
+        <v>80</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="16">
@@ -3874,16 +4753,19 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>134</v>
+        <v>212</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>118</v>
+        <v>80</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="17">
@@ -3891,13 +4773,13 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>133</v>
+        <v>207</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18">
@@ -3905,13 +4787,13 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>134</v>
+        <v>212</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19">
@@ -3919,13 +4801,13 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>134</v>
+        <v>212</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20">
@@ -3933,13 +4815,13 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>113</v>
+        <v>187</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
@@ -3947,13 +4829,13 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>134</v>
+        <v>212</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22">
@@ -3961,13 +4843,13 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>134</v>
+        <v>212</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23">
@@ -3975,13 +4857,13 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>134</v>
+        <v>212</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24">
@@ -3989,13 +4871,13 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>134</v>
+        <v>212</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25">
@@ -4003,13 +4885,13 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>134</v>
+        <v>212</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26">
@@ -4017,16 +4899,16 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>113</v>
+        <v>187</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27">
@@ -4034,13 +4916,13 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>113</v>
+        <v>187</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
@@ -4048,13 +4930,13 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>113</v>
+        <v>187</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29">
@@ -4062,16 +4944,16 @@
         <v>28.0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>134</v>
+        <v>212</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -4079,16 +4961,19 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>157</v>
+        <v>246</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>134</v>
+        <v>212</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -4096,13 +4981,13 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>160</v>
+        <v>247</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>134</v>
+        <v>212</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32">
@@ -4110,16 +4995,16 @@
         <v>31.0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>162</v>
+        <v>248</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>133</v>
+        <v>207</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>8</v>
+        <v>119</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -4127,16 +5012,16 @@
         <v>32.0</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>164</v>
+        <v>249</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>133</v>
+        <v>207</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -4144,13 +5029,16 @@
         <v>33.0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>167</v>
+        <v>250</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>133</v>
+        <v>207</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -4158,13 +5046,16 @@
         <v>34.0</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>169</v>
+        <v>251</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>133</v>
+        <v>207</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -4172,13 +5063,16 @@
         <v>35.0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>171</v>
+        <v>252</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>133</v>
+        <v>207</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -4186,16 +5080,16 @@
         <v>36.0</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>174</v>
+        <v>253</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>133</v>
+        <v>207</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -4203,16 +5097,16 @@
         <v>37.0</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>133</v>
+        <v>207</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -4220,13 +5114,16 @@
         <v>38.0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>133</v>
+        <v>207</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -4234,13 +5131,44 @@
         <v>39.0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>179</v>
+        <v>254</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>133</v>
+        <v>207</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -4258,290 +5186,339 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="2" max="2" width="18.29"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
     <col customWidth="1" min="1" max="1" width="21.29"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>210</v>
+        <v>263</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>211</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>213</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>218</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>136</v>
+        <v>215</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/otmazy_words.xlsx
+++ b/otmazy_words.xlsx
@@ -19,23 +19,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="315">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>контекст</t>
+  </si>
+  <si>
     <t>glagol</t>
   </si>
   <si>
+    <t>субъект</t>
+  </si>
+  <si>
     <t>object</t>
   </si>
   <si>
     <t>destination</t>
   </si>
   <si>
+    <t>тип субъекта</t>
+  </si>
+  <si>
     <t>event</t>
   </si>
   <si>
+    <t>начало</t>
+  </si>
+  <si>
     <t>inanimate_obj</t>
   </si>
   <si>
@@ -54,48 +66,45 @@
     <t>склонение_место</t>
   </si>
   <si>
-    <t>контекст</t>
+    <t>я</t>
+  </si>
+  <si>
+    <t>работа</t>
   </si>
   <si>
     <t>везти</t>
   </si>
   <si>
-    <t>субъект</t>
-  </si>
-  <si>
-    <t>тип субъекта</t>
-  </si>
-  <si>
-    <t>начало</t>
+    <t>должен</t>
+  </si>
+  <si>
+    <t>семья</t>
+  </si>
+  <si>
+    <t>друзья</t>
+  </si>
+  <si>
+    <t>собираюсь</t>
   </si>
   <si>
     <t>accs</t>
   </si>
   <si>
-    <t>я</t>
+    <t>обещал</t>
   </si>
   <si>
     <t>вести</t>
   </si>
   <si>
-    <t>должен</t>
-  </si>
-  <si>
-    <t>собираюсь</t>
-  </si>
-  <si>
-    <t>обещал</t>
-  </si>
-  <si>
     <t>хотел</t>
   </si>
   <si>
+    <t>буду</t>
+  </si>
+  <si>
     <t>забрать</t>
   </si>
   <si>
-    <t>буду</t>
-  </si>
-  <si>
     <t>давно собираюсь</t>
   </si>
   <si>
@@ -114,90 +123,90 @@
     <t>давно хотел</t>
   </si>
   <si>
+    <t>точно буду</t>
+  </si>
+  <si>
+    <t>мне</t>
+  </si>
+  <si>
+    <t>надо</t>
+  </si>
+  <si>
     <t>принести</t>
   </si>
   <si>
+    <t>очень надо</t>
+  </si>
+  <si>
+    <t>придется</t>
+  </si>
+  <si>
     <t>отнести</t>
   </si>
   <si>
-    <t>точно буду</t>
-  </si>
-  <si>
-    <t>мне</t>
-  </si>
-  <si>
-    <t>надо</t>
+    <t>точно придется</t>
   </si>
   <si>
     <t>сдать</t>
   </si>
   <si>
-    <t>очень надо</t>
-  </si>
-  <si>
-    <t>придется</t>
+    <t>пора</t>
+  </si>
+  <si>
+    <t>давно пора</t>
   </si>
   <si>
     <t>отправить</t>
   </si>
   <si>
-    <t>точно придется</t>
-  </si>
-  <si>
-    <t>пора</t>
-  </si>
-  <si>
-    <t>давно пора</t>
+    <t>очень давно пора</t>
   </si>
   <si>
     <t>убрать</t>
   </si>
   <si>
-    <t>очень давно пора</t>
+    <t>стоит</t>
+  </si>
+  <si>
+    <t>давно стоит</t>
   </si>
   <si>
     <t>сходить</t>
   </si>
   <si>
-    <t>стоит</t>
+    <t>явно придется</t>
   </si>
   <si>
     <t>loc2</t>
   </si>
   <si>
-    <t>давно стоит</t>
+    <t>явно стоит</t>
   </si>
   <si>
     <t>убраться</t>
   </si>
   <si>
-    <t>явно придется</t>
+    <t>явно надо</t>
+  </si>
+  <si>
+    <t>страшно надо</t>
+  </si>
+  <si>
+    <t>критически важно</t>
+  </si>
+  <si>
+    <t>очень важно</t>
   </si>
   <si>
     <t>loct</t>
   </si>
   <si>
-    <t>явно стоит</t>
-  </si>
-  <si>
     <t>прийти</t>
   </si>
   <si>
-    <t>явно надо</t>
-  </si>
-  <si>
-    <t>страшно надо</t>
-  </si>
-  <si>
     <t>позаботиться о</t>
   </si>
   <si>
-    <t>критически важно</t>
-  </si>
-  <si>
-    <t>очень важно</t>
-  </si>
-  <si>
     <t>решить вопрос с</t>
   </si>
   <si>
@@ -246,19 +255,19 @@
     <t>подумать о</t>
   </si>
   <si>
+    <t>predlog</t>
+  </si>
+  <si>
+    <t>noun_type</t>
+  </si>
+  <si>
+    <t>noun_case</t>
+  </si>
+  <si>
     <t>запланировать</t>
   </si>
   <si>
-    <t>predlog</t>
-  </si>
-  <si>
-    <t>noun_type</t>
-  </si>
-  <si>
-    <t>noun_case</t>
-  </si>
-  <si>
-    <t>от</t>
+    <t>у</t>
   </si>
   <si>
     <t>person</t>
@@ -276,24 +285,21 @@
     <t>для</t>
   </si>
   <si>
-    <t>работа</t>
-  </si>
-  <si>
-    <t>семья</t>
-  </si>
-  <si>
-    <t>друзья</t>
-  </si>
-  <si>
     <t>к</t>
   </si>
   <si>
     <t>datv</t>
   </si>
   <si>
+    <t>beginning</t>
+  </si>
+  <si>
     <t>дательный</t>
   </si>
   <si>
+    <t>comma_after</t>
+  </si>
+  <si>
     <t>Кому? Чему?</t>
   </si>
   <si>
@@ -306,6 +312,9 @@
     <t>с</t>
   </si>
   <si>
+    <t>tense</t>
+  </si>
+  <si>
     <t>творительный</t>
   </si>
   <si>
@@ -315,51 +324,42 @@
     <t>за</t>
   </si>
   <si>
+    <t>извини</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
     <t>о</t>
   </si>
   <si>
+    <t>увы</t>
+  </si>
+  <si>
     <t>предложный</t>
   </si>
   <si>
     <t>О ком? О чём? и т.п.</t>
   </si>
   <si>
+    <t>future</t>
+  </si>
+  <si>
     <t>местный</t>
   </si>
   <si>
-    <t>beginning</t>
-  </si>
-  <si>
-    <t>comma_after</t>
-  </si>
-  <si>
-    <t>tense</t>
-  </si>
-  <si>
-    <t>извини</t>
+    <t>к сожалению</t>
+  </si>
+  <si>
+    <t>эх</t>
+  </si>
+  <si>
+    <t>сорян</t>
   </si>
   <si>
     <t>thing</t>
   </si>
   <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>увы</t>
-  </si>
-  <si>
-    <t>к сожалению</t>
-  </si>
-  <si>
-    <t>future</t>
-  </si>
-  <si>
-    <t>эх</t>
-  </si>
-  <si>
-    <t>сорян</t>
-  </si>
-  <si>
     <t>блин</t>
   </si>
   <si>
@@ -369,196 +369,274 @@
     <t>совсем забыл</t>
   </si>
   <si>
+    <t>я бы с радостью, но</t>
+  </si>
+  <si>
+    <t>чёрт</t>
+  </si>
+  <si>
+    <t>только что понял</t>
+  </si>
+  <si>
+    <t>бляха-муха</t>
+  </si>
+  <si>
+    <t>вот жалость</t>
+  </si>
+  <si>
+    <t>мои извинения</t>
+  </si>
+  <si>
+    <t>премного извиняюсь</t>
+  </si>
+  <si>
+    <t>сожалею</t>
+  </si>
+  <si>
     <t>из</t>
   </si>
   <si>
-    <t>я бы с радостью, но</t>
-  </si>
-  <si>
-    <t>чёрт</t>
+    <t>премного сожалею</t>
   </si>
   <si>
     <t>place</t>
   </si>
   <si>
-    <t>только что понял</t>
-  </si>
-  <si>
-    <t>как раз</t>
+    <t>жалко</t>
+  </si>
+  <si>
+    <t>к несчастью</t>
   </si>
   <si>
     <t>в</t>
   </si>
   <si>
-    <t>бляха-муха</t>
-  </si>
-  <si>
-    <t>вот жалость</t>
+    <t>увы -</t>
+  </si>
+  <si>
+    <t>вот незадача</t>
+  </si>
+  <si>
+    <t>вот зараза</t>
+  </si>
+  <si>
+    <t>печально</t>
+  </si>
+  <si>
+    <t>вот печаль</t>
+  </si>
+  <si>
+    <t>ой</t>
+  </si>
+  <si>
+    <t>noun</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>type_alt</t>
+  </si>
+  <si>
+    <t>не получится</t>
+  </si>
+  <si>
+    <t>собака</t>
+  </si>
+  <si>
+    <t>кошка</t>
+  </si>
+  <si>
+    <t>жена</t>
+  </si>
+  <si>
+    <t>ребенок</t>
+  </si>
+  <si>
+    <t>дети</t>
+  </si>
+  <si>
+    <t>дочь</t>
   </si>
   <si>
     <t>place_open</t>
   </si>
   <si>
+    <t>сын</t>
+  </si>
+  <si>
+    <t>друг</t>
+  </si>
+  <si>
+    <t>подруга</t>
+  </si>
+  <si>
+    <t>отец</t>
+  </si>
+  <si>
+    <t>мать</t>
+  </si>
+  <si>
     <t>на</t>
   </si>
   <si>
-    <t>noun</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>type_alt</t>
-  </si>
-  <si>
-    <t>predlog_if_obst</t>
-  </si>
-  <si>
-    <t>собака</t>
-  </si>
-  <si>
-    <t>кошка</t>
-  </si>
-  <si>
-    <t>жена</t>
-  </si>
-  <si>
-    <t>ребенок</t>
-  </si>
-  <si>
-    <t>дети</t>
-  </si>
-  <si>
-    <t>дочь</t>
-  </si>
-  <si>
-    <t>сын</t>
-  </si>
-  <si>
-    <t>друг</t>
-  </si>
-  <si>
-    <t>подруга</t>
-  </si>
-  <si>
-    <t>отец</t>
-  </si>
-  <si>
-    <t>мать</t>
-  </si>
-  <si>
     <t>квартира</t>
   </si>
   <si>
+    <t>дом</t>
+  </si>
+  <si>
+    <t>кухня</t>
+  </si>
+  <si>
+    <t>ванная</t>
+  </si>
+  <si>
+    <t>унитаз</t>
+  </si>
+  <si>
+    <t>ноутбук</t>
+  </si>
+  <si>
+    <t>телефон</t>
+  </si>
+  <si>
+    <t>смартфон</t>
+  </si>
+  <si>
+    <t>документы</t>
+  </si>
+  <si>
+    <t>тёща</t>
+  </si>
+  <si>
+    <t>тесть</t>
+  </si>
+  <si>
+    <t>свекровь</t>
+  </si>
+  <si>
+    <t>свёкр</t>
+  </si>
+  <si>
+    <t>бабушка</t>
+  </si>
+  <si>
+    <t>дедушка</t>
+  </si>
+  <si>
+    <t>дядя</t>
+  </si>
+  <si>
+    <t>тётя</t>
+  </si>
+  <si>
+    <t>ковёр</t>
+  </si>
+  <si>
     <t>до</t>
   </si>
   <si>
-    <t>дом</t>
-  </si>
-  <si>
-    <t>кухня</t>
-  </si>
-  <si>
-    <t>ванная</t>
+    <t>фикус</t>
+  </si>
+  <si>
+    <t>кактус</t>
+  </si>
+  <si>
+    <t>мебель</t>
+  </si>
+  <si>
+    <t>телек</t>
+  </si>
+  <si>
+    <t>ноут</t>
+  </si>
+  <si>
+    <t>автомастерская</t>
   </si>
   <si>
     <t>перед</t>
   </si>
   <si>
-    <t>унитаз</t>
-  </si>
-  <si>
-    <t>ноутбук</t>
-  </si>
-  <si>
-    <t>телефон</t>
-  </si>
-  <si>
-    <t>смартфон</t>
-  </si>
-  <si>
-    <t>документы</t>
-  </si>
-  <si>
-    <t>тёща</t>
-  </si>
-  <si>
-    <t>тесть</t>
-  </si>
-  <si>
-    <t>свекровь</t>
-  </si>
-  <si>
-    <t>свёкр</t>
-  </si>
-  <si>
-    <t>бабушка</t>
-  </si>
-  <si>
-    <t>дедушка</t>
-  </si>
-  <si>
-    <t>дядя</t>
-  </si>
-  <si>
-    <t>тётя</t>
-  </si>
-  <si>
-    <t>ковёр</t>
-  </si>
-  <si>
-    <t>фикус</t>
-  </si>
-  <si>
-    <t>кактус</t>
-  </si>
-  <si>
-    <t>мебель</t>
-  </si>
-  <si>
-    <t>телек</t>
-  </si>
-  <si>
-    <t>ноут</t>
+    <t>ремонт</t>
+  </si>
+  <si>
+    <t>обучение</t>
+  </si>
+  <si>
+    <t>гипермаркет</t>
+  </si>
+  <si>
+    <t>ЖЭК</t>
+  </si>
+  <si>
+    <t>нотариус</t>
+  </si>
+  <si>
+    <t>врач</t>
+  </si>
+  <si>
+    <t>доктор</t>
+  </si>
+  <si>
+    <t>центр госуслуг</t>
+  </si>
+  <si>
+    <t>курсы</t>
+  </si>
+  <si>
+    <t>совещание</t>
+  </si>
+  <si>
+    <t>родственники</t>
+  </si>
+  <si>
+    <t>дача</t>
   </si>
   <si>
     <t>project</t>
   </si>
   <si>
-    <t>автомастерская</t>
-  </si>
-  <si>
-    <t>ремонт</t>
-  </si>
-  <si>
-    <t>обучение</t>
-  </si>
-  <si>
-    <t>гипермаркет</t>
-  </si>
-  <si>
-    <t>ЖЭК</t>
-  </si>
-  <si>
-    <t>нотариус</t>
-  </si>
-  <si>
-    <t>врач</t>
-  </si>
-  <si>
-    <t>доктор</t>
-  </si>
-  <si>
-    <t>центр госуслуг</t>
-  </si>
-  <si>
-    <t>курсы</t>
-  </si>
-  <si>
-    <t>совещание</t>
-  </si>
-  <si>
-    <t>родственники</t>
+    <t>хранение</t>
+  </si>
+  <si>
+    <t>банк</t>
+  </si>
+  <si>
+    <t>планерка</t>
+  </si>
+  <si>
+    <t>свадьба</t>
+  </si>
+  <si>
+    <t>похороны</t>
+  </si>
+  <si>
+    <t>ДР</t>
+  </si>
+  <si>
+    <t>день рождения</t>
+  </si>
+  <si>
+    <t>над</t>
+  </si>
+  <si>
+    <t>помолвка</t>
+  </si>
+  <si>
+    <t>суд</t>
+  </si>
+  <si>
+    <t>прогулка</t>
+  </si>
+  <si>
+    <t>поход</t>
+  </si>
+  <si>
+    <t>вечеринка</t>
+  </si>
+  <si>
+    <t>пати</t>
   </si>
   <si>
     <t>noun_type_alt</t>
@@ -567,57 +645,6 @@
     <t>case_obj</t>
   </si>
   <si>
-    <t>дача</t>
-  </si>
-  <si>
-    <t>хранение</t>
-  </si>
-  <si>
-    <t>банк</t>
-  </si>
-  <si>
-    <t>над</t>
-  </si>
-  <si>
-    <t>планерка</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>свадьба</t>
-  </si>
-  <si>
-    <t>похороны</t>
-  </si>
-  <si>
-    <t>ДР</t>
-  </si>
-  <si>
-    <t>день рождения</t>
-  </si>
-  <si>
-    <t>помолвка</t>
-  </si>
-  <si>
-    <t>remove</t>
-  </si>
-  <si>
-    <t>суд</t>
-  </si>
-  <si>
-    <t>прогулка</t>
-  </si>
-  <si>
-    <t>поход</t>
-  </si>
-  <si>
-    <t>вечеринка</t>
-  </si>
-  <si>
-    <t>пати</t>
-  </si>
-  <si>
     <t>туса</t>
   </si>
   <si>
@@ -642,9 +669,6 @@
     <t>рынок</t>
   </si>
   <si>
-    <t>travel</t>
-  </si>
-  <si>
     <t>фестиваль</t>
   </si>
   <si>
@@ -657,7 +681,7 @@
     <t>проверка</t>
   </si>
   <si>
-    <t>goal</t>
+    <t>позаботиться</t>
   </si>
   <si>
     <t>проект</t>
@@ -666,7 +690,7 @@
     <t>задание</t>
   </si>
   <si>
-    <t>позаботиться</t>
+    <t>решить</t>
   </si>
   <si>
     <t>план проекта</t>
@@ -675,9 +699,6 @@
     <t>план</t>
   </si>
   <si>
-    <t>решить</t>
-  </si>
-  <si>
     <t>диплом</t>
   </si>
   <si>
@@ -711,12 +732,18 @@
     <t>концерт</t>
   </si>
   <si>
+    <t>подумать</t>
+  </si>
+  <si>
     <t>выставка</t>
   </si>
   <si>
     <t>биеннале</t>
   </si>
   <si>
+    <t>убирать</t>
+  </si>
+  <si>
     <t>галерея</t>
   </si>
   <si>
@@ -726,27 +753,45 @@
     <t>больница</t>
   </si>
   <si>
+    <t>добраться</t>
+  </si>
+  <si>
     <t>поликлиника</t>
   </si>
   <si>
+    <t>выбраться</t>
+  </si>
+  <si>
     <t>курорт</t>
   </si>
   <si>
+    <t>зайти</t>
+  </si>
+  <si>
     <t>отдых</t>
   </si>
   <si>
     <t>санаторий</t>
   </si>
   <si>
+    <t>забежать</t>
+  </si>
+  <si>
     <t>море</t>
   </si>
   <si>
+    <t>съездить</t>
+  </si>
+  <si>
     <t>Чёрное море</t>
   </si>
   <si>
     <t>Белое море</t>
   </si>
   <si>
+    <t>поехать</t>
+  </si>
+  <si>
     <t>Красное море</t>
   </si>
   <si>
@@ -756,58 +801,142 @@
     <t>Турция</t>
   </si>
   <si>
+    <t>сгонять</t>
+  </si>
+  <si>
     <t>Тайланд</t>
   </si>
   <si>
-    <t>подумать</t>
-  </si>
-  <si>
-    <t>убирать</t>
-  </si>
-  <si>
-    <t>добраться</t>
-  </si>
-  <si>
-    <t>выбраться</t>
-  </si>
-  <si>
-    <t>зайти</t>
-  </si>
-  <si>
-    <t>забежать</t>
-  </si>
-  <si>
-    <t>съездить</t>
-  </si>
-  <si>
-    <t>поехать</t>
-  </si>
-  <si>
-    <t>сгонять</t>
+    <t>кино</t>
   </si>
   <si>
     <t>поработать</t>
   </si>
   <si>
+    <t>кинотеатр</t>
+  </si>
+  <si>
     <t>работать</t>
   </si>
   <si>
+    <t>фильм</t>
+  </si>
+  <si>
+    <t>корпеть</t>
+  </si>
+  <si>
+    <t>посиделки</t>
+  </si>
+  <si>
     <t>ending</t>
   </si>
   <si>
+    <t>чаепитие</t>
+  </si>
+  <si>
+    <t>for_others_only</t>
+  </si>
+  <si>
+    <t>трудиться</t>
+  </si>
+  <si>
     <t>comma_before</t>
   </si>
   <si>
+    <t>кофейня</t>
+  </si>
+  <si>
     <t>не могу отказаться</t>
   </si>
   <si>
+    <t>ебашить</t>
+  </si>
+  <si>
+    <t>кафе</t>
+  </si>
+  <si>
     <t>придется помочь</t>
   </si>
   <si>
-    <t>иначе никак</t>
+    <t>ресторан</t>
+  </si>
+  <si>
+    <t>креативить</t>
   </si>
   <si>
     <t>надо помочь</t>
+  </si>
+  <si>
+    <t>фуршет</t>
+  </si>
+  <si>
+    <t>вымучивать</t>
+  </si>
+  <si>
+    <t>буду помогать</t>
+  </si>
+  <si>
+    <t>лекция</t>
+  </si>
+  <si>
+    <t>переться</t>
+  </si>
+  <si>
+    <t>шопинг</t>
+  </si>
+  <si>
+    <t>горы</t>
+  </si>
+  <si>
+    <t>пиздёхать</t>
+  </si>
+  <si>
+    <t>Питер</t>
+  </si>
+  <si>
+    <t>ползти</t>
+  </si>
+  <si>
+    <t>Москва</t>
+  </si>
+  <si>
+    <t>Нью-Йорк</t>
+  </si>
+  <si>
+    <t>бежать</t>
+  </si>
+  <si>
+    <t>Урюпинск</t>
+  </si>
+  <si>
+    <t>магазин</t>
+  </si>
+  <si>
+    <t>супермаркет</t>
+  </si>
+  <si>
+    <t>торговый центр</t>
+  </si>
+  <si>
+    <t>ТРЦ</t>
+  </si>
+  <si>
+    <t>стрелка</t>
+  </si>
+  <si>
+    <t>пьянка</t>
+  </si>
+  <si>
+    <t>попойка</t>
+  </si>
+  <si>
+    <t>аттестация</t>
+  </si>
+  <si>
+    <t>фотосессия</t>
+  </si>
+  <si>
+    <t>отпуск</t>
   </si>
   <si>
     <t>Слово</t>
@@ -942,6 +1071,9 @@
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -963,9 +1095,6 @@
     </xf>
     <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1227,13 +1356,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2">
@@ -1241,13 +1370,13 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2">
         <v>1.0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -1255,13 +1384,13 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>1.0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -1269,13 +1398,13 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2">
         <v>1.0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
@@ -1283,13 +1412,13 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2">
         <v>1.0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
@@ -1297,13 +1426,13 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2">
         <v>1.0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
@@ -1311,13 +1440,13 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2">
         <v>1.0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
@@ -1325,13 +1454,13 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2">
         <v>1.0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -1339,13 +1468,13 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2">
         <v>1.0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
@@ -1353,13 +1482,13 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2">
         <v>1.0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11">
@@ -1367,13 +1496,13 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2">
         <v>1.0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
@@ -1381,13 +1510,13 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2">
         <v>2.0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
@@ -1395,13 +1524,13 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2">
         <v>2.0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
@@ -1409,13 +1538,13 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2">
         <v>2.0</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15">
@@ -1423,13 +1552,13 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2">
         <v>2.0</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
@@ -1437,13 +1566,13 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" s="2">
         <v>2.0</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17">
@@ -1451,13 +1580,13 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2">
         <v>2.0</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18">
@@ -1465,13 +1594,13 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2">
         <v>2.0</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19">
@@ -1479,13 +1608,13 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2">
         <v>2.0</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20">
@@ -1493,13 +1622,13 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="2">
         <v>2.0</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21">
@@ -1507,13 +1636,13 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21" s="2">
         <v>2.0</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22">
@@ -1521,13 +1650,13 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" s="2">
         <v>2.0</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23">
@@ -1535,13 +1664,13 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23" s="2">
         <v>2.0</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24">
@@ -1549,13 +1678,13 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24" s="2">
         <v>2.0</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25">
@@ -1563,7 +1692,7 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25" s="2">
         <v>2.0</v>
@@ -1577,7 +1706,7 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26" s="2">
         <v>2.0</v>
@@ -1619,34 +1748,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2">
@@ -1654,7 +1783,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2">
         <v>1.0</v>
@@ -1675,7 +1804,7 @@
         <v>1.0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -1683,7 +1812,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2">
         <v>1.0</v>
@@ -1704,7 +1833,7 @@
         <v>1.0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -1712,7 +1841,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2">
         <v>1.0</v>
@@ -1733,7 +1862,7 @@
         <v>1.0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -1741,7 +1870,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2">
         <v>1.0</v>
@@ -1762,7 +1891,7 @@
         <v>1.0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
@@ -1770,7 +1899,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2">
         <v>1.0</v>
@@ -1791,7 +1920,7 @@
         <v>1.0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
@@ -1799,7 +1928,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2">
         <v>1.0</v>
@@ -1820,7 +1949,7 @@
         <v>1.0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
@@ -1828,7 +1957,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2">
         <v>1.0</v>
@@ -1849,7 +1978,7 @@
         <v>1.0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
@@ -1857,7 +1986,7 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2">
         <v>1.0</v>
@@ -1878,7 +2007,7 @@
         <v>1.0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
@@ -1886,7 +2015,7 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2">
         <v>1.0</v>
@@ -1907,7 +2036,7 @@
         <v>1.0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
@@ -1915,7 +2044,7 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2">
         <v>1.0</v>
@@ -1934,7 +2063,7 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
@@ -1942,7 +2071,7 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C12" s="2">
         <v>0.0</v>
@@ -1961,7 +2090,7 @@
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
@@ -1969,7 +2098,7 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2">
         <v>0.0</v>
@@ -1988,7 +2117,7 @@
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
@@ -1996,7 +2125,7 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C14" s="2">
         <v>0.0</v>
@@ -2015,7 +2144,7 @@
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
@@ -2023,7 +2152,7 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C15" s="2">
         <v>1.0</v>
@@ -2042,7 +2171,7 @@
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
@@ -2050,7 +2179,7 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C16" s="2">
         <v>1.0</v>
@@ -2069,7 +2198,7 @@
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17">
@@ -2077,7 +2206,7 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C17" s="2">
         <v>0.0</v>
@@ -2096,7 +2225,7 @@
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
@@ -2104,7 +2233,7 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C18" s="2">
         <v>1.0</v>
@@ -2123,7 +2252,7 @@
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
@@ -2131,7 +2260,7 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C19" s="2">
         <v>1.0</v>
@@ -2150,7 +2279,7 @@
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
@@ -2158,7 +2287,7 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C20" s="2">
         <v>1.0</v>
@@ -2177,7 +2306,7 @@
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
@@ -2185,7 +2314,7 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C21" s="2">
         <v>1.0</v>
@@ -2204,7 +2333,7 @@
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22">
@@ -2212,7 +2341,7 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C22" s="2">
         <v>1.0</v>
@@ -2231,7 +2360,7 @@
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23">
@@ -2239,7 +2368,7 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C23" s="2">
         <v>0.0</v>
@@ -2258,7 +2387,7 @@
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -2266,7 +2395,7 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C24" s="2">
         <v>0.0</v>
@@ -2285,7 +2414,7 @@
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
@@ -2293,7 +2422,7 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C25" s="2">
         <v>0.0</v>
@@ -2312,7 +2441,7 @@
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26">
@@ -2320,7 +2449,7 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C26" s="2">
         <v>1.0</v>
@@ -2339,7 +2468,7 @@
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27">
@@ -2347,7 +2476,7 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C27" s="2">
         <v>1.0</v>
@@ -2366,7 +2495,7 @@
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28">
@@ -2374,7 +2503,7 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C28" s="2">
         <v>1.0</v>
@@ -2393,7 +2522,7 @@
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29">
@@ -2401,7 +2530,7 @@
         <v>28.0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C29" s="2">
         <v>1.0</v>
@@ -2420,7 +2549,7 @@
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30">
@@ -2428,7 +2557,7 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C30" s="2">
         <v>1.0</v>
@@ -2447,7 +2576,7 @@
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31">
@@ -2455,7 +2584,7 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C31" s="2">
         <v>0.0</v>
@@ -2473,7 +2602,7 @@
         <v>0.0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2496,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
@@ -2504,7 +2633,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -2512,7 +2641,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -2520,7 +2649,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2549,52 +2678,52 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H3" s="6"/>
     </row>
@@ -2604,17 +2733,17 @@
         <v>88</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H4" s="6"/>
     </row>
@@ -2622,77 +2751,77 @@
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H6" s="6"/>
     </row>
     <row r="7">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H7" s="6"/>
     </row>
     <row r="8">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H8" s="5"/>
     </row>
@@ -2700,624 +2829,624 @@
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>101</v>
+        <v>52</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>81</v>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H10" s="5"/>
     </row>
     <row r="11">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>89</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H11" s="6"/>
     </row>
     <row r="12">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>16</v>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H12" s="5"/>
     </row>
     <row r="13">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>60</v>
+      <c r="A13" s="9"/>
+      <c r="B13" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H13" s="6"/>
     </row>
     <row r="14">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>51</v>
+      <c r="A14" s="9"/>
+      <c r="B14" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H14" s="5"/>
     </row>
     <row r="15">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>101</v>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>81</v>
+      <c r="A16" s="11"/>
+      <c r="B16" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H16" s="5"/>
     </row>
     <row r="17">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" s="11" t="s">
+      <c r="C17" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>89</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H17" s="6"/>
     </row>
     <row r="18">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>16</v>
+      <c r="A18" s="11"/>
+      <c r="B18" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H18" s="5"/>
     </row>
     <row r="19">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>60</v>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H19" s="6"/>
     </row>
     <row r="20">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>51</v>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H20" s="5"/>
     </row>
     <row r="21">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>47</v>
+      <c r="A21" s="11"/>
+      <c r="B21" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>81</v>
+      <c r="A22" s="13"/>
+      <c r="B22" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H22" s="5"/>
     </row>
     <row r="23">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D23" s="13" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>89</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H23" s="6"/>
     </row>
     <row r="24">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>16</v>
+      <c r="A24" s="13"/>
+      <c r="B24" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H24" s="5"/>
     </row>
     <row r="25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>60</v>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H25" s="6"/>
     </row>
     <row r="26">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>51</v>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H26" s="5"/>
     </row>
     <row r="27">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>47</v>
+      <c r="A27" s="13"/>
+      <c r="B27" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15" t="s">
+      <c r="A28" s="15"/>
+      <c r="B28" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="16" t="s">
         <v>84</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>81</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H28" s="5"/>
     </row>
     <row r="29">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>81</v>
+      <c r="A29" s="15"/>
+      <c r="B29" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>84</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H29" s="6"/>
     </row>
     <row r="30">
-      <c r="A30" s="14"/>
-      <c r="B30" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>81</v>
+      <c r="A30" s="15"/>
+      <c r="B30" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>84</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H30" s="6"/>
     </row>
     <row r="31">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15" t="s">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="15" t="s">
+      <c r="C31" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="16" t="s">
         <v>89</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H31" s="6"/>
     </row>
     <row r="32">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>16</v>
+      <c r="A32" s="15"/>
+      <c r="B32" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H32" s="5"/>
     </row>
     <row r="33">
-      <c r="A33" s="14"/>
-      <c r="B33" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>60</v>
+      <c r="A33" s="15"/>
+      <c r="B33" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>63</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H33" s="6"/>
     </row>
     <row r="34">
-      <c r="A34" s="14"/>
-      <c r="B34" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>51</v>
+      <c r="A34" s="15"/>
+      <c r="B34" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H34" s="5"/>
     </row>
     <row r="35">
-      <c r="A35" s="14"/>
-      <c r="B35" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>47</v>
+      <c r="A35" s="15"/>
+      <c r="B35" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="16"/>
-      <c r="B36" s="17" t="s">
+      <c r="A36" s="17"/>
+      <c r="B36" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="D36" s="18" t="s">
         <v>84</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>81</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H36" s="5"/>
     </row>
     <row r="37">
-      <c r="A37" s="16"/>
-      <c r="B37" s="17" t="s">
+      <c r="A37" s="17"/>
+      <c r="B37" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="D37" s="17" t="s">
+      <c r="C37" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="D37" s="18" t="s">
         <v>89</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H37" s="6"/>
     </row>
     <row r="38">
-      <c r="A38" s="16"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>16</v>
+      <c r="A38" s="17"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H38" s="5"/>
     </row>
     <row r="39">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>16</v>
+      <c r="A39" s="17"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H39" s="5"/>
     </row>
     <row r="40">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>60</v>
+      <c r="A40" s="17"/>
+      <c r="B40" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>63</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H40" s="6"/>
     </row>
     <row r="41">
-      <c r="A41" s="16"/>
-      <c r="B41" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>51</v>
+      <c r="A41" s="17"/>
+      <c r="B41" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>59</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H41" s="5"/>
     </row>
     <row r="42">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>47</v>
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3345,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="2">
@@ -3359,13 +3488,13 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2">
         <v>1.0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3">
@@ -3373,12 +3502,12 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2">
         <v>1.0</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="8" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3393,7 +3522,7 @@
         <v>1.0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5">
@@ -3401,12 +3530,12 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" s="2">
         <v>1.0</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="8" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3415,13 +3544,13 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2">
         <v>1.0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7">
@@ -3435,7 +3564,7 @@
         <v>1.0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8">
@@ -3449,7 +3578,7 @@
         <v>1.0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
@@ -3463,7 +3592,7 @@
         <v>1.0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
@@ -3471,13 +3600,13 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C10" s="2">
         <v>0.0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
@@ -3485,57 +3614,237 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="C12" s="2">
         <v>1.0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13">
+      <c r="A13" s="2">
+        <v>12.0</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C13" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="14">
+      <c r="A14" s="2">
+        <v>13.0</v>
+      </c>
       <c r="B14" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>110</v>
+      <c r="C17" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2">
+        <v>23.0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3557,7 +3866,7 @@
     <col customWidth="1" min="1" max="1" width="2.86"/>
     <col customWidth="1" min="2" max="2" width="15.0"/>
     <col customWidth="1" min="3" max="3" width="10.71"/>
-    <col customWidth="1" min="4" max="5" width="15.14"/>
+    <col customWidth="1" min="4" max="4" width="15.14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3565,925 +3874,1118 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="B2" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="2" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="2" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="2" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="2" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="2" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="2" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="2" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="2" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="2" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="2" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="2" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="2" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="2" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="2" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="2" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="2" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="2" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="2" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="2" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" s="2" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="2" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="2" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" s="2" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="2" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" s="2" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" s="2" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" s="2" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" s="2" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" s="2" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" s="2" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" s="2" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" s="2" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" s="2" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" s="2" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" s="2" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" s="2" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" s="2" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" s="2" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" s="2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
       <c r="B59" s="2" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
       <c r="B60" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" s="2" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" s="2" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" s="2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65">
       <c r="B65" s="2" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
       <c r="B66" s="2" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" s="2" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
       <c r="B68" s="2" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="D68" s="2"/>
-      <c r="E68" s="2" t="s">
-        <v>126</v>
-      </c>
     </row>
     <row r="69">
       <c r="B69" s="2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70">
       <c r="B70" s="2" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="D70" s="2"/>
-      <c r="E70" s="2" t="s">
-        <v>126</v>
-      </c>
     </row>
     <row r="71">
       <c r="B71" s="2" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="D71" s="2"/>
-      <c r="E71" s="2" t="s">
-        <v>126</v>
-      </c>
     </row>
     <row r="72">
       <c r="B72" s="2" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="D72" s="2"/>
-      <c r="E72" s="2" t="s">
-        <v>126</v>
-      </c>
     </row>
     <row r="73">
       <c r="B73" s="2" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74">
       <c r="B74" s="2" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" s="2" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76">
       <c r="B76" s="2" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77">
       <c r="B77" s="2" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" s="2" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="79">
       <c r="B79" s="2" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="80">
       <c r="B80" s="2" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="81">
       <c r="B81" s="2" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="82">
       <c r="B82" s="2" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="83">
       <c r="B83" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>167</v>
+        <v>218</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="84">
       <c r="B84" s="2" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="85">
       <c r="B85" s="2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="86">
       <c r="B86" s="2" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="87">
       <c r="B87" s="2" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="88">
       <c r="B88" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="89">
       <c r="B89" s="2" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90">
       <c r="B90" s="2" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="91">
       <c r="B91" s="2" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92">
       <c r="B92" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93">
       <c r="B93" s="2" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94">
       <c r="B94" s="2" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95">
       <c r="B95" s="2" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96">
       <c r="B96" s="2" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97">
       <c r="B97" s="2" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="98">
       <c r="B98" s="2" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="99">
       <c r="B99" s="2" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="100">
       <c r="B100" s="2" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="101">
       <c r="B101" s="2" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
     </row>
     <row r="102">
       <c r="B102" s="2" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103">
       <c r="B103" s="2" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="104">
       <c r="B104" s="2" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
     </row>
     <row r="105">
       <c r="B105" s="2" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
     </row>
     <row r="106">
       <c r="B106" s="2" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
     </row>
     <row r="107">
       <c r="B107" s="2" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
     </row>
     <row r="108">
       <c r="B108" s="2" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109">
       <c r="B109" s="2" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110">
       <c r="B110" s="2" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="B112" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="B115" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="B116" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="B117" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="B118" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="B119" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="B120" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="B121" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="B122" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="B124" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="B125" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="B126" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="B127" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="B128" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="B129" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="B130" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="B131" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="B132" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="B133" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="B134" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="B135" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="B136" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -4504,8 +5006,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="3.14"/>
     <col customWidth="1" min="2" max="2" width="17.14"/>
-    <col customWidth="1" min="4" max="4" width="8.14"/>
-    <col customWidth="1" min="7" max="7" width="9.14"/>
+    <col customWidth="1" min="5" max="5" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4513,22 +5014,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>181</v>
+        <v>206</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="2">
@@ -4536,13 +5031,10 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3">
@@ -4550,13 +5042,10 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
@@ -4564,16 +5053,13 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>106</v>
+        <v>83</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="5">
@@ -4581,13 +5067,10 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6">
@@ -4595,13 +5078,10 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
@@ -4609,13 +5089,10 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8">
@@ -4623,13 +5100,10 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9">
@@ -4637,13 +5111,10 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
@@ -4651,13 +5122,10 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
@@ -4665,16 +5133,10 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12">
@@ -4682,16 +5144,13 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>80</v>
+        <v>126</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="13">
@@ -4699,16 +5158,13 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>51</v>
+        <v>126</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="14">
@@ -4716,16 +5172,13 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>4</v>
+        <v>126</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -4733,19 +5186,16 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>212</v>
+        <v>7</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
@@ -4753,19 +5203,16 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>212</v>
+        <v>7</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17">
@@ -4773,13 +5220,10 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18">
@@ -4787,13 +5231,10 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19">
@@ -4801,13 +5242,10 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20">
@@ -4815,13 +5253,10 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21">
@@ -4829,13 +5264,10 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22">
@@ -4843,13 +5275,10 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23">
@@ -4857,13 +5286,10 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24">
@@ -4871,13 +5297,10 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25">
@@ -4885,13 +5308,10 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26">
@@ -4899,16 +5319,13 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>106</v>
+        <v>83</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="27">
@@ -4916,13 +5333,10 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28">
@@ -4930,13 +5344,10 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29">
@@ -4944,16 +5355,13 @@
         <v>28.0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>4</v>
+        <v>191</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -4961,19 +5369,16 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>51</v>
+        <v>191</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="31">
@@ -4981,13 +5386,10 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32">
@@ -4995,16 +5397,13 @@
         <v>31.0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>4</v>
+        <v>126</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -5012,16 +5411,13 @@
         <v>32.0</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>4</v>
+        <v>126</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -5029,16 +5425,13 @@
         <v>33.0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>4</v>
+        <v>126</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -5049,13 +5442,10 @@
         <v>251</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>4</v>
+        <v>126</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -5063,16 +5453,13 @@
         <v>35.0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>4</v>
+        <v>126</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -5080,16 +5467,13 @@
         <v>36.0</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>4</v>
+        <v>126</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -5097,16 +5481,13 @@
         <v>37.0</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>4</v>
+        <v>126</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -5114,16 +5495,13 @@
         <v>38.0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>4</v>
+        <v>126</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -5131,44 +5509,164 @@
         <v>39.0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>4</v>
+        <v>126</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="41">
+      <c r="A41" s="2">
+        <v>40.0</v>
+      </c>
       <c r="B41" s="2" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>60</v>
+        <v>191</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="42">
+      <c r="A42" s="2">
+        <v>41.0</v>
+      </c>
       <c r="B42" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>60</v>
+        <v>265</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2">
+        <v>42.0</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2">
+        <v>43.0</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2">
+        <v>44.0</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2">
+        <v>45.0</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2">
+        <v>46.0</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2">
+        <v>47.0</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2">
+        <v>48.0</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2">
+        <v>49.0</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -5187,6 +5685,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="18.29"/>
+    <col customWidth="1" min="3" max="3" width="20.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5194,30 +5693,42 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>258</v>
+        <v>269</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="2">
       <c r="B2" s="2" t="s">
-        <v>259</v>
+        <v>275</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="2" t="s">
-        <v>260</v>
+        <v>278</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="2" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -5240,285 +5751,285 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>264</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>266</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>267</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>268</v>
+        <v>311</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>269</v>
+        <v>312</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>270</v>
+        <v>313</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>271</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>

--- a/otmazy_words.xlsx
+++ b/otmazy_words.xlsx
@@ -19,17 +19,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="324">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>контекст</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>is_myself</t>
+  </si>
+  <si>
+    <t>я</t>
+  </si>
+  <si>
     <t>glagol</t>
   </si>
   <si>
-    <t>контекст</t>
-  </si>
-  <si>
     <t>object</t>
   </si>
   <si>
@@ -48,39 +57,42 @@
     <t>movable_obj</t>
   </si>
   <si>
+    <t>работа</t>
+  </si>
+  <si>
     <t>sklonenie_object</t>
   </si>
   <si>
     <t>sklonenie_destination</t>
   </si>
   <si>
-    <t>subject</t>
-  </si>
-  <si>
     <t>склонение_место</t>
   </si>
   <si>
-    <t>is_myself</t>
-  </si>
-  <si>
-    <t>я</t>
-  </si>
-  <si>
-    <t>работа</t>
+    <t>семья</t>
   </si>
   <si>
     <t>везти</t>
   </si>
   <si>
-    <t>семья</t>
+    <t>друзья</t>
+  </si>
+  <si>
+    <t>accs</t>
+  </si>
+  <si>
+    <t>вести</t>
+  </si>
+  <si>
+    <t>забрать</t>
+  </si>
+  <si>
+    <t>отвезти</t>
   </si>
   <si>
     <t>мне</t>
   </si>
   <si>
-    <t>друзья</t>
-  </si>
-  <si>
     <t>жена</t>
   </si>
   <si>
@@ -90,18 +102,15 @@
     <t>мама</t>
   </si>
   <si>
+    <t>отвести</t>
+  </si>
+  <si>
     <t>мать</t>
   </si>
   <si>
-    <t>accs</t>
-  </si>
-  <si>
     <t>папа</t>
   </si>
   <si>
-    <t>вести</t>
-  </si>
-  <si>
     <t>отец</t>
   </si>
   <si>
@@ -111,21 +120,18 @@
     <t>бабушка</t>
   </si>
   <si>
-    <t>забрать</t>
-  </si>
-  <si>
     <t>тётя</t>
   </si>
   <si>
     <t>дядя</t>
   </si>
   <si>
+    <t>принести</t>
+  </si>
+  <si>
     <t>племянник</t>
   </si>
   <si>
-    <t>отвезти</t>
-  </si>
-  <si>
     <t>племянница</t>
   </si>
   <si>
@@ -135,30 +141,24 @@
     <t>кузен</t>
   </si>
   <si>
-    <t>отвести</t>
+    <t>отнести</t>
   </si>
   <si>
     <t>брат</t>
   </si>
   <si>
-    <t>принести</t>
+    <t>сдать</t>
   </si>
   <si>
     <t>дедушка</t>
   </si>
   <si>
-    <t>отнести</t>
-  </si>
-  <si>
     <t>друг</t>
   </si>
   <si>
     <t>подруга</t>
   </si>
   <si>
-    <t>сдать</t>
-  </si>
-  <si>
     <t>отправить</t>
   </si>
   <si>
@@ -201,34 +201,46 @@
     <t>подбросить</t>
   </si>
   <si>
+    <t>создать</t>
+  </si>
+  <si>
+    <t>склепать</t>
+  </si>
+  <si>
+    <t>забабахать</t>
+  </si>
+  <si>
+    <t>заебенить</t>
+  </si>
+  <si>
+    <t>сделать</t>
+  </si>
+  <si>
     <t>predlog</t>
   </si>
   <si>
     <t>noun_type</t>
   </si>
   <si>
-    <t>создать</t>
-  </si>
-  <si>
-    <t>склепать</t>
-  </si>
-  <si>
     <t>noun_case</t>
   </si>
   <si>
-    <t>забабахать</t>
+    <t>довезти</t>
+  </si>
+  <si>
+    <t>довести</t>
   </si>
   <si>
     <t>person</t>
   </si>
   <si>
-    <t>заебенить</t>
+    <t>допереть</t>
   </si>
   <si>
     <t>gent</t>
   </si>
   <si>
-    <t>сделать</t>
+    <t>обдумать</t>
   </si>
   <si>
     <t>родительный</t>
@@ -237,21 +249,12 @@
     <t>Кого? Чего?</t>
   </si>
   <si>
-    <t>довезти</t>
+    <t>подумать о</t>
   </si>
   <si>
     <t>для</t>
   </si>
   <si>
-    <t>довести</t>
-  </si>
-  <si>
-    <t>допереть</t>
-  </si>
-  <si>
-    <t>обдумать</t>
-  </si>
-  <si>
     <t>beginning</t>
   </si>
   <si>
@@ -261,6 +264,9 @@
     <t>tense</t>
   </si>
   <si>
+    <t>запланировать</t>
+  </si>
+  <si>
     <t>извини</t>
   </si>
   <si>
@@ -270,36 +276,30 @@
     <t>увы</t>
   </si>
   <si>
+    <t>к</t>
+  </si>
+  <si>
     <t>future</t>
   </si>
   <si>
+    <t>datv</t>
+  </si>
+  <si>
     <t>к сожалению</t>
   </si>
   <si>
     <t>эх</t>
   </si>
   <si>
-    <t>подумать о</t>
-  </si>
-  <si>
-    <t>к</t>
-  </si>
-  <si>
     <t>сорян</t>
   </si>
   <si>
-    <t>datv</t>
-  </si>
-  <si>
     <t>блин</t>
   </si>
   <si>
     <t>дательный</t>
   </si>
   <si>
-    <t>запланировать</t>
-  </si>
-  <si>
     <t>Кому? Чему?</t>
   </si>
   <si>
@@ -309,12 +309,12 @@
     <t>совсем забыл</t>
   </si>
   <si>
+    <t>винительный</t>
+  </si>
+  <si>
     <t>я бы с радостью, но</t>
   </si>
   <si>
-    <t>винительный</t>
-  </si>
-  <si>
     <t>Кого? Что?</t>
   </si>
   <si>
@@ -357,18 +357,18 @@
     <t>О ком? О чём? и т.п.</t>
   </si>
   <si>
+    <t>сожалею</t>
+  </si>
+  <si>
+    <t>премного сожалею</t>
+  </si>
+  <si>
+    <t>жалко</t>
+  </si>
+  <si>
     <t>местный</t>
   </si>
   <si>
-    <t>сожалею</t>
-  </si>
-  <si>
-    <t>премного сожалею</t>
-  </si>
-  <si>
-    <t>жалко</t>
-  </si>
-  <si>
     <t>к несчастью</t>
   </si>
   <si>
@@ -441,12 +441,12 @@
     <t>дом</t>
   </si>
   <si>
+    <t>place_open</t>
+  </si>
+  <si>
     <t>кухня</t>
   </si>
   <si>
-    <t>place_open</t>
-  </si>
-  <si>
     <t>ванная</t>
   </si>
   <si>
@@ -459,6 +459,9 @@
     <t>телефон</t>
   </si>
   <si>
+    <t>на</t>
+  </si>
+  <si>
     <t>смартфон</t>
   </si>
   <si>
@@ -477,45 +480,45 @@
     <t>свёкр</t>
   </si>
   <si>
+    <t>ковёр</t>
+  </si>
+  <si>
+    <t>фикус</t>
+  </si>
+  <si>
+    <t>кактус</t>
+  </si>
+  <si>
+    <t>мебель</t>
+  </si>
+  <si>
+    <t>телек</t>
+  </si>
+  <si>
+    <t>ноут</t>
+  </si>
+  <si>
+    <t>автомастерская</t>
+  </si>
+  <si>
+    <t>ремонт</t>
+  </si>
+  <si>
+    <t>обучение</t>
+  </si>
+  <si>
     <t>noun_type_alt</t>
   </si>
   <si>
     <t>case_obj</t>
   </si>
   <si>
-    <t>ковёр</t>
-  </si>
-  <si>
-    <t>фикус</t>
-  </si>
-  <si>
-    <t>кактус</t>
-  </si>
-  <si>
-    <t>мебель</t>
-  </si>
-  <si>
-    <t>телек</t>
-  </si>
-  <si>
-    <t>на</t>
-  </si>
-  <si>
-    <t>ноут</t>
-  </si>
-  <si>
-    <t>автомастерская</t>
-  </si>
-  <si>
-    <t>ремонт</t>
-  </si>
-  <si>
-    <t>обучение</t>
-  </si>
-  <si>
     <t>гипермаркет</t>
   </si>
   <si>
+    <t>aspc</t>
+  </si>
+  <si>
     <t>ЖЭК</t>
   </si>
   <si>
@@ -528,9 +531,15 @@
     <t>доктор</t>
   </si>
   <si>
+    <t>до</t>
+  </si>
+  <si>
     <t>центр госуслуг</t>
   </si>
   <si>
+    <t>impf</t>
+  </si>
+  <si>
     <t>курсы</t>
   </si>
   <si>
@@ -540,75 +549,78 @@
     <t>родственники</t>
   </si>
   <si>
+    <t>perf</t>
+  </si>
+  <si>
     <t>дача</t>
   </si>
   <si>
+    <t>хранение</t>
+  </si>
+  <si>
+    <t>банк</t>
+  </si>
+  <si>
+    <t>планерка</t>
+  </si>
+  <si>
+    <t>перед</t>
+  </si>
+  <si>
+    <t>свадьба</t>
+  </si>
+  <si>
+    <t>похороны</t>
+  </si>
+  <si>
+    <t>ДР</t>
+  </si>
+  <si>
+    <t>день рождения</t>
+  </si>
+  <si>
+    <t>помолвка</t>
+  </si>
+  <si>
+    <t>суд</t>
+  </si>
+  <si>
+    <t>прогулка</t>
+  </si>
+  <si>
+    <t>поход</t>
+  </si>
+  <si>
+    <t>вечеринка</t>
+  </si>
+  <si>
+    <t>пати</t>
+  </si>
+  <si>
+    <t>туса</t>
+  </si>
+  <si>
+    <t>дискотека</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>званый приём</t>
+  </si>
+  <si>
     <t>позаботиться</t>
   </si>
   <si>
-    <t>хранение</t>
+    <t>вокзал</t>
+  </si>
+  <si>
+    <t>аэропорт</t>
   </si>
   <si>
     <t>решить</t>
   </si>
   <si>
-    <t>банк</t>
-  </si>
-  <si>
-    <t>планерка</t>
-  </si>
-  <si>
-    <t>свадьба</t>
-  </si>
-  <si>
-    <t>project</t>
-  </si>
-  <si>
-    <t>похороны</t>
-  </si>
-  <si>
-    <t>ДР</t>
-  </si>
-  <si>
-    <t>день рождения</t>
-  </si>
-  <si>
-    <t>помолвка</t>
-  </si>
-  <si>
-    <t>суд</t>
-  </si>
-  <si>
-    <t>прогулка</t>
-  </si>
-  <si>
-    <t>поход</t>
-  </si>
-  <si>
-    <t>вечеринка</t>
-  </si>
-  <si>
-    <t>пати</t>
-  </si>
-  <si>
-    <t>туса</t>
-  </si>
-  <si>
-    <t>дискотека</t>
-  </si>
-  <si>
-    <t>до</t>
-  </si>
-  <si>
-    <t>званый приём</t>
-  </si>
-  <si>
-    <t>вокзал</t>
-  </si>
-  <si>
-    <t>аэропорт</t>
-  </si>
-  <si>
     <t>автовокзал</t>
   </si>
   <si>
@@ -621,292 +633,352 @@
     <t>фестиваль</t>
   </si>
   <si>
+    <t>конкурс</t>
+  </si>
+  <si>
+    <t>осмотр</t>
+  </si>
+  <si>
+    <t>проверка</t>
+  </si>
+  <si>
+    <t>над</t>
+  </si>
+  <si>
+    <t>проект</t>
+  </si>
+  <si>
+    <t>задание</t>
+  </si>
+  <si>
+    <t>план проекта</t>
+  </si>
+  <si>
+    <t>план</t>
+  </si>
+  <si>
+    <t>диплом</t>
+  </si>
+  <si>
+    <t>уборка</t>
+  </si>
+  <si>
+    <t>картина</t>
+  </si>
+  <si>
+    <t>книга</t>
+  </si>
+  <si>
+    <t>гобелен</t>
+  </si>
+  <si>
+    <t>скульптура</t>
+  </si>
+  <si>
+    <t>мемуары</t>
+  </si>
+  <si>
+    <t>маникюр</t>
+  </si>
+  <si>
+    <t>педикюр</t>
+  </si>
+  <si>
     <t>подумать</t>
   </si>
   <si>
-    <t>конкурс</t>
-  </si>
-  <si>
-    <t>осмотр</t>
+    <t>рейв</t>
+  </si>
+  <si>
+    <t>концерт</t>
+  </si>
+  <si>
+    <t>выставка</t>
   </si>
   <si>
     <t>убирать</t>
   </si>
   <si>
-    <t>проверка</t>
-  </si>
-  <si>
-    <t>перед</t>
+    <t>биеннале</t>
+  </si>
+  <si>
+    <t>галерея</t>
   </si>
   <si>
     <t>добраться</t>
   </si>
   <si>
-    <t>проект</t>
+    <t>музей</t>
+  </si>
+  <si>
+    <t>больница</t>
   </si>
   <si>
     <t>выбраться</t>
   </si>
   <si>
-    <t>задание</t>
+    <t>поликлиника</t>
+  </si>
+  <si>
+    <t>курорт</t>
+  </si>
+  <si>
+    <t>отдых</t>
   </si>
   <si>
     <t>зайти</t>
   </si>
   <si>
+    <t>санаторий</t>
+  </si>
+  <si>
+    <t>море</t>
+  </si>
+  <si>
     <t>забежать</t>
   </si>
   <si>
-    <t>план проекта</t>
-  </si>
-  <si>
-    <t>план</t>
+    <t>Чёрное море</t>
+  </si>
+  <si>
+    <t>Белое море</t>
   </si>
   <si>
     <t>съездить</t>
   </si>
   <si>
-    <t>диплом</t>
+    <t>Красное море</t>
+  </si>
+  <si>
+    <t>Египет</t>
   </si>
   <si>
     <t>поехать</t>
   </si>
   <si>
-    <t>уборка</t>
-  </si>
-  <si>
-    <t>картина</t>
-  </si>
-  <si>
-    <t>книга</t>
-  </si>
-  <si>
-    <t>гобелен</t>
-  </si>
-  <si>
-    <t>скульптура</t>
-  </si>
-  <si>
-    <t>мемуары</t>
+    <t>Турция</t>
+  </si>
+  <si>
+    <t>Тайланд</t>
   </si>
   <si>
     <t>сгонять</t>
   </si>
   <si>
-    <t>маникюр</t>
-  </si>
-  <si>
-    <t>педикюр</t>
+    <t>кино</t>
+  </si>
+  <si>
+    <t>кинотеатр</t>
   </si>
   <si>
     <t>поработать</t>
   </si>
   <si>
-    <t>рейв</t>
-  </si>
-  <si>
-    <t>концерт</t>
+    <t>фильм</t>
+  </si>
+  <si>
+    <t>посиделки</t>
   </si>
   <si>
     <t>работать</t>
   </si>
   <si>
-    <t>выставка</t>
+    <t>чаепитие</t>
+  </si>
+  <si>
+    <t>кофейня</t>
+  </si>
+  <si>
+    <t>кафе</t>
   </si>
   <si>
     <t>корпеть</t>
   </si>
   <si>
-    <t>биеннале</t>
+    <t>ресторан</t>
+  </si>
+  <si>
+    <t>фуршет</t>
   </si>
   <si>
     <t>трудиться</t>
   </si>
   <si>
+    <t>лекция</t>
+  </si>
+  <si>
+    <t>шопинг</t>
+  </si>
+  <si>
     <t>ебашить</t>
   </si>
   <si>
-    <t>над</t>
-  </si>
-  <si>
-    <t>галерея</t>
+    <t>горы</t>
+  </si>
+  <si>
+    <t>СПб</t>
   </si>
   <si>
     <t>креативить</t>
   </si>
   <si>
-    <t>музей</t>
+    <t>Москва</t>
+  </si>
+  <si>
+    <t>Нью-Йорк</t>
   </si>
   <si>
     <t>вымучивать</t>
   </si>
   <si>
-    <t>больница</t>
+    <t>Урюпинск</t>
+  </si>
+  <si>
+    <t>магазин</t>
   </si>
   <si>
     <t>переться</t>
   </si>
   <si>
-    <t>поликлиника</t>
-  </si>
-  <si>
-    <t>курорт</t>
+    <t>супермаркет</t>
+  </si>
+  <si>
+    <t>торговый центр</t>
   </si>
   <si>
     <t>пиздёхать</t>
   </si>
   <si>
-    <t>отдых</t>
+    <t>ТРЦ</t>
+  </si>
+  <si>
+    <t>стрелка</t>
   </si>
   <si>
     <t>ползти</t>
   </si>
   <si>
-    <t>санаторий</t>
-  </si>
-  <si>
-    <t>море</t>
+    <t>пьянка</t>
+  </si>
+  <si>
+    <t>попойка</t>
   </si>
   <si>
     <t>бежать</t>
   </si>
   <si>
-    <t>Чёрное море</t>
-  </si>
-  <si>
-    <t>Белое море</t>
-  </si>
-  <si>
-    <t>Красное море</t>
-  </si>
-  <si>
-    <t>Египет</t>
-  </si>
-  <si>
-    <t>Турция</t>
-  </si>
-  <si>
-    <t>Тайланд</t>
-  </si>
-  <si>
-    <t>кино</t>
-  </si>
-  <si>
-    <t>кинотеатр</t>
-  </si>
-  <si>
-    <t>фильм</t>
-  </si>
-  <si>
-    <t>посиделки</t>
-  </si>
-  <si>
-    <t>чаепитие</t>
-  </si>
-  <si>
-    <t>кофейня</t>
-  </si>
-  <si>
-    <t>кафе</t>
-  </si>
-  <si>
-    <t>ресторан</t>
-  </si>
-  <si>
-    <t>фуршет</t>
-  </si>
-  <si>
-    <t>лекция</t>
-  </si>
-  <si>
-    <t>шопинг</t>
-  </si>
-  <si>
-    <t>горы</t>
-  </si>
-  <si>
-    <t>СПб</t>
-  </si>
-  <si>
-    <t>Москва</t>
-  </si>
-  <si>
-    <t>Нью-Йорк</t>
-  </si>
-  <si>
-    <t>Урюпинск</t>
-  </si>
-  <si>
-    <t>магазин</t>
-  </si>
-  <si>
-    <t>супермаркет</t>
-  </si>
-  <si>
-    <t>торговый центр</t>
-  </si>
-  <si>
-    <t>ТРЦ</t>
-  </si>
-  <si>
-    <t>стрелка</t>
-  </si>
-  <si>
-    <t>пьянка</t>
-  </si>
-  <si>
-    <t>попойка</t>
-  </si>
-  <si>
     <t>аттестация</t>
   </si>
   <si>
     <t>фотосессия</t>
   </si>
   <si>
+    <t>сдавать</t>
+  </si>
+  <si>
     <t>отпуск</t>
   </si>
   <si>
+    <t>забирать</t>
+  </si>
+  <si>
+    <t>нести</t>
+  </si>
+  <si>
+    <t>отправлять</t>
+  </si>
+  <si>
+    <t>ходить</t>
+  </si>
+  <si>
+    <t>убираться</t>
+  </si>
+  <si>
+    <t>решать</t>
+  </si>
+  <si>
+    <t>уезжать</t>
+  </si>
+  <si>
+    <t>ending</t>
+  </si>
+  <si>
+    <t>for_others_only</t>
+  </si>
+  <si>
+    <t>comma_before</t>
+  </si>
+  <si>
+    <t>не могу отказаться</t>
+  </si>
+  <si>
+    <t>ремонтировать</t>
+  </si>
+  <si>
+    <t>futr</t>
+  </si>
+  <si>
+    <t>придется помочь</t>
+  </si>
+  <si>
+    <t>делать</t>
+  </si>
+  <si>
+    <t>надо помочь</t>
+  </si>
+  <si>
+    <t>подбрасывать</t>
+  </si>
+  <si>
+    <t>буду помогать</t>
+  </si>
+  <si>
+    <t>пришлось помогать</t>
+  </si>
+  <si>
+    <t>создавать</t>
+  </si>
+  <si>
+    <t>past</t>
+  </si>
+  <si>
+    <t>пришлось помочь</t>
+  </si>
+  <si>
+    <t>клепать</t>
+  </si>
+  <si>
+    <t>надо было помочь</t>
+  </si>
+  <si>
+    <t>надо будет помочь</t>
+  </si>
+  <si>
+    <t>думать</t>
+  </si>
+  <si>
+    <t>не смог отказаться</t>
+  </si>
+  <si>
+    <t>заходить</t>
+  </si>
+  <si>
+    <t>ездить</t>
+  </si>
+  <si>
     <t>Слово</t>
   </si>
   <si>
     <t>Теги</t>
   </si>
   <si>
-    <t>ending</t>
-  </si>
-  <si>
     <t>пробка</t>
   </si>
   <si>
     <t>аврал</t>
   </si>
   <si>
-    <t>for_others_only</t>
-  </si>
-  <si>
-    <t>comma_before</t>
-  </si>
-  <si>
-    <t>не могу отказаться</t>
-  </si>
-  <si>
-    <t>придется помочь</t>
-  </si>
-  <si>
-    <t>надо помочь</t>
-  </si>
-  <si>
-    <t>буду помогать</t>
-  </si>
-  <si>
-    <t>пришлось помогать</t>
-  </si>
-  <si>
     <t>туалет</t>
-  </si>
-  <si>
-    <t>пришлось помочь</t>
   </si>
   <si>
     <t>идти</t>
@@ -1048,11 +1120,11 @@
     <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1321,34 +1393,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2">
@@ -1356,7 +1428,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2">
         <v>1.0</v>
@@ -1377,7 +1449,7 @@
         <v>1.0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -1385,7 +1457,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2">
         <v>1.0</v>
@@ -1406,7 +1478,7 @@
         <v>1.0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -1414,7 +1486,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2">
         <v>1.0</v>
@@ -1435,7 +1507,7 @@
         <v>1.0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
@@ -1443,7 +1515,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2">
         <v>1.0</v>
@@ -1464,7 +1536,7 @@
         <v>1.0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
@@ -1472,7 +1544,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2">
         <v>1.0</v>
@@ -1493,7 +1565,7 @@
         <v>1.0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
@@ -1501,7 +1573,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2">
         <v>1.0</v>
@@ -1522,7 +1594,7 @@
         <v>1.0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
@@ -1530,7 +1602,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2">
         <v>1.0</v>
@@ -1551,7 +1623,7 @@
         <v>1.0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -1559,7 +1631,7 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2">
         <v>1.0</v>
@@ -1580,7 +1652,7 @@
         <v>1.0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
@@ -1609,7 +1681,7 @@
         <v>1.0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
@@ -1636,7 +1708,7 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
@@ -1825,7 +1897,7 @@
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
@@ -1852,7 +1924,7 @@
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
@@ -1879,7 +1951,7 @@
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
@@ -1887,7 +1959,7 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C21" s="2">
         <v>1.0</v>
@@ -1906,7 +1978,7 @@
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
@@ -1914,7 +1986,7 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C22" s="2">
         <v>1.0</v>
@@ -1933,7 +2005,7 @@
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
@@ -1941,7 +2013,7 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C23" s="2">
         <v>0.0</v>
@@ -1960,7 +2032,7 @@
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
@@ -1968,7 +2040,7 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C24" s="2">
         <v>0.0</v>
@@ -1987,7 +2059,7 @@
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
@@ -1995,7 +2067,7 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C25" s="2">
         <v>0.0</v>
@@ -2014,7 +2086,7 @@
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
@@ -2022,7 +2094,7 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C26" s="2">
         <v>1.0</v>
@@ -2041,7 +2113,7 @@
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
@@ -2049,7 +2121,7 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C27" s="2">
         <v>1.0</v>
@@ -2068,7 +2140,7 @@
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
@@ -2076,7 +2148,7 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C28" s="2">
         <v>1.0</v>
@@ -2095,7 +2167,7 @@
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
@@ -2103,7 +2175,7 @@
         <v>28.0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C29" s="2">
         <v>1.0</v>
@@ -2122,7 +2194,7 @@
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
@@ -2130,7 +2202,7 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C30" s="2">
         <v>1.0</v>
@@ -2157,7 +2229,7 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C31" s="2">
         <v>0.0</v>
@@ -2175,7 +2247,7 @@
         <v>0.0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2198,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
@@ -2206,7 +2278,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -2214,7 +2286,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -2222,7 +2294,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2252,16 +2324,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2">
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2">
         <v>1.0</v>
@@ -2269,7 +2341,7 @@
     </row>
     <row r="3">
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2">
         <v>1.0</v>
@@ -2277,7 +2349,7 @@
     </row>
     <row r="4">
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2">
         <v>0.0</v>
@@ -2285,7 +2357,7 @@
     </row>
     <row r="5">
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2">
         <v>0.0</v>
@@ -2293,7 +2365,7 @@
     </row>
     <row r="6">
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2">
         <v>0.0</v>
@@ -2301,7 +2373,7 @@
     </row>
     <row r="7">
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2">
         <v>0.0</v>
@@ -2309,7 +2381,7 @@
     </row>
     <row r="8">
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2">
         <v>0.0</v>
@@ -2317,7 +2389,7 @@
     </row>
     <row r="9">
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2">
         <v>0.0</v>
@@ -2325,7 +2397,7 @@
     </row>
     <row r="10">
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2">
         <v>0.0</v>
@@ -2333,7 +2405,7 @@
     </row>
     <row r="11">
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2">
         <v>0.0</v>
@@ -2341,7 +2413,7 @@
     </row>
     <row r="12">
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2">
         <v>0.0</v>
@@ -2349,7 +2421,7 @@
     </row>
     <row r="13">
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2">
         <v>0.0</v>
@@ -2357,7 +2429,7 @@
     </row>
     <row r="14">
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2">
         <v>0.0</v>
@@ -2365,7 +2437,7 @@
     </row>
     <row r="15">
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2">
         <v>0.0</v>
@@ -2373,7 +2445,7 @@
     </row>
     <row r="16">
       <c r="B16" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2">
         <v>0.0</v>
@@ -2381,7 +2453,7 @@
     </row>
     <row r="17">
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C17" s="2">
         <v>0.0</v>
@@ -2389,7 +2461,7 @@
     </row>
     <row r="18">
       <c r="B18" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2">
         <v>0.0</v>
@@ -2397,7 +2469,7 @@
     </row>
     <row r="19">
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C19" s="2">
         <v>0.0</v>
@@ -2405,7 +2477,7 @@
     </row>
     <row r="20">
       <c r="B20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2">
         <v>0.0</v>
@@ -2413,7 +2485,7 @@
     </row>
     <row r="21">
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2">
         <v>0.0</v>
@@ -2445,67 +2517,67 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H2" s="7"/>
     </row>
     <row r="3">
       <c r="A3" s="4"/>
       <c r="B3" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H3" s="8"/>
     </row>
     <row r="4">
       <c r="A4" s="4"/>
       <c r="B4" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>93</v>
@@ -2516,14 +2588,14 @@
       <c r="A5" s="4"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>98</v>
@@ -2536,7 +2608,7 @@
         <v>100</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>55</v>
@@ -2556,7 +2628,7 @@
         <v>105</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>55</v>
@@ -2576,7 +2648,7 @@
         <v>108</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>51</v>
@@ -2594,13 +2666,13 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>49</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10">
@@ -2610,14 +2682,14 @@
         <v>119</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H10" s="7"/>
     </row>
@@ -2628,11 +2700,11 @@
         <v>119</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>93</v>
@@ -2646,11 +2718,11 @@
         <v>119</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>98</v>
@@ -2707,7 +2779,7 @@
         <v>49</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16">
@@ -2719,31 +2791,31 @@
         <v>127</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H16" s="7"/>
     </row>
     <row r="17">
       <c r="A17" s="11"/>
       <c r="B17" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>127</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>93</v>
@@ -2759,11 +2831,11 @@
         <v>127</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>98</v>
@@ -2818,7 +2890,7 @@
         <v>49</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22">
@@ -2827,17 +2899,17 @@
         <v>100</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H22" s="7"/>
     </row>
@@ -2845,14 +2917,14 @@
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>93</v>
@@ -2862,17 +2934,17 @@
     <row r="24">
       <c r="A24" s="13"/>
       <c r="B24" s="14" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>98</v>
@@ -2883,7 +2955,7 @@
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>55</v>
@@ -2901,7 +2973,7 @@
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>51</v>
@@ -2918,35 +2990,35 @@
     <row r="27">
       <c r="A27" s="13"/>
       <c r="B27" s="14" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>49</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="15"/>
       <c r="B28" s="16" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H28" s="7"/>
     </row>
@@ -2956,54 +3028,54 @@
         <v>100</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H29" s="8"/>
     </row>
     <row r="30">
       <c r="A30" s="15"/>
       <c r="B30" s="16" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H30" s="8"/>
     </row>
     <row r="31">
       <c r="A31" s="15"/>
       <c r="B31" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="16" t="s">
         <v>87</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>89</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>93</v>
@@ -3013,17 +3085,17 @@
     <row r="32">
       <c r="A32" s="15"/>
       <c r="B32" s="16" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>98</v>
@@ -3033,10 +3105,10 @@
     <row r="33">
       <c r="A33" s="15"/>
       <c r="B33" s="16" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>55</v>
@@ -3056,7 +3128,7 @@
         <v>108</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D34" s="16" t="s">
         <v>51</v>
@@ -3073,52 +3145,52 @@
     <row r="35">
       <c r="A35" s="15"/>
       <c r="B35" s="16" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>49</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="17"/>
-      <c r="B36" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>68</v>
+      <c r="A36" s="18"/>
+      <c r="B36" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H36" s="7"/>
     </row>
     <row r="37">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18" t="s">
+      <c r="A37" s="18"/>
+      <c r="B37" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="D37" s="19" t="s">
         <v>87</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>89</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>93</v>
@@ -3126,17 +3198,17 @@
       <c r="H37" s="8"/>
     </row>
     <row r="38">
-      <c r="A38" s="17"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>24</v>
+      <c r="A38" s="18"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>98</v>
@@ -3144,17 +3216,17 @@
       <c r="H38" s="7"/>
     </row>
     <row r="39">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>24</v>
+      <c r="A39" s="18"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>98</v>
@@ -3162,14 +3234,14 @@
       <c r="H39" s="7"/>
     </row>
     <row r="40">
-      <c r="A40" s="17"/>
-      <c r="B40" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="D40" s="18" t="s">
+      <c r="A40" s="18"/>
+      <c r="B40" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="D40" s="19" t="s">
         <v>55</v>
       </c>
       <c r="E40" s="8"/>
@@ -3182,14 +3254,14 @@
       <c r="H40" s="8"/>
     </row>
     <row r="41">
-      <c r="A41" s="17"/>
-      <c r="B41" s="18" t="s">
+      <c r="A41" s="18"/>
+      <c r="B41" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="D41" s="18" t="s">
+      <c r="C41" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="D41" s="19" t="s">
         <v>51</v>
       </c>
       <c r="E41" s="7"/>
@@ -3202,16 +3274,16 @@
       <c r="H41" s="7"/>
     </row>
     <row r="42">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="D42" s="18" t="s">
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="D42" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3239,13 +3311,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2">
@@ -3253,13 +3325,13 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2">
         <v>1.0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
@@ -3267,13 +3339,13 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2">
         <v>1.0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
@@ -3281,13 +3353,13 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2">
         <v>1.0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">
@@ -3295,13 +3367,13 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2">
         <v>1.0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
@@ -3309,13 +3381,13 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2">
         <v>1.0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
@@ -3323,13 +3395,13 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2">
         <v>1.0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
@@ -3343,7 +3415,7 @@
         <v>1.0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
@@ -3357,7 +3429,7 @@
         <v>1.0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10">
@@ -3365,13 +3437,13 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C10" s="2">
         <v>0.0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11">
@@ -3385,7 +3457,7 @@
         <v>1.0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12">
@@ -3399,7 +3471,7 @@
         <v>1.0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13">
@@ -3413,7 +3485,7 @@
         <v>1.0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14">
@@ -3427,7 +3499,7 @@
         <v>1.0</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15">
@@ -3441,7 +3513,7 @@
         <v>1.0</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16">
@@ -3455,7 +3527,7 @@
         <v>1.0</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17">
@@ -3463,13 +3535,13 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="2">
         <v>1.0</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18">
@@ -3477,13 +3549,13 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C18" s="2">
         <v>1.0</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19">
@@ -3491,13 +3563,13 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C19" s="2">
         <v>1.0</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20">
@@ -3511,7 +3583,7 @@
         <v>1.0</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21">
@@ -3525,7 +3597,7 @@
         <v>0.0</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
@@ -3539,7 +3611,7 @@
         <v>1.0</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23">
@@ -3553,7 +3625,7 @@
         <v>1.0</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24">
@@ -3567,7 +3639,7 @@
         <v>1.0</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25">
@@ -3581,7 +3653,7 @@
         <v>1.0</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26">
@@ -3595,7 +3667,7 @@
         <v>1.0</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27">
@@ -3609,7 +3681,7 @@
         <v>1.0</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28">
@@ -3617,7 +3689,7 @@
         <v>125</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3674,10 +3746,10 @@
     </row>
     <row r="4">
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -3685,7 +3757,7 @@
         <v>134</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -3693,7 +3765,7 @@
         <v>135</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -3701,7 +3773,7 @@
         <v>136</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -3709,39 +3781,39 @@
         <v>137</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
@@ -3762,10 +3834,10 @@
     </row>
     <row r="15">
       <c r="B15" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="16">
@@ -3802,7 +3874,7 @@
     </row>
     <row r="20">
       <c r="B20" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>119</v>
@@ -3810,7 +3882,7 @@
     </row>
     <row r="21">
       <c r="B21" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>119</v>
@@ -3818,71 +3890,71 @@
     </row>
     <row r="22">
       <c r="B22" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>119</v>
@@ -3890,7 +3962,7 @@
     </row>
     <row r="31">
       <c r="B31" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>119</v>
@@ -3898,7 +3970,7 @@
     </row>
     <row r="32">
       <c r="B32" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>119</v>
@@ -3906,7 +3978,7 @@
     </row>
     <row r="33">
       <c r="B33" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>119</v>
@@ -3914,7 +3986,7 @@
     </row>
     <row r="34">
       <c r="B34" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>119</v>
@@ -3922,7 +3994,7 @@
     </row>
     <row r="35">
       <c r="B35" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>119</v>
@@ -3930,7 +4002,7 @@
     </row>
     <row r="36">
       <c r="B36" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>127</v>
@@ -3938,18 +4010,18 @@
     </row>
     <row r="37">
       <c r="B37" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -3962,7 +4034,7 @@
     </row>
     <row r="40">
       <c r="B40" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>127</v>
@@ -3970,31 +4042,31 @@
     </row>
     <row r="41">
       <c r="B41" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>127</v>
@@ -4002,34 +4074,34 @@
     </row>
     <row r="45">
       <c r="B45" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49">
@@ -4042,15 +4114,15 @@
     </row>
     <row r="50">
       <c r="B50" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>127</v>
@@ -4058,71 +4130,71 @@
     </row>
     <row r="52">
       <c r="B52" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
       <c r="B59" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
       <c r="B60" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>127</v>
@@ -4130,15 +4202,15 @@
     </row>
     <row r="61">
       <c r="B61" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>127</v>
@@ -4146,56 +4218,56 @@
     </row>
     <row r="63">
       <c r="B63" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65">
       <c r="B65" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66">
       <c r="B66" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68">
       <c r="B68" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D68" s="2"/>
     </row>
     <row r="69">
       <c r="B69" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>127</v>
@@ -4203,77 +4275,77 @@
     </row>
     <row r="70">
       <c r="B70" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D70" s="2"/>
     </row>
     <row r="71">
       <c r="B71" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D71" s="2"/>
     </row>
     <row r="72">
       <c r="B72" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D72" s="2"/>
     </row>
     <row r="73">
       <c r="B73" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74">
       <c r="B74" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76">
       <c r="B76" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77">
       <c r="B77" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
     </row>
     <row r="79">
@@ -4281,7 +4353,7 @@
         <v>209</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>119</v>
@@ -4289,18 +4361,18 @@
     </row>
     <row r="80">
       <c r="B80" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
     </row>
     <row r="81">
       <c r="B81" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>119</v>
@@ -4308,26 +4380,26 @@
     </row>
     <row r="82">
       <c r="B82" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
     </row>
     <row r="83">
       <c r="B83" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84">
       <c r="B84" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>119</v>
@@ -4335,18 +4407,18 @@
     </row>
     <row r="85">
       <c r="B85" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
     </row>
     <row r="86">
       <c r="B86" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>119</v>
@@ -4354,10 +4426,10 @@
     </row>
     <row r="87">
       <c r="B87" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>119</v>
@@ -4365,10 +4437,10 @@
     </row>
     <row r="88">
       <c r="B88" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>119</v>
@@ -4376,10 +4448,10 @@
     </row>
     <row r="89">
       <c r="B89" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>119</v>
@@ -4387,63 +4459,63 @@
     </row>
     <row r="90">
       <c r="B90" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
     </row>
     <row r="91">
       <c r="B91" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92">
       <c r="B92" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93">
       <c r="B93" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94">
       <c r="B94" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95">
       <c r="B95" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96">
       <c r="B96" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97">
       <c r="B97" s="2" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>127</v>
@@ -4451,7 +4523,7 @@
     </row>
     <row r="98">
       <c r="B98" s="2" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>127</v>
@@ -4459,7 +4531,7 @@
     </row>
     <row r="99">
       <c r="B99" s="2" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>127</v>
@@ -4467,7 +4539,7 @@
     </row>
     <row r="100">
       <c r="B100" s="2" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>127</v>
@@ -4475,23 +4547,23 @@
     </row>
     <row r="101">
       <c r="B101" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="102">
       <c r="B102" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103">
       <c r="B103" s="2" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>127</v>
@@ -4499,39 +4571,39 @@
     </row>
     <row r="104">
       <c r="B104" s="2" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="105">
       <c r="B105" s="2" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="106">
       <c r="B106" s="2" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="107">
       <c r="B107" s="2" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="108">
       <c r="B108" s="2" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>127</v>
@@ -4539,7 +4611,7 @@
     </row>
     <row r="109">
       <c r="B109" s="2" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>127</v>
@@ -4547,7 +4619,7 @@
     </row>
     <row r="110">
       <c r="B110" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>127</v>
@@ -4555,7 +4627,7 @@
     </row>
     <row r="111">
       <c r="B111" s="2" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>127</v>
@@ -4563,7 +4635,7 @@
     </row>
     <row r="112">
       <c r="B112" s="2" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>127</v>
@@ -4571,31 +4643,31 @@
     </row>
     <row r="113">
       <c r="B113" s="2" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="114">
       <c r="B114" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115">
       <c r="B115" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116">
       <c r="B116" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>127</v>
@@ -4603,7 +4675,7 @@
     </row>
     <row r="117">
       <c r="B117" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>127</v>
@@ -4611,7 +4683,7 @@
     </row>
     <row r="118">
       <c r="B118" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>127</v>
@@ -4619,31 +4691,31 @@
     </row>
     <row r="119">
       <c r="B119" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120">
       <c r="B120" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121">
       <c r="B121" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122">
       <c r="B122" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>127</v>
@@ -4651,7 +4723,7 @@
     </row>
     <row r="123">
       <c r="B123" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>127</v>
@@ -4659,7 +4731,7 @@
     </row>
     <row r="124">
       <c r="B124" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>127</v>
@@ -4667,7 +4739,7 @@
     </row>
     <row r="125">
       <c r="B125" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>127</v>
@@ -4675,7 +4747,7 @@
     </row>
     <row r="126">
       <c r="B126" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>127</v>
@@ -4683,7 +4755,7 @@
     </row>
     <row r="127">
       <c r="B127" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>127</v>
@@ -4707,7 +4779,7 @@
     </row>
     <row r="130">
       <c r="B130" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>127</v>
@@ -4715,47 +4787,47 @@
     </row>
     <row r="131">
       <c r="B131" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132">
       <c r="B132" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133">
       <c r="B133" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134">
       <c r="B134" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135">
       <c r="B135" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="136">
       <c r="B136" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>127</v>
@@ -4787,16 +4859,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>153</v>
+        <v>163</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="2">
@@ -4804,10 +4879,13 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>119</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="3">
@@ -4815,10 +4893,13 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="4">
@@ -4826,13 +4907,16 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>119</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="5">
@@ -4840,10 +4924,13 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>119</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="6">
@@ -4851,10 +4938,13 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="7">
@@ -4862,10 +4952,13 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>119</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="8">
@@ -4873,10 +4966,13 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>119</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="9">
@@ -4884,10 +4980,13 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>119</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="10">
@@ -4900,6 +4999,9 @@
       <c r="C10" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="F10" s="2" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
@@ -4911,6 +5013,9 @@
       <c r="C11" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="F11" s="2" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2">
@@ -4923,7 +5028,10 @@
         <v>127</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="13">
@@ -4939,6 +5047,9 @@
       <c r="E13" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="F13" s="2" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2">
@@ -4951,7 +5062,10 @@
         <v>127</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="15">
@@ -4959,16 +5073,19 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>51</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="16">
@@ -4976,16 +5093,19 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>55</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="17">
@@ -4998,6 +5118,9 @@
       <c r="C17" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="F17" s="2" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
@@ -5009,6 +5132,9 @@
       <c r="C18" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="F18" s="2" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2">
@@ -5018,7 +5144,10 @@
         <v>58</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>180</v>
+        <v>194</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="20">
@@ -5029,7 +5158,10 @@
         <v>59</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="21">
@@ -5037,10 +5169,13 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>180</v>
+        <v>194</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="22">
@@ -5048,10 +5183,13 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>180</v>
+        <v>194</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="23">
@@ -5059,10 +5197,13 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>180</v>
+        <v>194</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="24">
@@ -5070,10 +5211,13 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>180</v>
+        <v>194</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="25">
@@ -5081,10 +5225,13 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>180</v>
+        <v>194</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="26">
@@ -5092,13 +5239,16 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>119</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="27">
@@ -5106,10 +5256,13 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="28">
@@ -5117,10 +5270,13 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>119</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="29">
@@ -5128,13 +5284,16 @@
         <v>28.0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="30">
@@ -5142,16 +5301,19 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>51</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="31">
@@ -5159,10 +5321,13 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>127</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="32">
@@ -5170,13 +5335,16 @@
         <v>31.0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="33">
@@ -5184,13 +5352,16 @@
         <v>32.0</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="34">
@@ -5198,13 +5369,16 @@
         <v>33.0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="35">
@@ -5212,13 +5386,16 @@
         <v>34.0</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="36">
@@ -5226,13 +5403,16 @@
         <v>35.0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="37">
@@ -5240,13 +5420,16 @@
         <v>36.0</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="38">
@@ -5254,13 +5437,16 @@
         <v>37.0</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>48</v>
+        <v>247</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="39">
@@ -5268,13 +5454,16 @@
         <v>38.0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>52</v>
+        <v>250</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="40">
@@ -5282,13 +5471,16 @@
         <v>39.0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="41">
@@ -5296,13 +5488,16 @@
         <v>40.0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>55</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="42">
@@ -5310,16 +5505,19 @@
         <v>41.0</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>55</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="43">
@@ -5327,13 +5525,16 @@
         <v>42.0</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>55</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="44">
@@ -5341,13 +5542,16 @@
         <v>43.0</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>55</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="45">
@@ -5355,13 +5559,16 @@
         <v>44.0</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="46">
@@ -5369,10 +5576,13 @@
         <v>45.0</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>180</v>
+        <v>194</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="47">
@@ -5380,10 +5590,13 @@
         <v>46.0</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>180</v>
+        <v>194</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="48">
@@ -5391,13 +5604,16 @@
         <v>47.0</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="49">
@@ -5405,13 +5621,16 @@
         <v>48.0</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="50">
@@ -5419,13 +5638,16 @@
         <v>49.0</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>246</v>
+        <v>284</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="51">
@@ -5433,13 +5655,224 @@
         <v>50.0</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>249</v>
+        <v>286</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2">
+        <v>51.0</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2">
+        <v>52.0</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2">
+        <v>53.0</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2">
+        <v>54.0</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2">
+        <v>55.0</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2">
+        <v>56.0</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2">
+        <v>57.0</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2">
+        <v>58.0</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2">
+        <v>59.0</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2">
+        <v>60.0</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2">
+        <v>61.0</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2">
+        <v>62.0</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2">
+        <v>63.0</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2">
+        <v>64.0</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -5466,24 +5899,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>79</v>
+        <v>293</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2">
       <c r="B2" s="2" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>83</v>
+        <v>298</v>
       </c>
       <c r="D2" s="2">
         <v>0.0</v>
@@ -5491,47 +5924,81 @@
     </row>
     <row r="3">
       <c r="B3" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>298</v>
+      </c>
       <c r="D3" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>298</v>
+      </c>
       <c r="D4" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>298</v>
+      </c>
       <c r="D5" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C6" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>306</v>
+      </c>
       <c r="D6" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C7" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>306</v>
+      </c>
       <c r="D7" s="2">
         <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -5554,15 +6021,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3">
@@ -5577,7 +6044,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
@@ -5592,32 +6059,32 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14">
@@ -5632,22 +6099,22 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
@@ -5662,7 +6129,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23">
@@ -5672,7 +6139,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25">
@@ -5687,27 +6154,27 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32">
@@ -5717,87 +6184,87 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50">
@@ -5807,17 +6274,17 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54">
@@ -5827,12 +6294,12 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>

--- a/otmazy_words.xlsx
+++ b/otmazy_words.xlsx
@@ -19,201 +19,219 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="353">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>glagol</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>destination</t>
+  </si>
+  <si>
+    <t>is_myself</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t>inanimate_obj</t>
+  </si>
+  <si>
+    <t>animate_obj</t>
+  </si>
+  <si>
+    <t>movable_obj</t>
+  </si>
+  <si>
+    <t>sklonenie_object</t>
+  </si>
+  <si>
+    <t>sklonenie_destination</t>
+  </si>
+  <si>
+    <t>склонение_место</t>
+  </si>
+  <si>
+    <t>я</t>
+  </si>
+  <si>
+    <t>везти</t>
+  </si>
+  <si>
+    <t>accs</t>
+  </si>
+  <si>
+    <t>мне</t>
+  </si>
+  <si>
+    <t>вести</t>
+  </si>
+  <si>
+    <t>жена</t>
+  </si>
+  <si>
+    <t>сестра</t>
+  </si>
+  <si>
+    <t>мама</t>
+  </si>
+  <si>
+    <t>забрать</t>
+  </si>
+  <si>
+    <t>мать</t>
+  </si>
+  <si>
+    <t>папа</t>
+  </si>
+  <si>
+    <t>отвезти</t>
+  </si>
+  <si>
+    <t>отец</t>
+  </si>
+  <si>
+    <t>батя</t>
+  </si>
+  <si>
+    <t>бабушка</t>
+  </si>
+  <si>
+    <t>отвести</t>
+  </si>
+  <si>
+    <t>тётя</t>
+  </si>
+  <si>
+    <t>принести</t>
+  </si>
+  <si>
+    <t>дядя</t>
+  </si>
+  <si>
+    <t>племянник</t>
+  </si>
+  <si>
+    <t>отнести</t>
+  </si>
+  <si>
+    <t>племянница</t>
+  </si>
+  <si>
+    <t>начальник</t>
+  </si>
+  <si>
+    <t>кузен</t>
+  </si>
+  <si>
+    <t>сдать</t>
+  </si>
+  <si>
+    <t>брат</t>
+  </si>
+  <si>
+    <t>дедушка</t>
+  </si>
+  <si>
+    <t>друг</t>
+  </si>
+  <si>
+    <t>подруга</t>
+  </si>
+  <si>
+    <t>отправить</t>
+  </si>
+  <si>
+    <t>убрать</t>
+  </si>
+  <si>
+    <t>сходить</t>
+  </si>
+  <si>
+    <t>loc2</t>
+  </si>
+  <si>
+    <t>убраться</t>
+  </si>
+  <si>
+    <t>loct</t>
+  </si>
+  <si>
+    <t>прийти</t>
+  </si>
+  <si>
+    <t>позаботиться о</t>
+  </si>
+  <si>
+    <t>решить вопрос с</t>
+  </si>
+  <si>
+    <t>ablt</t>
+  </si>
+  <si>
+    <t>уехать</t>
+  </si>
+  <si>
+    <t>отремонтировать</t>
+  </si>
+  <si>
+    <t>доделать</t>
+  </si>
+  <si>
+    <t>подбросить</t>
+  </si>
+  <si>
+    <t>создать</t>
+  </si>
+  <si>
+    <t>склепать</t>
+  </si>
+  <si>
+    <t>забабахать</t>
+  </si>
+  <si>
+    <t>заебенить</t>
+  </si>
+  <si>
     <t>контекст</t>
   </si>
   <si>
-    <t>subject</t>
-  </si>
-  <si>
-    <t>is_myself</t>
-  </si>
-  <si>
-    <t>я</t>
-  </si>
-  <si>
-    <t>glagol</t>
-  </si>
-  <si>
-    <t>object</t>
-  </si>
-  <si>
-    <t>destination</t>
-  </si>
-  <si>
-    <t>event</t>
-  </si>
-  <si>
-    <t>inanimate_obj</t>
-  </si>
-  <si>
-    <t>animate_obj</t>
-  </si>
-  <si>
-    <t>movable_obj</t>
+    <t>сделать</t>
   </si>
   <si>
     <t>работа</t>
   </si>
   <si>
-    <t>sklonenie_object</t>
-  </si>
-  <si>
-    <t>sklonenie_destination</t>
-  </si>
-  <si>
-    <t>склонение_место</t>
+    <t>довезти</t>
   </si>
   <si>
     <t>семья</t>
   </si>
   <si>
-    <t>везти</t>
-  </si>
-  <si>
     <t>друзья</t>
   </si>
   <si>
-    <t>accs</t>
-  </si>
-  <si>
-    <t>вести</t>
-  </si>
-  <si>
-    <t>забрать</t>
-  </si>
-  <si>
-    <t>отвезти</t>
-  </si>
-  <si>
-    <t>мне</t>
-  </si>
-  <si>
-    <t>жена</t>
-  </si>
-  <si>
-    <t>сестра</t>
-  </si>
-  <si>
-    <t>мама</t>
-  </si>
-  <si>
-    <t>отвести</t>
-  </si>
-  <si>
-    <t>мать</t>
-  </si>
-  <si>
-    <t>папа</t>
-  </si>
-  <si>
-    <t>отец</t>
-  </si>
-  <si>
-    <t>батя</t>
-  </si>
-  <si>
-    <t>бабушка</t>
-  </si>
-  <si>
-    <t>тётя</t>
-  </si>
-  <si>
-    <t>дядя</t>
-  </si>
-  <si>
-    <t>принести</t>
-  </si>
-  <si>
-    <t>племянник</t>
-  </si>
-  <si>
-    <t>племянница</t>
-  </si>
-  <si>
-    <t>начальник</t>
-  </si>
-  <si>
-    <t>кузен</t>
-  </si>
-  <si>
-    <t>отнести</t>
-  </si>
-  <si>
-    <t>брат</t>
-  </si>
-  <si>
-    <t>сдать</t>
-  </si>
-  <si>
-    <t>дедушка</t>
-  </si>
-  <si>
-    <t>друг</t>
-  </si>
-  <si>
-    <t>подруга</t>
-  </si>
-  <si>
-    <t>отправить</t>
-  </si>
-  <si>
-    <t>убрать</t>
-  </si>
-  <si>
-    <t>сходить</t>
-  </si>
-  <si>
-    <t>loc2</t>
-  </si>
-  <si>
-    <t>убраться</t>
-  </si>
-  <si>
-    <t>loct</t>
-  </si>
-  <si>
-    <t>прийти</t>
-  </si>
-  <si>
-    <t>позаботиться о</t>
-  </si>
-  <si>
-    <t>решить вопрос с</t>
-  </si>
-  <si>
-    <t>ablt</t>
-  </si>
-  <si>
-    <t>уехать</t>
-  </si>
-  <si>
-    <t>отремонтировать</t>
-  </si>
-  <si>
-    <t>доделать</t>
-  </si>
-  <si>
-    <t>подбросить</t>
-  </si>
-  <si>
-    <t>создать</t>
-  </si>
-  <si>
-    <t>склепать</t>
-  </si>
-  <si>
-    <t>забабахать</t>
-  </si>
-  <si>
-    <t>заебенить</t>
-  </si>
-  <si>
-    <t>сделать</t>
+    <t>довести</t>
+  </si>
+  <si>
+    <t>допереть</t>
+  </si>
+  <si>
+    <t>обдумать</t>
+  </si>
+  <si>
+    <t>подумать о</t>
+  </si>
+  <si>
+    <t>запланировать</t>
   </si>
   <si>
     <t>predlog</t>
@@ -225,36 +243,78 @@
     <t>noun_case</t>
   </si>
   <si>
-    <t>довезти</t>
-  </si>
-  <si>
-    <t>довести</t>
-  </si>
-  <si>
     <t>person</t>
   </si>
   <si>
-    <t>допереть</t>
-  </si>
-  <si>
     <t>gent</t>
   </si>
   <si>
-    <t>обдумать</t>
-  </si>
-  <si>
     <t>родительный</t>
   </si>
   <si>
     <t>Кого? Чего?</t>
   </si>
   <si>
-    <t>подумать о</t>
-  </si>
-  <si>
     <t>для</t>
   </si>
   <si>
+    <t>к</t>
+  </si>
+  <si>
+    <t>datv</t>
+  </si>
+  <si>
+    <t>дательный</t>
+  </si>
+  <si>
+    <t>Кому? Чему?</t>
+  </si>
+  <si>
+    <t>винительный</t>
+  </si>
+  <si>
+    <t>Кого? Что?</t>
+  </si>
+  <si>
+    <t>с</t>
+  </si>
+  <si>
+    <t>творительный</t>
+  </si>
+  <si>
+    <t>Кем? Чем?</t>
+  </si>
+  <si>
+    <t>за</t>
+  </si>
+  <si>
+    <t>о</t>
+  </si>
+  <si>
+    <t>предложный</t>
+  </si>
+  <si>
+    <t>О ком? О чём? и т.п.</t>
+  </si>
+  <si>
+    <t>местный</t>
+  </si>
+  <si>
+    <t>thing</t>
+  </si>
+  <si>
+    <t>из</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>в</t>
+  </si>
+  <si>
+    <t>place_open</t>
+  </si>
+  <si>
     <t>beginning</t>
   </si>
   <si>
@@ -264,9 +324,6 @@
     <t>tense</t>
   </si>
   <si>
-    <t>запланировать</t>
-  </si>
-  <si>
     <t>извини</t>
   </si>
   <si>
@@ -276,97 +333,88 @@
     <t>увы</t>
   </si>
   <si>
-    <t>к</t>
-  </si>
-  <si>
     <t>future</t>
   </si>
   <si>
-    <t>datv</t>
-  </si>
-  <si>
     <t>к сожалению</t>
   </si>
   <si>
     <t>эх</t>
   </si>
   <si>
+    <t>на</t>
+  </si>
+  <si>
     <t>сорян</t>
   </si>
   <si>
     <t>блин</t>
   </si>
   <si>
-    <t>дательный</t>
-  </si>
-  <si>
-    <t>Кому? Чему?</t>
-  </si>
-  <si>
     <t>вот чёрт</t>
   </si>
   <si>
     <t>совсем забыл</t>
   </si>
   <si>
-    <t>винительный</t>
-  </si>
-  <si>
     <t>я бы с радостью, но</t>
   </si>
   <si>
-    <t>Кого? Что?</t>
-  </si>
-  <si>
     <t>чёрт</t>
   </si>
   <si>
-    <t>с</t>
-  </si>
-  <si>
     <t>только что понял</t>
   </si>
   <si>
-    <t>творительный</t>
-  </si>
-  <si>
-    <t>Кем? Чем?</t>
-  </si>
-  <si>
     <t>бляха-муха</t>
   </si>
   <si>
-    <t>за</t>
-  </si>
-  <si>
     <t>вот жалость</t>
   </si>
   <si>
+    <t>noun</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>type_alt</t>
+  </si>
+  <si>
     <t>мои извинения</t>
   </si>
   <si>
-    <t>о</t>
+    <t>собака</t>
+  </si>
+  <si>
+    <t>кошка</t>
   </si>
   <si>
     <t>премного извиняюсь</t>
   </si>
   <si>
-    <t>предложный</t>
-  </si>
-  <si>
-    <t>О ком? О чём? и т.п.</t>
-  </si>
-  <si>
     <t>сожалею</t>
   </si>
   <si>
+    <t>ребенок</t>
+  </si>
+  <si>
+    <t>дети</t>
+  </si>
+  <si>
     <t>премного сожалею</t>
   </si>
   <si>
+    <t>дочь</t>
+  </si>
+  <si>
     <t>жалко</t>
   </si>
   <si>
-    <t>местный</t>
+    <t>сын</t>
+  </si>
+  <si>
+    <t>до</t>
   </si>
   <si>
     <t>к несчастью</t>
@@ -378,99 +426,57 @@
     <t>вот незадача</t>
   </si>
   <si>
-    <t>thing</t>
+    <t>квартира</t>
+  </si>
+  <si>
+    <t>дом</t>
+  </si>
+  <si>
+    <t>кухня</t>
   </si>
   <si>
     <t>вот зараза</t>
   </si>
   <si>
+    <t>перед</t>
+  </si>
+  <si>
+    <t>ванная</t>
+  </si>
+  <si>
     <t>печально</t>
   </si>
   <si>
+    <t>унитаз</t>
+  </si>
+  <si>
     <t>вот печаль</t>
   </si>
   <si>
+    <t>ноутбук</t>
+  </si>
+  <si>
+    <t>телефон</t>
+  </si>
+  <si>
     <t>ой</t>
   </si>
   <si>
+    <t>смартфон</t>
+  </si>
+  <si>
+    <t>документы</t>
+  </si>
+  <si>
     <t>не получится</t>
   </si>
   <si>
+    <t>тёща</t>
+  </si>
+  <si>
     <t>извините</t>
   </si>
   <si>
-    <t>из</t>
-  </si>
-  <si>
-    <t>place</t>
-  </si>
-  <si>
-    <t>в</t>
-  </si>
-  <si>
-    <t>noun</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>type_alt</t>
-  </si>
-  <si>
-    <t>собака</t>
-  </si>
-  <si>
-    <t>кошка</t>
-  </si>
-  <si>
-    <t>ребенок</t>
-  </si>
-  <si>
-    <t>дети</t>
-  </si>
-  <si>
-    <t>дочь</t>
-  </si>
-  <si>
-    <t>сын</t>
-  </si>
-  <si>
-    <t>квартира</t>
-  </si>
-  <si>
-    <t>дом</t>
-  </si>
-  <si>
-    <t>place_open</t>
-  </si>
-  <si>
-    <t>кухня</t>
-  </si>
-  <si>
-    <t>ванная</t>
-  </si>
-  <si>
-    <t>унитаз</t>
-  </si>
-  <si>
-    <t>ноутбук</t>
-  </si>
-  <si>
-    <t>телефон</t>
-  </si>
-  <si>
-    <t>на</t>
-  </si>
-  <si>
-    <t>смартфон</t>
-  </si>
-  <si>
-    <t>документы</t>
-  </si>
-  <si>
-    <t>тёща</t>
-  </si>
-  <si>
     <t>тесть</t>
   </si>
   <si>
@@ -480,6 +486,9 @@
     <t>свёкр</t>
   </si>
   <si>
+    <t>project</t>
+  </si>
+  <si>
     <t>ковёр</t>
   </si>
   <si>
@@ -507,478 +516,547 @@
     <t>обучение</t>
   </si>
   <si>
+    <t>гипермаркет</t>
+  </si>
+  <si>
+    <t>над</t>
+  </si>
+  <si>
+    <t>ЖЭК</t>
+  </si>
+  <si>
+    <t>нотариус</t>
+  </si>
+  <si>
+    <t>врач</t>
+  </si>
+  <si>
+    <t>доктор</t>
+  </si>
+  <si>
+    <t>центр госуслуг</t>
+  </si>
+  <si>
+    <t>курсы</t>
+  </si>
+  <si>
+    <t>совещание</t>
+  </si>
+  <si>
+    <t>родственники</t>
+  </si>
+  <si>
+    <t>дача</t>
+  </si>
+  <si>
+    <t>хранение</t>
+  </si>
+  <si>
+    <t>банк</t>
+  </si>
+  <si>
+    <t>планерка</t>
+  </si>
+  <si>
+    <t>свадьба</t>
+  </si>
+  <si>
+    <t>похороны</t>
+  </si>
+  <si>
+    <t>ДР</t>
+  </si>
+  <si>
+    <t>день рождения</t>
+  </si>
+  <si>
+    <t>помолвка</t>
+  </si>
+  <si>
+    <t>суд</t>
+  </si>
+  <si>
+    <t>прогулка</t>
+  </si>
+  <si>
+    <t>поход</t>
+  </si>
+  <si>
+    <t>вечеринка</t>
+  </si>
+  <si>
+    <t>пати</t>
+  </si>
+  <si>
+    <t>туса</t>
+  </si>
+  <si>
+    <t>дискотека</t>
+  </si>
+  <si>
+    <t>званый приём</t>
+  </si>
+  <si>
+    <t>вокзал</t>
+  </si>
+  <si>
+    <t>аэропорт</t>
+  </si>
+  <si>
+    <t>автовокзал</t>
+  </si>
+  <si>
+    <t>почта</t>
+  </si>
+  <si>
+    <t>рынок</t>
+  </si>
+  <si>
+    <t>фестиваль</t>
+  </si>
+  <si>
+    <t>конкурс</t>
+  </si>
+  <si>
+    <t>осмотр</t>
+  </si>
+  <si>
+    <t>проверка</t>
+  </si>
+  <si>
+    <t>проект</t>
+  </si>
+  <si>
+    <t>задание</t>
+  </si>
+  <si>
+    <t>план проекта</t>
+  </si>
+  <si>
+    <t>план</t>
+  </si>
+  <si>
+    <t>диплом</t>
+  </si>
+  <si>
+    <t>уборка</t>
+  </si>
+  <si>
+    <t>картина</t>
+  </si>
+  <si>
+    <t>книга</t>
+  </si>
+  <si>
+    <t>гобелен</t>
+  </si>
+  <si>
+    <t>скульптура</t>
+  </si>
+  <si>
+    <t>мемуары</t>
+  </si>
+  <si>
+    <t>маникюр</t>
+  </si>
+  <si>
+    <t>педикюр</t>
+  </si>
+  <si>
+    <t>рейв</t>
+  </si>
+  <si>
+    <t>концерт</t>
+  </si>
+  <si>
+    <t>выставка</t>
+  </si>
+  <si>
+    <t>биеннале</t>
+  </si>
+  <si>
+    <t>галерея</t>
+  </si>
+  <si>
+    <t>музей</t>
+  </si>
+  <si>
+    <t>больница</t>
+  </si>
+  <si>
+    <t>поликлиника</t>
+  </si>
+  <si>
+    <t>курорт</t>
+  </si>
+  <si>
+    <t>отдых</t>
+  </si>
+  <si>
+    <t>санаторий</t>
+  </si>
+  <si>
+    <t>море</t>
+  </si>
+  <si>
+    <t>Чёрное море</t>
+  </si>
+  <si>
+    <t>Белое море</t>
+  </si>
+  <si>
+    <t>Красное море</t>
+  </si>
+  <si>
+    <t>Египет</t>
+  </si>
+  <si>
+    <t>Турция</t>
+  </si>
+  <si>
+    <t>Тайланд</t>
+  </si>
+  <si>
+    <t>кино</t>
+  </si>
+  <si>
+    <t>кинотеатр</t>
+  </si>
+  <si>
+    <t>фильм</t>
+  </si>
+  <si>
+    <t>посиделки</t>
+  </si>
+  <si>
+    <t>чаепитие</t>
+  </si>
+  <si>
+    <t>кофейня</t>
+  </si>
+  <si>
+    <t>кафе</t>
+  </si>
+  <si>
+    <t>ресторан</t>
+  </si>
+  <si>
+    <t>фуршет</t>
+  </si>
+  <si>
+    <t>лекция</t>
+  </si>
+  <si>
+    <t>шопинг</t>
+  </si>
+  <si>
+    <t>горы</t>
+  </si>
+  <si>
+    <t>Петербург</t>
+  </si>
+  <si>
+    <t>Москва</t>
+  </si>
+  <si>
+    <t>Нью-Йорк</t>
+  </si>
+  <si>
+    <t>Урюпинск</t>
+  </si>
+  <si>
+    <t>магазин</t>
+  </si>
+  <si>
+    <t>супермаркет</t>
+  </si>
+  <si>
+    <t>торговый центр</t>
+  </si>
+  <si>
+    <t>ТРЦ</t>
+  </si>
+  <si>
+    <t>стрелка</t>
+  </si>
+  <si>
+    <t>пьянка</t>
+  </si>
+  <si>
+    <t>попойка</t>
+  </si>
+  <si>
+    <t>аттестация</t>
+  </si>
+  <si>
+    <t>фотосессия</t>
+  </si>
+  <si>
+    <t>отпуск</t>
+  </si>
+  <si>
+    <t>центр</t>
+  </si>
+  <si>
+    <t>город</t>
+  </si>
+  <si>
+    <t>деревня</t>
+  </si>
+  <si>
+    <t>поселок</t>
+  </si>
+  <si>
+    <t>техцентр</t>
+  </si>
+  <si>
     <t>noun_type_alt</t>
   </si>
   <si>
     <t>case_obj</t>
   </si>
   <si>
-    <t>гипермаркет</t>
-  </si>
-  <si>
     <t>aspc</t>
   </si>
   <si>
-    <t>ЖЭК</t>
-  </si>
-  <si>
-    <t>нотариус</t>
-  </si>
-  <si>
-    <t>врач</t>
-  </si>
-  <si>
-    <t>доктор</t>
-  </si>
-  <si>
-    <t>до</t>
-  </si>
-  <si>
-    <t>центр госуслуг</t>
-  </si>
-  <si>
     <t>impf</t>
   </si>
   <si>
-    <t>курсы</t>
-  </si>
-  <si>
-    <t>совещание</t>
-  </si>
-  <si>
-    <t>родственники</t>
-  </si>
-  <si>
     <t>perf</t>
   </si>
   <si>
-    <t>дача</t>
-  </si>
-  <si>
-    <t>хранение</t>
-  </si>
-  <si>
-    <t>банк</t>
-  </si>
-  <si>
-    <t>планерка</t>
-  </si>
-  <si>
-    <t>перед</t>
-  </si>
-  <si>
-    <t>свадьба</t>
-  </si>
-  <si>
-    <t>похороны</t>
-  </si>
-  <si>
-    <t>ДР</t>
-  </si>
-  <si>
-    <t>день рождения</t>
-  </si>
-  <si>
-    <t>помолвка</t>
-  </si>
-  <si>
-    <t>суд</t>
-  </si>
-  <si>
-    <t>прогулка</t>
-  </si>
-  <si>
-    <t>поход</t>
-  </si>
-  <si>
-    <t>вечеринка</t>
-  </si>
-  <si>
-    <t>пати</t>
-  </si>
-  <si>
-    <t>туса</t>
-  </si>
-  <si>
-    <t>дискотека</t>
-  </si>
-  <si>
-    <t>project</t>
-  </si>
-  <si>
-    <t>званый приём</t>
-  </si>
-  <si>
     <t>позаботиться</t>
   </si>
   <si>
-    <t>вокзал</t>
-  </si>
-  <si>
-    <t>аэропорт</t>
-  </si>
-  <si>
     <t>решить</t>
   </si>
   <si>
-    <t>автовокзал</t>
-  </si>
-  <si>
-    <t>почта</t>
-  </si>
-  <si>
-    <t>рынок</t>
-  </si>
-  <si>
-    <t>фестиваль</t>
-  </si>
-  <si>
-    <t>конкурс</t>
-  </si>
-  <si>
-    <t>осмотр</t>
-  </si>
-  <si>
-    <t>проверка</t>
-  </si>
-  <si>
-    <t>над</t>
-  </si>
-  <si>
-    <t>проект</t>
-  </si>
-  <si>
-    <t>задание</t>
-  </si>
-  <si>
-    <t>план проекта</t>
-  </si>
-  <si>
-    <t>план</t>
-  </si>
-  <si>
-    <t>диплом</t>
-  </si>
-  <si>
-    <t>уборка</t>
-  </si>
-  <si>
-    <t>картина</t>
-  </si>
-  <si>
-    <t>книга</t>
-  </si>
-  <si>
-    <t>гобелен</t>
-  </si>
-  <si>
-    <t>скульптура</t>
-  </si>
-  <si>
-    <t>мемуары</t>
-  </si>
-  <si>
-    <t>маникюр</t>
-  </si>
-  <si>
-    <t>педикюр</t>
-  </si>
-  <si>
     <t>подумать</t>
   </si>
   <si>
-    <t>рейв</t>
-  </si>
-  <si>
-    <t>концерт</t>
-  </si>
-  <si>
-    <t>выставка</t>
-  </si>
-  <si>
     <t>убирать</t>
   </si>
   <si>
-    <t>биеннале</t>
-  </si>
-  <si>
-    <t>галерея</t>
-  </si>
-  <si>
     <t>добраться</t>
   </si>
   <si>
-    <t>музей</t>
-  </si>
-  <si>
-    <t>больница</t>
-  </si>
-  <si>
     <t>выбраться</t>
   </si>
   <si>
-    <t>поликлиника</t>
-  </si>
-  <si>
-    <t>курорт</t>
-  </si>
-  <si>
-    <t>отдых</t>
-  </si>
-  <si>
     <t>зайти</t>
   </si>
   <si>
-    <t>санаторий</t>
-  </si>
-  <si>
-    <t>море</t>
-  </si>
-  <si>
     <t>забежать</t>
   </si>
   <si>
-    <t>Чёрное море</t>
-  </si>
-  <si>
-    <t>Белое море</t>
-  </si>
-  <si>
     <t>съездить</t>
   </si>
   <si>
-    <t>Красное море</t>
-  </si>
-  <si>
-    <t>Египет</t>
-  </si>
-  <si>
     <t>поехать</t>
   </si>
   <si>
-    <t>Турция</t>
-  </si>
-  <si>
-    <t>Тайланд</t>
-  </si>
-  <si>
     <t>сгонять</t>
   </si>
   <si>
-    <t>кино</t>
-  </si>
-  <si>
-    <t>кинотеатр</t>
-  </si>
-  <si>
     <t>поработать</t>
   </si>
   <si>
-    <t>фильм</t>
-  </si>
-  <si>
-    <t>посиделки</t>
-  </si>
-  <si>
     <t>работать</t>
   </si>
   <si>
-    <t>чаепитие</t>
-  </si>
-  <si>
-    <t>кофейня</t>
-  </si>
-  <si>
-    <t>кафе</t>
-  </si>
-  <si>
     <t>корпеть</t>
   </si>
   <si>
-    <t>ресторан</t>
-  </si>
-  <si>
-    <t>фуршет</t>
-  </si>
-  <si>
     <t>трудиться</t>
   </si>
   <si>
-    <t>лекция</t>
-  </si>
-  <si>
-    <t>шопинг</t>
-  </si>
-  <si>
     <t>ебашить</t>
   </si>
   <si>
-    <t>горы</t>
-  </si>
-  <si>
-    <t>СПб</t>
-  </si>
-  <si>
     <t>креативить</t>
   </si>
   <si>
-    <t>Москва</t>
-  </si>
-  <si>
-    <t>Нью-Йорк</t>
-  </si>
-  <si>
     <t>вымучивать</t>
   </si>
   <si>
-    <t>Урюпинск</t>
-  </si>
-  <si>
-    <t>магазин</t>
+    <t>ending</t>
+  </si>
+  <si>
+    <t>for_others_only</t>
   </si>
   <si>
     <t>переться</t>
   </si>
   <si>
-    <t>супермаркет</t>
-  </si>
-  <si>
-    <t>торговый центр</t>
+    <t>comma_before</t>
+  </si>
+  <si>
+    <t>не могу отказаться</t>
+  </si>
+  <si>
+    <t>futr</t>
   </si>
   <si>
     <t>пиздёхать</t>
   </si>
   <si>
-    <t>ТРЦ</t>
-  </si>
-  <si>
-    <t>стрелка</t>
+    <t>придется помочь</t>
   </si>
   <si>
     <t>ползти</t>
   </si>
   <si>
-    <t>пьянка</t>
-  </si>
-  <si>
-    <t>попойка</t>
+    <t>Слово</t>
+  </si>
+  <si>
+    <t>Теги</t>
+  </si>
+  <si>
+    <t>надо помочь</t>
+  </si>
+  <si>
+    <t>пробка</t>
   </si>
   <si>
     <t>бежать</t>
   </si>
   <si>
-    <t>аттестация</t>
-  </si>
-  <si>
-    <t>фотосессия</t>
+    <t>буду помогать</t>
   </si>
   <si>
     <t>сдавать</t>
   </si>
   <si>
-    <t>отпуск</t>
+    <t>пришлось помогать</t>
+  </si>
+  <si>
+    <t>past</t>
+  </si>
+  <si>
+    <t>пришлось помочь</t>
   </si>
   <si>
     <t>забирать</t>
   </si>
   <si>
+    <t>надо было помочь</t>
+  </si>
+  <si>
     <t>нести</t>
   </si>
   <si>
+    <t>надо будет помочь</t>
+  </si>
+  <si>
     <t>отправлять</t>
   </si>
   <si>
+    <t>не смог отказаться</t>
+  </si>
+  <si>
+    <t>аврал</t>
+  </si>
+  <si>
+    <t>будет жестко</t>
+  </si>
+  <si>
     <t>ходить</t>
   </si>
   <si>
+    <t>отказаться не получится</t>
+  </si>
+  <si>
     <t>убираться</t>
   </si>
   <si>
+    <t>слиться не получится</t>
+  </si>
+  <si>
     <t>решать</t>
   </si>
   <si>
+    <t>не могу слиться</t>
+  </si>
+  <si>
+    <t>для меня это важно</t>
+  </si>
+  <si>
     <t>уезжать</t>
   </si>
   <si>
-    <t>ending</t>
-  </si>
-  <si>
-    <t>for_others_only</t>
-  </si>
-  <si>
-    <t>comma_before</t>
-  </si>
-  <si>
-    <t>не могу отказаться</t>
+    <t>это важно</t>
+  </si>
+  <si>
+    <t>это критично</t>
   </si>
   <si>
     <t>ремонтировать</t>
   </si>
   <si>
-    <t>futr</t>
-  </si>
-  <si>
-    <t>придется помочь</t>
+    <t>это супер-важно</t>
   </si>
   <si>
     <t>делать</t>
   </si>
   <si>
-    <t>надо помочь</t>
+    <t>это очень важно</t>
+  </si>
+  <si>
+    <t>это очень срочно</t>
   </si>
   <si>
     <t>подбрасывать</t>
   </si>
   <si>
-    <t>буду помогать</t>
-  </si>
-  <si>
-    <t>пришлось помогать</t>
+    <t>давно ждали этого</t>
   </si>
   <si>
     <t>создавать</t>
   </si>
   <si>
-    <t>past</t>
-  </si>
-  <si>
-    <t>пришлось помочь</t>
+    <t>давно пора это сделать</t>
+  </si>
+  <si>
+    <t>туалет</t>
   </si>
   <si>
     <t>клепать</t>
   </si>
   <si>
-    <t>надо было помочь</t>
-  </si>
-  <si>
-    <t>надо будет помочь</t>
+    <t>давно пора было</t>
+  </si>
+  <si>
+    <t>это было важно</t>
   </si>
   <si>
     <t>думать</t>
   </si>
   <si>
-    <t>не смог отказаться</t>
+    <t>это было нужно</t>
   </si>
   <si>
     <t>заходить</t>
   </si>
   <si>
+    <t>это было очень важно</t>
+  </si>
+  <si>
+    <t>это было очень нужно</t>
+  </si>
+  <si>
     <t>ездить</t>
   </si>
   <si>
-    <t>Слово</t>
-  </si>
-  <si>
-    <t>Теги</t>
-  </si>
-  <si>
-    <t>пробка</t>
-  </si>
-  <si>
-    <t>аврал</t>
-  </si>
-  <si>
-    <t>туалет</t>
+    <t>было жестко</t>
+  </si>
+  <si>
+    <t>это жесть</t>
+  </si>
+  <si>
+    <t>это была жесть</t>
+  </si>
+  <si>
+    <t>это будет жесть</t>
   </si>
   <si>
     <t>идти</t>
@@ -991,13 +1069,22 @@
   </si>
   <si>
     <t>заняться</t>
+  </si>
+  <si>
+    <t>это треш</t>
+  </si>
+  <si>
+    <t>это был треш</t>
+  </si>
+  <si>
+    <t>это будет треш</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1012,15 +1099,12 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <sz val="11.0"/>
       <color rgb="FF404040"/>
       <name val="Lato"/>
     </font>
-    <font>
-      <b/>
-    </font>
+    <font/>
   </fonts>
   <fills count="9">
     <fill>
@@ -1078,7 +1162,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1088,20 +1172,14 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
@@ -1120,11 +1198,11 @@
     <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1393,34 +1471,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2">
@@ -1428,7 +1506,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>1.0</v>
@@ -1449,7 +1527,7 @@
         <v>1.0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -1457,7 +1535,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
         <v>1.0</v>
@@ -1478,7 +1556,7 @@
         <v>1.0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -1507,7 +1585,7 @@
         <v>1.0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -1515,7 +1593,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2">
         <v>1.0</v>
@@ -1536,7 +1614,7 @@
         <v>1.0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -1544,7 +1622,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2">
         <v>1.0</v>
@@ -1565,7 +1643,7 @@
         <v>1.0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -1573,7 +1651,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2">
         <v>1.0</v>
@@ -1594,7 +1672,7 @@
         <v>1.0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -1602,7 +1680,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2">
         <v>1.0</v>
@@ -1623,7 +1701,7 @@
         <v>1.0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -1631,7 +1709,7 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2">
         <v>1.0</v>
@@ -1652,7 +1730,7 @@
         <v>1.0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -1660,7 +1738,7 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2">
         <v>1.0</v>
@@ -1681,7 +1759,7 @@
         <v>1.0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -1689,7 +1767,7 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2">
         <v>1.0</v>
@@ -1708,7 +1786,7 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -1716,7 +1794,7 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2">
         <v>0.0</v>
@@ -1735,7 +1813,7 @@
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13">
@@ -1743,7 +1821,7 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2">
         <v>0.0</v>
@@ -1762,7 +1840,7 @@
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14">
@@ -1770,7 +1848,7 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2">
         <v>0.0</v>
@@ -1789,7 +1867,7 @@
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15">
@@ -1797,7 +1875,7 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C15" s="2">
         <v>1.0</v>
@@ -1816,7 +1894,7 @@
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
@@ -1824,7 +1902,7 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C16" s="2">
         <v>1.0</v>
@@ -1843,7 +1921,7 @@
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17">
@@ -1851,7 +1929,7 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C17" s="2">
         <v>0.0</v>
@@ -1870,7 +1948,7 @@
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18">
@@ -1878,7 +1956,7 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C18" s="2">
         <v>1.0</v>
@@ -1897,7 +1975,7 @@
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -1905,7 +1983,7 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C19" s="2">
         <v>1.0</v>
@@ -1924,7 +2002,7 @@
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
@@ -1932,7 +2010,7 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C20" s="2">
         <v>1.0</v>
@@ -1951,7 +2029,7 @@
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -1959,7 +2037,7 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C21" s="2">
         <v>1.0</v>
@@ -1978,7 +2056,7 @@
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -1986,7 +2064,7 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C22" s="2">
         <v>1.0</v>
@@ -2005,7 +2083,7 @@
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -2013,7 +2091,7 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C23" s="2">
         <v>0.0</v>
@@ -2032,7 +2110,7 @@
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -2040,7 +2118,7 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2">
         <v>0.0</v>
@@ -2059,7 +2137,7 @@
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -2067,7 +2145,7 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2">
         <v>0.0</v>
@@ -2086,7 +2164,7 @@
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
@@ -2094,7 +2172,7 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2">
         <v>1.0</v>
@@ -2113,7 +2191,7 @@
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
@@ -2121,7 +2199,7 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C27" s="2">
         <v>1.0</v>
@@ -2140,7 +2218,7 @@
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -2148,7 +2226,7 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2">
         <v>1.0</v>
@@ -2167,7 +2245,7 @@
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
@@ -2175,7 +2253,7 @@
         <v>28.0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C29" s="2">
         <v>1.0</v>
@@ -2194,7 +2272,7 @@
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
@@ -2202,7 +2280,7 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C30" s="2">
         <v>1.0</v>
@@ -2221,7 +2299,7 @@
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31">
@@ -2229,7 +2307,7 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C31" s="2">
         <v>0.0</v>
@@ -2247,7 +2325,7 @@
         <v>0.0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2270,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2">
@@ -2278,7 +2356,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
@@ -2286,7 +2364,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -2294,7 +2372,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2327,13 +2405,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2">
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2">
         <v>1.0</v>
@@ -2341,7 +2419,7 @@
     </row>
     <row r="3">
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2">
         <v>1.0</v>
@@ -2349,7 +2427,7 @@
     </row>
     <row r="4">
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
         <v>0.0</v>
@@ -2357,7 +2435,7 @@
     </row>
     <row r="5">
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
         <v>0.0</v>
@@ -2365,7 +2443,7 @@
     </row>
     <row r="6">
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
         <v>0.0</v>
@@ -2373,7 +2451,7 @@
     </row>
     <row r="7">
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2">
         <v>0.0</v>
@@ -2381,7 +2459,7 @@
     </row>
     <row r="8">
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2">
         <v>0.0</v>
@@ -2389,7 +2467,7 @@
     </row>
     <row r="9">
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2">
         <v>0.0</v>
@@ -2397,7 +2475,7 @@
     </row>
     <row r="10">
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2">
         <v>0.0</v>
@@ -2405,7 +2483,7 @@
     </row>
     <row r="11">
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2">
         <v>0.0</v>
@@ -2413,7 +2491,7 @@
     </row>
     <row r="12">
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2">
         <v>0.0</v>
@@ -2421,7 +2499,7 @@
     </row>
     <row r="13">
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C13" s="2">
         <v>0.0</v>
@@ -2429,7 +2507,7 @@
     </row>
     <row r="14">
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C14" s="2">
         <v>0.0</v>
@@ -2437,7 +2515,7 @@
     </row>
     <row r="15">
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C15" s="2">
         <v>0.0</v>
@@ -2445,7 +2523,7 @@
     </row>
     <row r="16">
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C16" s="2">
         <v>0.0</v>
@@ -2453,15 +2531,15 @@
     </row>
     <row r="17">
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="3" t="s">
-        <v>41</v>
+      <c r="B18" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C18" s="2">
         <v>0.0</v>
@@ -2469,7 +2547,7 @@
     </row>
     <row r="19">
       <c r="B19" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2">
         <v>0.0</v>
@@ -2477,7 +2555,7 @@
     </row>
     <row r="20">
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2">
         <v>0.0</v>
@@ -2485,7 +2563,7 @@
     </row>
     <row r="21">
       <c r="B21" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2">
         <v>0.0</v>
@@ -2517,773 +2595,773 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="7"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="5"/>
     </row>
     <row r="3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7" t="s">
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="D4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="6" t="s">
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="11"/>
+      <c r="B22" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C22" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="11"/>
+      <c r="B24" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8" t="s">
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="11"/>
+      <c r="B27" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="4"/>
-      <c r="B6" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="4"/>
-      <c r="B8" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="6" t="s">
+    </row>
+    <row r="28">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="13"/>
+      <c r="B33" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="E33" s="6"/>
+      <c r="F33" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="13"/>
+      <c r="B34" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="13"/>
+      <c r="B35" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="15"/>
+      <c r="B36" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D36" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="E36" s="5"/>
+      <c r="F36" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="15"/>
+      <c r="B37" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="15"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="15"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="15"/>
+      <c r="B40" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G40" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8" t="s">
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="15"/>
+      <c r="B41" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H25" s="8"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H29" s="8"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H30" s="8"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="H31" s="8"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H33" s="8"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="18"/>
-      <c r="B36" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="18"/>
-      <c r="B37" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="H37" s="8"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="18"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H38" s="7"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="18"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H39" s="7"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="18"/>
-      <c r="B40" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H40" s="8"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="18"/>
-      <c r="B41" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H41" s="7"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3311,13 +3389,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2">
@@ -3325,13 +3403,13 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2">
         <v>1.0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3">
@@ -3339,13 +3417,13 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2">
         <v>1.0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4">
@@ -3353,13 +3431,13 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="C4" s="2">
         <v>1.0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5">
@@ -3367,13 +3445,13 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2">
         <v>1.0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6">
@@ -3381,13 +3459,13 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2">
         <v>1.0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7">
@@ -3395,13 +3473,13 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="C7" s="2">
         <v>1.0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8">
@@ -3409,13 +3487,13 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="C8" s="2">
         <v>1.0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
@@ -3423,13 +3501,13 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C9" s="2">
         <v>1.0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
@@ -3437,13 +3515,13 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="C10" s="2">
         <v>0.0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11">
@@ -3451,13 +3529,13 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="C11" s="2">
         <v>1.0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12">
@@ -3465,13 +3543,13 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C12" s="2">
         <v>1.0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13">
@@ -3479,13 +3557,13 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="14">
@@ -3493,13 +3571,13 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C14" s="2">
         <v>1.0</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15">
@@ -3507,13 +3585,13 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C15" s="2">
         <v>1.0</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16">
@@ -3521,13 +3599,13 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C16" s="2">
         <v>1.0</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17">
@@ -3535,13 +3613,13 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C17" s="2">
         <v>1.0</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18">
@@ -3549,13 +3627,13 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="C18" s="2">
         <v>1.0</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19">
@@ -3563,13 +3641,13 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="C19" s="2">
         <v>1.0</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20">
@@ -3577,13 +3655,13 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="C20" s="2">
         <v>1.0</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21">
@@ -3591,13 +3669,13 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C21" s="2">
         <v>0.0</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
@@ -3605,13 +3683,13 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C22" s="2">
         <v>1.0</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23">
@@ -3619,13 +3697,13 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="C23" s="2">
         <v>1.0</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24">
@@ -3633,13 +3711,13 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="C24" s="2">
         <v>1.0</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25">
@@ -3647,13 +3725,13 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="C25" s="2">
         <v>1.0</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26">
@@ -3661,13 +3739,13 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="C26" s="2">
         <v>1.0</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27">
@@ -3675,21 +3753,21 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="C27" s="2">
         <v>1.0</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="2" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3719,141 +3797,141 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2">
       <c r="B2" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="2" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18">
@@ -3861,7 +3939,7 @@
         <v>144</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19">
@@ -3869,7 +3947,7 @@
         <v>145</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20">
@@ -3877,7 +3955,7 @@
         <v>147</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21">
@@ -3885,183 +3963,183 @@
         <v>148</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44">
@@ -4069,768 +4147,808 @@
         <v>171</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59">
       <c r="B59" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60">
       <c r="B60" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65">
       <c r="B65" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66">
       <c r="B66" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68">
       <c r="B68" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="D68" s="2"/>
     </row>
     <row r="69">
       <c r="B69" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70">
       <c r="B70" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="D70" s="2"/>
     </row>
     <row r="71">
       <c r="B71" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="D71" s="2"/>
     </row>
     <row r="72">
       <c r="B72" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="D72" s="2"/>
     </row>
     <row r="73">
       <c r="B73" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74">
       <c r="B74" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76">
       <c r="B76" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77">
       <c r="B77" s="2" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" s="2" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79">
       <c r="B79" s="2" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80">
       <c r="B80" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
     </row>
     <row r="81">
       <c r="B81" s="2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82">
       <c r="B82" s="2" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
     </row>
     <row r="83">
       <c r="B83" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84">
       <c r="B84" s="2" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85">
       <c r="B85" s="2" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
     </row>
     <row r="86">
       <c r="B86" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87">
       <c r="B87" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="88">
       <c r="B88" s="2" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89">
       <c r="B89" s="2" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90">
       <c r="B90" s="2" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
     </row>
     <row r="91">
       <c r="B91" s="2" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92">
       <c r="B92" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93">
       <c r="B93" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94">
       <c r="B94" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95">
       <c r="B95" s="2" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96">
       <c r="B96" s="2" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97">
       <c r="B97" s="2" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98">
       <c r="B98" s="2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
     </row>
     <row r="99">
       <c r="B99" s="2" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
     </row>
     <row r="100">
       <c r="B100" s="2" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
     </row>
     <row r="101">
       <c r="B101" s="2" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
     </row>
     <row r="102">
       <c r="B102" s="2" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103">
       <c r="B103" s="2" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
     </row>
     <row r="104">
       <c r="B104" s="2" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
     </row>
     <row r="105">
       <c r="B105" s="2" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
     </row>
     <row r="106">
       <c r="B106" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
     </row>
     <row r="107">
       <c r="B107" s="2" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
     </row>
     <row r="108">
       <c r="B108" s="2" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
     </row>
     <row r="109">
       <c r="B109" s="2" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
     </row>
     <row r="110">
       <c r="B110" s="2" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
     </row>
     <row r="111">
       <c r="B111" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
     </row>
     <row r="112">
       <c r="B112" s="2" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
     </row>
     <row r="113">
       <c r="B113" s="2" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
     </row>
     <row r="114">
       <c r="B114" s="2" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115">
       <c r="B115" s="2" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116">
       <c r="B116" s="2" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
     </row>
     <row r="117">
       <c r="B117" s="2" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
     </row>
     <row r="118">
       <c r="B118" s="2" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
     </row>
     <row r="119">
       <c r="B119" s="2" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120">
       <c r="B120" s="2" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121">
       <c r="B121" s="2" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122">
       <c r="B122" s="2" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
     </row>
     <row r="123">
-      <c r="B123" s="3" t="s">
-        <v>265</v>
+      <c r="B123" s="17" t="s">
+        <v>244</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
     </row>
     <row r="124">
       <c r="B124" s="2" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
     </row>
     <row r="125">
       <c r="B125" s="2" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
     </row>
     <row r="126">
       <c r="B126" s="2" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
     </row>
     <row r="127">
       <c r="B127" s="2" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
     </row>
     <row r="128">
       <c r="B128" s="2" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
     </row>
     <row r="129">
       <c r="B129" s="2" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
     </row>
     <row r="130">
       <c r="B130" s="2" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
     </row>
     <row r="131">
       <c r="B131" s="2" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="132">
       <c r="B132" s="2" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133">
       <c r="B133" s="2" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134">
       <c r="B134" s="2" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="135">
       <c r="B135" s="2" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="136">
       <c r="B136" s="2" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="B137" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="B138" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="B139" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="B140" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="B141" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -4859,19 +4977,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>162</v>
+        <v>263</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>165</v>
+        <v>264</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="2">
@@ -4879,13 +4997,13 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>172</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +5011,13 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>172</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4">
@@ -4910,13 +5028,13 @@
         <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>176</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5">
@@ -4924,13 +5042,13 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>176</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6">
@@ -4938,13 +5056,13 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>176</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7">
@@ -4952,13 +5070,13 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>176</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8">
@@ -4966,13 +5084,13 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>176</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9">
@@ -4980,13 +5098,13 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>176</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10">
@@ -4994,13 +5112,13 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>176</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11">
@@ -5008,13 +5126,13 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>176</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12">
@@ -5022,16 +5140,16 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>176</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13">
@@ -5039,16 +5157,16 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>176</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14">
@@ -5056,16 +5174,16 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>176</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15">
@@ -5073,19 +5191,19 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>196</v>
+        <v>268</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>176</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16">
@@ -5093,19 +5211,19 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>199</v>
+        <v>269</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>176</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17">
@@ -5113,13 +5231,13 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>176</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18">
@@ -5127,13 +5245,13 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>176</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19">
@@ -5141,13 +5259,13 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>176</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20">
@@ -5155,13 +5273,13 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>176</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21">
@@ -5169,13 +5287,13 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>176</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22">
@@ -5183,13 +5301,13 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>176</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23">
@@ -5197,13 +5315,13 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>176</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24">
@@ -5211,13 +5329,13 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>176</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25">
@@ -5225,13 +5343,13 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>176</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26">
@@ -5239,16 +5357,16 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>176</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27">
@@ -5256,13 +5374,13 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>176</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28">
@@ -5270,13 +5388,13 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>176</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29">
@@ -5284,16 +5402,16 @@
         <v>28.0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>176</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30">
@@ -5301,19 +5419,19 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>221</v>
+        <v>270</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>176</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31">
@@ -5321,13 +5439,13 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>225</v>
+        <v>271</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>172</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32">
@@ -5335,16 +5453,16 @@
         <v>31.0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>228</v>
+        <v>272</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>172</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33">
@@ -5352,16 +5470,16 @@
         <v>32.0</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>176</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34">
@@ -5369,16 +5487,16 @@
         <v>33.0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>235</v>
+        <v>274</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>176</v>
+        <v>267</v>
       </c>
     </row>
     <row r="35">
@@ -5386,16 +5504,16 @@
         <v>34.0</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>176</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36">
@@ -5403,16 +5521,16 @@
         <v>35.0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>176</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37">
@@ -5420,16 +5538,16 @@
         <v>36.0</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>176</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38">
@@ -5437,16 +5555,16 @@
         <v>37.0</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>176</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39">
@@ -5454,16 +5572,16 @@
         <v>38.0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>176</v>
+        <v>267</v>
       </c>
     </row>
     <row r="40">
@@ -5471,16 +5589,16 @@
         <v>39.0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>176</v>
+        <v>267</v>
       </c>
     </row>
     <row r="41">
@@ -5488,16 +5606,16 @@
         <v>40.0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>176</v>
+        <v>267</v>
       </c>
     </row>
     <row r="42">
@@ -5505,19 +5623,19 @@
         <v>41.0</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>172</v>
+        <v>266</v>
       </c>
     </row>
     <row r="43">
@@ -5525,16 +5643,16 @@
         <v>42.0</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>172</v>
+        <v>266</v>
       </c>
     </row>
     <row r="44">
@@ -5542,16 +5660,16 @@
         <v>43.0</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="45">
@@ -5559,16 +5677,16 @@
         <v>44.0</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>19</v>
+        <v>155</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>172</v>
+        <v>266</v>
       </c>
     </row>
     <row r="46">
@@ -5576,13 +5694,13 @@
         <v>45.0</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>172</v>
+        <v>266</v>
       </c>
     </row>
     <row r="47">
@@ -5590,13 +5708,13 @@
         <v>46.0</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>172</v>
+        <v>266</v>
       </c>
     </row>
     <row r="48">
@@ -5604,16 +5722,16 @@
         <v>47.0</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>172</v>
+        <v>266</v>
       </c>
     </row>
     <row r="49">
@@ -5621,16 +5739,16 @@
         <v>48.0</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>172</v>
+        <v>266</v>
       </c>
     </row>
     <row r="50">
@@ -5638,16 +5756,16 @@
         <v>49.0</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>172</v>
+        <v>266</v>
       </c>
     </row>
     <row r="51">
@@ -5655,16 +5773,16 @@
         <v>50.0</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>172</v>
+        <v>266</v>
       </c>
     </row>
     <row r="52">
@@ -5672,207 +5790,207 @@
         <v>51.0</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>172</v>
+        <v>266</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2">
         <v>52.0</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>288</v>
+      <c r="B53" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>172</v>
+        <v>266</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2">
         <v>53.0</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>289</v>
+      <c r="B54" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>172</v>
+        <v>266</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2">
         <v>54.0</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>290</v>
+      <c r="B55" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>172</v>
+        <v>266</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2">
         <v>55.0</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>291</v>
+      <c r="B56" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>172</v>
+        <v>266</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2">
         <v>56.0</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>292</v>
+      <c r="B57" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>172</v>
+        <v>266</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2">
         <v>57.0</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>297</v>
+      <c r="B58" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>172</v>
+        <v>266</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2">
         <v>58.0</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>300</v>
+      <c r="B59" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>172</v>
+        <v>266</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2">
         <v>59.0</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>302</v>
+      <c r="B60" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>172</v>
+        <v>266</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2">
         <v>60.0</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>305</v>
+      <c r="B61" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>172</v>
+        <v>266</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2">
         <v>61.0</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>308</v>
+      <c r="B62" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>172</v>
+        <v>266</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2">
         <v>62.0</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>311</v>
+      <c r="B63" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>172</v>
+        <v>266</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2">
         <v>63.0</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>313</v>
+      <c r="B64" s="2" t="s">
+        <v>338</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>172</v>
+        <v>266</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2">
         <v>64.0</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>314</v>
+      <c r="B65" s="2" t="s">
+        <v>341</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>172</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -5890,7 +6008,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="18.29"/>
+    <col customWidth="1" min="2" max="2" width="23.14"/>
     <col customWidth="1" min="3" max="4" width="20.0"/>
   </cols>
   <sheetData>
@@ -5899,24 +6017,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>80</v>
+        <v>286</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2">
       <c r="B2" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>298</v>
+        <v>290</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>291</v>
       </c>
       <c r="D2" s="2">
         <v>0.0</v>
@@ -5924,10 +6042,10 @@
     </row>
     <row r="3">
       <c r="B3" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>291</v>
       </c>
       <c r="D3" s="2">
         <v>1.0</v>
@@ -5935,10 +6053,10 @@
     </row>
     <row r="4">
       <c r="B4" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>291</v>
       </c>
       <c r="D4" s="2">
         <v>1.0</v>
@@ -5946,10 +6064,10 @@
     </row>
     <row r="5">
       <c r="B5" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>298</v>
+        <v>300</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>291</v>
       </c>
       <c r="D5" s="2">
         <v>1.0</v>
@@ -5957,10 +6075,10 @@
     </row>
     <row r="6">
       <c r="B6" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>306</v>
+        <v>302</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="D6" s="2">
         <v>1.0</v>
@@ -5968,10 +6086,10 @@
     </row>
     <row r="7">
       <c r="B7" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="D7" s="2">
         <v>1.0</v>
@@ -5979,26 +6097,218 @@
     </row>
     <row r="8">
       <c r="B8" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>298</v>
+        <v>308</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>306</v>
+      <c r="C11" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -6021,125 +6331,125 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25">
@@ -6159,127 +6469,127 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>321</v>
+        <v>347</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>322</v>
+        <v>348</v>
       </c>
     </row>
     <row r="53">
@@ -6289,17 +6599,17 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>196</v>
+        <v>268</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>323</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>

--- a/otmazy_words.xlsx
+++ b/otmazy_words.xlsx
@@ -10,8 +10,10 @@
     <sheet state="visible" name="beginning" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="noun" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="verb" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="ending" sheetId="8" r:id="rId11"/>
-    <sheet state="hidden" name="слова v1" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="types" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="ending" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="semmarkup" sheetId="10" r:id="rId13"/>
+    <sheet state="hidden" name="слова v1" sheetId="11" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="451">
   <si>
     <t>id</t>
   </si>
@@ -27,126 +29,138 @@
     <t>glagol</t>
   </si>
   <si>
+    <t>контекст</t>
+  </si>
+  <si>
+    <t>работа</t>
+  </si>
+  <si>
+    <t>семья</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>destination</t>
+  </si>
+  <si>
+    <t>друзья</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t>inanimate_obj</t>
+  </si>
+  <si>
     <t>subject</t>
   </si>
   <si>
-    <t>object</t>
-  </si>
-  <si>
-    <t>destination</t>
+    <t>animate_obj</t>
   </si>
   <si>
     <t>is_myself</t>
   </si>
   <si>
-    <t>event</t>
-  </si>
-  <si>
-    <t>inanimate_obj</t>
-  </si>
-  <si>
-    <t>animate_obj</t>
-  </si>
-  <si>
     <t>movable_obj</t>
   </si>
   <si>
     <t>sklonenie_object</t>
   </si>
   <si>
+    <t>я</t>
+  </si>
+  <si>
     <t>sklonenie_destination</t>
   </si>
   <si>
     <t>склонение_место</t>
   </si>
   <si>
-    <t>я</t>
+    <t>мне</t>
+  </si>
+  <si>
+    <t>жена</t>
   </si>
   <si>
     <t>везти</t>
   </si>
   <si>
+    <t>сестра</t>
+  </si>
+  <si>
+    <t>мама</t>
+  </si>
+  <si>
+    <t>мать</t>
+  </si>
+  <si>
     <t>accs</t>
   </si>
   <si>
-    <t>мне</t>
+    <t>папа</t>
+  </si>
+  <si>
+    <t>отец</t>
+  </si>
+  <si>
+    <t>батя</t>
+  </si>
+  <si>
+    <t>бабушка</t>
+  </si>
+  <si>
+    <t>тётя</t>
+  </si>
+  <si>
+    <t>дядя</t>
   </si>
   <si>
     <t>вести</t>
   </si>
   <si>
-    <t>жена</t>
-  </si>
-  <si>
-    <t>сестра</t>
-  </si>
-  <si>
-    <t>мама</t>
+    <t>племянник</t>
+  </si>
+  <si>
+    <t>племянница</t>
+  </si>
+  <si>
+    <t>начальник</t>
+  </si>
+  <si>
+    <t>кузен</t>
   </si>
   <si>
     <t>забрать</t>
   </si>
   <si>
-    <t>мать</t>
-  </si>
-  <si>
-    <t>папа</t>
+    <t>брат</t>
+  </si>
+  <si>
+    <t>дедушка</t>
+  </si>
+  <si>
+    <t>друг</t>
+  </si>
+  <si>
+    <t>подруга</t>
   </si>
   <si>
     <t>отвезти</t>
   </si>
   <si>
-    <t>отец</t>
-  </si>
-  <si>
-    <t>батя</t>
-  </si>
-  <si>
-    <t>бабушка</t>
-  </si>
-  <si>
     <t>отвести</t>
   </si>
   <si>
-    <t>тётя</t>
-  </si>
-  <si>
     <t>принести</t>
   </si>
   <si>
-    <t>дядя</t>
-  </si>
-  <si>
-    <t>племянник</t>
-  </si>
-  <si>
     <t>отнести</t>
   </si>
   <si>
-    <t>племянница</t>
-  </si>
-  <si>
-    <t>начальник</t>
-  </si>
-  <si>
-    <t>кузен</t>
-  </si>
-  <si>
     <t>сдать</t>
   </si>
   <si>
-    <t>брат</t>
-  </si>
-  <si>
-    <t>дедушка</t>
-  </si>
-  <si>
-    <t>друг</t>
-  </si>
-  <si>
-    <t>подруга</t>
-  </si>
-  <si>
     <t>отправить</t>
   </si>
   <si>
@@ -174,9 +188,18 @@
     <t>решить вопрос с</t>
   </si>
   <si>
+    <t>predlog</t>
+  </si>
+  <si>
+    <t>noun_type</t>
+  </si>
+  <si>
     <t>ablt</t>
   </si>
   <si>
+    <t>noun_case</t>
+  </si>
+  <si>
     <t>уехать</t>
   </si>
   <si>
@@ -186,12 +209,27 @@
     <t>доделать</t>
   </si>
   <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>gent</t>
+  </si>
+  <si>
     <t>подбросить</t>
   </si>
   <si>
     <t>создать</t>
   </si>
   <si>
+    <t>родительный</t>
+  </si>
+  <si>
+    <t>Кого? Чего?</t>
+  </si>
+  <si>
+    <t>для</t>
+  </si>
+  <si>
     <t>склепать</t>
   </si>
   <si>
@@ -201,111 +239,171 @@
     <t>заебенить</t>
   </si>
   <si>
-    <t>контекст</t>
-  </si>
-  <si>
     <t>сделать</t>
   </si>
   <si>
-    <t>работа</t>
+    <t>к</t>
+  </si>
+  <si>
+    <t>datv</t>
+  </si>
+  <si>
+    <t>дательный</t>
+  </si>
+  <si>
+    <t>Кому? Чему?</t>
   </si>
   <si>
     <t>довезти</t>
   </si>
   <si>
-    <t>семья</t>
-  </si>
-  <si>
-    <t>друзья</t>
+    <t>beginning</t>
+  </si>
+  <si>
+    <t>comma_after</t>
+  </si>
+  <si>
+    <t>tense</t>
+  </si>
+  <si>
+    <t>винительный</t>
   </si>
   <si>
     <t>довести</t>
   </si>
   <si>
+    <t>извини</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>Кого? Что?</t>
+  </si>
+  <si>
+    <t>увы</t>
+  </si>
+  <si>
+    <t>future</t>
+  </si>
+  <si>
+    <t>с</t>
+  </si>
+  <si>
     <t>допереть</t>
   </si>
   <si>
+    <t>к сожалению</t>
+  </si>
+  <si>
+    <t>творительный</t>
+  </si>
+  <si>
+    <t>эх</t>
+  </si>
+  <si>
+    <t>Кем? Чем?</t>
+  </si>
+  <si>
+    <t>за</t>
+  </si>
+  <si>
+    <t>сорян</t>
+  </si>
+  <si>
     <t>обдумать</t>
   </si>
   <si>
+    <t>блин</t>
+  </si>
+  <si>
+    <t>вот чёрт</t>
+  </si>
+  <si>
+    <t>о</t>
+  </si>
+  <si>
     <t>подумать о</t>
   </si>
   <si>
+    <t>совсем забыл</t>
+  </si>
+  <si>
+    <t>предложный</t>
+  </si>
+  <si>
+    <t>О ком? О чём? и т.п.</t>
+  </si>
+  <si>
+    <t>я бы с радостью, но</t>
+  </si>
+  <si>
     <t>запланировать</t>
   </si>
   <si>
-    <t>predlog</t>
-  </si>
-  <si>
-    <t>noun_type</t>
-  </si>
-  <si>
-    <t>noun_case</t>
-  </si>
-  <si>
-    <t>person</t>
-  </si>
-  <si>
-    <t>gent</t>
-  </si>
-  <si>
-    <t>родительный</t>
-  </si>
-  <si>
-    <t>Кого? Чего?</t>
-  </si>
-  <si>
-    <t>для</t>
-  </si>
-  <si>
-    <t>к</t>
-  </si>
-  <si>
-    <t>datv</t>
-  </si>
-  <si>
-    <t>дательный</t>
-  </si>
-  <si>
-    <t>Кому? Чему?</t>
-  </si>
-  <si>
-    <t>винительный</t>
-  </si>
-  <si>
-    <t>Кого? Что?</t>
-  </si>
-  <si>
-    <t>с</t>
-  </si>
-  <si>
-    <t>творительный</t>
-  </si>
-  <si>
-    <t>Кем? Чем?</t>
-  </si>
-  <si>
-    <t>за</t>
-  </si>
-  <si>
-    <t>о</t>
-  </si>
-  <si>
-    <t>предложный</t>
-  </si>
-  <si>
-    <t>О ком? О чём? и т.п.</t>
-  </si>
-  <si>
     <t>местный</t>
   </si>
   <si>
+    <t>чёрт</t>
+  </si>
+  <si>
+    <t>только что понял</t>
+  </si>
+  <si>
     <t>thing</t>
   </si>
   <si>
+    <t>бляха-муха</t>
+  </si>
+  <si>
+    <t>вот жалость</t>
+  </si>
+  <si>
+    <t>мои извинения</t>
+  </si>
+  <si>
+    <t>премного извиняюсь</t>
+  </si>
+  <si>
+    <t>сожалею</t>
+  </si>
+  <si>
+    <t>премного сожалею</t>
+  </si>
+  <si>
+    <t>жалко</t>
+  </si>
+  <si>
+    <t>к несчастью</t>
+  </si>
+  <si>
+    <t>увы -</t>
+  </si>
+  <si>
+    <t>вот незадача</t>
+  </si>
+  <si>
+    <t>вот зараза</t>
+  </si>
+  <si>
+    <t>печально</t>
+  </si>
+  <si>
+    <t>вот печаль</t>
+  </si>
+  <si>
+    <t>ой</t>
+  </si>
+  <si>
+    <t>не получится</t>
+  </si>
+  <si>
     <t>из</t>
   </si>
   <si>
+    <t>извините</t>
+  </si>
+  <si>
     <t>place</t>
   </si>
   <si>
@@ -315,64 +413,10 @@
     <t>place_open</t>
   </si>
   <si>
-    <t>beginning</t>
-  </si>
-  <si>
-    <t>comma_after</t>
-  </si>
-  <si>
-    <t>tense</t>
-  </si>
-  <si>
-    <t>извини</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>увы</t>
-  </si>
-  <si>
-    <t>future</t>
-  </si>
-  <si>
-    <t>к сожалению</t>
-  </si>
-  <si>
-    <t>эх</t>
-  </si>
-  <si>
     <t>на</t>
   </si>
   <si>
-    <t>сорян</t>
-  </si>
-  <si>
-    <t>блин</t>
-  </si>
-  <si>
-    <t>вот чёрт</t>
-  </si>
-  <si>
-    <t>совсем забыл</t>
-  </si>
-  <si>
-    <t>я бы с радостью, но</t>
-  </si>
-  <si>
-    <t>чёрт</t>
-  </si>
-  <si>
-    <t>только что понял</t>
-  </si>
-  <si>
-    <t>бляха-муха</t>
-  </si>
-  <si>
-    <t>вот жалость</t>
-  </si>
-  <si>
-    <t>noun</t>
+    <t>word</t>
   </si>
   <si>
     <t>type</t>
@@ -381,49 +425,37 @@
     <t>type_alt</t>
   </si>
   <si>
-    <t>мои извинения</t>
-  </si>
-  <si>
     <t>собака</t>
   </si>
   <si>
     <t>кошка</t>
   </si>
   <si>
-    <t>премного извиняюсь</t>
-  </si>
-  <si>
-    <t>сожалею</t>
-  </si>
-  <si>
     <t>ребенок</t>
   </si>
   <si>
     <t>дети</t>
   </si>
   <si>
-    <t>премного сожалею</t>
-  </si>
-  <si>
     <t>дочь</t>
   </si>
   <si>
-    <t>жалко</t>
-  </si>
-  <si>
     <t>сын</t>
   </si>
   <si>
+    <t>noun_type_alt</t>
+  </si>
+  <si>
     <t>до</t>
   </si>
   <si>
-    <t>к несчастью</t>
-  </si>
-  <si>
-    <t>увы -</t>
-  </si>
-  <si>
-    <t>вот незадача</t>
+    <t>case_obj</t>
+  </si>
+  <si>
+    <t>aspc</t>
+  </si>
+  <si>
+    <t>impf</t>
   </si>
   <si>
     <t>квартира</t>
@@ -435,48 +467,36 @@
     <t>кухня</t>
   </si>
   <si>
-    <t>вот зараза</t>
+    <t>ванная</t>
+  </si>
+  <si>
+    <t>унитаз</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>ноутбук</t>
+  </si>
+  <si>
+    <t>accompany</t>
+  </si>
+  <si>
+    <t>телефон</t>
+  </si>
+  <si>
+    <t>смартфон</t>
+  </si>
+  <si>
+    <t>документы</t>
   </si>
   <si>
     <t>перед</t>
   </si>
   <si>
-    <t>ванная</t>
-  </si>
-  <si>
-    <t>печально</t>
-  </si>
-  <si>
-    <t>унитаз</t>
-  </si>
-  <si>
-    <t>вот печаль</t>
-  </si>
-  <si>
-    <t>ноутбук</t>
-  </si>
-  <si>
-    <t>телефон</t>
-  </si>
-  <si>
-    <t>ой</t>
-  </si>
-  <si>
-    <t>смартфон</t>
-  </si>
-  <si>
-    <t>документы</t>
-  </si>
-  <si>
-    <t>не получится</t>
-  </si>
-  <si>
     <t>тёща</t>
   </si>
   <si>
-    <t>извините</t>
-  </si>
-  <si>
     <t>тесть</t>
   </si>
   <si>
@@ -486,27 +506,30 @@
     <t>свёкр</t>
   </si>
   <si>
+    <t>perf</t>
+  </si>
+  <si>
+    <t>ковёр</t>
+  </si>
+  <si>
+    <t>фикус</t>
+  </si>
+  <si>
+    <t>кактус</t>
+  </si>
+  <si>
+    <t>мебель</t>
+  </si>
+  <si>
+    <t>телек</t>
+  </si>
+  <si>
+    <t>ноут</t>
+  </si>
+  <si>
     <t>project</t>
   </si>
   <si>
-    <t>ковёр</t>
-  </si>
-  <si>
-    <t>фикус</t>
-  </si>
-  <si>
-    <t>кактус</t>
-  </si>
-  <si>
-    <t>мебель</t>
-  </si>
-  <si>
-    <t>телек</t>
-  </si>
-  <si>
-    <t>ноут</t>
-  </si>
-  <si>
     <t>автомастерская</t>
   </si>
   <si>
@@ -519,36 +542,36 @@
     <t>гипермаркет</t>
   </si>
   <si>
+    <t>ЖЭК</t>
+  </si>
+  <si>
+    <t>нотариус</t>
+  </si>
+  <si>
+    <t>врач</t>
+  </si>
+  <si>
+    <t>доктор</t>
+  </si>
+  <si>
+    <t>центр госуслуг</t>
+  </si>
+  <si>
+    <t>курсы</t>
+  </si>
+  <si>
+    <t>совещание</t>
+  </si>
+  <si>
+    <t>родственники</t>
+  </si>
+  <si>
+    <t>дача</t>
+  </si>
+  <si>
     <t>над</t>
   </si>
   <si>
-    <t>ЖЭК</t>
-  </si>
-  <si>
-    <t>нотариус</t>
-  </si>
-  <si>
-    <t>врач</t>
-  </si>
-  <si>
-    <t>доктор</t>
-  </si>
-  <si>
-    <t>центр госуслуг</t>
-  </si>
-  <si>
-    <t>курсы</t>
-  </si>
-  <si>
-    <t>совещание</t>
-  </si>
-  <si>
-    <t>родственники</t>
-  </si>
-  <si>
-    <t>дача</t>
-  </si>
-  <si>
     <t>хранение</t>
   </si>
   <si>
@@ -564,6 +587,9 @@
     <t>похороны</t>
   </si>
   <si>
+    <t>travel</t>
+  </si>
+  <si>
     <t>ДР</t>
   </si>
   <si>
@@ -576,6 +602,9 @@
     <t>суд</t>
   </si>
   <si>
+    <t>impact</t>
+  </si>
+  <si>
     <t>прогулка</t>
   </si>
   <si>
@@ -588,18 +617,30 @@
     <t>пати</t>
   </si>
   <si>
+    <t>позаботиться</t>
+  </si>
+  <si>
+    <t>mental</t>
+  </si>
+  <si>
     <t>туса</t>
   </si>
   <si>
     <t>дискотека</t>
   </si>
   <si>
+    <t>решить</t>
+  </si>
+  <si>
     <t>званый приём</t>
   </si>
   <si>
     <t>вокзал</t>
   </si>
   <si>
+    <t>volit</t>
+  </si>
+  <si>
     <t>аэропорт</t>
   </si>
   <si>
@@ -624,6 +665,9 @@
     <t>проверка</t>
   </si>
   <si>
+    <t>create</t>
+  </si>
+  <si>
     <t>проект</t>
   </si>
   <si>
@@ -702,6 +746,9 @@
     <t>Чёрное море</t>
   </si>
   <si>
+    <t>подумать</t>
+  </si>
+  <si>
     <t>Белое море</t>
   </si>
   <si>
@@ -714,24 +761,48 @@
     <t>Турция</t>
   </si>
   <si>
+    <t>убирать</t>
+  </si>
+  <si>
     <t>Тайланд</t>
   </si>
   <si>
     <t>кино</t>
   </si>
   <si>
+    <t>добраться</t>
+  </si>
+  <si>
     <t>кинотеатр</t>
   </si>
   <si>
     <t>фильм</t>
   </si>
   <si>
+    <t>verb_type</t>
+  </si>
+  <si>
     <t>посиделки</t>
   </si>
   <si>
+    <t>subj_type</t>
+  </si>
+  <si>
+    <t>no_adv</t>
+  </si>
+  <si>
+    <t>adv_type</t>
+  </si>
+  <si>
     <t>чаепитие</t>
   </si>
   <si>
+    <t>выбраться</t>
+  </si>
+  <si>
+    <t>project, person</t>
+  </si>
+  <si>
     <t>кофейня</t>
   </si>
   <si>
@@ -741,9 +812,18 @@
     <t>ресторан</t>
   </si>
   <si>
+    <t>place, place_open</t>
+  </si>
+  <si>
+    <t>зайти</t>
+  </si>
+  <si>
     <t>фуршет</t>
   </si>
   <si>
+    <t>place, place_open, person</t>
+  </si>
+  <si>
     <t>лекция</t>
   </si>
   <si>
@@ -753,27 +833,57 @@
     <t>горы</t>
   </si>
   <si>
+    <t>забежать</t>
+  </si>
+  <si>
     <t>Петербург</t>
   </si>
   <si>
+    <t>organize</t>
+  </si>
+  <si>
     <t>Москва</t>
   </si>
   <si>
+    <t>destroy</t>
+  </si>
+  <si>
+    <t>съездить</t>
+  </si>
+  <si>
     <t>Нью-Йорк</t>
   </si>
   <si>
+    <t>project, event, person</t>
+  </si>
+  <si>
+    <t>possess</t>
+  </si>
+  <si>
     <t>Урюпинск</t>
   </si>
   <si>
+    <t>поехать</t>
+  </si>
+  <si>
+    <t>project, event</t>
+  </si>
+  <si>
     <t>магазин</t>
   </si>
   <si>
     <t>супермаркет</t>
   </si>
   <si>
+    <t>speech</t>
+  </si>
+  <si>
     <t>торговый центр</t>
   </si>
   <si>
+    <t>сгонять</t>
+  </si>
+  <si>
     <t>ТРЦ</t>
   </si>
   <si>
@@ -783,6 +893,9 @@
     <t>пьянка</t>
   </si>
   <si>
+    <t>поработать</t>
+  </si>
+  <si>
     <t>попойка</t>
   </si>
   <si>
@@ -792,6 +905,9 @@
     <t>фотосессия</t>
   </si>
   <si>
+    <t>работать</t>
+  </si>
+  <si>
     <t>отпуск</t>
   </si>
   <si>
@@ -804,69 +920,15 @@
     <t>деревня</t>
   </si>
   <si>
+    <t>корпеть</t>
+  </si>
+  <si>
     <t>поселок</t>
   </si>
   <si>
     <t>техцентр</t>
   </si>
   <si>
-    <t>noun_type_alt</t>
-  </si>
-  <si>
-    <t>case_obj</t>
-  </si>
-  <si>
-    <t>aspc</t>
-  </si>
-  <si>
-    <t>impf</t>
-  </si>
-  <si>
-    <t>perf</t>
-  </si>
-  <si>
-    <t>позаботиться</t>
-  </si>
-  <si>
-    <t>решить</t>
-  </si>
-  <si>
-    <t>подумать</t>
-  </si>
-  <si>
-    <t>убирать</t>
-  </si>
-  <si>
-    <t>добраться</t>
-  </si>
-  <si>
-    <t>выбраться</t>
-  </si>
-  <si>
-    <t>зайти</t>
-  </si>
-  <si>
-    <t>забежать</t>
-  </si>
-  <si>
-    <t>съездить</t>
-  </si>
-  <si>
-    <t>поехать</t>
-  </si>
-  <si>
-    <t>сгонять</t>
-  </si>
-  <si>
-    <t>поработать</t>
-  </si>
-  <si>
-    <t>работать</t>
-  </si>
-  <si>
-    <t>корпеть</t>
-  </si>
-  <si>
     <t>трудиться</t>
   </si>
   <si>
@@ -879,13 +941,61 @@
     <t>вымучивать</t>
   </si>
   <si>
+    <t>переться</t>
+  </si>
+  <si>
+    <t>пиздёхать</t>
+  </si>
+  <si>
+    <t>ползти</t>
+  </si>
+  <si>
+    <t>бежать</t>
+  </si>
+  <si>
+    <t>сдавать</t>
+  </si>
+  <si>
+    <t>забирать</t>
+  </si>
+  <si>
+    <t>нести</t>
+  </si>
+  <si>
+    <t>отправлять</t>
+  </si>
+  <si>
+    <t>ходить</t>
+  </si>
+  <si>
+    <t>убираться</t>
+  </si>
+  <si>
+    <t>решать</t>
+  </si>
+  <si>
+    <t>уезжать</t>
+  </si>
+  <si>
+    <t>ремонтировать</t>
+  </si>
+  <si>
+    <t>делать</t>
+  </si>
+  <si>
+    <t>подбрасывать</t>
+  </si>
+  <si>
+    <t>создавать</t>
+  </si>
+  <si>
     <t>ending</t>
   </si>
   <si>
     <t>for_others_only</t>
   </si>
   <si>
-    <t>переться</t>
+    <t>клепать</t>
   </si>
   <si>
     <t>comma_before</t>
@@ -897,13 +1007,346 @@
     <t>futr</t>
   </si>
   <si>
-    <t>пиздёхать</t>
-  </si>
-  <si>
     <t>придется помочь</t>
   </si>
   <si>
-    <t>ползти</t>
+    <t>semmarkup</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>думать</t>
+  </si>
+  <si>
+    <t>subj_types</t>
+  </si>
+  <si>
+    <t>adv_with_subj</t>
+  </si>
+  <si>
+    <t>adv_without_subj</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>надо помочь</t>
+  </si>
+  <si>
+    <t>буду помогать</t>
+  </si>
+  <si>
+    <t>пришлось помогать</t>
+  </si>
+  <si>
+    <t>заходить</t>
+  </si>
+  <si>
+    <t>past</t>
+  </si>
+  <si>
+    <t>пришлось помочь</t>
+  </si>
+  <si>
+    <t>надо было помочь</t>
+  </si>
+  <si>
+    <t>ездить</t>
+  </si>
+  <si>
+    <t>надо будет помочь</t>
+  </si>
+  <si>
+    <t>не смог отказаться</t>
+  </si>
+  <si>
+    <t>будет жестко</t>
+  </si>
+  <si>
+    <t>отказаться не получится</t>
+  </si>
+  <si>
+    <t>сопроводить</t>
+  </si>
+  <si>
+    <t>слиться не получится</t>
+  </si>
+  <si>
+    <t>не могу слиться</t>
+  </si>
+  <si>
+    <t>t:move</t>
+  </si>
+  <si>
+    <t>для меня это важно</t>
+  </si>
+  <si>
+    <t>сопровождать</t>
+  </si>
+  <si>
+    <t>это важно</t>
+  </si>
+  <si>
+    <t>это критично</t>
+  </si>
+  <si>
+    <t>присмотреть</t>
+  </si>
+  <si>
+    <t>это супер-важно</t>
+  </si>
+  <si>
+    <t>person, place</t>
+  </si>
+  <si>
+    <t>движение (бежать, дергаться, бросить, нести)</t>
+  </si>
+  <si>
+    <t>это очень важно</t>
+  </si>
+  <si>
+    <t>t:move:body</t>
+  </si>
+  <si>
+    <t>это очень срочно</t>
+  </si>
+  <si>
+    <t>давно ждали этого</t>
+  </si>
+  <si>
+    <t>давно пора это сделать</t>
+  </si>
+  <si>
+    <t>изменение положения тела, части тела (согнуть, нагнуться, примоститься)</t>
+  </si>
+  <si>
+    <t>давно пора было</t>
+  </si>
+  <si>
+    <t>t:put</t>
+  </si>
+  <si>
+    <t>это было важно</t>
+  </si>
+  <si>
+    <t>помещение объекта (положить, вложить, спрятать)</t>
+  </si>
+  <si>
+    <t>это было нужно</t>
+  </si>
+  <si>
+    <t>t:impact</t>
+  </si>
+  <si>
+    <t>это было очень важно</t>
+  </si>
+  <si>
+    <t>физическое воздействие (бить, колоть, вытирать)</t>
+  </si>
+  <si>
+    <t>это было очень нужно</t>
+  </si>
+  <si>
+    <t>t:impact:creat</t>
+  </si>
+  <si>
+    <t>было жестко</t>
+  </si>
+  <si>
+    <t>создание физического объекта (выковать, смастерить, сшить)</t>
+  </si>
+  <si>
+    <t>это жесть</t>
+  </si>
+  <si>
+    <t>t:impact:destr</t>
+  </si>
+  <si>
+    <t>это была жесть</t>
+  </si>
+  <si>
+    <t>уничтожение (взорвать, сжечь, зарезать)</t>
+  </si>
+  <si>
+    <t>это будет жесть</t>
+  </si>
+  <si>
+    <t>t:changest</t>
+  </si>
+  <si>
+    <t>это треш</t>
+  </si>
+  <si>
+    <t>изменение состояния или признака (взрослеть, богатеть, расширить, испачкать)</t>
+  </si>
+  <si>
+    <t>t:be</t>
+  </si>
+  <si>
+    <t>это был треш</t>
+  </si>
+  <si>
+    <t>бытийная сфера (жить, возникнуть, убить)</t>
+  </si>
+  <si>
+    <t>это будет треш</t>
+  </si>
+  <si>
+    <t>t:be:exist</t>
+  </si>
+  <si>
+    <t>существование (жить, происходить)</t>
+  </si>
+  <si>
+    <t>t:be:appear</t>
+  </si>
+  <si>
+    <t>пора было решить этот вопрос</t>
+  </si>
+  <si>
+    <t>пора решить этот вопрос</t>
+  </si>
+  <si>
+    <t>начало существования (возникнуть, родиться, сформировать, создать)</t>
+  </si>
+  <si>
+    <t>t:be:disapp</t>
+  </si>
+  <si>
+    <t>надо этим заняться</t>
+  </si>
+  <si>
+    <t>прекращение существования (умереть, убить, улетучиться, ликвидировать, искоренить)</t>
+  </si>
+  <si>
+    <t>надо было это сделать</t>
+  </si>
+  <si>
+    <t>t:loc</t>
+  </si>
+  <si>
+    <t>надо будет это сделать</t>
+  </si>
+  <si>
+    <t>местонахождение (лежать, стоять, положить)</t>
+  </si>
+  <si>
+    <t>надо было это закончить</t>
+  </si>
+  <si>
+    <t>t:loc:body</t>
+  </si>
+  <si>
+    <t>надо это закончить</t>
+  </si>
+  <si>
+    <t>положение тела в пространстве (сидеть)</t>
+  </si>
+  <si>
+    <t>надо будет это закончить</t>
+  </si>
+  <si>
+    <t>t:contact</t>
+  </si>
+  <si>
+    <t>надо это дело добить</t>
+  </si>
+  <si>
+    <t>надо было это добить</t>
+  </si>
+  <si>
+    <t>контакт и опора (касаться, обнимать, облокотиться)</t>
+  </si>
+  <si>
+    <t>t:poss</t>
+  </si>
+  <si>
+    <t>давно ждали случая</t>
+  </si>
+  <si>
+    <t>наконец выдался случай</t>
+  </si>
+  <si>
+    <t>посессивная сфера (иметь дать, подарить, приобрести, лишиться)</t>
+  </si>
+  <si>
+    <t>t:ment</t>
+  </si>
+  <si>
+    <t>наконец разберусь с этим</t>
+  </si>
+  <si>
+    <t>ментальная сфера (знать, верить, догадаться, помнить, считать)</t>
+  </si>
+  <si>
+    <t>наконец разобрались с этим</t>
+  </si>
+  <si>
+    <t>t:perc</t>
+  </si>
+  <si>
+    <t>восприятие (смотреть, слышать, нюхать, чуять)</t>
+  </si>
+  <si>
+    <t>t:psych</t>
+  </si>
+  <si>
+    <t>психическая сфера (гипнотизировать, сочувствовать, настроиться, терпеть)</t>
+  </si>
+  <si>
+    <t>t:psych:emot</t>
+  </si>
+  <si>
+    <t>эмоция (радоваться, обидеть)</t>
+  </si>
+  <si>
+    <t>t:psych:volit</t>
+  </si>
+  <si>
+    <t>воля (решить)</t>
+  </si>
+  <si>
+    <t>t:speech</t>
+  </si>
+  <si>
+    <t>речь (говорить, советовать, спорить, каламбурить)</t>
+  </si>
+  <si>
+    <t>t:behav</t>
+  </si>
+  <si>
+    <t>поведение человека (куролесить, привередничать)</t>
+  </si>
+  <si>
+    <t>t:physiol</t>
+  </si>
+  <si>
+    <t>физиологическая сфера (кашлять, икать)</t>
+  </si>
+  <si>
+    <t>t:weather</t>
+  </si>
+  <si>
+    <t>природное явление (бушевать, вьюжить)</t>
+  </si>
+  <si>
+    <t>t:sound</t>
+  </si>
+  <si>
+    <t>звук (гудеть, шелестеть)</t>
+  </si>
+  <si>
+    <t>t:light</t>
+  </si>
+  <si>
+    <t>свет (гаснуть, лучиться)</t>
+  </si>
+  <si>
+    <t>t:smell</t>
+  </si>
+  <si>
+    <t>запах (пахнуть, благоухать)</t>
   </si>
   <si>
     <t>Слово</t>
@@ -912,153 +1355,15 @@
     <t>Теги</t>
   </si>
   <si>
-    <t>надо помочь</t>
-  </si>
-  <si>
     <t>пробка</t>
   </si>
   <si>
-    <t>бежать</t>
-  </si>
-  <si>
-    <t>буду помогать</t>
-  </si>
-  <si>
-    <t>сдавать</t>
-  </si>
-  <si>
-    <t>пришлось помогать</t>
-  </si>
-  <si>
-    <t>past</t>
-  </si>
-  <si>
-    <t>пришлось помочь</t>
-  </si>
-  <si>
-    <t>забирать</t>
-  </si>
-  <si>
-    <t>надо было помочь</t>
-  </si>
-  <si>
-    <t>нести</t>
-  </si>
-  <si>
-    <t>надо будет помочь</t>
-  </si>
-  <si>
-    <t>отправлять</t>
-  </si>
-  <si>
-    <t>не смог отказаться</t>
-  </si>
-  <si>
     <t>аврал</t>
   </si>
   <si>
-    <t>будет жестко</t>
-  </si>
-  <si>
-    <t>ходить</t>
-  </si>
-  <si>
-    <t>отказаться не получится</t>
-  </si>
-  <si>
-    <t>убираться</t>
-  </si>
-  <si>
-    <t>слиться не получится</t>
-  </si>
-  <si>
-    <t>решать</t>
-  </si>
-  <si>
-    <t>не могу слиться</t>
-  </si>
-  <si>
-    <t>для меня это важно</t>
-  </si>
-  <si>
-    <t>уезжать</t>
-  </si>
-  <si>
-    <t>это важно</t>
-  </si>
-  <si>
-    <t>это критично</t>
-  </si>
-  <si>
-    <t>ремонтировать</t>
-  </si>
-  <si>
-    <t>это супер-важно</t>
-  </si>
-  <si>
-    <t>делать</t>
-  </si>
-  <si>
-    <t>это очень важно</t>
-  </si>
-  <si>
-    <t>это очень срочно</t>
-  </si>
-  <si>
-    <t>подбрасывать</t>
-  </si>
-  <si>
-    <t>давно ждали этого</t>
-  </si>
-  <si>
-    <t>создавать</t>
-  </si>
-  <si>
-    <t>давно пора это сделать</t>
-  </si>
-  <si>
     <t>туалет</t>
   </si>
   <si>
-    <t>клепать</t>
-  </si>
-  <si>
-    <t>давно пора было</t>
-  </si>
-  <si>
-    <t>это было важно</t>
-  </si>
-  <si>
-    <t>думать</t>
-  </si>
-  <si>
-    <t>это было нужно</t>
-  </si>
-  <si>
-    <t>заходить</t>
-  </si>
-  <si>
-    <t>это было очень важно</t>
-  </si>
-  <si>
-    <t>это было очень нужно</t>
-  </si>
-  <si>
-    <t>ездить</t>
-  </si>
-  <si>
-    <t>было жестко</t>
-  </si>
-  <si>
-    <t>это жесть</t>
-  </si>
-  <si>
-    <t>это была жесть</t>
-  </si>
-  <si>
-    <t>это будет жесть</t>
-  </si>
-  <si>
     <t>идти</t>
   </si>
   <si>
@@ -1069,22 +1374,13 @@
   </si>
   <si>
     <t>заняться</t>
-  </si>
-  <si>
-    <t>это треш</t>
-  </si>
-  <si>
-    <t>это был треш</t>
-  </si>
-  <si>
-    <t>это будет треш</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1104,9 +1400,16 @@
       <color rgb="FF404040"/>
       <name val="Lato"/>
     </font>
+    <font>
+      <b/>
+    </font>
     <font/>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1155,6 +1458,12 @@
         <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -1162,7 +1471,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1195,14 +1504,22 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1214,6 +1531,14 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1474,31 +1799,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -1506,7 +1831,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2">
         <v>1.0</v>
@@ -1527,7 +1852,7 @@
         <v>1.0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -1535,7 +1860,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2">
         <v>1.0</v>
@@ -1556,7 +1881,7 @@
         <v>1.0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -1564,7 +1889,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2">
         <v>1.0</v>
@@ -1585,7 +1910,7 @@
         <v>1.0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -1593,28 +1918,28 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -1622,7 +1947,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2">
         <v>1.0</v>
@@ -1643,7 +1968,7 @@
         <v>1.0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
@@ -1651,7 +1976,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2">
         <v>1.0</v>
@@ -1672,7 +1997,7 @@
         <v>1.0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
@@ -1680,7 +2005,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2">
         <v>1.0</v>
@@ -1701,7 +2026,7 @@
         <v>1.0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
@@ -1709,7 +2034,7 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2">
         <v>1.0</v>
@@ -1730,7 +2055,7 @@
         <v>1.0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
@@ -1738,7 +2063,7 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2">
         <v>1.0</v>
@@ -1759,7 +2084,7 @@
         <v>1.0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
@@ -1767,7 +2092,7 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2">
         <v>1.0</v>
@@ -1786,7 +2111,7 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
@@ -1794,7 +2119,7 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2">
         <v>0.0</v>
@@ -1813,7 +2138,7 @@
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13">
@@ -1821,7 +2146,7 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2">
         <v>0.0</v>
@@ -1840,7 +2165,7 @@
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
@@ -1848,7 +2173,7 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C14" s="2">
         <v>0.0</v>
@@ -1867,7 +2192,7 @@
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15">
@@ -1875,7 +2200,7 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C15" s="2">
         <v>1.0</v>
@@ -1894,7 +2219,7 @@
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
@@ -1902,7 +2227,7 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C16" s="2">
         <v>1.0</v>
@@ -1921,7 +2246,7 @@
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17">
@@ -1929,7 +2254,7 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C17" s="2">
         <v>0.0</v>
@@ -1948,7 +2273,7 @@
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18">
@@ -1956,7 +2281,7 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C18" s="2">
         <v>1.0</v>
@@ -1975,7 +2300,7 @@
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
@@ -1983,7 +2308,7 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C19" s="2">
         <v>1.0</v>
@@ -2002,7 +2327,7 @@
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20">
@@ -2010,7 +2335,7 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C20" s="2">
         <v>1.0</v>
@@ -2029,7 +2354,7 @@
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21">
@@ -2037,7 +2362,7 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C21" s="2">
         <v>1.0</v>
@@ -2056,7 +2381,7 @@
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
@@ -2064,7 +2389,7 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C22" s="2">
         <v>1.0</v>
@@ -2083,7 +2408,7 @@
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23">
@@ -2091,7 +2416,7 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C23" s="2">
         <v>0.0</v>
@@ -2110,7 +2435,7 @@
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24">
@@ -2118,7 +2443,7 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C24" s="2">
         <v>0.0</v>
@@ -2137,7 +2462,7 @@
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
@@ -2145,7 +2470,7 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C25" s="2">
         <v>0.0</v>
@@ -2164,7 +2489,7 @@
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
@@ -2172,7 +2497,7 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C26" s="2">
         <v>1.0</v>
@@ -2191,7 +2516,7 @@
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27">
@@ -2199,7 +2524,7 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C27" s="2">
         <v>1.0</v>
@@ -2218,7 +2543,7 @@
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28">
@@ -2226,7 +2551,7 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C28" s="2">
         <v>1.0</v>
@@ -2245,7 +2570,7 @@
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29">
@@ -2253,7 +2578,7 @@
         <v>28.0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="C29" s="2">
         <v>1.0</v>
@@ -2272,7 +2597,7 @@
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30">
@@ -2280,7 +2605,7 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="C30" s="2">
         <v>1.0</v>
@@ -2299,7 +2624,7 @@
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -2307,7 +2632,7 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="C31" s="2">
         <v>0.0</v>
@@ -2325,7 +2650,723 @@
         <v>0.0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="3" width="14.14"/>
+    <col customWidth="1" min="4" max="4" width="19.43"/>
+    <col customWidth="1" min="5" max="5" width="31.14"/>
+    <col customWidth="1" min="6" max="6" width="77.43"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="B2" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="B4" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="B6" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="B7" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="B16" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="B17" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="B18" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="B21" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="B22" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="21" t="s">
+        <v>430</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="21" t="s">
+        <v>432</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="21" t="s">
+        <v>438</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="21" t="s">
+        <v>440</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21" t="s">
+        <v>441</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="21.29"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -2348,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
@@ -2356,7 +3397,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2364,7 +3405,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2372,7 +3413,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2402,16 +3443,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2">
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2">
         <v>1.0</v>
@@ -2419,7 +3460,7 @@
     </row>
     <row r="3">
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2">
         <v>1.0</v>
@@ -2427,7 +3468,7 @@
     </row>
     <row r="4">
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2">
         <v>0.0</v>
@@ -2435,7 +3476,7 @@
     </row>
     <row r="5">
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2">
         <v>0.0</v>
@@ -2443,7 +3484,7 @@
     </row>
     <row r="6">
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2">
         <v>0.0</v>
@@ -2451,7 +3492,7 @@
     </row>
     <row r="7">
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2">
         <v>0.0</v>
@@ -2459,7 +3500,7 @@
     </row>
     <row r="8">
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2">
         <v>0.0</v>
@@ -2467,7 +3508,7 @@
     </row>
     <row r="9">
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2">
         <v>0.0</v>
@@ -2475,7 +3516,7 @@
     </row>
     <row r="10">
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2">
         <v>0.0</v>
@@ -2483,7 +3524,7 @@
     </row>
     <row r="11">
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2">
         <v>0.0</v>
@@ -2499,7 +3540,7 @@
     </row>
     <row r="13">
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2">
         <v>0.0</v>
@@ -2515,7 +3556,7 @@
     </row>
     <row r="15">
       <c r="B15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="2">
         <v>0.0</v>
@@ -2523,7 +3564,7 @@
     </row>
     <row r="16">
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2">
         <v>0.0</v>
@@ -2531,7 +3572,7 @@
     </row>
     <row r="17">
       <c r="B17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2">
         <v>0.0</v>
@@ -2539,7 +3580,7 @@
     </row>
     <row r="18">
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2">
         <v>0.0</v>
@@ -2547,7 +3588,7 @@
     </row>
     <row r="19">
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2">
         <v>0.0</v>
@@ -2555,7 +3596,7 @@
     </row>
     <row r="20">
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2">
         <v>0.0</v>
@@ -2563,7 +3604,7 @@
     </row>
     <row r="21">
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="2">
         <v>0.0</v>
@@ -2595,70 +3636,70 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H3" s="6"/>
     </row>
     <row r="4">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H4" s="6"/>
     </row>
@@ -2666,77 +3707,77 @@
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H6" s="6"/>
     </row>
     <row r="7">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H7" s="6"/>
     </row>
     <row r="8">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="H8" s="5"/>
     </row>
@@ -2744,30 +3785,30 @@
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H10" s="5"/>
     </row>
@@ -2775,17 +3816,17 @@
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H11" s="6"/>
     </row>
@@ -2793,57 +3834,57 @@
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H12" s="5"/>
     </row>
     <row r="13">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H13" s="6"/>
     </row>
     <row r="14">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="H14" s="5"/>
     </row>
@@ -2851,72 +3892,72 @@
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="9"/>
       <c r="B16" s="10" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H16" s="5"/>
     </row>
     <row r="17">
       <c r="A17" s="9"/>
       <c r="B17" s="10" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H17" s="6"/>
     </row>
     <row r="18">
       <c r="A18" s="9"/>
       <c r="B18" s="10" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H18" s="5"/>
     </row>
@@ -2924,17 +3965,17 @@
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H19" s="6"/>
     </row>
@@ -2942,52 +3983,52 @@
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="H20" s="5"/>
     </row>
     <row r="21">
       <c r="A21" s="9"/>
       <c r="B21" s="10" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="11"/>
       <c r="B22" s="12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H22" s="5"/>
     </row>
@@ -2995,37 +4036,37 @@
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="12" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H23" s="6"/>
     </row>
     <row r="24">
       <c r="A24" s="11"/>
       <c r="B24" s="12" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H24" s="5"/>
     </row>
@@ -3033,17 +4074,17 @@
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H25" s="6"/>
     </row>
@@ -3051,317 +4092,317 @@
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="H26" s="5"/>
     </row>
     <row r="27">
       <c r="A27" s="11"/>
       <c r="B27" s="12" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="13"/>
-      <c r="B28" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>75</v>
+      <c r="B28" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H28" s="5"/>
     </row>
     <row r="29">
       <c r="A29" s="13"/>
-      <c r="B29" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>75</v>
+      <c r="B29" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H29" s="6"/>
     </row>
     <row r="30">
       <c r="A30" s="13"/>
-      <c r="B30" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>75</v>
+      <c r="B30" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H30" s="6"/>
     </row>
     <row r="31">
       <c r="A31" s="13"/>
-      <c r="B31" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>80</v>
+      <c r="B31" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H31" s="6"/>
     </row>
     <row r="32">
       <c r="A32" s="13"/>
-      <c r="B32" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>15</v>
+      <c r="B32" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H32" s="5"/>
     </row>
     <row r="33">
       <c r="A33" s="13"/>
-      <c r="B33" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>51</v>
+      <c r="B33" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H33" s="6"/>
     </row>
     <row r="34">
       <c r="A34" s="13"/>
-      <c r="B34" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>47</v>
+      <c r="B34" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="H34" s="5"/>
     </row>
     <row r="35">
       <c r="A35" s="13"/>
-      <c r="B35" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>45</v>
+      <c r="B35" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="15"/>
-      <c r="B36" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>75</v>
+      <c r="A36" s="17"/>
+      <c r="B36" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>63</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H36" s="5"/>
     </row>
     <row r="37">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>80</v>
+      <c r="A37" s="17"/>
+      <c r="B37" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>74</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H37" s="6"/>
     </row>
     <row r="38">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>15</v>
+      <c r="A38" s="17"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H38" s="5"/>
     </row>
     <row r="39">
-      <c r="A39" s="15"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>15</v>
+      <c r="A39" s="17"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H39" s="5"/>
     </row>
     <row r="40">
-      <c r="A40" s="15"/>
-      <c r="B40" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>51</v>
+      <c r="A40" s="17"/>
+      <c r="B40" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H40" s="6"/>
     </row>
     <row r="41">
-      <c r="A41" s="15"/>
-      <c r="B41" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>47</v>
+      <c r="A41" s="17"/>
+      <c r="B41" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="H41" s="5"/>
     </row>
     <row r="42">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>45</v>
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3389,13 +4430,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2">
@@ -3403,13 +4444,13 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2">
         <v>1.0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
@@ -3417,13 +4458,13 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2">
         <v>1.0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4">
@@ -3431,13 +4472,13 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2">
         <v>1.0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
@@ -3445,13 +4486,13 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2">
         <v>1.0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
@@ -3459,13 +4500,13 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2">
         <v>1.0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
@@ -3473,13 +4514,13 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C7" s="2">
         <v>1.0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
@@ -3487,13 +4528,13 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2">
         <v>1.0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9">
@@ -3501,13 +4542,13 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C9" s="2">
         <v>1.0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10">
@@ -3515,13 +4556,13 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C10" s="2">
         <v>0.0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
@@ -3529,13 +4570,13 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C11" s="2">
         <v>1.0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12">
@@ -3543,13 +4584,13 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C12" s="2">
         <v>1.0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13">
@@ -3557,13 +4598,13 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C13" s="2">
         <v>1.0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14">
@@ -3571,13 +4612,13 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C14" s="2">
         <v>1.0</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15">
@@ -3585,13 +4626,13 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C15" s="2">
         <v>1.0</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16">
@@ -3599,13 +4640,13 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C16" s="2">
         <v>1.0</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17">
@@ -3613,13 +4654,13 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C17" s="2">
         <v>1.0</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18">
@@ -3627,13 +4668,13 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C18" s="2">
         <v>1.0</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19">
@@ -3641,13 +4682,13 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="C19" s="2">
         <v>1.0</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20">
@@ -3655,13 +4696,13 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C20" s="2">
         <v>1.0</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21">
@@ -3669,13 +4710,13 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C21" s="2">
         <v>0.0</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22">
@@ -3683,13 +4724,13 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C22" s="2">
         <v>1.0</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23">
@@ -3697,13 +4738,13 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="C23" s="2">
         <v>1.0</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24">
@@ -3711,13 +4752,13 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="C24" s="2">
         <v>1.0</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25">
@@ -3725,13 +4766,13 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="C25" s="2">
         <v>1.0</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26">
@@ -3739,13 +4780,13 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="C26" s="2">
         <v>1.0</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27">
@@ -3753,21 +4794,21 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="C27" s="2">
         <v>1.0</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="2" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3796,230 +4837,230 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>117</v>
+      <c r="B1" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2">
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="2" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="2" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="2" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="2" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29">
@@ -4027,928 +5068,928 @@
         <v>29</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" s="2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" s="2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" s="2" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" s="2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" s="2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" s="2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" s="2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" s="2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
       <c r="B59" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
       <c r="B60" s="2" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" s="2" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" s="2" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" s="2" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" s="2" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65">
       <c r="B65" s="2" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66">
       <c r="B66" s="2" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" s="2" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68">
       <c r="B68" s="2" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="D68" s="2"/>
     </row>
     <row r="69">
       <c r="B69" s="2" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70">
       <c r="B70" s="2" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="D70" s="2"/>
     </row>
     <row r="71">
       <c r="B71" s="2" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="D71" s="2"/>
     </row>
     <row r="72">
       <c r="B72" s="2" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="D72" s="2"/>
     </row>
     <row r="73">
       <c r="B73" s="2" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74">
       <c r="B74" s="2" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" s="2" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76">
       <c r="B76" s="2" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77">
       <c r="B77" s="2" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" s="2" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
     </row>
     <row r="79">
       <c r="B79" s="2" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="80">
       <c r="B80" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
     </row>
     <row r="81">
       <c r="B81" s="2" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82">
       <c r="B82" s="2" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
     </row>
     <row r="83">
       <c r="B83" s="2" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84">
       <c r="B84" s="2" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="85">
       <c r="B85" s="2" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
     </row>
     <row r="86">
       <c r="B86" s="2" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="87">
       <c r="B87" s="2" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="88">
       <c r="B88" s="2" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="89">
       <c r="B89" s="2" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="90">
       <c r="B90" s="2" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
     </row>
     <row r="91">
       <c r="B91" s="2" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92">
       <c r="B92" s="2" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93">
       <c r="B93" s="2" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94">
       <c r="B94" s="2" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95">
       <c r="B95" s="2" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96">
       <c r="B96" s="2" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97">
       <c r="B97" s="2" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="98">
       <c r="B98" s="2" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="99">
       <c r="B99" s="2" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="100">
       <c r="B100" s="2" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="101">
       <c r="B101" s="2" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
     </row>
     <row r="102">
       <c r="B102" s="2" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103">
       <c r="B103" s="2" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="104">
       <c r="B104" s="2" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
     </row>
     <row r="105">
       <c r="B105" s="2" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
     </row>
     <row r="106">
       <c r="B106" s="2" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
     </row>
     <row r="107">
       <c r="B107" s="2" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
     </row>
     <row r="108">
       <c r="B108" s="2" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109">
       <c r="B109" s="2" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="110">
       <c r="B110" s="2" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111">
       <c r="B111" s="2" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112">
       <c r="B112" s="2" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="113">
       <c r="B113" s="2" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114">
       <c r="B114" s="2" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115">
       <c r="B115" s="2" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116">
       <c r="B116" s="2" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="117">
       <c r="B117" s="2" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="118">
       <c r="B118" s="2" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="119">
       <c r="B119" s="2" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120">
       <c r="B120" s="2" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121">
       <c r="B121" s="2" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122">
       <c r="B122" s="2" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="123">
-      <c r="B123" s="17" t="s">
-        <v>244</v>
+      <c r="B123" s="18" t="s">
+        <v>271</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="124">
       <c r="B124" s="2" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="125">
       <c r="B125" s="2" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="126">
       <c r="B126" s="2" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="127">
       <c r="B127" s="2" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="128">
       <c r="B128" s="2" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129">
       <c r="B129" s="2" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="130">
       <c r="B130" s="2" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="131">
       <c r="B131" s="2" t="s">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132">
       <c r="B132" s="2" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133">
       <c r="B133" s="2" t="s">
-        <v>254</v>
+        <v>291</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134">
       <c r="B134" s="2" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135">
       <c r="B135" s="2" t="s">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="136">
       <c r="B136" s="2" t="s">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="137">
       <c r="B137" s="2" t="s">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="138">
       <c r="B138" s="2" t="s">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="139">
       <c r="B139" s="2" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="140">
       <c r="B140" s="2" t="s">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="141">
       <c r="B141" s="2" t="s">
-        <v>262</v>
+        <v>301</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -4969,27 +6010,36 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="3.14"/>
     <col customWidth="1" min="2" max="2" width="17.14"/>
-    <col customWidth="1" min="5" max="5" width="9.14"/>
+    <col customWidth="1" min="5" max="5" width="10.71"/>
+    <col customWidth="1" min="6" max="6" width="7.14"/>
+    <col customWidth="1" min="7" max="7" width="13.43"/>
+    <col customWidth="1" min="8" max="8" width="16.57"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="B1" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>263</v>
+        <v>140</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>264</v>
+        <v>142</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>265</v>
+        <v>143</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="2">
@@ -4997,13 +6047,19 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>266</v>
+        <v>144</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="3">
@@ -5011,30 +6067,40 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>266</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H3" s="16"/>
     </row>
     <row r="4">
       <c r="A4" s="2">
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>267</v>
+        <v>161</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="5">
@@ -5042,13 +6108,22 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>93</v>
+        <v>41</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>267</v>
+        <v>161</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="6">
@@ -5056,317 +6131,403 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H6" s="16"/>
     </row>
     <row r="7">
       <c r="A7" s="2">
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H7" s="16"/>
     </row>
     <row r="8">
       <c r="A8" s="2">
         <v>7.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H8" s="16"/>
     </row>
     <row r="9">
       <c r="A9" s="2">
         <v>8.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H9" s="16"/>
     </row>
     <row r="10">
       <c r="A10" s="2">
         <v>9.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H10" s="16"/>
     </row>
     <row r="11">
       <c r="A11" s="2">
         <v>10.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H11" s="16"/>
     </row>
     <row r="12">
       <c r="A12" s="2">
         <v>11.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H12" s="16"/>
     </row>
     <row r="13">
       <c r="A13" s="2">
         <v>12.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H13" s="16"/>
     </row>
     <row r="14">
       <c r="A14" s="2">
         <v>13.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H14" s="16"/>
     </row>
     <row r="15">
       <c r="A15" s="2">
         <v>14.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>268</v>
+        <v>198</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H15" s="16"/>
     </row>
     <row r="16">
       <c r="A16" s="2">
         <v>15.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>269</v>
+        <v>202</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H16" s="16"/>
     </row>
     <row r="17">
       <c r="A17" s="2">
         <v>16.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H17" s="16"/>
     </row>
     <row r="18">
       <c r="A18" s="2">
         <v>17.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H18" s="16"/>
     </row>
     <row r="19">
       <c r="A19" s="2">
         <v>18.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H19" s="16"/>
     </row>
     <row r="20">
       <c r="A20" s="2">
         <v>19.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H20" s="16"/>
     </row>
     <row r="21">
       <c r="A21" s="2">
         <v>20.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H21" s="16"/>
     </row>
     <row r="22">
       <c r="A22" s="2">
         <v>21.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H22" s="16"/>
     </row>
     <row r="23">
       <c r="A23" s="2">
         <v>22.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H23" s="16"/>
     </row>
     <row r="24">
       <c r="A24" s="2">
         <v>23.0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H24" s="16"/>
     </row>
     <row r="25">
       <c r="A25" s="2">
         <v>24.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H25" s="16"/>
     </row>
     <row r="26">
       <c r="A26" s="2">
         <v>25.0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>267</v>
+        <v>161</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="27">
@@ -5374,415 +6535,517 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H27" s="16"/>
     </row>
     <row r="28">
       <c r="A28" s="2">
         <v>27.0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H28" s="16"/>
     </row>
     <row r="29">
       <c r="A29" s="2">
         <v>28.0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H29" s="16"/>
     </row>
     <row r="30">
       <c r="A30" s="2">
         <v>29.0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H30" s="16"/>
     </row>
     <row r="31">
       <c r="A31" s="2">
         <v>30.0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>266</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H31" s="16"/>
     </row>
     <row r="32">
       <c r="A32" s="2">
         <v>31.0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>266</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H32" s="16"/>
     </row>
     <row r="33">
       <c r="A33" s="2">
         <v>32.0</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H33" s="16"/>
     </row>
     <row r="34">
       <c r="A34" s="2">
         <v>33.0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H34" s="16"/>
     </row>
     <row r="35">
       <c r="A35" s="2">
         <v>34.0</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H35" s="16"/>
     </row>
     <row r="36">
       <c r="A36" s="2">
         <v>35.0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H36" s="16"/>
     </row>
     <row r="37">
       <c r="A37" s="2">
         <v>36.0</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H37" s="16"/>
     </row>
     <row r="38">
       <c r="A38" s="2">
         <v>37.0</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H38" s="16"/>
     </row>
     <row r="39">
       <c r="A39" s="2">
         <v>38.0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>95</v>
+        <v>290</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>168</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H39" s="16"/>
     </row>
     <row r="40">
       <c r="A40" s="2">
         <v>39.0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>95</v>
+        <v>294</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>168</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H40" s="16"/>
     </row>
     <row r="41">
       <c r="A41" s="2">
         <v>40.0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H41" s="16"/>
     </row>
     <row r="42">
       <c r="A42" s="2">
         <v>41.0</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>266</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H42" s="16"/>
     </row>
     <row r="43">
       <c r="A43" s="2">
         <v>42.0</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>266</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H43" s="16"/>
     </row>
     <row r="44">
       <c r="A44" s="2">
         <v>43.0</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>266</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H44" s="16"/>
     </row>
     <row r="45">
       <c r="A45" s="2">
         <v>44.0</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>266</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H45" s="16"/>
     </row>
     <row r="46">
       <c r="A46" s="2">
         <v>45.0</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>266</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H46" s="16"/>
     </row>
     <row r="47">
       <c r="A47" s="2">
         <v>46.0</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>266</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H47" s="16"/>
     </row>
     <row r="48">
       <c r="A48" s="2">
         <v>47.0</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>266</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H48" s="16"/>
     </row>
     <row r="49">
       <c r="A49" s="2">
         <v>48.0</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>266</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H49" s="16"/>
     </row>
     <row r="50">
       <c r="A50" s="2">
         <v>49.0</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>266</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H50" s="16"/>
     </row>
     <row r="51">
       <c r="A51" s="2">
         <v>50.0</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>266</v>
+        <v>144</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="52">
@@ -5790,42 +7053,54 @@
         <v>51.0</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>266</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H52" s="16"/>
     </row>
     <row r="53">
       <c r="A53" s="2">
         <v>52.0</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>266</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H53" s="16"/>
     </row>
     <row r="54">
       <c r="A54" s="2">
         <v>53.0</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>266</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H54" s="16"/>
     </row>
     <row r="55">
       <c r="A55" s="2">
@@ -5835,165 +7110,439 @@
         <v>315</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>266</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H55" s="16"/>
     </row>
     <row r="56">
       <c r="A56" s="2">
         <v>55.0</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>266</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H56" s="16"/>
     </row>
     <row r="57">
       <c r="A57" s="2">
         <v>56.0</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>266</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H57" s="16"/>
     </row>
     <row r="58">
       <c r="A58" s="2">
         <v>57.0</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>266</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H58" s="16"/>
     </row>
     <row r="59">
       <c r="A59" s="2">
         <v>58.0</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>266</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H59" s="16"/>
     </row>
     <row r="60">
       <c r="A60" s="2">
         <v>59.0</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>266</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H60" s="16"/>
     </row>
     <row r="61">
       <c r="A61" s="2">
         <v>60.0</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>266</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H61" s="16"/>
     </row>
     <row r="62">
       <c r="A62" s="2">
         <v>61.0</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>266</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H62" s="16"/>
     </row>
     <row r="63">
       <c r="A63" s="2">
         <v>62.0</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>266</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H63" s="16"/>
     </row>
     <row r="64">
       <c r="A64" s="2">
         <v>63.0</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>266</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H64" s="16"/>
     </row>
     <row r="65">
       <c r="A65" s="2">
         <v>64.0</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>266</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H65" s="16"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="2">
+        <v>65.0</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H66" s="16"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="2">
+        <v>66.0</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H67" s="16"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="2">
+        <v>67.0</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H68" s="16"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="2">
+        <v>68.0</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H69" s="16"/>
+    </row>
+    <row r="70">
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+    </row>
+    <row r="71">
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+    </row>
+    <row r="72">
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+    </row>
+    <row r="73">
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+    </row>
+    <row r="74">
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+    </row>
+    <row r="75">
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+    </row>
+    <row r="76">
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+    </row>
+    <row r="77">
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+    </row>
+    <row r="78">
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+    </row>
+    <row r="79">
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+    </row>
+    <row r="80">
+      <c r="G80" s="16"/>
+      <c r="H80" s="16"/>
+    </row>
+    <row r="81">
+      <c r="G81" s="16"/>
+      <c r="H81" s="16"/>
+    </row>
+    <row r="82">
+      <c r="G82" s="16"/>
+      <c r="H82" s="16"/>
+    </row>
+    <row r="83">
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
+    </row>
+    <row r="84">
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+    </row>
+    <row r="85">
+      <c r="G85" s="16"/>
+      <c r="H85" s="16"/>
+    </row>
+    <row r="86">
+      <c r="G86" s="16"/>
+      <c r="H86" s="16"/>
+    </row>
+    <row r="87">
+      <c r="G87" s="16"/>
+      <c r="H87" s="16"/>
+    </row>
+    <row r="88">
+      <c r="G88" s="16"/>
+      <c r="H88" s="16"/>
+    </row>
+    <row r="89">
+      <c r="G89" s="16"/>
+      <c r="H89" s="16"/>
+    </row>
+    <row r="90">
+      <c r="G90" s="16"/>
+      <c r="H90" s="16"/>
+    </row>
+    <row r="91">
+      <c r="G91" s="16"/>
+      <c r="H91" s="16"/>
+    </row>
+    <row r="92">
+      <c r="G92" s="16"/>
+      <c r="H92" s="16"/>
+    </row>
+    <row r="93">
+      <c r="G93" s="16"/>
+      <c r="H93" s="16"/>
+    </row>
+    <row r="94">
+      <c r="G94" s="16"/>
+      <c r="H94" s="16"/>
+    </row>
+    <row r="95">
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
+    </row>
+    <row r="96">
+      <c r="G96" s="16"/>
+      <c r="H96" s="16"/>
+    </row>
+    <row r="97">
+      <c r="G97" s="16"/>
+      <c r="H97" s="16"/>
+    </row>
+    <row r="98">
+      <c r="G98" s="16"/>
+      <c r="H98" s="16"/>
+    </row>
+    <row r="99">
+      <c r="G99" s="16"/>
+      <c r="H99" s="16"/>
+    </row>
+    <row r="100">
+      <c r="G100" s="16"/>
+      <c r="H100" s="16"/>
+    </row>
+    <row r="101">
+      <c r="G101" s="16"/>
+      <c r="H101" s="16"/>
+    </row>
+    <row r="102">
+      <c r="G102" s="16"/>
+      <c r="H102" s="16"/>
+    </row>
+    <row r="103">
+      <c r="G103" s="16"/>
+      <c r="H103" s="16"/>
+    </row>
+    <row r="104">
+      <c r="G104" s="16"/>
+      <c r="H104" s="16"/>
+    </row>
+    <row r="105">
+      <c r="G105" s="16"/>
+      <c r="H105" s="16"/>
+    </row>
+    <row r="106">
+      <c r="G106" s="16"/>
+      <c r="H106" s="16"/>
+    </row>
+    <row r="107">
+      <c r="G107" s="16"/>
+      <c r="H107" s="16"/>
+    </row>
+    <row r="108">
+      <c r="G108" s="16"/>
+      <c r="H108" s="16"/>
+    </row>
+    <row r="109">
+      <c r="G109" s="16"/>
+      <c r="H109" s="16"/>
+    </row>
+    <row r="110">
+      <c r="G110" s="16"/>
+      <c r="H110" s="16"/>
+    </row>
+    <row r="111">
+      <c r="G111" s="16"/>
+      <c r="H111" s="16"/>
     </row>
   </sheetData>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" sqref="G2:H111">
+      <formula1>types!$A$2:$A$12</formula1>
+    </dataValidation>
+  </dataValidations>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -6008,307 +7557,171 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="23.14"/>
-    <col customWidth="1" min="3" max="4" width="20.0"/>
+    <col customWidth="1" min="2" max="2" width="21.43"/>
+    <col customWidth="1" min="3" max="3" width="7.71"/>
+    <col customWidth="1" min="4" max="4" width="31.0"/>
+    <col customWidth="1" min="5" max="5" width="33.86"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>289</v>
-      </c>
+      <c r="A1" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="E1" s="14"/>
     </row>
     <row r="2">
-      <c r="B2" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.0</v>
-      </c>
+      <c r="A2" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3">
-      <c r="B3" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1.0</v>
+      <c r="A3" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1.0</v>
+      <c r="A4" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="B5" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1.0</v>
+        <v>109</v>
+      </c>
+      <c r="C5" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>214</v>
+      </c>
       <c r="B6" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1.0</v>
+        <v>168</v>
+      </c>
+      <c r="C6" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1.0</v>
+      <c r="A7" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>274</v>
+      </c>
       <c r="B8" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>303</v>
+        <v>109</v>
+      </c>
+      <c r="C8" s="18">
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>291</v>
+      <c r="A9" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="C9" s="18">
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>278</v>
+      </c>
       <c r="B10" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>303</v>
+        <v>109</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="B11" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>291</v>
+        <v>281</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>291</v>
+      <c r="A12" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -6326,290 +7739,419 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.29"/>
+    <col customWidth="1" min="2" max="2" width="26.29"/>
+    <col customWidth="1" min="3" max="4" width="20.0"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>296</v>
+        <v>322</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>298</v>
+      <c r="B2" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>121</v>
+      <c r="B3" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>122</v>
+      <c r="B4" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>18</v>
+      <c r="B5" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>125</v>
+      <c r="B6" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>126</v>
+      <c r="B7" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>62</v>
+      <c r="B8" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>173</v>
+      <c r="B9" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>178</v>
+      <c r="B10" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>311</v>
+      <c r="B11" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>163</v>
+      <c r="B12" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>162</v>
+      <c r="B13" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>128</v>
+      <c r="B14" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>130</v>
+      <c r="B15" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>40</v>
+      <c r="B16" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>41</v>
+      <c r="B17" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>25</v>
+      <c r="B18" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>22</v>
+      <c r="B19" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="s">
-        <v>135</v>
+      <c r="B20" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="s">
-        <v>136</v>
+      <c r="B21" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="s">
-        <v>137</v>
+      <c r="B22" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="s">
-        <v>140</v>
+      <c r="B23" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="s">
-        <v>332</v>
+      <c r="B24" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="s">
-        <v>144</v>
+      <c r="B25" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="s">
-        <v>145</v>
+      <c r="B26" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="s">
-        <v>147</v>
+      <c r="B27" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="s">
-        <v>172</v>
+      <c r="B28" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="s">
-        <v>164</v>
+      <c r="B29" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="s">
-        <v>167</v>
+      <c r="B30" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="s">
-        <v>168</v>
+      <c r="B31" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="s">
-        <v>165</v>
+      <c r="B32" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="s">
-        <v>169</v>
+      <c r="B33" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="s">
-        <v>170</v>
+      <c r="B34" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="s">
-        <v>150</v>
+      <c r="B35" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="s">
-        <v>152</v>
+      <c r="B36" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="s">
-        <v>153</v>
+      <c r="B37" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="s">
-        <v>154</v>
+      <c r="B38" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="s">
-        <v>27</v>
+      <c r="B39" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="s">
-        <v>39</v>
+      <c r="B40" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="s">
-        <v>31</v>
+      <c r="B41" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="s">
-        <v>29</v>
+      <c r="B42" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="s">
-        <v>156</v>
+      <c r="B43" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="s">
-        <v>157</v>
+      <c r="B44" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="s">
-        <v>158</v>
+      <c r="B45" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="s">
-        <v>17</v>
+      <c r="B46" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="s">
-        <v>14</v>
+      <c r="B47" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="s">
-        <v>349</v>
+      <c r="B48" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>

--- a/otmazy_words.xlsx
+++ b/otmazy_words.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="450">
   <si>
     <t>id</t>
   </si>
@@ -29,52 +29,70 @@
     <t>glagol</t>
   </si>
   <si>
+    <t>object</t>
+  </si>
+  <si>
     <t>контекст</t>
   </si>
   <si>
+    <t>destination</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t>inanimate_obj</t>
+  </si>
+  <si>
+    <t>animate_obj</t>
+  </si>
+  <si>
+    <t>movable_obj</t>
+  </si>
+  <si>
+    <t>sklonenie_object</t>
+  </si>
+  <si>
+    <t>sklonenie_destination</t>
+  </si>
+  <si>
+    <t>склонение_место</t>
+  </si>
+  <si>
     <t>работа</t>
   </si>
   <si>
+    <t>везти</t>
+  </si>
+  <si>
     <t>семья</t>
   </si>
   <si>
-    <t>object</t>
-  </si>
-  <si>
-    <t>destination</t>
-  </si>
-  <si>
     <t>друзья</t>
   </si>
   <si>
-    <t>event</t>
-  </si>
-  <si>
-    <t>inanimate_obj</t>
+    <t>accs</t>
+  </si>
+  <si>
+    <t>вести</t>
+  </si>
+  <si>
+    <t>забрать</t>
+  </si>
+  <si>
+    <t>отвезти</t>
   </si>
   <si>
     <t>subject</t>
   </si>
   <si>
-    <t>animate_obj</t>
-  </si>
-  <si>
     <t>is_myself</t>
   </si>
   <si>
-    <t>movable_obj</t>
-  </si>
-  <si>
-    <t>sklonenie_object</t>
-  </si>
-  <si>
     <t>я</t>
   </si>
   <si>
-    <t>sklonenie_destination</t>
-  </si>
-  <si>
-    <t>склонение_место</t>
+    <t>отвести</t>
   </si>
   <si>
     <t>мне</t>
@@ -83,9 +101,6 @@
     <t>жена</t>
   </si>
   <si>
-    <t>везти</t>
-  </si>
-  <si>
     <t>сестра</t>
   </si>
   <si>
@@ -95,12 +110,12 @@
     <t>мать</t>
   </si>
   <si>
-    <t>accs</t>
-  </si>
-  <si>
     <t>папа</t>
   </si>
   <si>
+    <t>принести</t>
+  </si>
+  <si>
     <t>отец</t>
   </si>
   <si>
@@ -110,18 +125,21 @@
     <t>бабушка</t>
   </si>
   <si>
+    <t>отнести</t>
+  </si>
+  <si>
     <t>тётя</t>
   </si>
   <si>
     <t>дядя</t>
   </si>
   <si>
-    <t>вести</t>
-  </si>
-  <si>
     <t>племянник</t>
   </si>
   <si>
+    <t>сдать</t>
+  </si>
+  <si>
     <t>племянница</t>
   </si>
   <si>
@@ -131,7 +149,7 @@
     <t>кузен</t>
   </si>
   <si>
-    <t>забрать</t>
+    <t>отправить</t>
   </si>
   <si>
     <t>брат</t>
@@ -146,24 +164,6 @@
     <t>подруга</t>
   </si>
   <si>
-    <t>отвезти</t>
-  </si>
-  <si>
-    <t>отвести</t>
-  </si>
-  <si>
-    <t>принести</t>
-  </si>
-  <si>
-    <t>отнести</t>
-  </si>
-  <si>
-    <t>сдать</t>
-  </si>
-  <si>
-    <t>отправить</t>
-  </si>
-  <si>
     <t>убрать</t>
   </si>
   <si>
@@ -188,25 +188,85 @@
     <t>решить вопрос с</t>
   </si>
   <si>
+    <t>ablt</t>
+  </si>
+  <si>
+    <t>уехать</t>
+  </si>
+  <si>
+    <t>отремонтировать</t>
+  </si>
+  <si>
+    <t>доделать</t>
+  </si>
+  <si>
+    <t>подбросить</t>
+  </si>
+  <si>
+    <t>создать</t>
+  </si>
+  <si>
+    <t>склепать</t>
+  </si>
+  <si>
+    <t>забабахать</t>
+  </si>
+  <si>
+    <t>заебенить</t>
+  </si>
+  <si>
+    <t>сделать</t>
+  </si>
+  <si>
+    <t>довезти</t>
+  </si>
+  <si>
+    <t>довести</t>
+  </si>
+  <si>
+    <t>допереть</t>
+  </si>
+  <si>
     <t>predlog</t>
   </si>
   <si>
+    <t>обдумать</t>
+  </si>
+  <si>
     <t>noun_type</t>
   </si>
   <si>
-    <t>ablt</t>
-  </si>
-  <si>
     <t>noun_case</t>
   </si>
   <si>
-    <t>уехать</t>
-  </si>
-  <si>
-    <t>отремонтировать</t>
-  </si>
-  <si>
-    <t>доделать</t>
+    <t>подумать о</t>
+  </si>
+  <si>
+    <t>запланировать</t>
+  </si>
+  <si>
+    <t>beginning</t>
+  </si>
+  <si>
+    <t>comma_after</t>
+  </si>
+  <si>
+    <t>tense</t>
+  </si>
+  <si>
+    <t>извини</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>увы</t>
+  </si>
+  <si>
+    <t>future</t>
+  </si>
+  <si>
+    <t>к сожалению</t>
   </si>
   <si>
     <t>person</t>
@@ -215,31 +275,40 @@
     <t>gent</t>
   </si>
   <si>
-    <t>подбросить</t>
-  </si>
-  <si>
-    <t>создать</t>
+    <t>эх</t>
+  </si>
+  <si>
+    <t>сорян</t>
   </si>
   <si>
     <t>родительный</t>
   </si>
   <si>
+    <t>блин</t>
+  </si>
+  <si>
     <t>Кого? Чего?</t>
   </si>
   <si>
+    <t>вот чёрт</t>
+  </si>
+  <si>
     <t>для</t>
   </si>
   <si>
-    <t>склепать</t>
-  </si>
-  <si>
-    <t>забабахать</t>
-  </si>
-  <si>
-    <t>заебенить</t>
-  </si>
-  <si>
-    <t>сделать</t>
+    <t>совсем забыл</t>
+  </si>
+  <si>
+    <t>я бы с радостью, но</t>
+  </si>
+  <si>
+    <t>чёрт</t>
+  </si>
+  <si>
+    <t>только что понял</t>
+  </si>
+  <si>
+    <t>бляха-муха</t>
   </si>
   <si>
     <t>к</t>
@@ -248,85 +317,64 @@
     <t>datv</t>
   </si>
   <si>
+    <t>вот жалость</t>
+  </si>
+  <si>
     <t>дательный</t>
   </si>
   <si>
     <t>Кому? Чему?</t>
   </si>
   <si>
-    <t>довезти</t>
-  </si>
-  <si>
-    <t>beginning</t>
-  </si>
-  <si>
-    <t>comma_after</t>
-  </si>
-  <si>
-    <t>tense</t>
+    <t>мои извинения</t>
+  </si>
+  <si>
+    <t>премного извиняюсь</t>
   </si>
   <si>
     <t>винительный</t>
   </si>
   <si>
-    <t>довести</t>
-  </si>
-  <si>
-    <t>извини</t>
-  </si>
-  <si>
-    <t>all</t>
+    <t>сожалею</t>
   </si>
   <si>
     <t>Кого? Что?</t>
   </si>
   <si>
-    <t>увы</t>
-  </si>
-  <si>
-    <t>future</t>
+    <t>премного сожалею</t>
   </si>
   <si>
     <t>с</t>
   </si>
   <si>
-    <t>допереть</t>
-  </si>
-  <si>
-    <t>к сожалению</t>
+    <t>жалко</t>
   </si>
   <si>
     <t>творительный</t>
   </si>
   <si>
-    <t>эх</t>
-  </si>
-  <si>
     <t>Кем? Чем?</t>
   </si>
   <si>
+    <t>к несчастью</t>
+  </si>
+  <si>
     <t>за</t>
   </si>
   <si>
-    <t>сорян</t>
-  </si>
-  <si>
-    <t>обдумать</t>
-  </si>
-  <si>
-    <t>блин</t>
-  </si>
-  <si>
-    <t>вот чёрт</t>
+    <t>увы -</t>
+  </si>
+  <si>
+    <t>вот незадача</t>
   </si>
   <si>
     <t>о</t>
   </si>
   <si>
-    <t>подумать о</t>
-  </si>
-  <si>
-    <t>совсем забыл</t>
+    <t>вот зараза</t>
+  </si>
+  <si>
+    <t>печально</t>
   </si>
   <si>
     <t>предложный</t>
@@ -335,457 +383,553 @@
     <t>О ком? О чём? и т.п.</t>
   </si>
   <si>
-    <t>я бы с радостью, но</t>
-  </si>
-  <si>
-    <t>запланировать</t>
+    <t>вот печаль</t>
+  </si>
+  <si>
+    <t>ой</t>
   </si>
   <si>
     <t>местный</t>
   </si>
   <si>
-    <t>чёрт</t>
-  </si>
-  <si>
-    <t>только что понял</t>
+    <t>не получится</t>
+  </si>
+  <si>
+    <t>извините</t>
   </si>
   <si>
     <t>thing</t>
   </si>
   <si>
-    <t>бляха-муха</t>
-  </si>
-  <si>
-    <t>вот жалость</t>
-  </si>
-  <si>
-    <t>мои извинения</t>
-  </si>
-  <si>
-    <t>премного извиняюсь</t>
-  </si>
-  <si>
-    <t>сожалею</t>
-  </si>
-  <si>
-    <t>премного сожалею</t>
-  </si>
-  <si>
-    <t>жалко</t>
-  </si>
-  <si>
-    <t>к несчастью</t>
-  </si>
-  <si>
-    <t>увы -</t>
-  </si>
-  <si>
-    <t>вот незадача</t>
-  </si>
-  <si>
-    <t>вот зараза</t>
-  </si>
-  <si>
-    <t>печально</t>
-  </si>
-  <si>
-    <t>вот печаль</t>
-  </si>
-  <si>
-    <t>ой</t>
-  </si>
-  <si>
-    <t>не получится</t>
+    <t>word</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>type_alt</t>
+  </si>
+  <si>
+    <t>собака</t>
   </si>
   <si>
     <t>из</t>
   </si>
   <si>
-    <t>извините</t>
+    <t>кошка</t>
+  </si>
+  <si>
+    <t>ребенок</t>
   </si>
   <si>
     <t>place</t>
   </si>
   <si>
+    <t>дети</t>
+  </si>
+  <si>
+    <t>дочь</t>
+  </si>
+  <si>
+    <t>сын</t>
+  </si>
+  <si>
     <t>в</t>
   </si>
   <si>
+    <t>квартира</t>
+  </si>
+  <si>
+    <t>дом</t>
+  </si>
+  <si>
+    <t>кухня</t>
+  </si>
+  <si>
     <t>place_open</t>
   </si>
   <si>
+    <t>ванная</t>
+  </si>
+  <si>
+    <t>унитаз</t>
+  </si>
+  <si>
+    <t>ноутбук</t>
+  </si>
+  <si>
+    <t>телефон</t>
+  </si>
+  <si>
+    <t>смартфон</t>
+  </si>
+  <si>
+    <t>документы</t>
+  </si>
+  <si>
+    <t>тёща</t>
+  </si>
+  <si>
+    <t>тесть</t>
+  </si>
+  <si>
+    <t>свекровь</t>
+  </si>
+  <si>
+    <t>свёкр</t>
+  </si>
+  <si>
+    <t>ковёр</t>
+  </si>
+  <si>
+    <t>фикус</t>
+  </si>
+  <si>
+    <t>noun_type_alt</t>
+  </si>
+  <si>
+    <t>has_object</t>
+  </si>
+  <si>
+    <t>кактус</t>
+  </si>
+  <si>
+    <t>мебель</t>
+  </si>
+  <si>
+    <t>телек</t>
+  </si>
+  <si>
+    <t>ноут</t>
+  </si>
+  <si>
+    <t>автомастерская</t>
+  </si>
+  <si>
+    <t>case_object</t>
+  </si>
+  <si>
+    <t>aspc</t>
+  </si>
+  <si>
+    <t>ремонт</t>
+  </si>
+  <si>
+    <t>обучение</t>
+  </si>
+  <si>
+    <t>гипермаркет</t>
+  </si>
+  <si>
+    <t>ЖЭК</t>
+  </si>
+  <si>
+    <t>impf</t>
+  </si>
+  <si>
+    <t>нотариус</t>
+  </si>
+  <si>
+    <t>врач</t>
+  </si>
+  <si>
+    <t>доктор</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>accompany</t>
+  </si>
+  <si>
+    <t>центр госуслуг</t>
+  </si>
+  <si>
+    <t>курсы</t>
+  </si>
+  <si>
+    <t>совещание</t>
+  </si>
+  <si>
+    <t>родственники</t>
+  </si>
+  <si>
+    <t>дача</t>
+  </si>
+  <si>
+    <t>хранение</t>
+  </si>
+  <si>
+    <t>банк</t>
+  </si>
+  <si>
+    <t>планерка</t>
+  </si>
+  <si>
     <t>на</t>
   </si>
   <si>
-    <t>word</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>type_alt</t>
-  </si>
-  <si>
-    <t>собака</t>
-  </si>
-  <si>
-    <t>кошка</t>
-  </si>
-  <si>
-    <t>ребенок</t>
-  </si>
-  <si>
-    <t>дети</t>
-  </si>
-  <si>
-    <t>дочь</t>
-  </si>
-  <si>
-    <t>сын</t>
-  </si>
-  <si>
-    <t>noun_type_alt</t>
+    <t>perf</t>
+  </si>
+  <si>
+    <t>свадьба</t>
+  </si>
+  <si>
+    <t>похороны</t>
+  </si>
+  <si>
+    <t>ДР</t>
+  </si>
+  <si>
+    <t>день рождения</t>
+  </si>
+  <si>
+    <t>помолвка</t>
+  </si>
+  <si>
+    <t>суд</t>
+  </si>
+  <si>
+    <t>прогулка</t>
+  </si>
+  <si>
+    <t>поход</t>
+  </si>
+  <si>
+    <t>вечеринка</t>
+  </si>
+  <si>
+    <t>пати</t>
+  </si>
+  <si>
+    <t>туса</t>
+  </si>
+  <si>
+    <t>дискотека</t>
+  </si>
+  <si>
+    <t>званый приём</t>
+  </si>
+  <si>
+    <t>вокзал</t>
+  </si>
+  <si>
+    <t>аэропорт</t>
+  </si>
+  <si>
+    <t>автовокзал</t>
+  </si>
+  <si>
+    <t>почта</t>
+  </si>
+  <si>
+    <t>рынок</t>
+  </si>
+  <si>
+    <t>фестиваль</t>
+  </si>
+  <si>
+    <t>конкурс</t>
+  </si>
+  <si>
+    <t>осмотр</t>
+  </si>
+  <si>
+    <t>проверка</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>проект</t>
+  </si>
+  <si>
+    <t>travel</t>
+  </si>
+  <si>
+    <t>задание</t>
+  </si>
+  <si>
+    <t>план проекта</t>
   </si>
   <si>
     <t>до</t>
   </si>
   <si>
-    <t>case_obj</t>
-  </si>
-  <si>
-    <t>aspc</t>
-  </si>
-  <si>
-    <t>impf</t>
-  </si>
-  <si>
-    <t>квартира</t>
-  </si>
-  <si>
-    <t>дом</t>
-  </si>
-  <si>
-    <t>кухня</t>
-  </si>
-  <si>
-    <t>ванная</t>
-  </si>
-  <si>
-    <t>унитаз</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>ноутбук</t>
-  </si>
-  <si>
-    <t>accompany</t>
-  </si>
-  <si>
-    <t>телефон</t>
-  </si>
-  <si>
-    <t>смартфон</t>
-  </si>
-  <si>
-    <t>документы</t>
+    <t>impact</t>
+  </si>
+  <si>
+    <t>план</t>
+  </si>
+  <si>
+    <t>диплом</t>
+  </si>
+  <si>
+    <t>уборка</t>
+  </si>
+  <si>
+    <t>картина</t>
+  </si>
+  <si>
+    <t>позаботиться</t>
+  </si>
+  <si>
+    <t>книга</t>
   </si>
   <si>
     <t>перед</t>
   </si>
   <si>
-    <t>тёща</t>
-  </si>
-  <si>
-    <t>тесть</t>
-  </si>
-  <si>
-    <t>свекровь</t>
-  </si>
-  <si>
-    <t>свёкр</t>
-  </si>
-  <si>
-    <t>perf</t>
-  </si>
-  <si>
-    <t>ковёр</t>
-  </si>
-  <si>
-    <t>фикус</t>
-  </si>
-  <si>
-    <t>кактус</t>
-  </si>
-  <si>
-    <t>мебель</t>
-  </si>
-  <si>
-    <t>телек</t>
-  </si>
-  <si>
-    <t>ноут</t>
-  </si>
-  <si>
-    <t>project</t>
-  </si>
-  <si>
-    <t>автомастерская</t>
-  </si>
-  <si>
-    <t>ремонт</t>
-  </si>
-  <si>
-    <t>обучение</t>
-  </si>
-  <si>
-    <t>гипермаркет</t>
-  </si>
-  <si>
-    <t>ЖЭК</t>
-  </si>
-  <si>
-    <t>нотариус</t>
-  </si>
-  <si>
-    <t>врач</t>
-  </si>
-  <si>
-    <t>доктор</t>
-  </si>
-  <si>
-    <t>центр госуслуг</t>
-  </si>
-  <si>
-    <t>курсы</t>
-  </si>
-  <si>
-    <t>совещание</t>
-  </si>
-  <si>
-    <t>родственники</t>
-  </si>
-  <si>
-    <t>дача</t>
+    <t>гобелен</t>
+  </si>
+  <si>
+    <t>mental</t>
+  </si>
+  <si>
+    <t>скульптура</t>
+  </si>
+  <si>
+    <t>решить</t>
+  </si>
+  <si>
+    <t>мемуары</t>
+  </si>
+  <si>
+    <t>маникюр</t>
+  </si>
+  <si>
+    <t>volit</t>
+  </si>
+  <si>
+    <t>педикюр</t>
+  </si>
+  <si>
+    <t>рейв</t>
+  </si>
+  <si>
+    <t>концерт</t>
+  </si>
+  <si>
+    <t>выставка</t>
+  </si>
+  <si>
+    <t>биеннале</t>
+  </si>
+  <si>
+    <t>галерея</t>
+  </si>
+  <si>
+    <t>музей</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>больница</t>
+  </si>
+  <si>
+    <t>поликлиника</t>
+  </si>
+  <si>
+    <t>курорт</t>
+  </si>
+  <si>
+    <t>отдых</t>
+  </si>
+  <si>
+    <t>санаторий</t>
+  </si>
+  <si>
+    <t>море</t>
+  </si>
+  <si>
+    <t>Чёрное море</t>
+  </si>
+  <si>
+    <t>Белое море</t>
+  </si>
+  <si>
+    <t>Красное море</t>
+  </si>
+  <si>
+    <t>Египет</t>
+  </si>
+  <si>
+    <t>Турция</t>
+  </si>
+  <si>
+    <t>Тайланд</t>
+  </si>
+  <si>
+    <t>кино</t>
+  </si>
+  <si>
+    <t>кинотеатр</t>
+  </si>
+  <si>
+    <t>фильм</t>
   </si>
   <si>
     <t>над</t>
   </si>
   <si>
-    <t>хранение</t>
-  </si>
-  <si>
-    <t>банк</t>
-  </si>
-  <si>
-    <t>планерка</t>
-  </si>
-  <si>
-    <t>свадьба</t>
-  </si>
-  <si>
-    <t>похороны</t>
-  </si>
-  <si>
-    <t>travel</t>
-  </si>
-  <si>
-    <t>ДР</t>
-  </si>
-  <si>
-    <t>день рождения</t>
-  </si>
-  <si>
-    <t>помолвка</t>
-  </si>
-  <si>
-    <t>суд</t>
-  </si>
-  <si>
-    <t>impact</t>
-  </si>
-  <si>
-    <t>прогулка</t>
-  </si>
-  <si>
-    <t>поход</t>
-  </si>
-  <si>
-    <t>вечеринка</t>
-  </si>
-  <si>
-    <t>пати</t>
-  </si>
-  <si>
-    <t>позаботиться</t>
-  </si>
-  <si>
-    <t>mental</t>
-  </si>
-  <si>
-    <t>туса</t>
-  </si>
-  <si>
-    <t>дискотека</t>
-  </si>
-  <si>
-    <t>решить</t>
-  </si>
-  <si>
-    <t>званый приём</t>
-  </si>
-  <si>
-    <t>вокзал</t>
-  </si>
-  <si>
-    <t>volit</t>
-  </si>
-  <si>
-    <t>аэропорт</t>
-  </si>
-  <si>
-    <t>автовокзал</t>
-  </si>
-  <si>
-    <t>почта</t>
-  </si>
-  <si>
-    <t>рынок</t>
-  </si>
-  <si>
-    <t>фестиваль</t>
-  </si>
-  <si>
-    <t>конкурс</t>
-  </si>
-  <si>
-    <t>осмотр</t>
-  </si>
-  <si>
-    <t>проверка</t>
-  </si>
-  <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>проект</t>
-  </si>
-  <si>
-    <t>задание</t>
-  </si>
-  <si>
-    <t>план проекта</t>
-  </si>
-  <si>
-    <t>план</t>
-  </si>
-  <si>
-    <t>диплом</t>
-  </si>
-  <si>
-    <t>уборка</t>
-  </si>
-  <si>
-    <t>картина</t>
-  </si>
-  <si>
-    <t>книга</t>
-  </si>
-  <si>
-    <t>гобелен</t>
-  </si>
-  <si>
-    <t>скульптура</t>
-  </si>
-  <si>
-    <t>мемуары</t>
-  </si>
-  <si>
-    <t>маникюр</t>
-  </si>
-  <si>
-    <t>педикюр</t>
-  </si>
-  <si>
-    <t>рейв</t>
-  </si>
-  <si>
-    <t>концерт</t>
-  </si>
-  <si>
-    <t>выставка</t>
-  </si>
-  <si>
-    <t>биеннале</t>
-  </si>
-  <si>
-    <t>галерея</t>
-  </si>
-  <si>
-    <t>музей</t>
-  </si>
-  <si>
-    <t>больница</t>
-  </si>
-  <si>
-    <t>поликлиника</t>
-  </si>
-  <si>
-    <t>курорт</t>
-  </si>
-  <si>
-    <t>отдых</t>
-  </si>
-  <si>
-    <t>санаторий</t>
-  </si>
-  <si>
-    <t>море</t>
-  </si>
-  <si>
-    <t>Чёрное море</t>
+    <t>посиделки</t>
+  </si>
+  <si>
+    <t>чаепитие</t>
+  </si>
+  <si>
+    <t>кофейня</t>
+  </si>
+  <si>
+    <t>кафе</t>
+  </si>
+  <si>
+    <t>ресторан</t>
+  </si>
+  <si>
+    <t>фуршет</t>
+  </si>
+  <si>
+    <t>лекция</t>
+  </si>
+  <si>
+    <t>шопинг</t>
+  </si>
+  <si>
+    <t>горы</t>
+  </si>
+  <si>
+    <t>Петербург</t>
   </si>
   <si>
     <t>подумать</t>
   </si>
   <si>
-    <t>Белое море</t>
-  </si>
-  <si>
-    <t>Красное море</t>
-  </si>
-  <si>
-    <t>Египет</t>
-  </si>
-  <si>
-    <t>Турция</t>
+    <t>Москва</t>
+  </si>
+  <si>
+    <t>Нью-Йорк</t>
+  </si>
+  <si>
+    <t>Урюпинск</t>
   </si>
   <si>
     <t>убирать</t>
   </si>
   <si>
-    <t>Тайланд</t>
-  </si>
-  <si>
-    <t>кино</t>
+    <t>магазин</t>
+  </si>
+  <si>
+    <t>супермаркет</t>
+  </si>
+  <si>
+    <t>торговый центр</t>
   </si>
   <si>
     <t>добраться</t>
   </si>
   <si>
-    <t>кинотеатр</t>
-  </si>
-  <si>
-    <t>фильм</t>
+    <t>ТРЦ</t>
+  </si>
+  <si>
+    <t>стрелка</t>
+  </si>
+  <si>
+    <t>пьянка</t>
+  </si>
+  <si>
+    <t>попойка</t>
+  </si>
+  <si>
+    <t>выбраться</t>
+  </si>
+  <si>
+    <t>аттестация</t>
+  </si>
+  <si>
+    <t>фотосессия</t>
+  </si>
+  <si>
+    <t>отпуск</t>
+  </si>
+  <si>
+    <t>зайти</t>
+  </si>
+  <si>
+    <t>центр</t>
+  </si>
+  <si>
+    <t>город</t>
+  </si>
+  <si>
+    <t>деревня</t>
+  </si>
+  <si>
+    <t>забежать</t>
+  </si>
+  <si>
+    <t>поселок</t>
+  </si>
+  <si>
+    <t>техцентр</t>
+  </si>
+  <si>
+    <t>съездить</t>
+  </si>
+  <si>
+    <t>поехать</t>
+  </si>
+  <si>
+    <t>сгонять</t>
+  </si>
+  <si>
+    <t>поработать</t>
+  </si>
+  <si>
+    <t>работать</t>
+  </si>
+  <si>
+    <t>корпеть</t>
+  </si>
+  <si>
+    <t>трудиться</t>
+  </si>
+  <si>
+    <t>ебашить</t>
+  </si>
+  <si>
+    <t>креативить</t>
+  </si>
+  <si>
+    <t>вымучивать</t>
+  </si>
+  <si>
+    <t>переться</t>
+  </si>
+  <si>
+    <t>пиздёхать</t>
+  </si>
+  <si>
+    <t>ползти</t>
+  </si>
+  <si>
+    <t>бежать</t>
+  </si>
+  <si>
+    <t>сдавать</t>
+  </si>
+  <si>
+    <t>забирать</t>
+  </si>
+  <si>
+    <t>нести</t>
   </si>
   <si>
     <t>verb_type</t>
   </si>
   <si>
-    <t>посиделки</t>
-  </si>
-  <si>
-    <t>subj_type</t>
+    <t>obj_type</t>
   </si>
   <si>
     <t>no_adv</t>
@@ -794,64 +938,67 @@
     <t>adv_type</t>
   </si>
   <si>
-    <t>чаепитие</t>
-  </si>
-  <si>
-    <t>выбраться</t>
+    <t>отправлять</t>
   </si>
   <si>
     <t>project, person</t>
   </si>
   <si>
-    <t>кофейня</t>
-  </si>
-  <si>
-    <t>кафе</t>
-  </si>
-  <si>
-    <t>ресторан</t>
+    <t>ходить</t>
+  </si>
+  <si>
+    <t>ending</t>
   </si>
   <si>
     <t>place, place_open</t>
   </si>
   <si>
-    <t>зайти</t>
-  </si>
-  <si>
-    <t>фуршет</t>
+    <t>for_others_only</t>
+  </si>
+  <si>
+    <t>comma_before</t>
+  </si>
+  <si>
+    <t>не могу отказаться</t>
   </si>
   <si>
     <t>place, place_open, person</t>
   </si>
   <si>
-    <t>лекция</t>
-  </si>
-  <si>
-    <t>шопинг</t>
-  </si>
-  <si>
-    <t>горы</t>
-  </si>
-  <si>
-    <t>забежать</t>
-  </si>
-  <si>
-    <t>Петербург</t>
+    <t>futr</t>
+  </si>
+  <si>
+    <t>уезжать</t>
+  </si>
+  <si>
+    <t>придется помочь</t>
+  </si>
+  <si>
+    <t>надо помочь</t>
+  </si>
+  <si>
+    <t>ремонтировать</t>
   </si>
   <si>
     <t>organize</t>
   </si>
   <si>
-    <t>Москва</t>
+    <t>буду помогать</t>
   </si>
   <si>
     <t>destroy</t>
   </si>
   <si>
-    <t>съездить</t>
-  </si>
-  <si>
-    <t>Нью-Йорк</t>
+    <t>пришлось помогать</t>
+  </si>
+  <si>
+    <t>past</t>
+  </si>
+  <si>
+    <t>делать</t>
+  </si>
+  <si>
+    <t>пришлось помочь</t>
   </si>
   <si>
     <t>project, event, person</t>
@@ -860,154 +1007,160 @@
     <t>possess</t>
   </si>
   <si>
-    <t>Урюпинск</t>
-  </si>
-  <si>
-    <t>поехать</t>
+    <t>надо было помочь</t>
+  </si>
+  <si>
+    <t>подбрасывать</t>
+  </si>
+  <si>
+    <t>надо будет помочь</t>
   </si>
   <si>
     <t>project, event</t>
   </si>
   <si>
-    <t>магазин</t>
-  </si>
-  <si>
-    <t>супермаркет</t>
+    <t>не смог отказаться</t>
+  </si>
+  <si>
+    <t>будет жестко</t>
   </si>
   <si>
     <t>speech</t>
   </si>
   <si>
-    <t>торговый центр</t>
-  </si>
-  <si>
-    <t>сгонять</t>
-  </si>
-  <si>
-    <t>ТРЦ</t>
-  </si>
-  <si>
-    <t>стрелка</t>
-  </si>
-  <si>
-    <t>пьянка</t>
-  </si>
-  <si>
-    <t>поработать</t>
-  </si>
-  <si>
-    <t>попойка</t>
-  </si>
-  <si>
-    <t>аттестация</t>
-  </si>
-  <si>
-    <t>фотосессия</t>
-  </si>
-  <si>
-    <t>работать</t>
-  </si>
-  <si>
-    <t>отпуск</t>
-  </si>
-  <si>
-    <t>центр</t>
-  </si>
-  <si>
-    <t>город</t>
-  </si>
-  <si>
-    <t>деревня</t>
-  </si>
-  <si>
-    <t>корпеть</t>
-  </si>
-  <si>
-    <t>поселок</t>
-  </si>
-  <si>
-    <t>техцентр</t>
-  </si>
-  <si>
-    <t>трудиться</t>
-  </si>
-  <si>
-    <t>ебашить</t>
-  </si>
-  <si>
-    <t>креативить</t>
-  </si>
-  <si>
-    <t>вымучивать</t>
-  </si>
-  <si>
-    <t>переться</t>
-  </si>
-  <si>
-    <t>пиздёхать</t>
-  </si>
-  <si>
-    <t>ползти</t>
-  </si>
-  <si>
-    <t>бежать</t>
-  </si>
-  <si>
-    <t>сдавать</t>
-  </si>
-  <si>
-    <t>забирать</t>
-  </si>
-  <si>
-    <t>нести</t>
-  </si>
-  <si>
-    <t>отправлять</t>
-  </si>
-  <si>
-    <t>ходить</t>
-  </si>
-  <si>
-    <t>убираться</t>
-  </si>
-  <si>
-    <t>решать</t>
-  </si>
-  <si>
-    <t>уезжать</t>
-  </si>
-  <si>
-    <t>ремонтировать</t>
-  </si>
-  <si>
-    <t>делать</t>
-  </si>
-  <si>
-    <t>подбрасывать</t>
-  </si>
-  <si>
     <t>создавать</t>
   </si>
   <si>
-    <t>ending</t>
-  </si>
-  <si>
-    <t>for_others_only</t>
+    <t>отказаться не получится</t>
+  </si>
+  <si>
+    <t>слиться не получится</t>
   </si>
   <si>
     <t>клепать</t>
   </si>
   <si>
-    <t>comma_before</t>
-  </si>
-  <si>
-    <t>не могу отказаться</t>
-  </si>
-  <si>
-    <t>futr</t>
-  </si>
-  <si>
-    <t>придется помочь</t>
+    <t>не могу слиться</t>
+  </si>
+  <si>
+    <t>для меня это важно</t>
+  </si>
+  <si>
+    <t>это важно</t>
+  </si>
+  <si>
+    <t>думать</t>
+  </si>
+  <si>
+    <t>это критично</t>
+  </si>
+  <si>
+    <t>это супер-важно</t>
+  </si>
+  <si>
+    <t>это очень важно</t>
+  </si>
+  <si>
+    <t>заходить</t>
+  </si>
+  <si>
+    <t>это очень срочно</t>
+  </si>
+  <si>
+    <t>давно ждали этого</t>
+  </si>
+  <si>
+    <t>давно пора это сделать</t>
+  </si>
+  <si>
+    <t>ездить</t>
+  </si>
+  <si>
+    <t>давно пора было</t>
+  </si>
+  <si>
+    <t>это было важно</t>
+  </si>
+  <si>
+    <t>это было нужно</t>
+  </si>
+  <si>
+    <t>сопроводить</t>
+  </si>
+  <si>
+    <t>это было очень важно</t>
+  </si>
+  <si>
+    <t>это было очень нужно</t>
+  </si>
+  <si>
+    <t>было жестко</t>
+  </si>
+  <si>
+    <t>сопровождать</t>
+  </si>
+  <si>
+    <t>это жесть</t>
+  </si>
+  <si>
+    <t>это была жесть</t>
+  </si>
+  <si>
+    <t>это будет жесть</t>
+  </si>
+  <si>
+    <t>присмотреть</t>
+  </si>
+  <si>
+    <t>это треш</t>
+  </si>
+  <si>
+    <t>это был треш</t>
+  </si>
+  <si>
+    <t>это будет треш</t>
+  </si>
+  <si>
+    <t>пора было решить этот вопрос</t>
+  </si>
+  <si>
+    <t>пора решить этот вопрос</t>
+  </si>
+  <si>
+    <t>надо этим заняться</t>
+  </si>
+  <si>
+    <t>надо было это сделать</t>
+  </si>
+  <si>
+    <t>надо будет это сделать</t>
+  </si>
+  <si>
+    <t>надо было это закончить</t>
+  </si>
+  <si>
+    <t>надо это закончить</t>
+  </si>
+  <si>
+    <t>надо будет это закончить</t>
+  </si>
+  <si>
+    <t>надо это дело добить</t>
+  </si>
+  <si>
+    <t>надо было это добить</t>
+  </si>
+  <si>
+    <t>давно ждали случая</t>
+  </si>
+  <si>
+    <t>наконец выдался случай</t>
+  </si>
+  <si>
+    <t>наконец разберусь с этим</t>
+  </si>
+  <si>
+    <t>наконец разобрались с этим</t>
   </si>
   <si>
     <t>semmarkup</t>
@@ -1016,9 +1169,6 @@
     <t>active</t>
   </si>
   <si>
-    <t>думать</t>
-  </si>
-  <si>
     <t>subj_types</t>
   </si>
   <si>
@@ -1031,168 +1181,72 @@
     <t>description</t>
   </si>
   <si>
-    <t>надо помочь</t>
-  </si>
-  <si>
-    <t>буду помогать</t>
-  </si>
-  <si>
-    <t>пришлось помогать</t>
-  </si>
-  <si>
-    <t>заходить</t>
-  </si>
-  <si>
-    <t>past</t>
-  </si>
-  <si>
-    <t>пришлось помочь</t>
-  </si>
-  <si>
-    <t>надо было помочь</t>
-  </si>
-  <si>
-    <t>ездить</t>
-  </si>
-  <si>
-    <t>надо будет помочь</t>
-  </si>
-  <si>
-    <t>не смог отказаться</t>
-  </si>
-  <si>
-    <t>будет жестко</t>
-  </si>
-  <si>
-    <t>отказаться не получится</t>
-  </si>
-  <si>
-    <t>сопроводить</t>
-  </si>
-  <si>
-    <t>слиться не получится</t>
-  </si>
-  <si>
-    <t>не могу слиться</t>
+    <t>Слово</t>
   </si>
   <si>
     <t>t:move</t>
   </si>
   <si>
-    <t>для меня это важно</t>
-  </si>
-  <si>
-    <t>сопровождать</t>
-  </si>
-  <si>
-    <t>это важно</t>
-  </si>
-  <si>
-    <t>это критично</t>
-  </si>
-  <si>
-    <t>присмотреть</t>
-  </si>
-  <si>
-    <t>это супер-важно</t>
+    <t>Теги</t>
+  </si>
+  <si>
+    <t>пробка</t>
   </si>
   <si>
     <t>person, place</t>
   </si>
   <si>
+    <t>аврал</t>
+  </si>
+  <si>
     <t>движение (бежать, дергаться, бросить, нести)</t>
   </si>
   <si>
-    <t>это очень важно</t>
-  </si>
-  <si>
     <t>t:move:body</t>
   </si>
   <si>
-    <t>это очень срочно</t>
-  </si>
-  <si>
-    <t>давно ждали этого</t>
-  </si>
-  <si>
-    <t>давно пора это сделать</t>
-  </si>
-  <si>
     <t>изменение положения тела, части тела (согнуть, нагнуться, примоститься)</t>
   </si>
   <si>
-    <t>давно пора было</t>
-  </si>
-  <si>
     <t>t:put</t>
   </si>
   <si>
-    <t>это было важно</t>
-  </si>
-  <si>
     <t>помещение объекта (положить, вложить, спрятать)</t>
   </si>
   <si>
-    <t>это было нужно</t>
+    <t>туалет</t>
   </si>
   <si>
     <t>t:impact</t>
   </si>
   <si>
-    <t>это было очень важно</t>
-  </si>
-  <si>
     <t>физическое воздействие (бить, колоть, вытирать)</t>
   </si>
   <si>
-    <t>это было очень нужно</t>
-  </si>
-  <si>
     <t>t:impact:creat</t>
   </si>
   <si>
-    <t>было жестко</t>
-  </si>
-  <si>
     <t>создание физического объекта (выковать, смастерить, сшить)</t>
   </si>
   <si>
-    <t>это жесть</t>
-  </si>
-  <si>
     <t>t:impact:destr</t>
   </si>
   <si>
-    <t>это была жесть</t>
-  </si>
-  <si>
     <t>уничтожение (взорвать, сжечь, зарезать)</t>
   </si>
   <si>
-    <t>это будет жесть</t>
-  </si>
-  <si>
     <t>t:changest</t>
   </si>
   <si>
-    <t>это треш</t>
-  </si>
-  <si>
     <t>изменение состояния или признака (взрослеть, богатеть, расширить, испачкать)</t>
   </si>
   <si>
     <t>t:be</t>
   </si>
   <si>
-    <t>это был треш</t>
-  </si>
-  <si>
     <t>бытийная сфера (жить, возникнуть, убить)</t>
   </si>
   <si>
-    <t>это будет треш</t>
-  </si>
-  <si>
     <t>t:be:exist</t>
   </si>
   <si>
@@ -1202,10 +1256,7 @@
     <t>t:be:appear</t>
   </si>
   <si>
-    <t>пора было решить этот вопрос</t>
-  </si>
-  <si>
-    <t>пора решить этот вопрос</t>
+    <t>идти</t>
   </si>
   <si>
     <t>начало существования (возникнуть, родиться, сформировать, создать)</t>
@@ -1214,75 +1265,48 @@
     <t>t:be:disapp</t>
   </si>
   <si>
-    <t>надо этим заняться</t>
+    <t>ветеринар</t>
   </si>
   <si>
     <t>прекращение существования (умереть, убить, улетучиться, ликвидировать, искоренить)</t>
   </si>
   <si>
-    <t>надо было это сделать</t>
+    <t>вернуть</t>
   </si>
   <si>
     <t>t:loc</t>
   </si>
   <si>
-    <t>надо будет это сделать</t>
-  </si>
-  <si>
     <t>местонахождение (лежать, стоять, положить)</t>
   </si>
   <si>
-    <t>надо было это закончить</t>
+    <t>заняться</t>
   </si>
   <si>
     <t>t:loc:body</t>
   </si>
   <si>
-    <t>надо это закончить</t>
-  </si>
-  <si>
     <t>положение тела в пространстве (сидеть)</t>
   </si>
   <si>
-    <t>надо будет это закончить</t>
-  </si>
-  <si>
     <t>t:contact</t>
   </si>
   <si>
-    <t>надо это дело добить</t>
-  </si>
-  <si>
-    <t>надо было это добить</t>
-  </si>
-  <si>
     <t>контакт и опора (касаться, обнимать, облокотиться)</t>
   </si>
   <si>
     <t>t:poss</t>
   </si>
   <si>
-    <t>давно ждали случая</t>
-  </si>
-  <si>
-    <t>наконец выдался случай</t>
-  </si>
-  <si>
     <t>посессивная сфера (иметь дать, подарить, приобрести, лишиться)</t>
   </si>
   <si>
     <t>t:ment</t>
   </si>
   <si>
-    <t>наконец разберусь с этим</t>
-  </si>
-  <si>
     <t>ментальная сфера (знать, верить, догадаться, помнить, считать)</t>
   </si>
   <si>
-    <t>наконец разобрались с этим</t>
-  </si>
-  <si>
     <t>t:perc</t>
   </si>
   <si>
@@ -1347,33 +1371,6 @@
   </si>
   <si>
     <t>запах (пахнуть, благоухать)</t>
-  </si>
-  <si>
-    <t>Слово</t>
-  </si>
-  <si>
-    <t>Теги</t>
-  </si>
-  <si>
-    <t>пробка</t>
-  </si>
-  <si>
-    <t>аврал</t>
-  </si>
-  <si>
-    <t>туалет</t>
-  </si>
-  <si>
-    <t>идти</t>
-  </si>
-  <si>
-    <t>ветеринар</t>
-  </si>
-  <si>
-    <t>вернуть</t>
-  </si>
-  <si>
-    <t>заняться</t>
   </si>
 </sst>
 </file>
@@ -1499,22 +1496,22 @@
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1799,31 +1796,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -1831,7 +1828,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2">
         <v>1.0</v>
@@ -1852,7 +1849,7 @@
         <v>1.0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -1860,7 +1857,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
         <v>1.0</v>
@@ -1881,7 +1878,7 @@
         <v>1.0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -1889,7 +1886,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
         <v>1.0</v>
@@ -1910,7 +1907,7 @@
         <v>1.0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -1918,7 +1915,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
         <v>1.0</v>
@@ -1939,7 +1936,7 @@
         <v>1.0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -1947,7 +1944,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2">
         <v>1.0</v>
@@ -1968,7 +1965,7 @@
         <v>1.0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -1976,7 +1973,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2">
         <v>1.0</v>
@@ -1997,7 +1994,7 @@
         <v>1.0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -2005,7 +2002,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2">
         <v>1.0</v>
@@ -2026,7 +2023,7 @@
         <v>1.0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
@@ -2034,7 +2031,7 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2">
         <v>1.0</v>
@@ -2055,7 +2052,7 @@
         <v>1.0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -2063,7 +2060,7 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2">
         <v>1.0</v>
@@ -2084,7 +2081,7 @@
         <v>1.0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -2111,7 +2108,7 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -2246,7 +2243,7 @@
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17">
@@ -2254,7 +2251,7 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C17" s="2">
         <v>0.0</v>
@@ -2281,7 +2278,7 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C18" s="2">
         <v>1.0</v>
@@ -2300,7 +2297,7 @@
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -2308,7 +2305,7 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C19" s="2">
         <v>1.0</v>
@@ -2327,7 +2324,7 @@
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
@@ -2335,7 +2332,7 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C20" s="2">
         <v>1.0</v>
@@ -2354,7 +2351,7 @@
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
@@ -2362,7 +2359,7 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C21" s="2">
         <v>1.0</v>
@@ -2381,7 +2378,7 @@
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
@@ -2389,7 +2386,7 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C22" s="2">
         <v>1.0</v>
@@ -2408,7 +2405,7 @@
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
@@ -2416,7 +2413,7 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C23" s="2">
         <v>0.0</v>
@@ -2435,7 +2432,7 @@
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
@@ -2443,7 +2440,7 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C24" s="2">
         <v>0.0</v>
@@ -2462,7 +2459,7 @@
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
@@ -2470,7 +2467,7 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C25" s="2">
         <v>0.0</v>
@@ -2489,7 +2486,7 @@
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
@@ -2497,7 +2494,7 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C26" s="2">
         <v>1.0</v>
@@ -2516,7 +2513,7 @@
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
@@ -2524,7 +2521,7 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C27" s="2">
         <v>1.0</v>
@@ -2543,7 +2540,7 @@
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
@@ -2551,7 +2548,7 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2">
         <v>1.0</v>
@@ -2570,7 +2567,7 @@
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
@@ -2578,7 +2575,7 @@
         <v>28.0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="C29" s="2">
         <v>1.0</v>
@@ -2597,7 +2594,7 @@
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
@@ -2605,7 +2602,7 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2">
         <v>1.0</v>
@@ -2632,7 +2629,7 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2">
         <v>0.0</v>
@@ -2650,7 +2647,7 @@
         <v>0.0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2675,23 +2672,23 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>333</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>335</v>
+      <c r="A1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>385</v>
       </c>
       <c r="G1" s="20"/>
       <c r="H1" s="20"/>
@@ -2720,67 +2717,67 @@
     </row>
     <row r="2">
       <c r="A2" s="21" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="B2" s="21">
         <v>1.0</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>358</v>
+        <v>390</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>358</v>
+        <v>390</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>361</v>
+        <v>393</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
       <c r="F3" s="21" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
       <c r="B4" s="21">
         <v>1.0</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>371</v>
+        <v>398</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
       <c r="F5" s="21" t="s">
-        <v>373</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="B6" s="21">
         <v>1.0</v>
@@ -2789,12 +2786,12 @@
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="B7" s="21">
         <v>1.0</v>
@@ -2803,108 +2800,108 @@
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21" t="s">
-        <v>381</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="21" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21" t="s">
-        <v>385</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="21" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
       <c r="F10" s="21" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="21" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
       <c r="F11" s="21" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="21" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
       <c r="F12" s="21" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="21" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
       <c r="F13" s="21" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="21" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="21" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="21" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="B16" s="21">
         <v>1.0</v>
@@ -2913,12 +2910,12 @@
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="21" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="B17" s="21">
         <v>1.0</v>
@@ -2927,12 +2924,12 @@
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="21" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="B18" s="21">
         <v>1.0</v>
@@ -2941,36 +2938,36 @@
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="21" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="21" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="21" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="B21" s="21">
         <v>1.0</v>
@@ -2979,12 +2976,12 @@
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="21" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="B22" s="21">
         <v>1.0</v>
@@ -2993,79 +2990,79 @@
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="21" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="21" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="21" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="21" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="21" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
       <c r="F27" s="21" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="21" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -3088,250 +3085,250 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>442</v>
+        <v>386</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>443</v>
+        <v>388</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>444</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>445</v>
+        <v>391</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>446</v>
+        <v>397</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>447</v>
+        <v>411</v>
       </c>
     </row>
     <row r="50">
@@ -3341,17 +3338,17 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>448</v>
+        <v>414</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>449</v>
+        <v>416</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
@@ -3361,12 +3358,12 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>450</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -3389,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
@@ -3397,7 +3394,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -3405,7 +3402,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -3413,7 +3410,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3443,16 +3440,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2">
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2">
         <v>1.0</v>
@@ -3460,7 +3457,7 @@
     </row>
     <row r="3">
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2">
         <v>1.0</v>
@@ -3468,7 +3465,7 @@
     </row>
     <row r="4">
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2">
         <v>0.0</v>
@@ -3476,7 +3473,7 @@
     </row>
     <row r="5">
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2">
         <v>0.0</v>
@@ -3484,7 +3481,7 @@
     </row>
     <row r="6">
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2">
         <v>0.0</v>
@@ -3492,7 +3489,7 @@
     </row>
     <row r="7">
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2">
         <v>0.0</v>
@@ -3500,7 +3497,7 @@
     </row>
     <row r="8">
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2">
         <v>0.0</v>
@@ -3508,7 +3505,7 @@
     </row>
     <row r="9">
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2">
         <v>0.0</v>
@@ -3516,7 +3513,7 @@
     </row>
     <row r="10">
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2">
         <v>0.0</v>
@@ -3524,7 +3521,7 @@
     </row>
     <row r="11">
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C11" s="2">
         <v>0.0</v>
@@ -3532,7 +3529,7 @@
     </row>
     <row r="12">
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2">
         <v>0.0</v>
@@ -3540,7 +3537,7 @@
     </row>
     <row r="13">
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2">
         <v>0.0</v>
@@ -3548,7 +3545,7 @@
     </row>
     <row r="14">
       <c r="B14" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2">
         <v>0.0</v>
@@ -3556,7 +3553,7 @@
     </row>
     <row r="15">
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2">
         <v>0.0</v>
@@ -3564,7 +3561,7 @@
     </row>
     <row r="16">
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2">
         <v>0.0</v>
@@ -3572,7 +3569,7 @@
     </row>
     <row r="17">
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2">
         <v>0.0</v>
@@ -3580,7 +3577,7 @@
     </row>
     <row r="18">
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C18" s="2">
         <v>0.0</v>
@@ -3588,7 +3585,7 @@
     </row>
     <row r="19">
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C19" s="2">
         <v>0.0</v>
@@ -3596,7 +3593,7 @@
     </row>
     <row r="20">
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2">
         <v>0.0</v>
@@ -3604,7 +3601,7 @@
     </row>
     <row r="21">
       <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2">
         <v>0.0</v>
@@ -3636,70 +3633,70 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="H2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="H3" s="6"/>
     </row>
     <row r="4">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="H4" s="6"/>
     </row>
@@ -3707,77 +3704,77 @@
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="H5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="H6" s="6"/>
     </row>
     <row r="7">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="H7" s="6"/>
     </row>
     <row r="8">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>51</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="H8" s="5"/>
     </row>
@@ -3785,30 +3782,30 @@
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>49</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="H10" s="5"/>
     </row>
@@ -3816,17 +3813,17 @@
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="H11" s="6"/>
     </row>
@@ -3834,57 +3831,57 @@
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="H12" s="5"/>
     </row>
     <row r="13">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="H13" s="6"/>
     </row>
     <row r="14">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>51</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="H14" s="5"/>
     </row>
@@ -3892,72 +3889,72 @@
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>49</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="9"/>
       <c r="B16" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="H16" s="5"/>
     </row>
     <row r="17">
       <c r="A17" s="9"/>
       <c r="B17" s="10" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="H17" s="6"/>
     </row>
     <row r="18">
       <c r="A18" s="9"/>
       <c r="B18" s="10" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="H18" s="5"/>
     </row>
@@ -3965,17 +3962,17 @@
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="H19" s="6"/>
     </row>
@@ -3983,426 +3980,426 @@
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>51</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="H20" s="5"/>
     </row>
     <row r="21">
       <c r="A21" s="9"/>
       <c r="B21" s="10" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>49</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>63</v>
+      <c r="A22" s="12"/>
+      <c r="B22" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="H22" s="5"/>
     </row>
     <row r="23">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>74</v>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="H23" s="6"/>
     </row>
     <row r="24">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>24</v>
+      <c r="A24" s="12"/>
+      <c r="B24" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="H24" s="5"/>
     </row>
     <row r="25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>57</v>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="H25" s="6"/>
     </row>
     <row r="26">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="D26" s="12" t="s">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>51</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="H26" s="5"/>
     </row>
     <row r="27">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="D27" s="12" t="s">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" s="13" t="s">
         <v>49</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="13"/>
-      <c r="B28" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>63</v>
+      <c r="A28" s="15"/>
+      <c r="B28" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>83</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="H28" s="5"/>
     </row>
     <row r="29">
-      <c r="A29" s="13"/>
-      <c r="B29" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>63</v>
+      <c r="A29" s="15"/>
+      <c r="B29" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>83</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="H29" s="6"/>
     </row>
     <row r="30">
-      <c r="A30" s="13"/>
-      <c r="B30" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>63</v>
+      <c r="A30" s="15"/>
+      <c r="B30" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>83</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="H30" s="6"/>
     </row>
     <row r="31">
-      <c r="A31" s="13"/>
-      <c r="B31" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>74</v>
+      <c r="A31" s="15"/>
+      <c r="B31" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>97</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="H31" s="6"/>
     </row>
     <row r="32">
-      <c r="A32" s="13"/>
-      <c r="B32" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>24</v>
+      <c r="A32" s="15"/>
+      <c r="B32" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="H32" s="5"/>
     </row>
     <row r="33">
-      <c r="A33" s="13"/>
-      <c r="B33" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>57</v>
+      <c r="A33" s="15"/>
+      <c r="B33" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>55</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="H33" s="6"/>
     </row>
     <row r="34">
-      <c r="A34" s="13"/>
-      <c r="B34" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="15" t="s">
+      <c r="A34" s="15"/>
+      <c r="B34" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="16" t="s">
         <v>51</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="H34" s="5"/>
     </row>
     <row r="35">
-      <c r="A35" s="13"/>
-      <c r="B35" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="15" t="s">
+      <c r="A35" s="15"/>
+      <c r="B35" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="16" t="s">
         <v>49</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="17"/>
+      <c r="A36" s="18"/>
       <c r="B36" s="19" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="H36" s="5"/>
     </row>
     <row r="37">
-      <c r="A37" s="17"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="19" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="H37" s="6"/>
     </row>
     <row r="38">
-      <c r="A38" s="17"/>
+      <c r="A38" s="18"/>
       <c r="B38" s="19"/>
       <c r="C38" s="19" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="H38" s="5"/>
     </row>
     <row r="39">
-      <c r="A39" s="17"/>
+      <c r="A39" s="18"/>
       <c r="B39" s="19"/>
       <c r="C39" s="19" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="H39" s="5"/>
     </row>
     <row r="40">
-      <c r="A40" s="17"/>
+      <c r="A40" s="18"/>
       <c r="B40" s="19" t="s">
-        <v>182</v>
+        <v>249</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="H40" s="6"/>
     </row>
     <row r="41">
-      <c r="A41" s="17"/>
+      <c r="A41" s="18"/>
       <c r="B41" s="19" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="D41" s="19" t="s">
         <v>51</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="H41" s="5"/>
     </row>
     <row r="42">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
       <c r="C42" s="19" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="D42" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4430,13 +4427,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
@@ -4444,13 +4441,13 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2">
         <v>1.0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
@@ -4458,13 +4455,13 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2">
         <v>1.0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
@@ -4472,13 +4469,13 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2">
         <v>1.0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
@@ -4486,13 +4483,13 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2">
         <v>1.0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -4500,13 +4497,13 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C6" s="2">
         <v>1.0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -4514,13 +4511,13 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2">
         <v>1.0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
@@ -4528,13 +4525,13 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C8" s="2">
         <v>1.0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
@@ -4542,13 +4539,13 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C9" s="2">
         <v>1.0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
@@ -4556,13 +4553,13 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C10" s="2">
         <v>0.0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
@@ -4570,13 +4567,13 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C11" s="2">
         <v>1.0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
@@ -4584,13 +4581,13 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C12" s="2">
         <v>1.0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
@@ -4598,13 +4595,13 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C13" s="2">
         <v>1.0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
@@ -4612,13 +4609,13 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C14" s="2">
         <v>1.0</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
@@ -4626,13 +4623,13 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C15" s="2">
         <v>1.0</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
@@ -4640,13 +4637,13 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C16" s="2">
         <v>1.0</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
@@ -4654,13 +4651,13 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C17" s="2">
         <v>1.0</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
@@ -4668,13 +4665,13 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C18" s="2">
         <v>1.0</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
@@ -4682,13 +4679,13 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C19" s="2">
         <v>1.0</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
@@ -4696,13 +4693,13 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C20" s="2">
         <v>1.0</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
@@ -4710,13 +4707,13 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C21" s="2">
         <v>0.0</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
@@ -4724,13 +4721,13 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C22" s="2">
         <v>1.0</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23">
@@ -4738,13 +4735,13 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C23" s="2">
         <v>1.0</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
@@ -4752,13 +4749,13 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C24" s="2">
         <v>1.0</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25">
@@ -4766,13 +4763,13 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C25" s="2">
         <v>1.0</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26">
@@ -4780,13 +4777,13 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C26" s="2">
         <v>1.0</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27">
@@ -4794,21 +4791,21 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C27" s="2">
         <v>1.0</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -4837,815 +4834,815 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>131</v>
+      <c r="B1" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2">
       <c r="B2" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="2" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
       <c r="B59" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
       <c r="B60" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65">
       <c r="B65" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66">
       <c r="B66" s="2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68">
       <c r="B68" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="D68" s="2"/>
     </row>
     <row r="69">
       <c r="B69" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70">
       <c r="B70" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="D70" s="2"/>
     </row>
     <row r="71">
       <c r="B71" s="2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="D71" s="2"/>
     </row>
     <row r="72">
       <c r="B72" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="D72" s="2"/>
     </row>
     <row r="73">
       <c r="B73" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74">
       <c r="B74" s="2" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76">
       <c r="B76" s="2" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
       <c r="B77" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" s="2" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
     </row>
     <row r="79">
       <c r="B79" s="2" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80">
       <c r="B80" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
     </row>
     <row r="81">
       <c r="B81" s="2" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82">
       <c r="B82" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
     </row>
     <row r="83">
       <c r="B83" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
       <c r="B84" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="85">
       <c r="B85" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86">
       <c r="B86" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="87">
       <c r="B87" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="88">
       <c r="B88" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="89">
       <c r="B89" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="90">
       <c r="B90" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91">
       <c r="B91" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92">
       <c r="B92" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93">
       <c r="B93" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94">
       <c r="B94" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95">
       <c r="B95" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96">
       <c r="B96" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97">
       <c r="B97" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="98">
       <c r="B98" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="99">
@@ -5653,7 +5650,7 @@
         <v>234</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="100">
@@ -5661,7 +5658,7 @@
         <v>235</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="101">
@@ -5669,7 +5666,7 @@
         <v>236</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="102">
@@ -5677,7 +5674,7 @@
         <v>237</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103">
@@ -5685,7 +5682,7 @@
         <v>238</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="104">
@@ -5693,7 +5690,7 @@
         <v>239</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="105">
@@ -5701,295 +5698,295 @@
         <v>240</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="106">
       <c r="B106" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="107">
       <c r="B107" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="108">
       <c r="B108" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="109">
       <c r="B109" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="110">
       <c r="B110" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="111">
       <c r="B111" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="112">
       <c r="B112" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="113">
       <c r="B113" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="114">
       <c r="B114" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115">
       <c r="B115" s="2" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116">
       <c r="B116" s="2" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="117">
       <c r="B117" s="2" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118">
       <c r="B118" s="2" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="119">
       <c r="B119" s="2" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120">
       <c r="B120" s="2" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121">
       <c r="B121" s="2" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122">
       <c r="B122" s="2" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="123">
-      <c r="B123" s="18" t="s">
-        <v>271</v>
+      <c r="B123" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="124">
       <c r="B124" s="2" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="125">
       <c r="B125" s="2" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="126">
       <c r="B126" s="2" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="127">
       <c r="B127" s="2" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="128">
       <c r="B128" s="2" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="129">
       <c r="B129" s="2" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="130">
       <c r="B130" s="2" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="131">
       <c r="B131" s="2" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132">
       <c r="B132" s="2" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133">
       <c r="B133" s="2" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134">
       <c r="B134" s="2" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135">
       <c r="B135" s="2" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136">
       <c r="B136" s="2" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="137">
       <c r="B137" s="2" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="138">
       <c r="B138" s="2" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="139">
       <c r="B139" s="2" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="140">
       <c r="B140" s="2" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="141">
       <c r="B141" s="2" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -6011,35 +6008,39 @@
     <col customWidth="1" min="1" max="1" width="3.14"/>
     <col customWidth="1" min="2" max="2" width="17.14"/>
     <col customWidth="1" min="5" max="5" width="10.71"/>
-    <col customWidth="1" min="6" max="6" width="7.14"/>
-    <col customWidth="1" min="7" max="7" width="13.43"/>
-    <col customWidth="1" min="8" max="8" width="16.57"/>
+    <col customWidth="1" min="6" max="6" width="14.0"/>
+    <col customWidth="1" min="7" max="7" width="7.14"/>
+    <col customWidth="1" min="8" max="8" width="13.43"/>
+    <col customWidth="1" min="9" max="9" width="16.57"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>131</v>
+      <c r="B1" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>133</v>
+        <v>154</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="2">
@@ -6047,19 +6048,22 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>144</v>
+        <v>125</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1.0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>152</v>
+        <v>171</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="3">
@@ -6067,40 +6071,46 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>144</v>
+        <v>82</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H3" s="16"/>
+        <v>167</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I3" s="14"/>
     </row>
     <row r="4">
       <c r="A4" s="2">
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>161</v>
+        <v>125</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>152</v>
+        <v>171</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="5">
@@ -6108,22 +6118,25 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>62</v>
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>161</v>
+        <v>125</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>152</v>
+        <v>171</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="6">
@@ -6131,90 +6144,105 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>161</v>
+        <v>82</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H6" s="16"/>
+        <v>182</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I6" s="14"/>
     </row>
     <row r="7">
       <c r="A7" s="2">
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>161</v>
+        <v>125</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.0</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H7" s="16"/>
+        <v>182</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I7" s="14"/>
     </row>
     <row r="8">
       <c r="A8" s="2">
         <v>7.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>161</v>
+        <v>125</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1.0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H8" s="16"/>
+        <v>182</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I8" s="14"/>
     </row>
     <row r="9">
       <c r="A9" s="2">
         <v>8.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>161</v>
+        <v>125</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H9" s="16"/>
+        <v>182</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I9" s="14"/>
     </row>
     <row r="10">
       <c r="A10" s="2">
         <v>9.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>161</v>
+        <v>125</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1.0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H10" s="16"/>
+        <v>182</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I10" s="14"/>
     </row>
     <row r="11">
       <c r="A11" s="2">
@@ -6224,15 +6252,18 @@
         <v>47</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>161</v>
+        <v>125</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1.0</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H11" s="16"/>
+        <v>182</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I11" s="14"/>
     </row>
     <row r="12">
       <c r="A12" s="2">
@@ -6242,18 +6273,21 @@
         <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>161</v>
+        <v>82</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H12" s="16"/>
+        <v>182</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I12" s="14"/>
     </row>
     <row r="13">
       <c r="A13" s="2">
@@ -6263,18 +6297,21 @@
         <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="G13" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="H13" s="16"/>
+        <v>182</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I13" s="14"/>
     </row>
     <row r="14">
       <c r="A14" s="2">
@@ -6284,250 +6321,289 @@
         <v>52</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>161</v>
+        <v>5</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H14" s="16"/>
+        <v>182</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I14" s="14"/>
     </row>
     <row r="15">
       <c r="A15" s="2">
         <v>14.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="G15" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H15" s="16"/>
+        <v>182</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I15" s="14"/>
     </row>
     <row r="16">
       <c r="A16" s="2">
         <v>15.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>57</v>
+        <v>82</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.0</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>161</v>
+        <v>55</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H16" s="16"/>
+        <v>182</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I16" s="14"/>
     </row>
     <row r="17">
       <c r="A17" s="2">
         <v>16.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>161</v>
+        <v>133</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.0</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H17" s="16"/>
+        <v>182</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I17" s="14"/>
     </row>
     <row r="18">
       <c r="A18" s="2">
         <v>17.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>161</v>
+        <v>125</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1.0</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="H18" s="16"/>
+        <v>182</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I18" s="14"/>
     </row>
     <row r="19">
       <c r="A19" s="2">
         <v>18.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>161</v>
+        <v>205</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1.0</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H19" s="16"/>
+        <v>182</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I19" s="14"/>
     </row>
     <row r="20">
       <c r="A20" s="2">
         <v>19.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>161</v>
+        <v>82</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1.0</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H20" s="16"/>
+        <v>182</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I20" s="14"/>
     </row>
     <row r="21">
       <c r="A21" s="2">
         <v>20.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>161</v>
+        <v>205</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1.0</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H21" s="16"/>
+        <v>182</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I21" s="14"/>
     </row>
     <row r="22">
       <c r="A22" s="2">
         <v>21.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>161</v>
+        <v>205</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1.0</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H22" s="16"/>
+        <v>182</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I22" s="14"/>
     </row>
     <row r="23">
       <c r="A23" s="2">
         <v>22.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>161</v>
+        <v>205</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1.0</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H23" s="16"/>
+        <v>182</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I23" s="14"/>
     </row>
     <row r="24">
       <c r="A24" s="2">
         <v>23.0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>161</v>
+        <v>205</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1.0</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H24" s="16"/>
+        <v>182</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I24" s="14"/>
     </row>
     <row r="25">
       <c r="A25" s="2">
         <v>24.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>161</v>
+        <v>205</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1.0</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H25" s="16"/>
+        <v>182</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I25" s="14"/>
     </row>
     <row r="26">
       <c r="A26" s="2">
         <v>25.0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>161</v>
+        <v>125</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1.0</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>152</v>
+        <v>171</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="27">
@@ -6535,225 +6611,258 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>161</v>
+      <c r="E27" s="2">
+        <v>1.0</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H27" s="16"/>
+        <v>182</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I27" s="14"/>
     </row>
     <row r="28">
       <c r="A28" s="2">
         <v>27.0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>161</v>
+        <v>125</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1.0</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H28" s="16"/>
+        <v>182</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I28" s="14"/>
     </row>
     <row r="29">
       <c r="A29" s="2">
         <v>28.0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>161</v>
+        <v>5</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1.0</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H29" s="16"/>
+        <v>182</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I29" s="14"/>
     </row>
     <row r="30">
       <c r="A30" s="2">
         <v>29.0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="G30" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H30" s="16"/>
+        <v>182</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I30" s="14"/>
     </row>
     <row r="31">
       <c r="A31" s="2">
         <v>30.0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>144</v>
+        <v>133</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1.0</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="H31" s="16"/>
+        <v>167</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I31" s="14"/>
     </row>
     <row r="32">
       <c r="A32" s="2">
         <v>31.0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>144</v>
+        <v>5</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.0</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H32" s="16"/>
+        <v>167</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I32" s="14"/>
     </row>
     <row r="33">
       <c r="A33" s="2">
         <v>32.0</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>161</v>
+        <v>5</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.0</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H33" s="16"/>
+        <v>182</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I33" s="14"/>
     </row>
     <row r="34">
       <c r="A34" s="2">
         <v>33.0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>161</v>
+        <v>5</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.0</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H34" s="16"/>
+        <v>182</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I34" s="14"/>
     </row>
     <row r="35">
       <c r="A35" s="2">
         <v>34.0</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>161</v>
+        <v>5</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.0</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H35" s="16"/>
+        <v>182</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I35" s="14"/>
     </row>
     <row r="36">
       <c r="A36" s="2">
         <v>35.0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>161</v>
+        <v>5</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.0</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H36" s="16"/>
+        <v>182</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I36" s="14"/>
     </row>
     <row r="37">
       <c r="A37" s="2">
         <v>36.0</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>161</v>
+        <v>5</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.0</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H37" s="16"/>
+        <v>182</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I37" s="14"/>
     </row>
     <row r="38">
       <c r="A38" s="2">
@@ -6763,289 +6872,331 @@
         <v>286</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>161</v>
+        <v>5</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0.0</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H38" s="16"/>
+        <v>182</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I38" s="14"/>
     </row>
     <row r="39">
       <c r="A39" s="2">
         <v>38.0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>168</v>
+        <v>287</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>161</v>
+        <v>5</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1.0</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H39" s="16"/>
+        <v>182</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I39" s="14"/>
     </row>
     <row r="40">
       <c r="A40" s="2">
         <v>39.0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>168</v>
+        <v>288</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>161</v>
+        <v>5</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1.0</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H40" s="16"/>
+        <v>182</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I40" s="14"/>
     </row>
     <row r="41">
       <c r="A41" s="2">
         <v>40.0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>57</v>
+        <v>205</v>
+      </c>
+      <c r="E41" s="17">
+        <v>1.0</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>161</v>
+        <v>55</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H41" s="16"/>
+        <v>182</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I41" s="14"/>
     </row>
     <row r="42">
       <c r="A42" s="2">
         <v>41.0</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>57</v>
+        <v>82</v>
+      </c>
+      <c r="E42" s="17">
+        <v>1.0</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>144</v>
+        <v>55</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H42" s="16"/>
+        <v>167</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I42" s="14"/>
     </row>
     <row r="43">
       <c r="A43" s="2">
         <v>42.0</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>57</v>
+        <v>205</v>
+      </c>
+      <c r="E43" s="17">
+        <v>1.0</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>144</v>
+        <v>55</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H43" s="16"/>
+        <v>167</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I43" s="14"/>
     </row>
     <row r="44">
       <c r="A44" s="2">
         <v>43.0</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>57</v>
+        <v>205</v>
+      </c>
+      <c r="E44" s="17">
+        <v>1.0</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>144</v>
+        <v>55</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H44" s="16"/>
+        <v>167</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I44" s="14"/>
     </row>
     <row r="45">
       <c r="A45" s="2">
         <v>44.0</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>24</v>
+        <v>205</v>
+      </c>
+      <c r="E45" s="17">
+        <v>1.0</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H45" s="16"/>
+        <v>167</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I45" s="14"/>
     </row>
     <row r="46">
       <c r="A46" s="2">
         <v>45.0</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>144</v>
+        <v>294</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0.0</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H46" s="16"/>
+        <v>167</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I46" s="14"/>
     </row>
     <row r="47">
       <c r="A47" s="2">
         <v>46.0</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>144</v>
+        <v>295</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0.0</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H47" s="16"/>
+        <v>167</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I47" s="14"/>
     </row>
     <row r="48">
       <c r="A48" s="2">
         <v>47.0</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>144</v>
+        <v>5</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0.0</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H48" s="16"/>
+        <v>167</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I48" s="14"/>
     </row>
     <row r="49">
       <c r="A49" s="2">
         <v>48.0</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>144</v>
+        <v>5</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0.0</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H49" s="16"/>
+        <v>167</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I49" s="14"/>
     </row>
     <row r="50">
       <c r="A50" s="2">
         <v>49.0</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>144</v>
+        <v>298</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1.0</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H50" s="16"/>
+        <v>167</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I50" s="14"/>
     </row>
     <row r="51">
       <c r="A51" s="2">
         <v>50.0</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>144</v>
+        <v>299</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1.0</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>152</v>
+        <v>171</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="52">
@@ -7053,494 +7204,503 @@
         <v>51.0</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>144</v>
+        <v>125</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1.0</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H52" s="16"/>
+        <v>167</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I52" s="14"/>
     </row>
     <row r="53">
       <c r="A53" s="2">
         <v>52.0</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>144</v>
+        <v>125</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1.0</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H53" s="16"/>
+        <v>167</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I53" s="14"/>
     </row>
     <row r="54">
       <c r="A54" s="2">
         <v>53.0</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>144</v>
+        <v>133</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0.0</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H54" s="16"/>
+        <v>167</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I54" s="14"/>
     </row>
     <row r="55">
       <c r="A55" s="2">
-        <v>54.0</v>
+        <v>56.0</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>144</v>
+        <v>133</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0.0</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="H55" s="16"/>
+        <v>167</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I55" s="14"/>
     </row>
     <row r="56">
       <c r="A56" s="2">
-        <v>55.0</v>
+        <v>57.0</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>144</v>
+        <v>125</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1.0</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H56" s="16"/>
+        <v>167</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I56" s="14"/>
     </row>
     <row r="57">
       <c r="A57" s="2">
-        <v>56.0</v>
+        <v>58.0</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>144</v>
+        <v>205</v>
+      </c>
+      <c r="E57" s="2">
+        <v>1.0</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H57" s="16"/>
+        <v>167</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I57" s="14"/>
     </row>
     <row r="58">
       <c r="A58" s="2">
-        <v>57.0</v>
+        <v>59.0</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>144</v>
+        <v>82</v>
+      </c>
+      <c r="E58" s="2">
+        <v>1.0</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="H58" s="16"/>
+        <v>167</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I58" s="14"/>
     </row>
     <row r="59">
       <c r="A59" s="2">
-        <v>58.0</v>
+        <v>60.0</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>144</v>
+        <v>205</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1.0</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H59" s="16"/>
+        <v>167</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I59" s="14"/>
     </row>
     <row r="60">
       <c r="A60" s="2">
-        <v>59.0</v>
+        <v>61.0</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>144</v>
+        <v>205</v>
+      </c>
+      <c r="E60" s="2">
+        <v>1.0</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H60" s="16"/>
+        <v>167</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I60" s="14"/>
     </row>
     <row r="61">
       <c r="A61" s="2">
-        <v>60.0</v>
+        <v>62.0</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>144</v>
+        <v>205</v>
+      </c>
+      <c r="E61" s="2">
+        <v>1.0</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H61" s="16"/>
+        <v>167</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I61" s="14"/>
     </row>
     <row r="62">
       <c r="A62" s="2">
-        <v>61.0</v>
+        <v>63.0</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>144</v>
+        <v>133</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E62" s="2">
+        <v>1.0</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H62" s="16"/>
+        <v>167</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I62" s="14"/>
     </row>
     <row r="63">
       <c r="A63" s="2">
-        <v>62.0</v>
+        <v>64.0</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>144</v>
+        <v>133</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0.0</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H63" s="16"/>
+        <v>167</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I63" s="14"/>
     </row>
     <row r="64">
       <c r="A64" s="2">
-        <v>63.0</v>
+        <v>65.0</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>144</v>
+        <v>354</v>
+      </c>
+      <c r="E64" s="2">
+        <v>1.0</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H64" s="16"/>
+        <v>182</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I64" s="14"/>
     </row>
     <row r="65">
       <c r="A65" s="2">
-        <v>64.0</v>
+        <v>66.0</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>144</v>
+        <v>358</v>
+      </c>
+      <c r="E65" s="2">
+        <v>1.0</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H65" s="16"/>
+        <v>167</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I65" s="14"/>
     </row>
     <row r="66">
       <c r="A66" s="2">
-        <v>65.0</v>
-      </c>
-      <c r="B66" s="18" t="s">
-        <v>348</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>161</v>
+        <v>67.0</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E66" s="2">
+        <v>1.0</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H66" s="16"/>
+        <v>182</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I66" s="14"/>
     </row>
     <row r="67">
       <c r="A67" s="2">
-        <v>66.0</v>
+        <v>68.0</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H67" s="16"/>
+        <v>47</v>
+      </c>
+      <c r="E67" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I67" s="14"/>
     </row>
     <row r="68">
-      <c r="A68" s="2">
-        <v>67.0</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H68" s="16"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
     </row>
     <row r="69">
-      <c r="A69" s="2">
-        <v>68.0</v>
-      </c>
-      <c r="B69" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H69" s="16"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
     </row>
     <row r="70">
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
     </row>
     <row r="71">
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
     </row>
     <row r="72">
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
     </row>
     <row r="73">
-      <c r="G73" s="16"/>
-      <c r="H73" s="16"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
     </row>
     <row r="74">
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
     </row>
     <row r="75">
-      <c r="G75" s="16"/>
-      <c r="H75" s="16"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
     </row>
     <row r="76">
-      <c r="G76" s="16"/>
-      <c r="H76" s="16"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
     </row>
     <row r="77">
-      <c r="G77" s="16"/>
-      <c r="H77" s="16"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
     </row>
     <row r="78">
-      <c r="G78" s="16"/>
-      <c r="H78" s="16"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
     </row>
     <row r="79">
-      <c r="G79" s="16"/>
-      <c r="H79" s="16"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
     </row>
     <row r="80">
-      <c r="G80" s="16"/>
-      <c r="H80" s="16"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
     </row>
     <row r="81">
-      <c r="G81" s="16"/>
-      <c r="H81" s="16"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
     </row>
     <row r="82">
-      <c r="G82" s="16"/>
-      <c r="H82" s="16"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
     </row>
     <row r="83">
-      <c r="G83" s="16"/>
-      <c r="H83" s="16"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
     </row>
     <row r="84">
-      <c r="G84" s="16"/>
-      <c r="H84" s="16"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
     </row>
     <row r="85">
-      <c r="G85" s="16"/>
-      <c r="H85" s="16"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
     </row>
     <row r="86">
-      <c r="G86" s="16"/>
-      <c r="H86" s="16"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
     </row>
     <row r="87">
-      <c r="G87" s="16"/>
-      <c r="H87" s="16"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
     </row>
     <row r="88">
-      <c r="G88" s="16"/>
-      <c r="H88" s="16"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
     </row>
     <row r="89">
-      <c r="G89" s="16"/>
-      <c r="H89" s="16"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
     </row>
     <row r="90">
-      <c r="G90" s="16"/>
-      <c r="H90" s="16"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="14"/>
     </row>
     <row r="91">
-      <c r="G91" s="16"/>
-      <c r="H91" s="16"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
     </row>
     <row r="92">
-      <c r="G92" s="16"/>
-      <c r="H92" s="16"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="14"/>
     </row>
     <row r="93">
-      <c r="G93" s="16"/>
-      <c r="H93" s="16"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="14"/>
     </row>
     <row r="94">
-      <c r="G94" s="16"/>
-      <c r="H94" s="16"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="14"/>
     </row>
     <row r="95">
-      <c r="G95" s="16"/>
-      <c r="H95" s="16"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="14"/>
     </row>
     <row r="96">
-      <c r="G96" s="16"/>
-      <c r="H96" s="16"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="14"/>
     </row>
     <row r="97">
-      <c r="G97" s="16"/>
-      <c r="H97" s="16"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="14"/>
     </row>
     <row r="98">
-      <c r="G98" s="16"/>
-      <c r="H98" s="16"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="14"/>
     </row>
     <row r="99">
-      <c r="G99" s="16"/>
-      <c r="H99" s="16"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="14"/>
     </row>
     <row r="100">
-      <c r="G100" s="16"/>
-      <c r="H100" s="16"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="14"/>
     </row>
     <row r="101">
-      <c r="G101" s="16"/>
-      <c r="H101" s="16"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="14"/>
     </row>
     <row r="102">
-      <c r="G102" s="16"/>
-      <c r="H102" s="16"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="14"/>
     </row>
     <row r="103">
-      <c r="G103" s="16"/>
-      <c r="H103" s="16"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="14"/>
     </row>
     <row r="104">
-      <c r="G104" s="16"/>
-      <c r="H104" s="16"/>
+      <c r="H104" s="14"/>
+      <c r="I104" s="14"/>
     </row>
     <row r="105">
-      <c r="G105" s="16"/>
-      <c r="H105" s="16"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="14"/>
     </row>
     <row r="106">
-      <c r="G106" s="16"/>
-      <c r="H106" s="16"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="14"/>
     </row>
     <row r="107">
-      <c r="G107" s="16"/>
-      <c r="H107" s="16"/>
+      <c r="H107" s="14"/>
+      <c r="I107" s="14"/>
     </row>
     <row r="108">
-      <c r="G108" s="16"/>
-      <c r="H108" s="16"/>
+      <c r="H108" s="14"/>
+      <c r="I108" s="14"/>
     </row>
     <row r="109">
-      <c r="G109" s="16"/>
-      <c r="H109" s="16"/>
-    </row>
-    <row r="110">
-      <c r="G110" s="16"/>
-      <c r="H110" s="16"/>
-    </row>
-    <row r="111">
-      <c r="G111" s="16"/>
-      <c r="H111" s="16"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="14"/>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="G2:H111">
-      <formula1>types!$A$2:$A$12</formula1>
+    <dataValidation type="list" allowBlank="1" sqref="H2:I109">
+      <formula1>types!$B$2:$B$12</formula1>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId1"/>
@@ -7557,170 +7717,206 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="21.43"/>
-    <col customWidth="1" min="3" max="3" width="7.71"/>
-    <col customWidth="1" min="4" max="4" width="31.0"/>
-    <col customWidth="1" min="5" max="5" width="33.86"/>
+    <col customWidth="1" min="3" max="3" width="21.43"/>
+    <col customWidth="1" min="4" max="4" width="7.71"/>
+    <col customWidth="1" min="5" max="5" width="31.0"/>
+    <col customWidth="1" min="6" max="6" width="33.86"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="E1" s="14"/>
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="E2" s="2"/>
+      <c r="A2" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.0</v>
+      <c r="A3" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="C3" s="2">
         <v>0.0</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>263</v>
+      <c r="D3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>266</v>
+      <c r="A4" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>150</v>
+      <c r="A5" s="17">
+        <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>266</v>
+        <v>171</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>214</v>
+      <c r="A6" s="17">
+        <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C6" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>62</v>
+        <v>233</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>62</v>
+      <c r="A7" s="17">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>274</v>
+      <c r="A8" s="17">
+        <v>7.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" s="18">
+        <v>321</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="C9" s="18">
+      <c r="A9" s="17">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D9" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>278</v>
+      <c r="A10" s="17">
+        <v>9.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>62</v>
+        <v>327</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>205</v>
+      <c r="A11" s="17">
+        <v>10.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>281</v>
+        <v>225</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>284</v>
+      <c r="A12" s="17">
+        <v>11.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="2">
+        <v>334</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -7748,24 +7944,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2">
       <c r="B2" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>327</v>
+        <v>312</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="D2" s="2">
         <v>0.0</v>
@@ -7773,10 +7969,10 @@
     </row>
     <row r="3">
       <c r="B3" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>327</v>
+        <v>316</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="D3" s="2">
         <v>1.0</v>
@@ -7784,10 +7980,10 @@
     </row>
     <row r="4">
       <c r="B4" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>327</v>
+        <v>317</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="D4" s="2">
         <v>1.0</v>
@@ -7795,10 +7991,10 @@
     </row>
     <row r="5">
       <c r="B5" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>327</v>
+        <v>320</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="D5" s="2">
         <v>1.0</v>
@@ -7806,10 +8002,10 @@
     </row>
     <row r="6">
       <c r="B6" s="2" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="D6" s="2">
         <v>1.0</v>
@@ -7817,10 +8013,10 @@
     </row>
     <row r="7">
       <c r="B7" s="2" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="D7" s="2">
         <v>1.0</v>
@@ -7828,330 +8024,330 @@
     </row>
     <row r="8">
       <c r="B8" s="2" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>327</v>
+        <v>330</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="2" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="2" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="18" t="s">
-        <v>347</v>
+      <c r="B12" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="2" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="2" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="18" t="s">
-        <v>352</v>
+      <c r="B15" s="2" t="s">
+        <v>340</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="2" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="2" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="2" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="2" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="2" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="2" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="2" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="2" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="2" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="2" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="2" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="2" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="2" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="2" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="2" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="2" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="2" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="2" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="2" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="2" t="s">
-        <v>393</v>
+        <v>366</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="2" t="s">
-        <v>394</v>
+        <v>367</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" s="2" t="s">
-        <v>397</v>
+        <v>368</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="2" t="s">
-        <v>399</v>
+        <v>369</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="2" t="s">
-        <v>401</v>
+        <v>370</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" s="2" t="s">
-        <v>403</v>
+        <v>371</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="2" t="s">
-        <v>405</v>
+        <v>372</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="2" t="s">
-        <v>407</v>
+        <v>373</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" s="2" t="s">
-        <v>409</v>
+        <v>374</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" s="2" t="s">
-        <v>410</v>
+        <v>375</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" s="2" t="s">
-        <v>413</v>
+        <v>376</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" s="2" t="s">
-        <v>414</v>
+        <v>377</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" s="2" t="s">
-        <v>417</v>
+        <v>378</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" s="2" t="s">
-        <v>419</v>
+        <v>379</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>

--- a/otmazy_words.xlsx
+++ b/otmazy_words.xlsx
@@ -16,6 +16,7 @@
     <sheet state="hidden" name="слова v1" sheetId="11" r:id="rId14"/>
   </sheets>
   <definedNames>
+    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">noun!$A$1:$D$141</definedName>
     <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">verb!$A$1:$I$68</definedName>
   </definedNames>
   <calcPr/>
@@ -23,59 +24,107 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="450">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>glagol</t>
+  </si>
+  <si>
     <t>subject</t>
   </si>
   <si>
+    <t>контекст</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
     <t>is_myself</t>
   </si>
   <si>
-    <t>контекст</t>
+    <t>destination</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t>inanimate_obj</t>
   </si>
   <si>
     <t>я</t>
   </si>
   <si>
+    <t>animate_obj</t>
+  </si>
+  <si>
+    <t>movable_obj</t>
+  </si>
+  <si>
+    <t>sklonenie_object</t>
+  </si>
+  <si>
+    <t>sklonenie_destination</t>
+  </si>
+  <si>
+    <t>склонение_место</t>
+  </si>
+  <si>
     <t>работа</t>
   </si>
   <si>
+    <t>везти</t>
+  </si>
+  <si>
     <t>мне</t>
   </si>
   <si>
     <t>семья</t>
   </si>
   <si>
+    <t>жена</t>
+  </si>
+  <si>
     <t>друзья</t>
   </si>
   <si>
-    <t>жена</t>
+    <t>accs</t>
   </si>
   <si>
     <t>сестра</t>
   </si>
   <si>
+    <t>вести</t>
+  </si>
+  <si>
     <t>мама</t>
   </si>
   <si>
     <t>мать</t>
   </si>
   <si>
+    <t>забрать</t>
+  </si>
+  <si>
     <t>папа</t>
   </si>
   <si>
     <t>отец</t>
   </si>
   <si>
+    <t>отвезти</t>
+  </si>
+  <si>
     <t>батя</t>
   </si>
   <si>
     <t>бабушка</t>
   </si>
   <si>
+    <t>отвести</t>
+  </si>
+  <si>
     <t>тётя</t>
   </si>
   <si>
@@ -85,87 +134,39 @@
     <t>племянник</t>
   </si>
   <si>
+    <t>принести</t>
+  </si>
+  <si>
     <t>племянница</t>
   </si>
   <si>
     <t>начальник</t>
   </si>
   <si>
+    <t>отнести</t>
+  </si>
+  <si>
     <t>кузен</t>
   </si>
   <si>
     <t>брат</t>
   </si>
   <si>
+    <t>сдать</t>
+  </si>
+  <si>
     <t>дедушка</t>
   </si>
   <si>
     <t>друг</t>
   </si>
   <si>
+    <t>отправить</t>
+  </si>
+  <si>
     <t>подруга</t>
   </si>
   <si>
-    <t>glagol</t>
-  </si>
-  <si>
-    <t>object</t>
-  </si>
-  <si>
-    <t>destination</t>
-  </si>
-  <si>
-    <t>event</t>
-  </si>
-  <si>
-    <t>inanimate_obj</t>
-  </si>
-  <si>
-    <t>animate_obj</t>
-  </si>
-  <si>
-    <t>movable_obj</t>
-  </si>
-  <si>
-    <t>sklonenie_object</t>
-  </si>
-  <si>
-    <t>sklonenie_destination</t>
-  </si>
-  <si>
-    <t>склонение_место</t>
-  </si>
-  <si>
-    <t>везти</t>
-  </si>
-  <si>
-    <t>accs</t>
-  </si>
-  <si>
-    <t>вести</t>
-  </si>
-  <si>
-    <t>забрать</t>
-  </si>
-  <si>
-    <t>отвезти</t>
-  </si>
-  <si>
-    <t>отвести</t>
-  </si>
-  <si>
-    <t>принести</t>
-  </si>
-  <si>
-    <t>отнести</t>
-  </si>
-  <si>
-    <t>сдать</t>
-  </si>
-  <si>
-    <t>отправить</t>
-  </si>
-  <si>
     <t>убрать</t>
   </si>
   <si>
@@ -184,6 +185,15 @@
     <t>прийти</t>
   </si>
   <si>
+    <t>позаботиться о</t>
+  </si>
+  <si>
+    <t>решить вопрос с</t>
+  </si>
+  <si>
+    <t>ablt</t>
+  </si>
+  <si>
     <t>predlog</t>
   </si>
   <si>
@@ -193,64 +203,112 @@
     <t>noun_case</t>
   </si>
   <si>
-    <t>позаботиться о</t>
-  </si>
-  <si>
-    <t>решить вопрос с</t>
-  </si>
-  <si>
-    <t>beginning</t>
+    <t>уехать</t>
+  </si>
+  <si>
+    <t>отремонтировать</t>
+  </si>
+  <si>
+    <t>доделать</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>gent</t>
+  </si>
+  <si>
+    <t>подбросить</t>
+  </si>
+  <si>
+    <t>родительный</t>
+  </si>
+  <si>
+    <t>создать</t>
+  </si>
+  <si>
+    <t>Кого? Чего?</t>
+  </si>
+  <si>
+    <t>для</t>
+  </si>
+  <si>
+    <t>склепать</t>
+  </si>
+  <si>
+    <t>забабахать</t>
+  </si>
+  <si>
+    <t>к</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>заебенить</t>
   </si>
   <si>
     <t>comma_after</t>
   </si>
   <si>
+    <t>datv</t>
+  </si>
+  <si>
+    <t>дательный</t>
+  </si>
+  <si>
+    <t>Кому? Чему?</t>
+  </si>
+  <si>
     <t>tense</t>
   </si>
   <si>
-    <t>person</t>
-  </si>
-  <si>
-    <t>gent</t>
-  </si>
-  <si>
-    <t>ablt</t>
+    <t>сделать</t>
   </si>
   <si>
     <t>извини</t>
   </si>
   <si>
-    <t>уехать</t>
+    <t>винительный</t>
   </si>
   <si>
     <t>all</t>
   </si>
   <si>
+    <t>довезти</t>
+  </si>
+  <si>
+    <t>Кого? Что?</t>
+  </si>
+  <si>
     <t>увы</t>
   </si>
   <si>
-    <t>родительный</t>
+    <t>с</t>
   </si>
   <si>
     <t>future</t>
   </si>
   <si>
-    <t>Кого? Чего?</t>
+    <t>довести</t>
   </si>
   <si>
     <t>к сожалению</t>
   </si>
   <si>
-    <t>для</t>
-  </si>
-  <si>
-    <t>отремонтировать</t>
+    <t>творительный</t>
+  </si>
+  <si>
+    <t>Кем? Чем?</t>
   </si>
   <si>
     <t>эх</t>
   </si>
   <si>
-    <t>доделать</t>
+    <t>за</t>
+  </si>
+  <si>
+    <t>допереть</t>
   </si>
   <si>
     <t>сорян</t>
@@ -259,96 +317,63 @@
     <t>блин</t>
   </si>
   <si>
-    <t>к</t>
+    <t>обдумать</t>
   </si>
   <si>
     <t>вот чёрт</t>
   </si>
   <si>
-    <t>datv</t>
-  </si>
-  <si>
-    <t>дательный</t>
-  </si>
-  <si>
-    <t>Кому? Чему?</t>
+    <t>подумать о</t>
+  </si>
+  <si>
+    <t>о</t>
   </si>
   <si>
     <t>совсем забыл</t>
   </si>
   <si>
-    <t>винительный</t>
-  </si>
-  <si>
-    <t>Кого? Что?</t>
+    <t>предложный</t>
+  </si>
+  <si>
+    <t>запланировать</t>
+  </si>
+  <si>
+    <t>О ком? О чём? и т.п.</t>
   </si>
   <si>
     <t>я бы с радостью, но</t>
   </si>
   <si>
-    <t>с</t>
-  </si>
-  <si>
-    <t>творительный</t>
-  </si>
-  <si>
     <t>чёрт</t>
   </si>
   <si>
-    <t>Кем? Чем?</t>
-  </si>
-  <si>
-    <t>подбросить</t>
-  </si>
-  <si>
-    <t>за</t>
+    <t>местный</t>
   </si>
   <si>
     <t>только что понял</t>
   </si>
   <si>
-    <t>о</t>
-  </si>
-  <si>
     <t>бляха-муха</t>
   </si>
   <si>
-    <t>создать</t>
-  </si>
-  <si>
-    <t>предложный</t>
-  </si>
-  <si>
-    <t>О ком? О чём? и т.п.</t>
+    <t>thing</t>
   </si>
   <si>
     <t>вот жалость</t>
   </si>
   <si>
-    <t>местный</t>
-  </si>
-  <si>
     <t>мои извинения</t>
   </si>
   <si>
-    <t>склепать</t>
-  </si>
-  <si>
     <t>премного извиняюсь</t>
   </si>
   <si>
     <t>сожалею</t>
   </si>
   <si>
-    <t>thing</t>
-  </si>
-  <si>
     <t>премного сожалею</t>
   </si>
   <si>
-    <t>забабахать</t>
-  </si>
-  <si>
     <t>жалко</t>
   </si>
   <si>
@@ -358,306 +383,285 @@
     <t>увы -</t>
   </si>
   <si>
-    <t>заебенить</t>
-  </si>
-  <si>
     <t>вот незадача</t>
   </si>
   <si>
     <t>вот зараза</t>
   </si>
   <si>
-    <t>сделать</t>
+    <t>из</t>
   </si>
   <si>
     <t>печально</t>
   </si>
   <si>
+    <t>place</t>
+  </si>
+  <si>
     <t>вот печаль</t>
   </si>
   <si>
     <t>ой</t>
   </si>
   <si>
-    <t>довезти</t>
-  </si>
-  <si>
     <t>не получится</t>
   </si>
   <si>
     <t>извините</t>
   </si>
   <si>
-    <t>довести</t>
-  </si>
-  <si>
-    <t>допереть</t>
-  </si>
-  <si>
-    <t>обдумать</t>
-  </si>
-  <si>
-    <t>из</t>
-  </si>
-  <si>
-    <t>подумать о</t>
-  </si>
-  <si>
-    <t>place</t>
-  </si>
-  <si>
-    <t>запланировать</t>
-  </si>
-  <si>
     <t>в</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>type_alt</t>
+  </si>
+  <si>
+    <t>собака</t>
+  </si>
+  <si>
+    <t>кошка</t>
+  </si>
+  <si>
+    <t>ребенок</t>
+  </si>
+  <si>
+    <t>дети</t>
+  </si>
+  <si>
+    <t>дочь</t>
+  </si>
+  <si>
+    <t>сын</t>
+  </si>
+  <si>
+    <t>квартира</t>
+  </si>
+  <si>
     <t>place_open</t>
   </si>
   <si>
+    <t>дом</t>
+  </si>
+  <si>
+    <t>кухня</t>
+  </si>
+  <si>
+    <t>ванная</t>
+  </si>
+  <si>
+    <t>унитаз</t>
+  </si>
+  <si>
+    <t>ноутбук</t>
+  </si>
+  <si>
+    <t>телефон</t>
+  </si>
+  <si>
+    <t>смартфон</t>
+  </si>
+  <si>
+    <t>документы</t>
+  </si>
+  <si>
     <t>на</t>
   </si>
   <si>
-    <t>word</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>type_alt</t>
-  </si>
-  <si>
-    <t>собака</t>
-  </si>
-  <si>
-    <t>кошка</t>
+    <t>тёща</t>
+  </si>
+  <si>
+    <t>тесть</t>
+  </si>
+  <si>
+    <t>свекровь</t>
+  </si>
+  <si>
+    <t>свёкр</t>
+  </si>
+  <si>
+    <t>ковёр</t>
+  </si>
+  <si>
+    <t>фикус</t>
+  </si>
+  <si>
+    <t>кактус</t>
+  </si>
+  <si>
+    <t>мебель</t>
+  </si>
+  <si>
+    <t>телек</t>
+  </si>
+  <si>
+    <t>ноут</t>
+  </si>
+  <si>
+    <t>noun_type_alt</t>
+  </si>
+  <si>
+    <t>автомастерская</t>
+  </si>
+  <si>
+    <t>has_object</t>
+  </si>
+  <si>
+    <t>case_object</t>
+  </si>
+  <si>
+    <t>aspc</t>
+  </si>
+  <si>
+    <t>ремонт</t>
+  </si>
+  <si>
+    <t>обучение</t>
+  </si>
+  <si>
+    <t>impf</t>
+  </si>
+  <si>
+    <t>гипермаркет</t>
+  </si>
+  <si>
+    <t>ЖЭК</t>
+  </si>
+  <si>
+    <t>нотариус</t>
+  </si>
+  <si>
+    <t>врач</t>
   </si>
   <si>
     <t>до</t>
   </si>
   <si>
-    <t>ребенок</t>
-  </si>
-  <si>
-    <t>дети</t>
-  </si>
-  <si>
-    <t>дочь</t>
-  </si>
-  <si>
-    <t>сын</t>
-  </si>
-  <si>
-    <t>квартира</t>
-  </si>
-  <si>
-    <t>дом</t>
-  </si>
-  <si>
-    <t>кухня</t>
-  </si>
-  <si>
-    <t>ванная</t>
-  </si>
-  <si>
-    <t>унитаз</t>
-  </si>
-  <si>
-    <t>ноутбук</t>
+    <t>доктор</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>центр госуслуг</t>
+  </si>
+  <si>
+    <t>accompany</t>
+  </si>
+  <si>
+    <t>курсы</t>
+  </si>
+  <si>
+    <t>совещание</t>
+  </si>
+  <si>
+    <t>родственники</t>
+  </si>
+  <si>
+    <t>дача</t>
+  </si>
+  <si>
+    <t>хранение</t>
+  </si>
+  <si>
+    <t>банк</t>
+  </si>
+  <si>
+    <t>планерка</t>
+  </si>
+  <si>
+    <t>perf</t>
+  </si>
+  <si>
+    <t>свадьба</t>
+  </si>
+  <si>
+    <t>похороны</t>
   </si>
   <si>
     <t>перед</t>
   </si>
   <si>
-    <t>телефон</t>
-  </si>
-  <si>
-    <t>смартфон</t>
-  </si>
-  <si>
-    <t>документы</t>
-  </si>
-  <si>
-    <t>тёща</t>
-  </si>
-  <si>
-    <t>тесть</t>
-  </si>
-  <si>
-    <t>свекровь</t>
-  </si>
-  <si>
-    <t>свёкр</t>
-  </si>
-  <si>
-    <t>ковёр</t>
-  </si>
-  <si>
-    <t>фикус</t>
-  </si>
-  <si>
-    <t>кактус</t>
-  </si>
-  <si>
-    <t>мебель</t>
-  </si>
-  <si>
-    <t>телек</t>
-  </si>
-  <si>
-    <t>ноут</t>
-  </si>
-  <si>
-    <t>автомастерская</t>
-  </si>
-  <si>
-    <t>ремонт</t>
+    <t>ДР</t>
+  </si>
+  <si>
+    <t>день рождения</t>
+  </si>
+  <si>
+    <t>помолвка</t>
+  </si>
+  <si>
+    <t>суд</t>
+  </si>
+  <si>
+    <t>прогулка</t>
+  </si>
+  <si>
+    <t>поход</t>
+  </si>
+  <si>
+    <t>вечеринка</t>
+  </si>
+  <si>
+    <t>пати</t>
+  </si>
+  <si>
+    <t>туса</t>
+  </si>
+  <si>
+    <t>дискотека</t>
   </si>
   <si>
     <t>project</t>
   </si>
   <si>
-    <t>обучение</t>
-  </si>
-  <si>
-    <t>гипермаркет</t>
-  </si>
-  <si>
-    <t>ЖЭК</t>
-  </si>
-  <si>
-    <t>нотариус</t>
-  </si>
-  <si>
-    <t>врач</t>
-  </si>
-  <si>
-    <t>доктор</t>
-  </si>
-  <si>
-    <t>центр госуслуг</t>
-  </si>
-  <si>
-    <t>курсы</t>
-  </si>
-  <si>
-    <t>совещание</t>
-  </si>
-  <si>
-    <t>родственники</t>
-  </si>
-  <si>
-    <t>дача</t>
-  </si>
-  <si>
-    <t>хранение</t>
-  </si>
-  <si>
-    <t>банк</t>
-  </si>
-  <si>
-    <t>планерка</t>
+    <t>званый приём</t>
+  </si>
+  <si>
+    <t>вокзал</t>
+  </si>
+  <si>
+    <t>аэропорт</t>
+  </si>
+  <si>
+    <t>автовокзал</t>
+  </si>
+  <si>
+    <t>почта</t>
+  </si>
+  <si>
+    <t>рынок</t>
+  </si>
+  <si>
+    <t>фестиваль</t>
+  </si>
+  <si>
+    <t>конкурс</t>
+  </si>
+  <si>
+    <t>осмотр</t>
+  </si>
+  <si>
+    <t>проверка</t>
   </si>
   <si>
     <t>над</t>
   </si>
   <si>
-    <t>noun_type_alt</t>
-  </si>
-  <si>
-    <t>has_object</t>
-  </si>
-  <si>
-    <t>case_object</t>
-  </si>
-  <si>
-    <t>aspc</t>
-  </si>
-  <si>
-    <t>свадьба</t>
-  </si>
-  <si>
-    <t>похороны</t>
-  </si>
-  <si>
-    <t>ДР</t>
-  </si>
-  <si>
-    <t>impf</t>
-  </si>
-  <si>
-    <t>день рождения</t>
-  </si>
-  <si>
-    <t>помолвка</t>
-  </si>
-  <si>
-    <t>суд</t>
-  </si>
-  <si>
-    <t>прогулка</t>
-  </si>
-  <si>
-    <t>поход</t>
-  </si>
-  <si>
-    <t>вечеринка</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>пати</t>
-  </si>
-  <si>
-    <t>accompany</t>
-  </si>
-  <si>
-    <t>туса</t>
-  </si>
-  <si>
-    <t>дискотека</t>
-  </si>
-  <si>
-    <t>званый приём</t>
-  </si>
-  <si>
-    <t>вокзал</t>
-  </si>
-  <si>
-    <t>аэропорт</t>
-  </si>
-  <si>
-    <t>автовокзал</t>
-  </si>
-  <si>
-    <t>почта</t>
-  </si>
-  <si>
-    <t>рынок</t>
-  </si>
-  <si>
-    <t>фестиваль</t>
-  </si>
-  <si>
-    <t>конкурс</t>
-  </si>
-  <si>
-    <t>осмотр</t>
-  </si>
-  <si>
-    <t>проверка</t>
+    <t>travel</t>
   </si>
   <si>
     <t>проект</t>
   </si>
   <si>
-    <t>perf</t>
-  </si>
-  <si>
     <t>задание</t>
   </si>
   <si>
+    <t>impact</t>
+  </si>
+  <si>
     <t>план проекта</t>
   </si>
   <si>
@@ -673,12 +677,21 @@
     <t>картина</t>
   </si>
   <si>
+    <t>позаботиться</t>
+  </si>
+  <si>
     <t>книга</t>
   </si>
   <si>
+    <t>mental</t>
+  </si>
+  <si>
     <t>гобелен</t>
   </si>
   <si>
+    <t>решить</t>
+  </si>
+  <si>
     <t>скульптура</t>
   </si>
   <si>
@@ -688,6 +701,9 @@
     <t>маникюр</t>
   </si>
   <si>
+    <t>volit</t>
+  </si>
+  <si>
     <t>педикюр</t>
   </si>
   <si>
@@ -724,6 +740,9 @@
     <t>санаторий</t>
   </si>
   <si>
+    <t>create</t>
+  </si>
+  <si>
     <t>море</t>
   </si>
   <si>
@@ -751,9 +770,6 @@
     <t>кинотеатр</t>
   </si>
   <si>
-    <t>travel</t>
-  </si>
-  <si>
     <t>фильм</t>
   </si>
   <si>
@@ -769,9 +785,6 @@
     <t>кафе</t>
   </si>
   <si>
-    <t>impact</t>
-  </si>
-  <si>
     <t>ресторан</t>
   </si>
   <si>
@@ -790,102 +803,186 @@
     <t>Петербург</t>
   </si>
   <si>
-    <t>позаботиться</t>
-  </si>
-  <si>
     <t>Москва</t>
   </si>
   <si>
     <t>Нью-Йорк</t>
   </si>
   <si>
+    <t>подумать</t>
+  </si>
+  <si>
+    <t>Урюпинск</t>
+  </si>
+  <si>
+    <t>магазин</t>
+  </si>
+  <si>
+    <t>убирать</t>
+  </si>
+  <si>
+    <t>супермаркет</t>
+  </si>
+  <si>
+    <t>торговый центр</t>
+  </si>
+  <si>
+    <t>добраться</t>
+  </si>
+  <si>
+    <t>ТРЦ</t>
+  </si>
+  <si>
+    <t>выбраться</t>
+  </si>
+  <si>
+    <t>стрелка</t>
+  </si>
+  <si>
+    <t>пьянка</t>
+  </si>
+  <si>
+    <t>зайти</t>
+  </si>
+  <si>
+    <t>попойка</t>
+  </si>
+  <si>
+    <t>аттестация</t>
+  </si>
+  <si>
+    <t>забежать</t>
+  </si>
+  <si>
+    <t>фотосессия</t>
+  </si>
+  <si>
+    <t>отпуск</t>
+  </si>
+  <si>
+    <t>съездить</t>
+  </si>
+  <si>
+    <t>центр</t>
+  </si>
+  <si>
+    <t>город</t>
+  </si>
+  <si>
+    <t>поехать</t>
+  </si>
+  <si>
+    <t>деревня</t>
+  </si>
+  <si>
+    <t>поселок</t>
+  </si>
+  <si>
+    <t>сгонять</t>
+  </si>
+  <si>
+    <t>техцентр</t>
+  </si>
+  <si>
+    <t>поработать</t>
+  </si>
+  <si>
+    <t>работать</t>
+  </si>
+  <si>
+    <t>корпеть</t>
+  </si>
+  <si>
+    <t>трудиться</t>
+  </si>
+  <si>
+    <t>ебашить</t>
+  </si>
+  <si>
+    <t>креативить</t>
+  </si>
+  <si>
+    <t>вымучивать</t>
+  </si>
+  <si>
+    <t>переться</t>
+  </si>
+  <si>
+    <t>пиздёхать</t>
+  </si>
+  <si>
+    <t>ползти</t>
+  </si>
+  <si>
+    <t>бежать</t>
+  </si>
+  <si>
+    <t>сдавать</t>
+  </si>
+  <si>
+    <t>забирать</t>
+  </si>
+  <si>
+    <t>нести</t>
+  </si>
+  <si>
+    <t>отправлять</t>
+  </si>
+  <si>
+    <t>ходить</t>
+  </si>
+  <si>
+    <t>уезжать</t>
+  </si>
+  <si>
     <t>verb_type</t>
   </si>
   <si>
-    <t>Урюпинск</t>
-  </si>
-  <si>
     <t>obj_type</t>
   </si>
   <si>
+    <t>ремонтировать</t>
+  </si>
+  <si>
     <t>no_adv</t>
   </si>
   <si>
-    <t>mental</t>
-  </si>
-  <si>
     <t>adv_type</t>
   </si>
   <si>
-    <t>магазин</t>
-  </si>
-  <si>
-    <t>супермаркет</t>
-  </si>
-  <si>
-    <t>решить</t>
-  </si>
-  <si>
-    <t>торговый центр</t>
+    <t>делать</t>
   </si>
   <si>
     <t>project, person</t>
   </si>
   <si>
-    <t>ТРЦ</t>
-  </si>
-  <si>
-    <t>стрелка</t>
-  </si>
-  <si>
     <t>place, place_open, person</t>
   </si>
   <si>
-    <t>volit</t>
-  </si>
-  <si>
-    <t>пьянка</t>
-  </si>
-  <si>
-    <t>попойка</t>
-  </si>
-  <si>
-    <t>аттестация</t>
-  </si>
-  <si>
-    <t>фотосессия</t>
-  </si>
-  <si>
-    <t>отпуск</t>
-  </si>
-  <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>центр</t>
-  </si>
-  <si>
-    <t>город</t>
+    <t>подбрасывать</t>
+  </si>
+  <si>
+    <t>создавать</t>
+  </si>
+  <si>
+    <t>клепать</t>
   </si>
   <si>
     <t>organize</t>
   </si>
   <si>
-    <t>деревня</t>
-  </si>
-  <si>
-    <t>поселок</t>
+    <t>думать</t>
   </si>
   <si>
     <t>destroy</t>
   </si>
   <si>
-    <t>техцентр</t>
-  </si>
-  <si>
     <t>person, project, event</t>
   </si>
   <si>
+    <t>заходить</t>
+  </si>
+  <si>
     <t>project, event, person</t>
   </si>
   <si>
@@ -895,16 +992,178 @@
     <t>possess</t>
   </si>
   <si>
+    <t>ездить</t>
+  </si>
+  <si>
     <t>project, event</t>
   </si>
   <si>
+    <t>сопроводить</t>
+  </si>
+  <si>
     <t>speech</t>
   </si>
   <si>
-    <t>подумать</t>
-  </si>
-  <si>
-    <t>убирать</t>
+    <t>сопровождать</t>
+  </si>
+  <si>
+    <t>присмотреть</t>
+  </si>
+  <si>
+    <t>проработать</t>
+  </si>
+  <si>
+    <t>for_others_only</t>
+  </si>
+  <si>
+    <t>comma_before</t>
+  </si>
+  <si>
+    <t>не могу отказаться</t>
+  </si>
+  <si>
+    <t>futr</t>
+  </si>
+  <si>
+    <t>придется помочь</t>
+  </si>
+  <si>
+    <t>надо помочь</t>
+  </si>
+  <si>
+    <t>буду помогать</t>
+  </si>
+  <si>
+    <t>пришлось помогать</t>
+  </si>
+  <si>
+    <t>past</t>
+  </si>
+  <si>
+    <t>пришлось помочь</t>
+  </si>
+  <si>
+    <t>надо было помочь</t>
+  </si>
+  <si>
+    <t>надо будет помочь</t>
+  </si>
+  <si>
+    <t>не смог отказаться</t>
+  </si>
+  <si>
+    <t>будет жестко</t>
+  </si>
+  <si>
+    <t>отказаться не получится</t>
+  </si>
+  <si>
+    <t>слиться не получится</t>
+  </si>
+  <si>
+    <t>не могу слиться</t>
+  </si>
+  <si>
+    <t>для меня это важно</t>
+  </si>
+  <si>
+    <t>это важно</t>
+  </si>
+  <si>
+    <t>это критично</t>
+  </si>
+  <si>
+    <t>это супер-важно</t>
+  </si>
+  <si>
+    <t>это очень важно</t>
+  </si>
+  <si>
+    <t>это очень срочно</t>
+  </si>
+  <si>
+    <t>давно ждали этого</t>
+  </si>
+  <si>
+    <t>давно пора это сделать</t>
+  </si>
+  <si>
+    <t>давно пора было</t>
+  </si>
+  <si>
+    <t>это было важно</t>
+  </si>
+  <si>
+    <t>это было нужно</t>
+  </si>
+  <si>
+    <t>это было очень важно</t>
+  </si>
+  <si>
+    <t>это было очень нужно</t>
+  </si>
+  <si>
+    <t>было жестко</t>
+  </si>
+  <si>
+    <t>это жесть</t>
+  </si>
+  <si>
+    <t>это была жесть</t>
+  </si>
+  <si>
+    <t>это будет жесть</t>
+  </si>
+  <si>
+    <t>это треш</t>
+  </si>
+  <si>
+    <t>это был треш</t>
+  </si>
+  <si>
+    <t>это будет треш</t>
+  </si>
+  <si>
+    <t>пора было решить этот вопрос</t>
+  </si>
+  <si>
+    <t>пора решить этот вопрос</t>
+  </si>
+  <si>
+    <t>надо этим заняться</t>
+  </si>
+  <si>
+    <t>надо было это сделать</t>
+  </si>
+  <si>
+    <t>надо будет это сделать</t>
+  </si>
+  <si>
+    <t>надо было это закончить</t>
+  </si>
+  <si>
+    <t>надо это закончить</t>
+  </si>
+  <si>
+    <t>надо будет это закончить</t>
+  </si>
+  <si>
+    <t>надо это дело добить</t>
+  </si>
+  <si>
+    <t>надо было это добить</t>
+  </si>
+  <si>
+    <t>давно ждали случая</t>
+  </si>
+  <si>
+    <t>наконец выдался случай</t>
+  </si>
+  <si>
+    <t>наконец разберусь с этим</t>
+  </si>
+  <si>
+    <t>наконец разобрались с этим</t>
   </si>
   <si>
     <t>semmarkup</t>
@@ -919,39 +1178,21 @@
     <t>adv_with_subj</t>
   </si>
   <si>
-    <t>добраться</t>
-  </si>
-  <si>
     <t>adv_without_subj</t>
   </si>
   <si>
     <t>description</t>
   </si>
   <si>
-    <t>выбраться</t>
-  </si>
-  <si>
-    <t>зайти</t>
-  </si>
-  <si>
-    <t>забежать</t>
-  </si>
-  <si>
     <t>t:move</t>
   </si>
   <si>
-    <t>съездить</t>
-  </si>
-  <si>
     <t>person, place</t>
   </si>
   <si>
     <t>движение (бежать, дергаться, бросить, нести)</t>
   </si>
   <si>
-    <t>поехать</t>
-  </si>
-  <si>
     <t>t:move:body</t>
   </si>
   <si>
@@ -961,9 +1202,6 @@
     <t>t:put</t>
   </si>
   <si>
-    <t>сгонять</t>
-  </si>
-  <si>
     <t>помещение объекта (положить, вложить, спрятать)</t>
   </si>
   <si>
@@ -982,27 +1220,12 @@
     <t>t:impact:destr</t>
   </si>
   <si>
-    <t>for_others_only</t>
-  </si>
-  <si>
-    <t>comma_before</t>
-  </si>
-  <si>
-    <t>не могу отказаться</t>
-  </si>
-  <si>
     <t>уничтожение (взорвать, сжечь, зарезать)</t>
   </si>
   <si>
-    <t>futr</t>
-  </si>
-  <si>
     <t>t:changest</t>
   </si>
   <si>
-    <t>придется помочь</t>
-  </si>
-  <si>
     <t>изменение состояния или признака (взрослеть, богатеть, расширить, испачкать)</t>
   </si>
   <si>
@@ -1012,180 +1235,78 @@
     <t>бытийная сфера (жить, возникнуть, убить)</t>
   </si>
   <si>
-    <t>надо помочь</t>
-  </si>
-  <si>
     <t>t:be:exist</t>
   </si>
   <si>
-    <t>буду помогать</t>
-  </si>
-  <si>
     <t>существование (жить, происходить)</t>
   </si>
   <si>
     <t>t:be:appear</t>
   </si>
   <si>
-    <t>пришлось помогать</t>
-  </si>
-  <si>
-    <t>past</t>
-  </si>
-  <si>
     <t>начало существования (возникнуть, родиться, сформировать, создать)</t>
   </si>
   <si>
-    <t>пришлось помочь</t>
-  </si>
-  <si>
     <t>t:be:disapp</t>
   </si>
   <si>
-    <t>надо было помочь</t>
-  </si>
-  <si>
-    <t>поработать</t>
-  </si>
-  <si>
     <t>прекращение существования (умереть, убить, улетучиться, ликвидировать, искоренить)</t>
   </si>
   <si>
-    <t>надо будет помочь</t>
-  </si>
-  <si>
     <t>t:loc</t>
   </si>
   <si>
-    <t>не смог отказаться</t>
-  </si>
-  <si>
-    <t>будет жестко</t>
-  </si>
-  <si>
     <t>местонахождение (лежать, стоять, положить)</t>
   </si>
   <si>
     <t>t:loc:body</t>
   </si>
   <si>
-    <t>отказаться не получится</t>
-  </si>
-  <si>
-    <t>слиться не получится</t>
-  </si>
-  <si>
     <t>положение тела в пространстве (сидеть)</t>
   </si>
   <si>
     <t>t:contact</t>
   </si>
   <si>
-    <t>не могу слиться</t>
-  </si>
-  <si>
     <t>контакт и опора (касаться, обнимать, облокотиться)</t>
   </si>
   <si>
-    <t>для меня это важно</t>
-  </si>
-  <si>
     <t>t:poss</t>
   </si>
   <si>
-    <t>это важно</t>
-  </si>
-  <si>
-    <t>это критично</t>
-  </si>
-  <si>
     <t>посессивная сфера (иметь дать, подарить, приобрести, лишиться)</t>
   </si>
   <si>
-    <t>работать</t>
-  </si>
-  <si>
-    <t>это супер-важно</t>
-  </si>
-  <si>
     <t>t:ment</t>
   </si>
   <si>
-    <t>это очень важно</t>
-  </si>
-  <si>
     <t>ментальная сфера (знать, верить, догадаться, помнить, считать)</t>
   </si>
   <si>
-    <t>это очень срочно</t>
-  </si>
-  <si>
     <t>t:perc</t>
   </si>
   <si>
-    <t>давно ждали этого</t>
-  </si>
-  <si>
-    <t>давно пора это сделать</t>
-  </si>
-  <si>
     <t>восприятие (смотреть, слышать, нюхать, чуять)</t>
   </si>
   <si>
-    <t>корпеть</t>
-  </si>
-  <si>
     <t>t:psych</t>
   </si>
   <si>
-    <t>давно пора было</t>
-  </si>
-  <si>
-    <t>это было важно</t>
-  </si>
-  <si>
     <t>психическая сфера (гипнотизировать, сочувствовать, настроиться, терпеть)</t>
   </si>
   <si>
     <t>t:psych:emot</t>
   </si>
   <si>
-    <t>это было нужно</t>
-  </si>
-  <si>
-    <t>это было очень важно</t>
-  </si>
-  <si>
-    <t>трудиться</t>
-  </si>
-  <si>
-    <t>это было очень нужно</t>
-  </si>
-  <si>
-    <t>было жестко</t>
-  </si>
-  <si>
-    <t>это жесть</t>
-  </si>
-  <si>
     <t>эмоция (радоваться, обидеть)</t>
   </si>
   <si>
     <t>t:psych:volit</t>
   </si>
   <si>
-    <t>это была жесть</t>
-  </si>
-  <si>
-    <t>ебашить</t>
-  </si>
-  <si>
     <t>воля (решить)</t>
   </si>
   <si>
-    <t>это будет жесть</t>
-  </si>
-  <si>
     <t>t:speech</t>
   </si>
   <si>
@@ -1195,160 +1316,37 @@
     <t>t:behav</t>
   </si>
   <si>
-    <t>креативить</t>
-  </si>
-  <si>
-    <t>это треш</t>
-  </si>
-  <si>
     <t>поведение человека (куролесить, привередничать)</t>
   </si>
   <si>
     <t>t:physiol</t>
   </si>
   <si>
-    <t>это был треш</t>
-  </si>
-  <si>
-    <t>это будет треш</t>
-  </si>
-  <si>
     <t>физиологическая сфера (кашлять, икать)</t>
   </si>
   <si>
-    <t>пора было решить этот вопрос</t>
-  </si>
-  <si>
     <t>t:weather</t>
   </si>
   <si>
-    <t>вымучивать</t>
-  </si>
-  <si>
-    <t>пора решить этот вопрос</t>
-  </si>
-  <si>
     <t>природное явление (бушевать, вьюжить)</t>
   </si>
   <si>
-    <t>надо этим заняться</t>
-  </si>
-  <si>
     <t>t:sound</t>
   </si>
   <si>
-    <t>надо было это сделать</t>
-  </si>
-  <si>
-    <t>надо будет это сделать</t>
-  </si>
-  <si>
     <t>звук (гудеть, шелестеть)</t>
   </si>
   <si>
     <t>t:light</t>
   </si>
   <si>
-    <t>надо было это закончить</t>
-  </si>
-  <si>
-    <t>переться</t>
-  </si>
-  <si>
-    <t>надо это закончить</t>
-  </si>
-  <si>
     <t>свет (гаснуть, лучиться)</t>
   </si>
   <si>
-    <t>надо будет это закончить</t>
-  </si>
-  <si>
     <t>t:smell</t>
   </si>
   <si>
-    <t>надо это дело добить</t>
-  </si>
-  <si>
     <t>запах (пахнуть, благоухать)</t>
-  </si>
-  <si>
-    <t>надо было это добить</t>
-  </si>
-  <si>
-    <t>пиздёхать</t>
-  </si>
-  <si>
-    <t>давно ждали случая</t>
-  </si>
-  <si>
-    <t>наконец выдался случай</t>
-  </si>
-  <si>
-    <t>наконец разберусь с этим</t>
-  </si>
-  <si>
-    <t>наконец разобрались с этим</t>
-  </si>
-  <si>
-    <t>ползти</t>
-  </si>
-  <si>
-    <t>бежать</t>
-  </si>
-  <si>
-    <t>сдавать</t>
-  </si>
-  <si>
-    <t>забирать</t>
-  </si>
-  <si>
-    <t>нести</t>
-  </si>
-  <si>
-    <t>отправлять</t>
-  </si>
-  <si>
-    <t>ходить</t>
-  </si>
-  <si>
-    <t>уезжать</t>
-  </si>
-  <si>
-    <t>ремонтировать</t>
-  </si>
-  <si>
-    <t>делать</t>
-  </si>
-  <si>
-    <t>подбрасывать</t>
-  </si>
-  <si>
-    <t>создавать</t>
-  </si>
-  <si>
-    <t>клепать</t>
-  </si>
-  <si>
-    <t>думать</t>
-  </si>
-  <si>
-    <t>заходить</t>
-  </si>
-  <si>
-    <t>ездить</t>
-  </si>
-  <si>
-    <t>сопроводить</t>
-  </si>
-  <si>
-    <t>сопровождать</t>
-  </si>
-  <si>
-    <t>присмотреть</t>
-  </si>
-  <si>
-    <t>проработать</t>
   </si>
   <si>
     <t>Слово</t>
@@ -1382,7 +1380,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1402,14 +1400,11 @@
       <color rgb="FF404040"/>
       <name val="Lato"/>
     </font>
-    <font>
-      <b/>
-    </font>
+    <font/>
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
   </fonts>
   <fills count="10">
     <fill>
@@ -1473,7 +1468,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1509,19 +1504,16 @@
     <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1798,34 +1790,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2">
@@ -1833,7 +1825,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
         <v>1.0</v>
@@ -1854,7 +1846,7 @@
         <v>1.0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -1862,7 +1854,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2">
         <v>1.0</v>
@@ -1883,7 +1875,7 @@
         <v>1.0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -1891,7 +1883,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2">
         <v>1.0</v>
@@ -1912,7 +1904,7 @@
         <v>1.0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
@@ -1920,7 +1912,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2">
         <v>1.0</v>
@@ -1941,7 +1933,7 @@
         <v>1.0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -1949,7 +1941,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2">
         <v>1.0</v>
@@ -1970,7 +1962,7 @@
         <v>1.0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
@@ -1978,7 +1970,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2">
         <v>1.0</v>
@@ -1999,7 +1991,7 @@
         <v>1.0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -2007,7 +1999,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2">
         <v>1.0</v>
@@ -2028,7 +2020,7 @@
         <v>1.0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
@@ -2036,7 +2028,7 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2">
         <v>1.0</v>
@@ -2057,7 +2049,7 @@
         <v>1.0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
@@ -2065,7 +2057,7 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2">
         <v>1.0</v>
@@ -2086,7 +2078,7 @@
         <v>1.0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
@@ -2113,7 +2105,7 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
@@ -2202,7 +2194,7 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C15" s="2">
         <v>1.0</v>
@@ -2229,7 +2221,7 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C16" s="2">
         <v>1.0</v>
@@ -2248,7 +2240,7 @@
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17">
@@ -2256,7 +2248,7 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C17" s="2">
         <v>0.0</v>
@@ -2283,7 +2275,7 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C18" s="2">
         <v>1.0</v>
@@ -2302,7 +2294,7 @@
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
@@ -2310,7 +2302,7 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C19" s="2">
         <v>1.0</v>
@@ -2329,7 +2321,7 @@
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
@@ -2337,7 +2329,7 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="C20" s="2">
         <v>1.0</v>
@@ -2356,7 +2348,7 @@
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
@@ -2364,7 +2356,7 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="C21" s="2">
         <v>1.0</v>
@@ -2383,7 +2375,7 @@
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
@@ -2391,7 +2383,7 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="C22" s="2">
         <v>1.0</v>
@@ -2410,7 +2402,7 @@
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
@@ -2418,7 +2410,7 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="C23" s="2">
         <v>0.0</v>
@@ -2437,7 +2429,7 @@
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
@@ -2445,7 +2437,7 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="C24" s="2">
         <v>0.0</v>
@@ -2464,7 +2456,7 @@
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
@@ -2472,7 +2464,7 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="C25" s="2">
         <v>0.0</v>
@@ -2491,7 +2483,7 @@
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26">
@@ -2499,7 +2491,7 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="C26" s="2">
         <v>1.0</v>
@@ -2518,7 +2510,7 @@
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
@@ -2526,7 +2518,7 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="C27" s="2">
         <v>1.0</v>
@@ -2545,7 +2537,7 @@
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
@@ -2553,7 +2545,7 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="C28" s="2">
         <v>1.0</v>
@@ -2572,7 +2564,7 @@
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
@@ -2580,7 +2572,7 @@
         <v>28.0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="C29" s="2">
         <v>1.0</v>
@@ -2599,7 +2591,7 @@
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">
@@ -2607,7 +2599,7 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="C30" s="2">
         <v>1.0</v>
@@ -2634,7 +2626,7 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="C31" s="2">
         <v>0.0</v>
@@ -2652,7 +2644,7 @@
         <v>0.0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2678,22 +2670,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>294</v>
+        <v>380</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>295</v>
+        <v>381</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>296</v>
+        <v>382</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>297</v>
+        <v>383</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>299</v>
+        <v>384</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>300</v>
+        <v>385</v>
       </c>
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
@@ -2722,67 +2714,67 @@
     </row>
     <row r="2">
       <c r="A2" s="20" t="s">
-        <v>304</v>
+        <v>386</v>
       </c>
       <c r="B2" s="20">
         <v>1.0</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>306</v>
+        <v>387</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>306</v>
+        <v>387</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>307</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="20" t="s">
-        <v>309</v>
+        <v>389</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
       <c r="F3" s="20" t="s">
-        <v>310</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="20" t="s">
-        <v>311</v>
+        <v>391</v>
       </c>
       <c r="B4" s="20">
         <v>1.0</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
       <c r="F4" s="20" t="s">
-        <v>313</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="20" t="s">
-        <v>314</v>
+        <v>393</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
       <c r="F5" s="20" t="s">
-        <v>315</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="20" t="s">
-        <v>316</v>
+        <v>395</v>
       </c>
       <c r="B6" s="20">
         <v>1.0</v>
@@ -2791,12 +2783,12 @@
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20" t="s">
-        <v>317</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="20" t="s">
-        <v>318</v>
+        <v>397</v>
       </c>
       <c r="B7" s="20">
         <v>1.0</v>
@@ -2805,108 +2797,108 @@
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20" t="s">
-        <v>322</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="20" t="s">
-        <v>324</v>
+        <v>399</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20" t="s">
-        <v>326</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="20" t="s">
-        <v>327</v>
+        <v>401</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
       <c r="F9" s="20" t="s">
-        <v>328</v>
+        <v>402</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="20" t="s">
-        <v>330</v>
+        <v>403</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20" t="s">
-        <v>332</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="20" t="s">
-        <v>333</v>
+        <v>405</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
       <c r="F11" s="20" t="s">
-        <v>336</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="20" t="s">
-        <v>338</v>
+        <v>407</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20" t="s">
-        <v>341</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="20" t="s">
-        <v>343</v>
+        <v>409</v>
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20" t="s">
-        <v>346</v>
+        <v>410</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="20" t="s">
-        <v>347</v>
+        <v>411</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20" t="s">
-        <v>350</v>
+        <v>412</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="20" t="s">
-        <v>351</v>
+        <v>413</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="20" t="s">
-        <v>353</v>
+        <v>414</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="20" t="s">
-        <v>355</v>
+        <v>415</v>
       </c>
       <c r="B16" s="20">
         <v>1.0</v>
@@ -2915,12 +2907,12 @@
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="20" t="s">
-        <v>358</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="20" t="s">
-        <v>361</v>
+        <v>417</v>
       </c>
       <c r="B17" s="20">
         <v>1.0</v>
@@ -2929,12 +2921,12 @@
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="20" t="s">
-        <v>363</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="20" t="s">
-        <v>365</v>
+        <v>419</v>
       </c>
       <c r="B18" s="20">
         <v>1.0</v>
@@ -2943,36 +2935,36 @@
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="20" t="s">
-        <v>368</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="20" t="s">
-        <v>370</v>
+        <v>421</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
       <c r="F19" s="20" t="s">
-        <v>373</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="20" t="s">
-        <v>374</v>
+        <v>423</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
       <c r="F20" s="20" t="s">
-        <v>381</v>
+        <v>424</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="20" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="B21" s="20">
         <v>1.0</v>
@@ -2981,12 +2973,12 @@
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
       <c r="F21" s="20" t="s">
-        <v>385</v>
+        <v>426</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="20" t="s">
-        <v>387</v>
+        <v>427</v>
       </c>
       <c r="B22" s="20">
         <v>1.0</v>
@@ -2995,79 +2987,79 @@
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
       <c r="F22" s="20" t="s">
-        <v>388</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="20" t="s">
-        <v>389</v>
+        <v>429</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
       <c r="F23" s="20" t="s">
-        <v>392</v>
+        <v>430</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="20" t="s">
-        <v>393</v>
+        <v>431</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="F24" s="20" t="s">
-        <v>396</v>
+        <v>432</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="20" t="s">
-        <v>398</v>
+        <v>433</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
       <c r="F25" s="20" t="s">
-        <v>401</v>
+        <v>434</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="20" t="s">
-        <v>403</v>
+        <v>435</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20" t="s">
-        <v>406</v>
+        <v>436</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="20" t="s">
-        <v>407</v>
+        <v>437</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20" t="s">
-        <v>411</v>
+        <v>438</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="20" t="s">
-        <v>413</v>
+        <v>439</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20" t="s">
-        <v>415</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -3090,145 +3082,145 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>442</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29">
@@ -3238,102 +3230,102 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="50">
@@ -3343,17 +3335,17 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54">
@@ -3363,12 +3355,12 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -3399,7 +3391,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -3407,7 +3399,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -3415,7 +3407,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3445,16 +3437,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2">
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2">
         <v>1.0</v>
@@ -3462,7 +3454,7 @@
     </row>
     <row r="3">
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
         <v>1.0</v>
@@ -3470,7 +3462,7 @@
     </row>
     <row r="4">
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2">
         <v>0.0</v>
@@ -3478,7 +3470,7 @@
     </row>
     <row r="5">
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2">
         <v>0.0</v>
@@ -3486,7 +3478,7 @@
     </row>
     <row r="6">
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2">
         <v>0.0</v>
@@ -3494,7 +3486,7 @@
     </row>
     <row r="7">
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2">
         <v>0.0</v>
@@ -3502,7 +3494,7 @@
     </row>
     <row r="8">
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2">
         <v>0.0</v>
@@ -3510,7 +3502,7 @@
     </row>
     <row r="9">
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2">
         <v>0.0</v>
@@ -3518,7 +3510,7 @@
     </row>
     <row r="10">
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2">
         <v>0.0</v>
@@ -3526,7 +3518,7 @@
     </row>
     <row r="11">
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2">
         <v>0.0</v>
@@ -3534,7 +3526,7 @@
     </row>
     <row r="12">
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2">
         <v>0.0</v>
@@ -3542,7 +3534,7 @@
     </row>
     <row r="13">
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2">
         <v>0.0</v>
@@ -3550,7 +3542,7 @@
     </row>
     <row r="14">
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2">
         <v>0.0</v>
@@ -3558,7 +3550,7 @@
     </row>
     <row r="15">
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2">
         <v>0.0</v>
@@ -3566,7 +3558,7 @@
     </row>
     <row r="16">
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2">
         <v>0.0</v>
@@ -3574,7 +3566,7 @@
     </row>
     <row r="17">
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2">
         <v>0.0</v>
@@ -3582,7 +3574,7 @@
     </row>
     <row r="18">
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2">
         <v>0.0</v>
@@ -3590,7 +3582,7 @@
     </row>
     <row r="19">
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C19" s="2">
         <v>0.0</v>
@@ -3598,7 +3590,7 @@
     </row>
     <row r="20">
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2">
         <v>0.0</v>
@@ -3606,7 +3598,7 @@
     </row>
     <row r="21">
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2">
         <v>0.0</v>
@@ -3638,70 +3630,70 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H3" s="6"/>
     </row>
     <row r="4">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H4" s="6"/>
     </row>
@@ -3709,77 +3701,77 @@
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="H5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H6" s="6"/>
     </row>
     <row r="7">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H7" s="6"/>
     </row>
     <row r="8">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>51</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="H8" s="5"/>
     </row>
@@ -3787,30 +3779,30 @@
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>49</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H10" s="5"/>
     </row>
@@ -3818,17 +3810,17 @@
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H11" s="6"/>
     </row>
@@ -3836,57 +3828,57 @@
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="H12" s="5"/>
     </row>
     <row r="13">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="6"/>
     </row>
     <row r="14">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>51</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="H14" s="5"/>
     </row>
@@ -3894,52 +3886,52 @@
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>49</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="9"/>
       <c r="B16" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H16" s="5"/>
     </row>
     <row r="17">
       <c r="A17" s="9"/>
       <c r="B17" s="10" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H17" s="6"/>
     </row>
@@ -3949,17 +3941,17 @@
         <v>128</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="H18" s="5"/>
     </row>
@@ -3967,17 +3959,17 @@
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H19" s="6"/>
     </row>
@@ -3985,17 +3977,17 @@
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>51</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="H20" s="5"/>
     </row>
@@ -4005,32 +3997,32 @@
         <v>128</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>49</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="11"/>
       <c r="B22" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H22" s="5"/>
     </row>
@@ -4038,37 +4030,37 @@
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="12" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H23" s="6"/>
     </row>
     <row r="24">
       <c r="A24" s="11"/>
       <c r="B24" s="12" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="H24" s="5"/>
     </row>
@@ -4076,17 +4068,17 @@
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H25" s="6"/>
     </row>
@@ -4094,227 +4086,227 @@
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>51</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="H26" s="5"/>
     </row>
     <row r="27">
       <c r="A27" s="11"/>
       <c r="B27" s="12" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>49</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="13"/>
       <c r="B28" s="14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H28" s="5"/>
     </row>
     <row r="29">
       <c r="A29" s="13"/>
       <c r="B29" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H29" s="6"/>
     </row>
     <row r="30">
       <c r="A30" s="13"/>
       <c r="B30" s="14" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H30" s="6"/>
     </row>
     <row r="31">
       <c r="A31" s="13"/>
       <c r="B31" s="14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H31" s="6"/>
     </row>
     <row r="32">
       <c r="A32" s="13"/>
       <c r="B32" s="14" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="H32" s="5"/>
     </row>
     <row r="33">
       <c r="A33" s="13"/>
       <c r="B33" s="14" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H33" s="6"/>
     </row>
     <row r="34">
       <c r="A34" s="13"/>
       <c r="B34" s="14" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>51</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="H34" s="5"/>
     </row>
     <row r="35">
       <c r="A35" s="13"/>
       <c r="B35" s="14" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>49</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="16"/>
       <c r="B36" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H36" s="5"/>
     </row>
     <row r="37">
       <c r="A37" s="16"/>
       <c r="B37" s="17" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H37" s="6"/>
     </row>
@@ -4322,17 +4314,17 @@
       <c r="A38" s="16"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G38" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="H38" s="5"/>
     </row>
@@ -4340,57 +4332,57 @@
       <c r="A39" s="16"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G39" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="H39" s="5"/>
     </row>
     <row r="40">
       <c r="A40" s="16"/>
       <c r="B40" s="17" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H40" s="6"/>
     </row>
     <row r="41">
       <c r="A41" s="16"/>
       <c r="B41" s="17" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="D41" s="17" t="s">
         <v>51</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="H41" s="5"/>
     </row>
@@ -4398,13 +4390,13 @@
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
       <c r="C42" s="17" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="D42" s="17" t="s">
         <v>49</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -4432,13 +4424,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
@@ -4446,13 +4438,13 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2">
         <v>1.0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
@@ -4460,13 +4452,13 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2">
         <v>1.0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4">
@@ -4474,13 +4466,13 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2">
         <v>1.0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
@@ -4488,13 +4480,13 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2">
         <v>1.0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
@@ -4502,13 +4494,13 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2">
         <v>1.0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
@@ -4516,13 +4508,13 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="C7" s="2">
         <v>1.0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
@@ -4530,13 +4522,13 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2">
         <v>1.0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9">
@@ -4544,13 +4536,13 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C9" s="2">
         <v>1.0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10">
@@ -4558,13 +4550,13 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="C10" s="2">
         <v>0.0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
@@ -4572,13 +4564,13 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C11" s="2">
         <v>1.0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12">
@@ -4586,13 +4578,13 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C12" s="2">
         <v>1.0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13">
@@ -4600,13 +4592,13 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="C13" s="2">
         <v>1.0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14">
@@ -4614,13 +4606,13 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C14" s="2">
         <v>1.0</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15">
@@ -4628,13 +4620,13 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C15" s="2">
         <v>1.0</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
@@ -4642,13 +4634,13 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C16" s="2">
         <v>1.0</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
@@ -4656,13 +4648,13 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C17" s="2">
         <v>1.0</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18">
@@ -4670,13 +4662,13 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C18" s="2">
         <v>1.0</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19">
@@ -4684,13 +4676,13 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C19" s="2">
         <v>1.0</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20">
@@ -4698,13 +4690,13 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C20" s="2">
         <v>1.0</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21">
@@ -4712,13 +4704,13 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C21" s="2">
         <v>0.0</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22">
@@ -4726,13 +4718,13 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C22" s="2">
         <v>1.0</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23">
@@ -4740,13 +4732,13 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C23" s="2">
         <v>1.0</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24">
@@ -4754,13 +4746,13 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C24" s="2">
         <v>1.0</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25">
@@ -4768,13 +4760,13 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C25" s="2">
         <v>1.0</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26">
@@ -4782,13 +4774,13 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C26" s="2">
         <v>1.0</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27">
@@ -4796,21 +4788,21 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C27" s="2">
         <v>1.0</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -4840,302 +4832,302 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E1" s="15"/>
+        <v>130</v>
+      </c>
+      <c r="E1" s="1"/>
     </row>
     <row r="2">
       <c r="B2" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -5143,127 +5135,127 @@
         <v>164</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
@@ -5271,7 +5263,7 @@
         <v>164</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
@@ -5279,7 +5271,7 @@
         <v>183</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
@@ -5287,15 +5279,15 @@
         <v>184</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -5303,7 +5295,7 @@
         <v>187</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
@@ -5311,7 +5303,7 @@
         <v>188</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
@@ -5319,7 +5311,7 @@
         <v>189</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61">
@@ -5327,7 +5319,7 @@
         <v>190</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
@@ -5335,7 +5327,7 @@
         <v>191</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63">
@@ -5343,131 +5335,131 @@
         <v>192</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65">
       <c r="B65" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
       <c r="B66" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
       <c r="B68" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D68" s="2"/>
     </row>
     <row r="69">
       <c r="B69" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="70">
       <c r="B70" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D70" s="2"/>
     </row>
     <row r="71">
       <c r="B71" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D71" s="2"/>
     </row>
     <row r="72">
       <c r="B72" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D72" s="2"/>
     </row>
     <row r="73">
       <c r="B73" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74">
       <c r="B74" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76">
       <c r="B76" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77">
       <c r="B77" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>163</v>
+        <v>15</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
     </row>
     <row r="79">
@@ -5475,412 +5467,412 @@
         <v>210</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80">
       <c r="B80" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C80" s="2" t="s">
         <v>163</v>
+      </c>
+      <c r="C80" s="18" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="81">
       <c r="B81" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="82">
       <c r="B82" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
     </row>
     <row r="83">
       <c r="B83" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84">
       <c r="B84" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="85">
       <c r="B85" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>163</v>
+        <v>215</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="86">
       <c r="B86" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="87">
       <c r="B87" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88">
       <c r="B88" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="89">
       <c r="B89" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90">
       <c r="B90" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
     </row>
     <row r="91">
       <c r="B91" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92">
       <c r="B92" s="2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93">
       <c r="B93" s="2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94">
       <c r="B94" s="2" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95">
       <c r="B95" s="2" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96">
       <c r="B96" s="2" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97">
       <c r="B97" s="2" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="98">
       <c r="B98" s="2" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="99">
       <c r="B99" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="100">
       <c r="B100" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="101">
       <c r="B101" s="2" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="102">
       <c r="B102" s="2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103">
       <c r="B103" s="2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="104">
       <c r="B104" s="2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="105">
       <c r="B105" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="106">
       <c r="B106" s="2" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="107">
       <c r="B107" s="2" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="108">
       <c r="B108" s="2" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109">
       <c r="B109" s="2" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110">
       <c r="B110" s="2" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111">
       <c r="B111" s="2" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112">
       <c r="B112" s="2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="113">
       <c r="B113" s="2" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="114">
       <c r="B114" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115">
       <c r="B115" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116">
       <c r="B116" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="117">
       <c r="B117" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="118">
       <c r="B118" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="119">
       <c r="B119" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120">
       <c r="B120" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121">
       <c r="B121" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122">
       <c r="B122" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="123">
       <c r="B123" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="124">
       <c r="B124" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125">
       <c r="B125" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="126">
       <c r="B126" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="127">
       <c r="B127" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="128">
@@ -5888,23 +5880,23 @@
         <v>265</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="129">
       <c r="B129" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="130">
       <c r="B130" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="131">
@@ -5912,31 +5904,31 @@
         <v>270</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132">
       <c r="B132" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133">
       <c r="B133" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134">
       <c r="B134" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135">
@@ -5944,7 +5936,7 @@
         <v>276</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136">
@@ -5952,7 +5944,7 @@
         <v>277</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="137">
@@ -5960,7 +5952,7 @@
         <v>279</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="138">
@@ -5968,7 +5960,7 @@
         <v>280</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="139">
@@ -5976,7 +5968,7 @@
         <v>282</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="140">
@@ -5984,7 +5976,7 @@
         <v>283</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="141">
@@ -5992,10 +5984,11 @@
         <v>285</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="$A$1:$D$141"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -6025,28 +6018,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2">
@@ -6054,22 +6047,22 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E2" s="2">
         <v>1.0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3">
@@ -6077,46 +6070,46 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E3" s="2">
         <v>1.0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="I3" s="18"/>
+        <v>174</v>
+      </c>
+      <c r="I3" s="15"/>
     </row>
     <row r="4">
       <c r="A4" s="2">
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E4" s="2">
         <v>1.0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5">
@@ -6124,25 +6117,25 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E5" s="2">
         <v>1.0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6">
@@ -6150,105 +6143,105 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E6" s="2">
         <v>1.0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="I6" s="18"/>
+        <v>174</v>
+      </c>
+      <c r="I6" s="15"/>
     </row>
     <row r="7">
       <c r="A7" s="2">
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E7" s="2">
         <v>1.0</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="I7" s="18"/>
+        <v>172</v>
+      </c>
+      <c r="I7" s="15"/>
     </row>
     <row r="8">
       <c r="A8" s="2">
         <v>7.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E8" s="2">
         <v>1.0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="I8" s="18"/>
+        <v>172</v>
+      </c>
+      <c r="I8" s="15"/>
     </row>
     <row r="9">
       <c r="A9" s="2">
         <v>8.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E9" s="2">
         <v>1.0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="I9" s="18"/>
+        <v>172</v>
+      </c>
+      <c r="I9" s="15"/>
     </row>
     <row r="10">
       <c r="A10" s="2">
         <v>9.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E10" s="2">
         <v>1.0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="I10" s="18"/>
+        <v>172</v>
+      </c>
+      <c r="I10" s="15"/>
     </row>
     <row r="11">
       <c r="A11" s="2">
@@ -6258,18 +6251,18 @@
         <v>47</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E11" s="2">
         <v>1.0</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="I11" s="18"/>
+        <v>172</v>
+      </c>
+      <c r="I11" s="15"/>
     </row>
     <row r="12">
       <c r="A12" s="2">
@@ -6279,21 +6272,21 @@
         <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E12" s="2">
         <v>0.0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="I12" s="18"/>
+        <v>208</v>
+      </c>
+      <c r="I12" s="15"/>
     </row>
     <row r="13">
       <c r="A13" s="2">
@@ -6303,7 +6296,7 @@
         <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E13" s="2">
         <v>0.0</v>
@@ -6312,12 +6305,12 @@
         <v>51</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="I13" s="18"/>
+        <v>211</v>
+      </c>
+      <c r="I13" s="15"/>
     </row>
     <row r="14">
       <c r="A14" s="2">
@@ -6327,34 +6320,34 @@
         <v>52</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E14" s="2">
         <v>0.0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="I14" s="18"/>
+        <v>208</v>
+      </c>
+      <c r="I14" s="15"/>
     </row>
     <row r="15">
       <c r="A15" s="2">
         <v>14.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E15" s="2">
         <v>1.0</v>
@@ -6363,253 +6356,253 @@
         <v>51</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="I15" s="18"/>
+        <v>219</v>
+      </c>
+      <c r="I15" s="15"/>
     </row>
     <row r="16">
       <c r="A16" s="2">
         <v>15.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>266</v>
+        <v>221</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E16" s="2">
         <v>0.0</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="I16" s="18"/>
+        <v>225</v>
+      </c>
+      <c r="I16" s="15"/>
     </row>
     <row r="17">
       <c r="A17" s="2">
         <v>16.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E17" s="2">
         <v>0.0</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="I17" s="18"/>
+        <v>208</v>
+      </c>
+      <c r="I17" s="15"/>
     </row>
     <row r="18">
       <c r="A18" s="2">
         <v>17.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E18" s="2">
         <v>1.0</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="I18" s="18"/>
+        <v>211</v>
+      </c>
+      <c r="I18" s="15"/>
     </row>
     <row r="19">
       <c r="A19" s="2">
         <v>18.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="E19" s="2">
         <v>1.0</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I19" s="18"/>
+        <v>238</v>
+      </c>
+      <c r="I19" s="15"/>
     </row>
     <row r="20">
       <c r="A20" s="2">
         <v>19.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E20" s="2">
         <v>1.0</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="I20" s="18"/>
+        <v>174</v>
+      </c>
+      <c r="I20" s="15"/>
     </row>
     <row r="21">
       <c r="A21" s="2">
         <v>20.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="E21" s="2">
         <v>1.0</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I21" s="18"/>
+        <v>238</v>
+      </c>
+      <c r="I21" s="15"/>
     </row>
     <row r="22">
       <c r="A22" s="2">
         <v>21.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="E22" s="2">
         <v>1.0</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I22" s="18"/>
+        <v>238</v>
+      </c>
+      <c r="I22" s="15"/>
     </row>
     <row r="23">
       <c r="A23" s="2">
         <v>22.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="E23" s="2">
         <v>1.0</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I23" s="18"/>
+        <v>238</v>
+      </c>
+      <c r="I23" s="15"/>
     </row>
     <row r="24">
       <c r="A24" s="2">
         <v>23.0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="E24" s="2">
         <v>1.0</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I24" s="18"/>
+        <v>238</v>
+      </c>
+      <c r="I24" s="15"/>
     </row>
     <row r="25">
       <c r="A25" s="2">
         <v>24.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="E25" s="2">
         <v>1.0</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I25" s="18"/>
+        <v>238</v>
+      </c>
+      <c r="I25" s="15"/>
     </row>
     <row r="26">
       <c r="A26" s="2">
         <v>25.0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E26" s="2">
         <v>1.0</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27">
@@ -6617,79 +6610,79 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E27" s="2">
         <v>1.0</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="I27" s="18"/>
+        <v>174</v>
+      </c>
+      <c r="I27" s="15"/>
     </row>
     <row r="28">
       <c r="A28" s="2">
         <v>27.0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E28" s="2">
         <v>1.0</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="I28" s="18"/>
+        <v>172</v>
+      </c>
+      <c r="I28" s="15"/>
     </row>
     <row r="29">
       <c r="A29" s="2">
         <v>28.0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E29" s="2">
         <v>1.0</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="I29" s="18"/>
+        <v>219</v>
+      </c>
+      <c r="I29" s="15"/>
     </row>
     <row r="30">
       <c r="A30" s="2">
         <v>29.0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E30" s="2">
         <v>1.0</v>
@@ -6698,511 +6691,511 @@
         <v>51</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="I30" s="18"/>
+        <v>219</v>
+      </c>
+      <c r="I30" s="15"/>
     </row>
     <row r="31">
       <c r="A31" s="2">
         <v>30.0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E31" s="2">
         <v>1.0</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="I31" s="18"/>
+        <v>211</v>
+      </c>
+      <c r="I31" s="15"/>
     </row>
     <row r="32">
       <c r="A32" s="2">
         <v>31.0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E32" s="2">
         <v>0.0</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>186</v>
+      <c r="G32" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="I32" s="18"/>
+        <v>208</v>
+      </c>
+      <c r="I32" s="15"/>
     </row>
     <row r="33">
       <c r="A33" s="2">
         <v>32.0</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E33" s="2">
         <v>0.0</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="I33" s="18"/>
+        <v>208</v>
+      </c>
+      <c r="I33" s="15"/>
     </row>
     <row r="34">
       <c r="A34" s="2">
         <v>33.0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E34" s="2">
         <v>0.0</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="I34" s="18"/>
+        <v>208</v>
+      </c>
+      <c r="I34" s="15"/>
     </row>
     <row r="35">
       <c r="A35" s="2">
         <v>34.0</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E35" s="2">
         <v>0.0</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="I35" s="18"/>
+        <v>208</v>
+      </c>
+      <c r="I35" s="15"/>
     </row>
     <row r="36">
       <c r="A36" s="2">
         <v>35.0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E36" s="2">
         <v>0.0</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="I36" s="18"/>
+        <v>208</v>
+      </c>
+      <c r="I36" s="15"/>
     </row>
     <row r="37">
       <c r="A37" s="2">
         <v>36.0</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E37" s="2">
         <v>0.0</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="I37" s="18"/>
+        <v>208</v>
+      </c>
+      <c r="I37" s="15"/>
     </row>
     <row r="38">
       <c r="A38" s="2">
         <v>37.0</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E38" s="2">
         <v>0.0</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="I38" s="18"/>
+        <v>208</v>
+      </c>
+      <c r="I38" s="15"/>
     </row>
     <row r="39">
       <c r="A39" s="2">
         <v>38.0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>340</v>
+        <v>286</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E39" s="2">
         <v>1.0</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I39" s="18"/>
+        <v>238</v>
+      </c>
+      <c r="I39" s="15"/>
     </row>
     <row r="40">
       <c r="A40" s="2">
         <v>39.0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>359</v>
+        <v>287</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E40" s="2">
         <v>1.0</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I40" s="18"/>
+        <v>238</v>
+      </c>
+      <c r="I40" s="15"/>
     </row>
     <row r="41">
       <c r="A41" s="2">
         <v>40.0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>369</v>
+        <v>288</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="E41" s="2">
         <v>1.0</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I41" s="18"/>
+        <v>238</v>
+      </c>
+      <c r="I41" s="15"/>
     </row>
     <row r="42">
       <c r="A42" s="2">
         <v>41.0</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>377</v>
+        <v>289</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E42" s="2">
         <v>1.0</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I42" s="18"/>
+        <v>238</v>
+      </c>
+      <c r="I42" s="15"/>
     </row>
     <row r="43">
       <c r="A43" s="2">
         <v>42.0</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>384</v>
+        <v>290</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="E43" s="2">
         <v>1.0</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I43" s="18"/>
+        <v>238</v>
+      </c>
+      <c r="I43" s="15"/>
     </row>
     <row r="44">
       <c r="A44" s="2">
         <v>43.0</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>390</v>
+        <v>291</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="E44" s="2">
         <v>1.0</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I44" s="18"/>
+        <v>238</v>
+      </c>
+      <c r="I44" s="15"/>
     </row>
     <row r="45">
       <c r="A45" s="2">
         <v>44.0</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>399</v>
+        <v>292</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="E45" s="2">
         <v>1.0</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I45" s="18"/>
+        <v>238</v>
+      </c>
+      <c r="I45" s="15"/>
     </row>
     <row r="46">
       <c r="A46" s="2">
         <v>45.0</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>409</v>
+        <v>293</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E46" s="2">
         <v>0.0</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="I46" s="18"/>
+        <v>208</v>
+      </c>
+      <c r="I46" s="15"/>
     </row>
     <row r="47">
       <c r="A47" s="2">
         <v>46.0</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>417</v>
+        <v>294</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E47" s="2">
         <v>0.0</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="I47" s="18"/>
+        <v>208</v>
+      </c>
+      <c r="I47" s="15"/>
     </row>
     <row r="48">
       <c r="A48" s="2">
         <v>47.0</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>422</v>
+        <v>295</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E48" s="2">
         <v>0.0</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="I48" s="18"/>
+        <v>208</v>
+      </c>
+      <c r="I48" s="15"/>
     </row>
     <row r="49">
       <c r="A49" s="2">
         <v>48.0</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>423</v>
+        <v>296</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E49" s="2">
         <v>0.0</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="I49" s="18"/>
+        <v>208</v>
+      </c>
+      <c r="I49" s="15"/>
     </row>
     <row r="50">
       <c r="A50" s="2">
         <v>49.0</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>424</v>
+        <v>297</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="E50" s="2">
         <v>1.0</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="I50" s="18"/>
+        <v>172</v>
+      </c>
+      <c r="I50" s="15"/>
     </row>
     <row r="51">
       <c r="A51" s="2">
         <v>50.0</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>425</v>
+        <v>298</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E51" s="2">
         <v>1.0</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52">
@@ -7210,315 +7203,315 @@
         <v>51.0</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>426</v>
+        <v>299</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E52" s="2">
         <v>1.0</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="I52" s="18"/>
+        <v>172</v>
+      </c>
+      <c r="I52" s="15"/>
     </row>
     <row r="53">
       <c r="A53" s="2">
         <v>52.0</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>427</v>
+        <v>300</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E53" s="2">
         <v>1.0</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="I53" s="18"/>
+        <v>172</v>
+      </c>
+      <c r="I53" s="15"/>
     </row>
     <row r="54">
       <c r="A54" s="2">
         <v>53.0</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>428</v>
+        <v>301</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E54" s="2">
         <v>0.0</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="I54" s="18"/>
+        <v>208</v>
+      </c>
+      <c r="I54" s="15"/>
     </row>
     <row r="55">
       <c r="A55" s="2">
         <v>56.0</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>429</v>
+        <v>302</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E55" s="2">
         <v>0.0</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="I55" s="18"/>
+        <v>208</v>
+      </c>
+      <c r="I55" s="15"/>
     </row>
     <row r="56">
       <c r="A56" s="2">
         <v>57.0</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>430</v>
+        <v>305</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E56" s="2">
         <v>1.0</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="I56" s="18"/>
+        <v>211</v>
+      </c>
+      <c r="I56" s="15"/>
     </row>
     <row r="57">
       <c r="A57" s="2">
         <v>58.0</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>431</v>
+        <v>308</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="E57" s="2">
         <v>1.0</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I57" s="18"/>
+        <v>238</v>
+      </c>
+      <c r="I57" s="15"/>
     </row>
     <row r="58">
       <c r="A58" s="2">
         <v>59.0</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>432</v>
+        <v>311</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E58" s="2">
         <v>1.0</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="I58" s="18"/>
+        <v>174</v>
+      </c>
+      <c r="I58" s="15"/>
     </row>
     <row r="59">
       <c r="A59" s="2">
         <v>60.0</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>433</v>
+        <v>312</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="E59" s="2">
         <v>1.0</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I59" s="18"/>
+        <v>238</v>
+      </c>
+      <c r="I59" s="15"/>
     </row>
     <row r="60">
       <c r="A60" s="2">
         <v>61.0</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>434</v>
+        <v>313</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="E60" s="2">
         <v>1.0</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I60" s="18"/>
+        <v>238</v>
+      </c>
+      <c r="I60" s="15"/>
     </row>
     <row r="61">
       <c r="A61" s="2">
         <v>62.0</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>435</v>
+        <v>315</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="E61" s="2">
         <v>1.0</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="I61" s="18"/>
+        <v>219</v>
+      </c>
+      <c r="I61" s="15"/>
     </row>
     <row r="62">
       <c r="A62" s="2">
         <v>63.0</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>436</v>
+        <v>318</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E62" s="21">
+        <v>62</v>
+      </c>
+      <c r="E62" s="2">
         <v>0.0</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="I62" s="18"/>
+        <v>208</v>
+      </c>
+      <c r="I62" s="15"/>
     </row>
     <row r="63">
       <c r="A63" s="2">
         <v>64.0</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>437</v>
+        <v>322</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E63" s="2">
         <v>0.0</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="I63" s="18"/>
+        <v>208</v>
+      </c>
+      <c r="I63" s="15"/>
     </row>
     <row r="64">
       <c r="A64" s="2">
         <v>65.0</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>438</v>
+        <v>324</v>
       </c>
       <c r="E64" s="2">
         <v>1.0</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="I64" s="18"/>
+        <v>174</v>
+      </c>
+      <c r="I64" s="15"/>
     </row>
     <row r="65">
       <c r="A65" s="2">
         <v>66.0</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>439</v>
+        <v>326</v>
       </c>
       <c r="E65" s="2">
         <v>1.0</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="I65" s="18"/>
+        <v>174</v>
+      </c>
+      <c r="I65" s="15"/>
     </row>
     <row r="66">
       <c r="A66" s="2">
         <v>67.0</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>440</v>
+        <v>327</v>
       </c>
       <c r="E66" s="2">
         <v>1.0</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="I66" s="18"/>
+        <v>174</v>
+      </c>
+      <c r="I66" s="15"/>
     </row>
     <row r="67">
       <c r="A67" s="2">
@@ -7531,184 +7524,184 @@
         <v>1.0</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="I67" s="18"/>
+        <v>172</v>
+      </c>
+      <c r="I67" s="15"/>
     </row>
     <row r="68">
       <c r="B68" s="2" t="s">
-        <v>441</v>
+        <v>328</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>278</v>
+        <v>238</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
     </row>
     <row r="69">
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
     </row>
     <row r="70">
-      <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
     </row>
     <row r="71">
-      <c r="H71" s="18"/>
-      <c r="I71" s="18"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
     </row>
     <row r="72">
-      <c r="H72" s="18"/>
-      <c r="I72" s="18"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
     </row>
     <row r="73">
-      <c r="H73" s="18"/>
-      <c r="I73" s="18"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
     </row>
     <row r="74">
-      <c r="H74" s="18"/>
-      <c r="I74" s="18"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
     </row>
     <row r="75">
-      <c r="H75" s="18"/>
-      <c r="I75" s="18"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
     </row>
     <row r="76">
-      <c r="H76" s="18"/>
-      <c r="I76" s="18"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
     </row>
     <row r="77">
-      <c r="H77" s="18"/>
-      <c r="I77" s="18"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
     </row>
     <row r="78">
-      <c r="H78" s="18"/>
-      <c r="I78" s="18"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
     </row>
     <row r="79">
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
     </row>
     <row r="80">
-      <c r="H80" s="18"/>
-      <c r="I80" s="18"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
     </row>
     <row r="81">
-      <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
     </row>
     <row r="82">
-      <c r="H82" s="18"/>
-      <c r="I82" s="18"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
     </row>
     <row r="83">
-      <c r="H83" s="18"/>
-      <c r="I83" s="18"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
     </row>
     <row r="84">
-      <c r="H84" s="18"/>
-      <c r="I84" s="18"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
     </row>
     <row r="85">
-      <c r="H85" s="18"/>
-      <c r="I85" s="18"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
     </row>
     <row r="86">
-      <c r="H86" s="18"/>
-      <c r="I86" s="18"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
     </row>
     <row r="87">
-      <c r="H87" s="18"/>
-      <c r="I87" s="18"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
     </row>
     <row r="88">
-      <c r="H88" s="18"/>
-      <c r="I88" s="18"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
     </row>
     <row r="89">
-      <c r="H89" s="18"/>
-      <c r="I89" s="18"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
     </row>
     <row r="90">
-      <c r="H90" s="18"/>
-      <c r="I90" s="18"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
     </row>
     <row r="91">
-      <c r="H91" s="18"/>
-      <c r="I91" s="18"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
     </row>
     <row r="92">
-      <c r="H92" s="18"/>
-      <c r="I92" s="18"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
     </row>
     <row r="93">
-      <c r="H93" s="18"/>
-      <c r="I93" s="18"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
     </row>
     <row r="94">
-      <c r="H94" s="18"/>
-      <c r="I94" s="18"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
     </row>
     <row r="95">
-      <c r="H95" s="18"/>
-      <c r="I95" s="18"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
     </row>
     <row r="96">
-      <c r="H96" s="18"/>
-      <c r="I96" s="18"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
     </row>
     <row r="97">
-      <c r="H97" s="18"/>
-      <c r="I97" s="18"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
     </row>
     <row r="98">
-      <c r="H98" s="18"/>
-      <c r="I98" s="18"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
     </row>
     <row r="99">
-      <c r="H99" s="18"/>
-      <c r="I99" s="18"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
     </row>
     <row r="100">
-      <c r="H100" s="18"/>
-      <c r="I100" s="18"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
     </row>
     <row r="101">
-      <c r="H101" s="18"/>
-      <c r="I101" s="18"/>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
     </row>
     <row r="102">
-      <c r="H102" s="18"/>
-      <c r="I102" s="18"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
     </row>
     <row r="103">
-      <c r="H103" s="18"/>
-      <c r="I103" s="18"/>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
     </row>
     <row r="104">
-      <c r="H104" s="18"/>
-      <c r="I104" s="18"/>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
     </row>
     <row r="105">
-      <c r="H105" s="18"/>
-      <c r="I105" s="18"/>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
     </row>
     <row r="106">
-      <c r="H106" s="18"/>
-      <c r="I106" s="18"/>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
     </row>
     <row r="107">
-      <c r="H107" s="18"/>
-      <c r="I107" s="18"/>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
     </row>
     <row r="108">
-      <c r="H108" s="18"/>
-      <c r="I108" s="18"/>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
     </row>
     <row r="109">
-      <c r="H109" s="18"/>
-      <c r="I109" s="18"/>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$I$68"/>
@@ -7743,16 +7736,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>258</v>
+        <v>303</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>260</v>
+        <v>304</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>261</v>
+        <v>306</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="F1" s="1"/>
     </row>
@@ -7761,16 +7754,16 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D2" s="2">
         <v>1.0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -7779,7 +7772,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="C3" s="2">
         <v>0.0</v>
@@ -7788,7 +7781,7 @@
         <v>0.0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4">
@@ -7796,16 +7789,16 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2">
         <v>0.0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5">
@@ -7813,16 +7806,16 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D5" s="2">
         <v>1.0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6">
@@ -7830,16 +7823,16 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>278</v>
+        <v>238</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="D6" s="2">
         <v>1.0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
@@ -7847,16 +7840,16 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2">
         <v>1.0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
@@ -7864,16 +7857,16 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D8" s="2">
         <v>1.0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9">
@@ -7881,16 +7874,16 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>262</v>
+        <v>219</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="D9" s="2">
         <v>1.0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10">
@@ -7898,16 +7891,16 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D10" s="2">
         <v>1.0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11">
@@ -7915,16 +7908,16 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>272</v>
+        <v>225</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="D11" s="2">
         <v>1.0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12">
@@ -7932,16 +7925,16 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D12" s="2">
         <v>1.0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -7967,25 +7960,25 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>131</v>
+      <c r="B1" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2">
       <c r="B2" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="D2" s="2">
         <v>0.0</v>
@@ -7993,10 +7986,10 @@
     </row>
     <row r="3">
       <c r="B3" s="2" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="D3" s="2">
         <v>1.0</v>
@@ -8004,10 +7997,10 @@
     </row>
     <row r="4">
       <c r="B4" s="2" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="D4" s="2">
         <v>1.0</v>
@@ -8015,10 +8008,10 @@
     </row>
     <row r="5">
       <c r="B5" s="2" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="D5" s="2">
         <v>1.0</v>
@@ -8026,10 +8019,10 @@
     </row>
     <row r="6">
       <c r="B6" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D6" s="2">
         <v>1.0</v>
@@ -8037,10 +8030,10 @@
     </row>
     <row r="7">
       <c r="B7" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>335</v>
       </c>
       <c r="D7" s="2">
         <v>1.0</v>
@@ -8051,327 +8044,327 @@
         <v>339</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="2" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="2" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="2" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="2" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="2" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="2" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="2" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="2" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="2" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="2" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="2" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="2" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="2" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="2" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="2" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="2" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="2" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="2" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="2" t="s">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="2" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="2" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="2" t="s">
-        <v>394</v>
+        <v>364</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="2" t="s">
-        <v>395</v>
+        <v>365</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="2" t="s">
-        <v>397</v>
+        <v>366</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="2" t="s">
-        <v>400</v>
+        <v>367</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" s="2" t="s">
-        <v>402</v>
+        <v>368</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="2" t="s">
-        <v>404</v>
+        <v>369</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="2" t="s">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" s="2" t="s">
-        <v>408</v>
+        <v>371</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="2" t="s">
-        <v>410</v>
+        <v>372</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="2" t="s">
-        <v>412</v>
+        <v>373</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" s="2" t="s">
-        <v>414</v>
+        <v>374</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" s="2" t="s">
-        <v>416</v>
+        <v>375</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" s="2" t="s">
-        <v>418</v>
+        <v>376</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" s="2" t="s">
-        <v>419</v>
+        <v>377</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" s="2" t="s">
-        <v>420</v>
+        <v>378</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" s="2" t="s">
-        <v>421</v>
+        <v>379</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
